--- a/src/data/TDE5_de-DE.xlsx
+++ b/src/data/TDE5_de-DE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="30" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3279" uniqueCount="2798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="2821">
   <si>
     <t>id</t>
   </si>
@@ -7198,9 +7198,6 @@
     <t>Der Tanz ist so gut, dass der Held mehr Applaus erhält.</t>
   </si>
   <si>
-    <t>Der Held bringt die Tanzschritte durcheinander.</t>
-  </si>
-  <si>
     <t>Die Aufmerksamkeit der Zuschauer fällt wegen des perfekten Tanzes auf den Helden. Für Qualitätsstufen, Vergleichs- und Sammelproben gilt: FP = doppelter FW.</t>
   </si>
   <si>
@@ -8438,6 +8435,78 @@
   </si>
   <si>
     <t>Geschwinder Schritt</t>
+  </si>
+  <si>
+    <t>attributeAdjustments</t>
+  </si>
+  <si>
+    <t>commonAdvantages</t>
+  </si>
+  <si>
+    <t>commonDisadvantages</t>
+  </si>
+  <si>
+    <t>uncommonAdvantages</t>
+  </si>
+  <si>
+    <t>uncommonDisadvantages</t>
+  </si>
+  <si>
+    <t>eine beliebige Eigenschaft nach Wahl +1</t>
+  </si>
+  <si>
+    <t>Emtfernungssinn, Kälteresistenz</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>castingtime</t>
+  </si>
+  <si>
+    <t>aecost</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>Das Talent *Sinnesschärfe* wird während der Wirkungsdauer um QS +3 des Zaubers erhöht.</t>
+  </si>
+  <si>
+    <t>2 Aktionen</t>
+  </si>
+  <si>
+    <t>4 AsP (Aktivierung des Zaubers) + 2 AsP pro 5 Minuten</t>
+  </si>
+  <si>
+    <t>selbst</t>
+  </si>
+  <si>
+    <t>aufrechterhaltend</t>
+  </si>
+  <si>
+    <t>Wesen</t>
+  </si>
+  <si>
+    <t>Der Verzauberte erleidet schmerzhafte Muskelschwäche. Während der Wirkungsdauer erleidet er den Zustand *Schmerz*.\n**QS 1:** 1 Stufe *Schmerz*, aber nur für 1 KR\n**QS 2:** 1 Stufe *Schmerz*\n**QS 3:** 2 Stufen *Schmerz*\n**QS 4:** 3 Stufen *Schmerz*\n**QS 5:** 4 Stufen *Schmerz*\n**QS 6:** 4 Stufen *Schmerz*, aber für die doppelte Wirkungsdauer.</t>
+  </si>
+  <si>
+    <t>16 AsP</t>
+  </si>
+  <si>
+    <t>8 Schritt</t>
+  </si>
+  <si>
+    <t>QS x 2 in Kampfrunden</t>
+  </si>
+  <si>
+    <t>Lebewesen</t>
   </si>
 </sst>
 </file>
@@ -8596,7 +8665,7 @@
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="95">
+  <dxfs count="112">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -8938,6 +9007,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -9208,6 +9298,36 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -9258,7 +9378,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Table Style 1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1">
-      <tableStyleElement type="headerRow" dxfId="94"/>
+      <tableStyleElement type="headerRow" dxfId="111"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -9622,20 +9742,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="A1:B10" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="A1:B10" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
   <autoFilter ref="A1:B10"/>
   <sortState ref="A2:B10">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="91"/>
-    <tableColumn id="2" name="name" dataDxfId="90"/>
+    <tableColumn id="1" name="id" dataDxfId="108"/>
+    <tableColumn id="2" name="name" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A1:B44" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:B44">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" name="id" dataDxfId="41"/>
+    <tableColumn id="2" name="name" dataDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:B193" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:B193">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -9649,7 +9783,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="A1:B13" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:B13">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -9663,7 +9797,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A1:J502" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:J502">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -9693,7 +9827,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:B111" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:B111">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -9707,7 +9841,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:D76">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -9725,7 +9859,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:B36" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:B36">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -9739,7 +9873,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:B466" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:B466">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -9753,7 +9887,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabelle9" displayName="Tabelle9" ref="A1:B484" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:B484">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -9771,21 +9905,47 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A1:B8" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A1:B8" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
   <autoFilter ref="A1:B8">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="87"/>
-    <tableColumn id="2" name="name" dataDxfId="86"/>
+    <tableColumn id="1" name="id" dataDxfId="104"/>
+    <tableColumn id="2" name="name" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:G95" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle18" displayName="Tabelle18" ref="A1:H13" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
+  <autoFilter ref="A1:H13">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="8">
+    <tableColumn id="1" name="id" dataDxfId="100"/>
+    <tableColumn id="2" name="name" dataDxfId="99"/>
+    <tableColumn id="3" name="attributeAdjustments" dataDxfId="98"/>
+    <tableColumn id="4" name="commonAdvantages" dataDxfId="97"/>
+    <tableColumn id="5" name="commonDisadvantages" dataDxfId="96"/>
+    <tableColumn id="6" name="uncommonAdvantages" dataDxfId="95"/>
+    <tableColumn id="7" name="uncommonDisadvantages" dataDxfId="94"/>
+    <tableColumn id="8" name="src" dataDxfId="93"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:G95" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="A1:G95">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9796,36 +9956,36 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="id" dataDxfId="83"/>
-    <tableColumn id="2" name="name" dataDxfId="82"/>
-    <tableColumn id="18" name="name_f" dataDxfId="81"/>
-    <tableColumn id="15" name="subname" dataDxfId="80"/>
-    <tableColumn id="19" name="subname_f" dataDxfId="79"/>
-    <tableColumn id="3" name="req" dataDxfId="78"/>
-    <tableColumn id="4" name="src" dataDxfId="77"/>
+    <tableColumn id="1" name="id" dataDxfId="90"/>
+    <tableColumn id="2" name="name" dataDxfId="89"/>
+    <tableColumn id="18" name="name_f" dataDxfId="88"/>
+    <tableColumn id="15" name="subname" dataDxfId="87"/>
+    <tableColumn id="19" name="subname_f" dataDxfId="86"/>
+    <tableColumn id="3" name="req" dataDxfId="85"/>
+    <tableColumn id="4" name="src" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A1:C1048576">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="id" dataDxfId="74"/>
-    <tableColumn id="2" name="name" dataDxfId="73"/>
-    <tableColumn id="9" name="name_f" dataDxfId="72"/>
+    <tableColumn id="1" name="id" dataDxfId="81"/>
+    <tableColumn id="2" name="name" dataDxfId="80"/>
+    <tableColumn id="9" name="name_f" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle8" displayName="Tabelle8" ref="A1:D76" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle8" displayName="Tabelle8" ref="A1:D76" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="A1:D76">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9833,17 +9993,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="id" dataDxfId="69"/>
-    <tableColumn id="2" name="name" dataDxfId="68"/>
-    <tableColumn id="6" name="sel" dataDxfId="67"/>
-    <tableColumn id="7" name="input" dataDxfId="66"/>
+    <tableColumn id="1" name="id" dataDxfId="76"/>
+    <tableColumn id="2" name="name" dataDxfId="75"/>
+    <tableColumn id="6" name="sel" dataDxfId="74"/>
+    <tableColumn id="7" name="input" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D72" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D72" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="A1:D72">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9851,17 +10011,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="id" dataDxfId="63"/>
-    <tableColumn id="2" name="name" dataDxfId="62"/>
-    <tableColumn id="6" name="sel" dataDxfId="61"/>
-    <tableColumn id="7" name="input" dataDxfId="60"/>
+    <tableColumn id="1" name="id" dataDxfId="70"/>
+    <tableColumn id="2" name="name" dataDxfId="69"/>
+    <tableColumn id="6" name="sel" dataDxfId="68"/>
+    <tableColumn id="7" name="input" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="A1:J60">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9878,46 +10038,39 @@
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="id" dataDxfId="57"/>
-    <tableColumn id="2" name="name" dataDxfId="56"/>
-    <tableColumn id="7" name="spec" dataDxfId="55"/>
-    <tableColumn id="8" name="spec_input" dataDxfId="54"/>
-    <tableColumn id="3" name="tools" dataDxfId="53"/>
-    <tableColumn id="4" name="quality" dataDxfId="52"/>
-    <tableColumn id="5" name="failed" dataDxfId="51"/>
-    <tableColumn id="6" name="critical" dataDxfId="50"/>
-    <tableColumn id="9" name="botch" dataDxfId="49"/>
-    <tableColumn id="10" name="src" dataDxfId="48"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:B1048576" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
-  <autoFilter ref="A1:B1048576">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="45"/>
-    <tableColumn id="2" name="name" dataDxfId="44"/>
+    <tableColumn id="1" name="id" dataDxfId="64"/>
+    <tableColumn id="2" name="name" dataDxfId="63"/>
+    <tableColumn id="7" name="spec" dataDxfId="62"/>
+    <tableColumn id="8" name="spec_input" dataDxfId="61"/>
+    <tableColumn id="3" name="tools" dataDxfId="60"/>
+    <tableColumn id="4" name="quality" dataDxfId="59"/>
+    <tableColumn id="5" name="failed" dataDxfId="58"/>
+    <tableColumn id="6" name="critical" dataDxfId="57"/>
+    <tableColumn id="9" name="botch" dataDxfId="56"/>
+    <tableColumn id="10" name="src" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A1:B44" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:B44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+  <autoFilter ref="A1:I1048576">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="41"/>
-    <tableColumn id="2" name="name" dataDxfId="40"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="id" dataDxfId="52"/>
+    <tableColumn id="2" name="name" dataDxfId="51"/>
+    <tableColumn id="3" name="effect" dataDxfId="50"/>
+    <tableColumn id="4" name="castingtime" dataDxfId="49"/>
+    <tableColumn id="5" name="aecost" dataDxfId="48"/>
+    <tableColumn id="6" name="range" dataDxfId="47"/>
+    <tableColumn id="7" name="duration" dataDxfId="46"/>
+    <tableColumn id="8" name="target" dataDxfId="45"/>
+    <tableColumn id="9" name="src" dataDxfId="44"/>
   </tableColumns>
-  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -10322,8 +10475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="E14" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10656,13 +10809,13 @@
         <v>2383</v>
       </c>
       <c r="G12" s="11" t="s">
+        <v>2380</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>2384</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="11" t="s">
         <v>2385</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>2386</v>
       </c>
       <c r="J12" s="10">
         <v>192</v>
@@ -10679,19 +10832,19 @@
         <v>2275</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>2387</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>2388</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>2389</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>2390</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>2391</v>
       </c>
       <c r="J13" s="10">
         <v>192</v>
@@ -10708,16 +10861,16 @@
         <v>2276</v>
       </c>
       <c r="F14" s="11" t="s">
+        <v>2391</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>2392</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>2393</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="I14" s="11" t="s">
         <v>2394</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>2395</v>
       </c>
       <c r="J14" s="10">
         <v>193</v>
@@ -10734,16 +10887,16 @@
         <v>2277</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>2395</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>2396</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>2397</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="11" t="s">
         <v>2398</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>2399</v>
       </c>
       <c r="J15" s="10">
         <v>193</v>
@@ -10760,16 +10913,16 @@
         <v>2278</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>2399</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>2400</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>2401</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>2402</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>2403</v>
       </c>
       <c r="J16" s="10">
         <v>194</v>
@@ -10786,16 +10939,16 @@
         <v>2279</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>2403</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>2404</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>2405</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>2406</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>2407</v>
       </c>
       <c r="J17" s="10">
         <v>195</v>
@@ -10812,16 +10965,16 @@
         <v>2280</v>
       </c>
       <c r="F18" s="11" t="s">
+        <v>2407</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>2408</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>2409</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>2410</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>2411</v>
       </c>
       <c r="J18" s="10">
         <v>195</v>
@@ -10838,16 +10991,16 @@
         <v>2281</v>
       </c>
       <c r="F19" s="11" t="s">
+        <v>2411</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>2412</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>2413</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="I19" s="11" t="s">
         <v>2414</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>2415</v>
       </c>
       <c r="J19" s="10">
         <v>196</v>
@@ -10864,16 +11017,16 @@
         <v>2282</v>
       </c>
       <c r="F20" s="11" t="s">
+        <v>2415</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>2416</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>2417</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>2418</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>2419</v>
       </c>
       <c r="J20" s="10">
         <v>196</v>
@@ -10890,16 +11043,16 @@
         <v>2283</v>
       </c>
       <c r="F21" s="11" t="s">
+        <v>2419</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>2420</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>2421</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>2422</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>2423</v>
       </c>
       <c r="J21" s="10">
         <v>197</v>
@@ -11529,10 +11682,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B234"/>
+  <dimension ref="A1:I234"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="E224" sqref="E224"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11542,23 +11695,65 @@
     <col min="3" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="3" t="s">
+        <v>2804</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2805</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2806</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2807</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2808</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2809</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C2" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="I2" s="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -11566,7 +11761,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -11574,7 +11769,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -11582,7 +11777,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -11590,7 +11785,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -11598,7 +11793,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -11606,7 +11801,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -11614,15 +11809,36 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C10" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="I10" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -11630,7 +11846,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -11638,7 +11854,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -11646,7 +11862,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -11654,7 +11870,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -11662,7 +11878,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -13019,7 +13235,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
@@ -13027,7 +13243,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
@@ -13035,7 +13251,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
@@ -13043,7 +13259,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
@@ -13051,7 +13267,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
@@ -13059,7 +13275,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
@@ -13067,7 +13283,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
@@ -13075,7 +13291,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
@@ -13083,7 +13299,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
@@ -13091,7 +13307,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
@@ -13099,7 +13315,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
@@ -13107,7 +13323,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
@@ -13115,7 +13331,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
@@ -13123,7 +13339,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
@@ -13131,7 +13347,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
@@ -13139,7 +13355,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
@@ -13147,7 +13363,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.45">
@@ -13155,7 +13371,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.45">
@@ -13163,7 +13379,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.45">
@@ -13171,7 +13387,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
@@ -13179,7 +13395,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
@@ -13187,7 +13403,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
@@ -13195,7 +13411,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.45">
@@ -13203,7 +13419,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.45">
@@ -13211,7 +13427,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.45">
@@ -13219,7 +13435,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.45">
@@ -13227,7 +13443,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.45">
@@ -13235,7 +13451,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.45">
@@ -13243,7 +13459,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.45">
@@ -13251,7 +13467,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.45">
@@ -13259,7 +13475,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.45">
@@ -13267,7 +13483,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.45">
@@ -13275,7 +13491,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.45">
@@ -13283,7 +13499,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.45">
@@ -13291,7 +13507,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.45">
@@ -13299,7 +13515,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.45">
@@ -13307,7 +13523,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.45">
@@ -13315,7 +13531,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.45">
@@ -13323,7 +13539,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.45">
@@ -13331,7 +13547,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.45">
@@ -13339,7 +13555,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.45">
@@ -13347,7 +13563,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.45">
@@ -13355,7 +13571,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="12" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.45">
@@ -13363,7 +13579,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.45">
@@ -13371,7 +13587,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.45">
@@ -13379,7 +13595,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.45">
@@ -13387,7 +13603,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.45">
@@ -13395,7 +13611,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.45">
@@ -13403,7 +13619,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.45">
@@ -13411,7 +13627,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
   </sheetData>
@@ -13801,8 +14017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="E181" sqref="E181"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14145,7 +14361,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -14153,7 +14369,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -14161,7 +14377,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -14169,7 +14385,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -14177,7 +14393,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -14185,7 +14401,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -14193,7 +14409,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -14201,7 +14417,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -14209,7 +14425,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -14217,7 +14433,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -14225,7 +14441,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -14233,7 +14449,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -14241,7 +14457,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -14249,7 +14465,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -14257,7 +14473,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -14265,7 +14481,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -14273,7 +14489,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -14281,7 +14497,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -14289,7 +14505,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -14297,7 +14513,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -14305,7 +14521,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -14313,7 +14529,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -14321,7 +14537,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -14329,7 +14545,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -14337,7 +14553,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -14345,7 +14561,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -14353,7 +14569,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -14361,7 +14577,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
@@ -14369,7 +14585,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
@@ -14377,7 +14593,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
@@ -14385,7 +14601,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -14393,7 +14609,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
@@ -14401,7 +14617,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
@@ -14409,7 +14625,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
@@ -14417,7 +14633,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
@@ -14425,7 +14641,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -14433,7 +14649,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -14441,7 +14657,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
@@ -14449,7 +14665,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
@@ -14457,7 +14673,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -14465,7 +14681,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
@@ -14473,7 +14689,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -14481,7 +14697,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
@@ -14489,7 +14705,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
@@ -14497,7 +14713,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
@@ -14505,7 +14721,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -14513,7 +14729,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -14521,7 +14737,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
@@ -14529,7 +14745,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
@@ -14537,7 +14753,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -14545,7 +14761,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
@@ -14553,7 +14769,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
@@ -14561,7 +14777,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -14569,7 +14785,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -14577,7 +14793,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
@@ -14585,7 +14801,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
@@ -14593,7 +14809,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
@@ -14601,7 +14817,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
@@ -14609,7 +14825,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
@@ -14617,7 +14833,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
@@ -14625,7 +14841,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -14633,7 +14849,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
@@ -14641,7 +14857,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -14649,7 +14865,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
@@ -14657,7 +14873,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
@@ -14665,7 +14881,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
@@ -14673,7 +14889,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
@@ -14681,7 +14897,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
@@ -14689,7 +14905,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -14697,7 +14913,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -14705,7 +14921,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -14713,7 +14929,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -14721,7 +14937,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -14729,7 +14945,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -14737,7 +14953,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -14745,7 +14961,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -14753,7 +14969,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
@@ -14761,7 +14977,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -14769,7 +14985,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
@@ -14777,7 +14993,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
@@ -14785,7 +15001,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
@@ -14793,7 +15009,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
@@ -14801,7 +15017,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
@@ -14809,7 +15025,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
@@ -14817,7 +15033,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
@@ -14825,7 +15041,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
@@ -14833,7 +15049,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
@@ -14841,7 +15057,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
@@ -14849,7 +15065,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
@@ -14857,7 +15073,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
@@ -14865,7 +15081,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
@@ -14873,7 +15089,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
@@ -14881,7 +15097,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
@@ -14889,7 +15105,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
@@ -14897,7 +15113,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
@@ -14905,7 +15121,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
@@ -14913,7 +15129,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
@@ -14921,7 +15137,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
@@ -14929,7 +15145,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
@@ -14937,7 +15153,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
@@ -14945,7 +15161,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
@@ -14953,7 +15169,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
@@ -14961,7 +15177,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
@@ -14969,7 +15185,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
@@ -14977,7 +15193,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
@@ -14985,7 +15201,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
@@ -14993,7 +15209,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
@@ -15001,7 +15217,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
@@ -15009,7 +15225,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
@@ -15017,7 +15233,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
@@ -15025,7 +15241,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
@@ -15033,7 +15249,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
@@ -15041,7 +15257,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
@@ -15049,7 +15265,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
@@ -15057,7 +15273,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
@@ -15065,7 +15281,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
@@ -15073,7 +15289,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
@@ -15081,7 +15297,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
@@ -15089,7 +15305,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
@@ -15097,7 +15313,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
@@ -15105,7 +15321,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
@@ -15113,7 +15329,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
@@ -15121,7 +15337,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
@@ -15129,7 +15345,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
@@ -15137,7 +15353,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
@@ -15145,7 +15361,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
@@ -15153,7 +15369,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
@@ -15161,7 +15377,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
@@ -15169,7 +15385,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
@@ -15177,7 +15393,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
@@ -15185,7 +15401,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
@@ -15193,7 +15409,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
@@ -15201,7 +15417,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
@@ -15209,7 +15425,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
@@ -15217,7 +15433,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
@@ -15225,7 +15441,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
@@ -15233,7 +15449,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
@@ -15241,7 +15457,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
@@ -15249,7 +15465,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
@@ -15257,7 +15473,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
@@ -15265,7 +15481,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
@@ -15273,7 +15489,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
@@ -15281,7 +15497,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
@@ -15289,7 +15505,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
@@ -15297,7 +15513,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
@@ -15305,7 +15521,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
@@ -15321,7 +15537,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
@@ -15329,7 +15545,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
@@ -15337,7 +15553,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
@@ -15345,7 +15561,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
@@ -15353,7 +15569,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
   </sheetData>
@@ -16251,7 +16467,7 @@
         <v>445</v>
       </c>
       <c r="C87" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
@@ -16390,7 +16606,7 @@
         <v>445</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
@@ -16401,7 +16617,7 @@
         <v>488</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="D104" s="5"/>
     </row>
@@ -17669,7 +17885,7 @@
         <v>1633</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.45">
@@ -19472,7 +19688,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.45">
@@ -19480,7 +19696,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.45">
@@ -19488,7 +19704,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.45">
@@ -19496,7 +19712,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.45">
@@ -19504,7 +19720,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.45">
@@ -19512,7 +19728,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.45">
@@ -19520,7 +19736,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.45">
@@ -19528,7 +19744,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.45">
@@ -19536,7 +19752,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.45">
@@ -19544,7 +19760,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.45">
@@ -19552,7 +19768,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.45">
@@ -19560,7 +19776,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.45">
@@ -19568,7 +19784,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.45">
@@ -19576,7 +19792,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.45">
@@ -19584,7 +19800,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.45">
@@ -19592,7 +19808,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="12" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
   </sheetData>
@@ -29233,7 +29449,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="18" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.45">
@@ -29241,7 +29457,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="18" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.45">
@@ -29249,7 +29465,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="18" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.45">
@@ -29257,7 +29473,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="18" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.45">
@@ -29265,7 +29481,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="18" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.45">
@@ -29281,7 +29497,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="18" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.45">
@@ -29297,7 +29513,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="18" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.45">
@@ -29305,7 +29521,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="18" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
   </sheetData>
@@ -29319,10 +29535,180 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="H2" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -29345,7 +29731,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -29353,7 +29739,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -29361,7 +29747,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -29369,7 +29755,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -29377,7 +29763,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -29385,7 +29771,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -29393,7 +29779,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -29401,7 +29787,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -29409,7 +29795,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -29417,7 +29803,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -29425,7 +29811,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -29433,131 +29819,6 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="2.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -29670,7 +29931,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
   </sheetData>
@@ -29685,8 +29946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -30635,7 +30896,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
@@ -30650,13 +30911,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="G59" s="12">
         <v>179</v>
@@ -30673,10 +30934,10 @@
         <v>751</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="12">
@@ -30694,11 +30955,11 @@
         <v>751</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="18" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="G61" s="12">
         <v>181</v>
@@ -30715,10 +30976,10 @@
         <v>751</v>
       </c>
       <c r="D62" s="18" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E62" s="18" t="s">
         <v>2488</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>2489</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="12">
@@ -30736,10 +30997,10 @@
         <v>751</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="12">
@@ -30757,11 +31018,11 @@
         <v>273</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="E64" s="18"/>
       <c r="F64" s="18" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="G64" s="12">
         <v>184</v>
@@ -30778,7 +31039,7 @@
         <v>273</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="18"/>
@@ -30797,7 +31058,7 @@
         <v>273</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="E66" s="18"/>
       <c r="F66" s="18"/>
@@ -30816,7 +31077,7 @@
         <v>273</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
@@ -30835,7 +31096,7 @@
         <v>273</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
@@ -30873,7 +31134,7 @@
         <v>273</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="E70" s="18"/>
       <c r="F70" s="18"/>
@@ -30886,7 +31147,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -30901,10 +31162,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C72" s="18" t="s">
         <v>2472</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>2473</v>
       </c>
       <c r="D72" s="18"/>
       <c r="E72" s="18"/>
@@ -30918,7 +31179,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
@@ -30933,13 +31194,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
       <c r="F74" s="18" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="G74" s="12">
         <v>194</v>
@@ -30950,7 +31211,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
@@ -30965,7 +31226,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
@@ -30980,10 +31241,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="18" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C77" s="18" t="s">
         <v>2478</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>2479</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="18"/>
@@ -31003,7 +31264,7 @@
         <v>272</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="18"/>
@@ -31022,10 +31283,10 @@
         <v>272</v>
       </c>
       <c r="D79" s="18" t="s">
+        <v>2500</v>
+      </c>
+      <c r="E79" s="18" t="s">
         <v>2501</v>
-      </c>
-      <c r="E79" s="18" t="s">
-        <v>2502</v>
       </c>
       <c r="F79" s="18"/>
       <c r="G79" s="12">
@@ -31056,7 +31317,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
@@ -31077,7 +31338,7 @@
         <v>752</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="17" t="s">
@@ -31098,13 +31359,13 @@
         <v>752</v>
       </c>
       <c r="D83" s="18" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E83" s="18" t="s">
         <v>2524</v>
       </c>
-      <c r="E83" s="18" t="s">
-        <v>2525</v>
-      </c>
       <c r="F83" s="18" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="G83" s="12">
         <v>204</v>
@@ -31121,7 +31382,7 @@
         <v>752</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="E84" s="18"/>
       <c r="F84" s="18"/>
@@ -31134,10 +31395,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="18" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C85" s="18" t="s">
         <v>2481</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>2482</v>
       </c>
       <c r="D85" s="18"/>
       <c r="E85" s="18"/>
@@ -31151,10 +31412,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="18" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C86" s="18" t="s">
         <v>2483</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>2484</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="18"/>
@@ -31168,10 +31429,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="18" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C87" s="18" t="s">
         <v>2485</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>2486</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="18"/>
@@ -31185,16 +31446,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="18" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C88" s="18" t="s">
         <v>2519</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="D88" s="18" t="s">
+        <v>2516</v>
+      </c>
+      <c r="E88" s="18" t="s">
         <v>2520</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>2517</v>
-      </c>
-      <c r="E88" s="18" t="s">
-        <v>2521</v>
       </c>
       <c r="F88" s="18"/>
       <c r="G88" s="18">
@@ -31206,16 +31467,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="18" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C89" s="18" t="s">
         <v>2519</v>
       </c>
-      <c r="C89" s="18" t="s">
-        <v>2520</v>
-      </c>
       <c r="D89" s="18" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="18">
@@ -31233,7 +31494,7 @@
         <v>273</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="E90" s="18"/>
       <c r="F90" s="18"/>
@@ -31252,7 +31513,7 @@
         <v>752</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="E91" s="18"/>
       <c r="F91" s="18"/>
@@ -31265,13 +31526,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="E92" s="18"/>
       <c r="F92" s="18"/>
@@ -31284,13 +31545,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="18" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C93" s="18" t="s">
         <v>2512</v>
       </c>
-      <c r="C93" s="18" t="s">
-        <v>2513</v>
-      </c>
       <c r="D93" s="18" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="E93" s="18"/>
       <c r="F93" s="18"/>
@@ -31303,13 +31564,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="E94" s="18"/>
       <c r="F94" s="18"/>
@@ -31322,16 +31583,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="C95" s="18" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>2507</v>
+      </c>
+      <c r="E95" s="18" t="s">
         <v>2514</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>2508</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>2515</v>
       </c>
       <c r="F95" s="18"/>
       <c r="G95" s="18">
@@ -32678,10 +32939,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="18" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C120" s="18" t="s">
         <v>2527</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>2528</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
@@ -32689,10 +32950,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="18" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C121" s="18" t="s">
         <v>2529</v>
-      </c>
-      <c r="C121" s="18" t="s">
-        <v>2530</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
@@ -32700,10 +32961,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="18" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C122" s="18" t="s">
         <v>2531</v>
-      </c>
-      <c r="C122" s="18" t="s">
-        <v>2532</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
@@ -32722,10 +32983,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="18" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C124" s="18" t="s">
         <v>2533</v>
-      </c>
-      <c r="C124" s="18" t="s">
-        <v>2534</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
@@ -32733,10 +32994,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="18" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C125" s="18" t="s">
         <v>2535</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>2536</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
@@ -32744,10 +33005,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="18" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C126" s="18" t="s">
         <v>2537</v>
-      </c>
-      <c r="C126" s="18" t="s">
-        <v>2538</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
@@ -32755,7 +33016,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="C127" s="18"/>
     </row>
@@ -32764,7 +33025,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="C128" s="18"/>
     </row>
@@ -32773,7 +33034,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="C129" s="18"/>
     </row>
@@ -32782,7 +33043,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="C130" s="18"/>
     </row>
@@ -32791,7 +33052,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="C131" s="18"/>
     </row>
@@ -32800,7 +33061,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="C132" s="18"/>
     </row>
@@ -32809,7 +33070,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="C133" s="18"/>
     </row>
@@ -32818,7 +33079,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="C134" s="18"/>
     </row>
@@ -32827,10 +33088,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
@@ -32838,10 +33099,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
@@ -32849,7 +33110,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="C137" s="18"/>
     </row>
@@ -32858,7 +33119,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="C138" s="18"/>
     </row>
@@ -32867,7 +33128,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="C139" s="18"/>
     </row>
@@ -32876,7 +33137,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="C140" s="18"/>
     </row>
@@ -32885,7 +33146,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="C141" s="18"/>
     </row>
@@ -32894,7 +33155,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="C142" s="18"/>
     </row>
@@ -32903,7 +33164,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="C143" s="18"/>
     </row>
@@ -32912,7 +33173,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="C144" s="18"/>
     </row>
@@ -32921,10 +33182,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
@@ -32932,10 +33193,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
@@ -32943,7 +33204,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="C147" s="18"/>
     </row>
@@ -32952,7 +33213,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="18" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="C148" s="18"/>
     </row>
@@ -32961,7 +33222,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="C149" s="18"/>
     </row>
@@ -32970,7 +33231,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="18" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="C150" s="18"/>
     </row>
@@ -32979,7 +33240,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="C151" s="18"/>
     </row>
@@ -32988,7 +33249,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="C152" s="18"/>
     </row>
@@ -32997,7 +33258,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="C153" s="18"/>
     </row>
@@ -33006,7 +33267,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="18" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="C154" s="18"/>
     </row>
@@ -33015,7 +33276,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="C155" s="18"/>
     </row>
@@ -33024,7 +33285,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="C156" s="18"/>
     </row>
@@ -33033,7 +33294,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="C157" s="18"/>
     </row>
@@ -33042,7 +33303,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="C158" s="18"/>
     </row>
@@ -33051,7 +33312,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="C159" s="18"/>
     </row>
@@ -33060,7 +33321,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="C160" s="18"/>
     </row>
@@ -33069,10 +33330,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="18" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="C161" s="18" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.45">
@@ -33080,7 +33341,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="C162" s="18"/>
     </row>
@@ -33581,7 +33842,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -33589,7 +33850,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -33597,7 +33858,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -33605,7 +33866,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -33613,7 +33874,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -33621,7 +33882,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -33629,7 +33890,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -33637,7 +33898,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
@@ -33645,7 +33906,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
@@ -33653,7 +33914,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
@@ -33661,7 +33922,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
@@ -33669,7 +33930,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
@@ -33677,13 +33938,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
@@ -33691,7 +33952,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
@@ -33699,7 +33960,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
@@ -33707,7 +33968,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
@@ -33715,7 +33976,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
@@ -33723,7 +33984,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
@@ -33731,7 +33992,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
@@ -33739,7 +34000,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
   </sheetData>
@@ -34338,7 +34599,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -34346,7 +34607,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -34354,7 +34615,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -34362,7 +34623,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -34370,7 +34631,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
@@ -34378,7 +34639,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
@@ -34386,7 +34647,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
@@ -34394,7 +34655,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/TDE5_de-DE.xlsx
+++ b/src/data/TDE5_de-DE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="30" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="2821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3360" uniqueCount="2845">
   <si>
     <t>id</t>
   </si>
@@ -8455,9 +8455,6 @@
     <t>eine beliebige Eigenschaft nach Wahl +1</t>
   </si>
   <si>
-    <t>Emtfernungssinn, Kälteresistenz</t>
-  </si>
-  <si>
     <t>effect</t>
   </si>
   <si>
@@ -8507,6 +8504,92 @@
   </si>
   <si>
     <t>Lebewesen</t>
+  </si>
+  <si>
+    <t>automaticAdvantages</t>
+  </si>
+  <si>
+    <t>stronglyRecommendedAdvantages</t>
+  </si>
+  <si>
+    <t>stronglyRecommendedDisadvantages</t>
+  </si>
+  <si>
+    <t>Entfernungssinn, Kälteresistenz</t>
+  </si>
+  <si>
+    <t>Hohe Zähigkeit, Zäher Hund</t>
+  </si>
+  <si>
+    <t>Blutrausch, Niedrige Seelenkraft</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Angenehmer Geruch, Hitzeresistenz, Immunität gegen Wurara, Immunität gegen Flinken Difar und Brabaker </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Schweiß</t>
+    </r>
+  </si>
+  <si>
+    <t>IN und GE +1; KL oder KK -2</t>
+  </si>
+  <si>
+    <t>Zauberer, Zweistimmiger Gesang</t>
+  </si>
+  <si>
+    <t>Altersresistenz, Dunkelsicht I, Nichtschläfer</t>
+  </si>
+  <si>
+    <t>Sensibler Geruchssinn, Unfähig (Zechen)</t>
+  </si>
+  <si>
+    <t>Begabung (Singen, Musizieren), Beidhändig, Dunkelsicht II, Flink, Giftresistenz, Gutaussehend, Herausragender Sinn (Gehör und Sicht), Immunität gegen (Schwarze Wut, Tollwut, Lykanthropie), Krankheitsresistenz, Richtungssinn, Schlangenmensch, Verbesserte Regeneration (Astralenergie), Wohlklang</t>
+  </si>
+  <si>
+    <t>Körpergebundene Kraft, Lästige Mindergeister, Wahrer Name</t>
+  </si>
+  <si>
+    <t>Hitzeresistenz, Schwer zu verzaubern, Zwergennase</t>
+  </si>
+  <si>
+    <t>Blutrausch, Eingeschränkter Sinn, Fettleibig, Nachtblind</t>
+  </si>
+  <si>
+    <t>Begabung (Singen, Musizieren), Beidhändig, Dunkelsicht I, Flink, Gutaussehend, Herausragender Sinn (Gehör und Sicht), Schlangenmensch, Wohlklang, Zauberer, Zweistimmiger Gesang</t>
+  </si>
+  <si>
+    <t>Sensibler Geruchssinn, Wahrer Name</t>
+  </si>
+  <si>
+    <t>Schwer zu verzaubern, Zwergennase</t>
+  </si>
+  <si>
+    <t>Blutrausch, Fettleibig, Krankheitsanfällig</t>
+  </si>
+  <si>
+    <t>KO und KK +1; CH oder GE -2</t>
+  </si>
+  <si>
+    <t>Dunkelsicht I, Immunität gegen Tulmadron</t>
+  </si>
+  <si>
+    <t>Unfähig (Schwimmen)</t>
+  </si>
+  <si>
+    <t>Dunkelsicht II, Hitzeresistenz, Hohe Zähigkeit, Krankheitsresistenz, Richtungssinn, Schwer zu verzaubern, Zäher Hund, Zwergennase</t>
+  </si>
+  <si>
+    <t>Schlangenmensch, Wohlklang, Zauberer</t>
+  </si>
+  <si>
+    <t>Hitzeempfindlich, Nachtblind, Niedrige Seelenkraft, Niedrige Zähigkeit, Zerbrechlich</t>
   </si>
 </sst>
 </file>
@@ -8603,7 +8686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -8660,12 +8743,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="112">
+  <dxfs count="115">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -9310,24 +9423,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -9378,7 +9473,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Table Style 1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1">
-      <tableStyleElement type="headerRow" dxfId="111"/>
+      <tableStyleElement type="headerRow" dxfId="114"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -9742,63 +9837,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="A1:B10" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="A1:B10" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
   <autoFilter ref="A1:B10"/>
   <sortState ref="A2:B10">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="108"/>
-    <tableColumn id="2" name="name" dataDxfId="107"/>
+    <tableColumn id="1" name="id" dataDxfId="111"/>
+    <tableColumn id="2" name="name" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A1:B44" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A1:B44" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A1:B44">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="41"/>
-    <tableColumn id="2" name="name" dataDxfId="40"/>
+    <tableColumn id="1" name="id" dataDxfId="50"/>
+    <tableColumn id="2" name="name" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:B193" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:B193" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A1:B193">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="37"/>
-    <tableColumn id="2" name="name" dataDxfId="36"/>
+    <tableColumn id="1" name="id" dataDxfId="46"/>
+    <tableColumn id="2" name="name" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="A1:B13" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="A1:B13" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A1:B13">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="33"/>
-    <tableColumn id="2" name="name" dataDxfId="32"/>
+    <tableColumn id="1" name="id" dataDxfId="42"/>
+    <tableColumn id="2" name="name" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A1:J502" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A1:J502" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:J502">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9812,37 +9907,37 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="id" dataDxfId="29"/>
-    <tableColumn id="2" name="name" dataDxfId="28"/>
-    <tableColumn id="6" name="sel" dataDxfId="27"/>
-    <tableColumn id="7" name="input" dataDxfId="26"/>
-    <tableColumn id="3" name="Column1" dataDxfId="25"/>
-    <tableColumn id="4" name="Column2" dataDxfId="24"/>
-    <tableColumn id="5" name="Column3" dataDxfId="23"/>
-    <tableColumn id="8" name="Column4" dataDxfId="22"/>
-    <tableColumn id="9" name="Column5" dataDxfId="21"/>
-    <tableColumn id="10" name="Column6" dataDxfId="20"/>
+    <tableColumn id="1" name="id" dataDxfId="38"/>
+    <tableColumn id="2" name="name" dataDxfId="37"/>
+    <tableColumn id="6" name="sel" dataDxfId="36"/>
+    <tableColumn id="7" name="input" dataDxfId="35"/>
+    <tableColumn id="3" name="Column1" dataDxfId="34"/>
+    <tableColumn id="4" name="Column2" dataDxfId="33"/>
+    <tableColumn id="5" name="Column3" dataDxfId="32"/>
+    <tableColumn id="8" name="Column4" dataDxfId="31"/>
+    <tableColumn id="9" name="Column5" dataDxfId="30"/>
+    <tableColumn id="10" name="Column6" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:B111" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:B111" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:B111">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="17"/>
-    <tableColumn id="2" name="name" dataDxfId="16"/>
+    <tableColumn id="1" name="id" dataDxfId="26"/>
+    <tableColumn id="2" name="name" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:D76">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9850,45 +9945,45 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="id" dataDxfId="13"/>
-    <tableColumn id="2" name="name" dataDxfId="12"/>
-    <tableColumn id="3" name="spec" dataDxfId="11"/>
-    <tableColumn id="4" name="specInput" dataDxfId="10"/>
+    <tableColumn id="1" name="id" dataDxfId="22"/>
+    <tableColumn id="2" name="name" dataDxfId="21"/>
+    <tableColumn id="3" name="spec" dataDxfId="20"/>
+    <tableColumn id="4" name="specInput" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:B36" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:B36" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:B36">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="7"/>
-    <tableColumn id="2" name="name" dataDxfId="6"/>
+    <tableColumn id="1" name="id" dataDxfId="16"/>
+    <tableColumn id="2" name="name" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:B466" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:B466" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A1:B466">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="4"/>
-    <tableColumn id="2" name="name" dataDxfId="3" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="1" name="id" dataDxfId="13"/>
+    <tableColumn id="2" name="name" dataDxfId="12" dataCellStyle="Excel Built-in Normal"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabelle9" displayName="Tabelle9" ref="A1:B484" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabelle9" displayName="Tabelle9" ref="A1:B484" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:B484">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9897,30 +9992,30 @@
     <sortCondition ref="A1:A474"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="1"/>
-    <tableColumn id="2" name="name" dataDxfId="0"/>
+    <tableColumn id="1" name="id" dataDxfId="10"/>
+    <tableColumn id="2" name="name" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A1:B8" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A1:B8" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="A1:B8">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="104"/>
-    <tableColumn id="2" name="name" dataDxfId="103"/>
+    <tableColumn id="1" name="id" dataDxfId="107"/>
+    <tableColumn id="2" name="name" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle18" displayName="Tabelle18" ref="A1:H13" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
-  <autoFilter ref="A1:H13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle18" displayName="Tabelle18" ref="A1:K13" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
+  <autoFilter ref="A1:K13">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -9930,22 +10025,25 @@
     <filterColumn colId="6" hiddenButton="1"/>
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="8">
-    <tableColumn id="1" name="id" dataDxfId="100"/>
-    <tableColumn id="2" name="name" dataDxfId="99"/>
-    <tableColumn id="3" name="attributeAdjustments" dataDxfId="98"/>
-    <tableColumn id="4" name="commonAdvantages" dataDxfId="97"/>
-    <tableColumn id="5" name="commonDisadvantages" dataDxfId="96"/>
-    <tableColumn id="6" name="uncommonAdvantages" dataDxfId="95"/>
-    <tableColumn id="7" name="uncommonDisadvantages" dataDxfId="94"/>
-    <tableColumn id="8" name="src" dataDxfId="93"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="id" dataDxfId="103"/>
+    <tableColumn id="2" name="name" dataDxfId="102"/>
+    <tableColumn id="3" name="attributeAdjustments" dataDxfId="8"/>
+    <tableColumn id="4" name="automaticAdvantages" dataDxfId="7"/>
+    <tableColumn id="5" name="stronglyRecommendedAdvantages" dataDxfId="6"/>
+    <tableColumn id="6" name="stronglyRecommendedDisadvantages" dataDxfId="5"/>
+    <tableColumn id="7" name="commonAdvantages" dataDxfId="4"/>
+    <tableColumn id="8" name="commonDisadvantages" dataDxfId="3"/>
+    <tableColumn id="9" name="uncommonAdvantages" dataDxfId="2"/>
+    <tableColumn id="10" name="uncommonDisadvantages" dataDxfId="1"/>
+    <tableColumn id="11" name="src" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:G95" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:G95" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <autoFilter ref="A1:G95">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9956,36 +10054,36 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="id" dataDxfId="90"/>
-    <tableColumn id="2" name="name" dataDxfId="89"/>
-    <tableColumn id="18" name="name_f" dataDxfId="88"/>
-    <tableColumn id="15" name="subname" dataDxfId="87"/>
-    <tableColumn id="19" name="subname_f" dataDxfId="86"/>
-    <tableColumn id="3" name="req" dataDxfId="85"/>
-    <tableColumn id="4" name="src" dataDxfId="84"/>
+    <tableColumn id="1" name="id" dataDxfId="99"/>
+    <tableColumn id="2" name="name" dataDxfId="98"/>
+    <tableColumn id="18" name="name_f" dataDxfId="97"/>
+    <tableColumn id="15" name="subname" dataDxfId="96"/>
+    <tableColumn id="19" name="subname_f" dataDxfId="95"/>
+    <tableColumn id="3" name="req" dataDxfId="94"/>
+    <tableColumn id="4" name="src" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="A1:C1048576">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="id" dataDxfId="81"/>
-    <tableColumn id="2" name="name" dataDxfId="80"/>
-    <tableColumn id="9" name="name_f" dataDxfId="79"/>
+    <tableColumn id="1" name="id" dataDxfId="90"/>
+    <tableColumn id="2" name="name" dataDxfId="89"/>
+    <tableColumn id="9" name="name_f" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle8" displayName="Tabelle8" ref="A1:D76" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle8" displayName="Tabelle8" ref="A1:D76" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
   <autoFilter ref="A1:D76">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9993,17 +10091,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="id" dataDxfId="76"/>
-    <tableColumn id="2" name="name" dataDxfId="75"/>
-    <tableColumn id="6" name="sel" dataDxfId="74"/>
-    <tableColumn id="7" name="input" dataDxfId="73"/>
+    <tableColumn id="1" name="id" dataDxfId="85"/>
+    <tableColumn id="2" name="name" dataDxfId="84"/>
+    <tableColumn id="6" name="sel" dataDxfId="83"/>
+    <tableColumn id="7" name="input" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D72" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D72" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
   <autoFilter ref="A1:D72">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10011,17 +10109,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="id" dataDxfId="70"/>
-    <tableColumn id="2" name="name" dataDxfId="69"/>
-    <tableColumn id="6" name="sel" dataDxfId="68"/>
-    <tableColumn id="7" name="input" dataDxfId="67"/>
+    <tableColumn id="1" name="id" dataDxfId="79"/>
+    <tableColumn id="2" name="name" dataDxfId="78"/>
+    <tableColumn id="6" name="sel" dataDxfId="77"/>
+    <tableColumn id="7" name="input" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <autoFilter ref="A1:J60">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10038,37 +10136,37 @@
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="id" dataDxfId="64"/>
-    <tableColumn id="2" name="name" dataDxfId="63"/>
-    <tableColumn id="7" name="spec" dataDxfId="62"/>
-    <tableColumn id="8" name="spec_input" dataDxfId="61"/>
-    <tableColumn id="3" name="tools" dataDxfId="60"/>
-    <tableColumn id="4" name="quality" dataDxfId="59"/>
-    <tableColumn id="5" name="failed" dataDxfId="58"/>
-    <tableColumn id="6" name="critical" dataDxfId="57"/>
-    <tableColumn id="9" name="botch" dataDxfId="56"/>
-    <tableColumn id="10" name="src" dataDxfId="55"/>
+    <tableColumn id="1" name="id" dataDxfId="73"/>
+    <tableColumn id="2" name="name" dataDxfId="72"/>
+    <tableColumn id="7" name="spec" dataDxfId="71"/>
+    <tableColumn id="8" name="spec_input" dataDxfId="70"/>
+    <tableColumn id="3" name="tools" dataDxfId="69"/>
+    <tableColumn id="4" name="quality" dataDxfId="68"/>
+    <tableColumn id="5" name="failed" dataDxfId="67"/>
+    <tableColumn id="6" name="critical" dataDxfId="66"/>
+    <tableColumn id="9" name="botch" dataDxfId="65"/>
+    <tableColumn id="10" name="src" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="A1:I1048576">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="id" dataDxfId="52"/>
-    <tableColumn id="2" name="name" dataDxfId="51"/>
-    <tableColumn id="3" name="effect" dataDxfId="50"/>
-    <tableColumn id="4" name="castingtime" dataDxfId="49"/>
-    <tableColumn id="5" name="aecost" dataDxfId="48"/>
-    <tableColumn id="6" name="range" dataDxfId="47"/>
-    <tableColumn id="7" name="duration" dataDxfId="46"/>
-    <tableColumn id="8" name="target" dataDxfId="45"/>
-    <tableColumn id="9" name="src" dataDxfId="44"/>
+    <tableColumn id="1" name="id" dataDxfId="61"/>
+    <tableColumn id="2" name="name" dataDxfId="60"/>
+    <tableColumn id="3" name="effect" dataDxfId="59"/>
+    <tableColumn id="4" name="castingtime" dataDxfId="58"/>
+    <tableColumn id="5" name="aecost" dataDxfId="57"/>
+    <tableColumn id="6" name="range" dataDxfId="56"/>
+    <tableColumn id="7" name="duration" dataDxfId="55"/>
+    <tableColumn id="8" name="target" dataDxfId="54"/>
+    <tableColumn id="9" name="src" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10475,8 +10573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11703,22 +11801,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>2803</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2804</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2805</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2806</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2807</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>2808</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>2809</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2326</v>
@@ -11732,22 +11830,22 @@
         <v>287</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2810</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2811</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2812</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>2813</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>2814</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>2815</v>
       </c>
       <c r="I2" s="1">
         <v>287</v>
@@ -11817,22 +11915,22 @@
         <v>294</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>2816</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>2811</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>2817</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>2818</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>2819</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>2820</v>
       </c>
       <c r="I10" s="1">
         <v>289</v>
@@ -29535,10 +29633,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -29546,15 +29644,15 @@
     <col min="1" max="1" width="2.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -29564,23 +29662,32 @@
       <c r="C1" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
+        <v>2820</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>2821</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>2822</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2799</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2800</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2801</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -29590,11 +29697,11 @@
       <c r="C2" s="1" t="s">
         <v>2802</v>
       </c>
-      <c r="H2" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="K2" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -29604,94 +29711,271 @@
       <c r="C3" s="1" t="s">
         <v>2802</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>2803</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H3" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="K3" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="K4" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C5" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="K5" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C6" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K7" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C8" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C9" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>2831</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K9" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C10" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>2831</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K10" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C11" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>2831</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K11" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C12" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="K12" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2839</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="K13" s="1">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/TDE5_de-DE.xlsx
+++ b/src/data/TDE5_de-DE.xlsx
@@ -8752,33 +8752,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="115">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -9423,6 +9396,33 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -9851,49 +9851,49 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A1:B44" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A1:B44" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A1:B44">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="50"/>
-    <tableColumn id="2" name="name" dataDxfId="49"/>
+    <tableColumn id="1" name="id" dataDxfId="41"/>
+    <tableColumn id="2" name="name" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:B193" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:B193" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:B193">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="46"/>
-    <tableColumn id="2" name="name" dataDxfId="45"/>
+    <tableColumn id="1" name="id" dataDxfId="37"/>
+    <tableColumn id="2" name="name" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="A1:B13" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="A1:B13" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:B13">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="42"/>
-    <tableColumn id="2" name="name" dataDxfId="41"/>
+    <tableColumn id="1" name="id" dataDxfId="33"/>
+    <tableColumn id="2" name="name" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A1:J502" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A1:J502" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:J502">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9907,37 +9907,37 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="id" dataDxfId="38"/>
-    <tableColumn id="2" name="name" dataDxfId="37"/>
-    <tableColumn id="6" name="sel" dataDxfId="36"/>
-    <tableColumn id="7" name="input" dataDxfId="35"/>
-    <tableColumn id="3" name="Column1" dataDxfId="34"/>
-    <tableColumn id="4" name="Column2" dataDxfId="33"/>
-    <tableColumn id="5" name="Column3" dataDxfId="32"/>
-    <tableColumn id="8" name="Column4" dataDxfId="31"/>
-    <tableColumn id="9" name="Column5" dataDxfId="30"/>
-    <tableColumn id="10" name="Column6" dataDxfId="29"/>
+    <tableColumn id="1" name="id" dataDxfId="29"/>
+    <tableColumn id="2" name="name" dataDxfId="28"/>
+    <tableColumn id="6" name="sel" dataDxfId="27"/>
+    <tableColumn id="7" name="input" dataDxfId="26"/>
+    <tableColumn id="3" name="Column1" dataDxfId="25"/>
+    <tableColumn id="4" name="Column2" dataDxfId="24"/>
+    <tableColumn id="5" name="Column3" dataDxfId="23"/>
+    <tableColumn id="8" name="Column4" dataDxfId="22"/>
+    <tableColumn id="9" name="Column5" dataDxfId="21"/>
+    <tableColumn id="10" name="Column6" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:B111" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:B111" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:B111">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="26"/>
-    <tableColumn id="2" name="name" dataDxfId="25"/>
+    <tableColumn id="1" name="id" dataDxfId="17"/>
+    <tableColumn id="2" name="name" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:D76">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9945,45 +9945,45 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="id" dataDxfId="22"/>
-    <tableColumn id="2" name="name" dataDxfId="21"/>
-    <tableColumn id="3" name="spec" dataDxfId="20"/>
-    <tableColumn id="4" name="specInput" dataDxfId="19"/>
+    <tableColumn id="1" name="id" dataDxfId="13"/>
+    <tableColumn id="2" name="name" dataDxfId="12"/>
+    <tableColumn id="3" name="spec" dataDxfId="11"/>
+    <tableColumn id="4" name="specInput" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:B36" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:B36" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:B36">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="16"/>
-    <tableColumn id="2" name="name" dataDxfId="15"/>
+    <tableColumn id="1" name="id" dataDxfId="7"/>
+    <tableColumn id="2" name="name" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:B466" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:B466" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:B466">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="13"/>
-    <tableColumn id="2" name="name" dataDxfId="12" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="1" name="id" dataDxfId="4"/>
+    <tableColumn id="2" name="name" dataDxfId="3" dataCellStyle="Excel Built-in Normal"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabelle9" displayName="Tabelle9" ref="A1:B484" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabelle9" displayName="Tabelle9" ref="A1:B484" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:B484">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9992,8 +9992,8 @@
     <sortCondition ref="A1:A474"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="10"/>
-    <tableColumn id="2" name="name" dataDxfId="9"/>
+    <tableColumn id="1" name="id" dataDxfId="1"/>
+    <tableColumn id="2" name="name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10028,22 +10028,22 @@
   <tableColumns count="11">
     <tableColumn id="1" name="id" dataDxfId="103"/>
     <tableColumn id="2" name="name" dataDxfId="102"/>
-    <tableColumn id="3" name="attributeAdjustments" dataDxfId="8"/>
-    <tableColumn id="4" name="automaticAdvantages" dataDxfId="7"/>
-    <tableColumn id="5" name="stronglyRecommendedAdvantages" dataDxfId="6"/>
-    <tableColumn id="6" name="stronglyRecommendedDisadvantages" dataDxfId="5"/>
-    <tableColumn id="7" name="commonAdvantages" dataDxfId="4"/>
-    <tableColumn id="8" name="commonDisadvantages" dataDxfId="3"/>
-    <tableColumn id="9" name="uncommonAdvantages" dataDxfId="2"/>
-    <tableColumn id="10" name="uncommonDisadvantages" dataDxfId="1"/>
-    <tableColumn id="11" name="src" dataDxfId="0"/>
+    <tableColumn id="3" name="attributeAdjustments" dataDxfId="101"/>
+    <tableColumn id="4" name="automaticAdvantages" dataDxfId="100"/>
+    <tableColumn id="5" name="stronglyRecommendedAdvantages" dataDxfId="99"/>
+    <tableColumn id="6" name="stronglyRecommendedDisadvantages" dataDxfId="98"/>
+    <tableColumn id="7" name="commonAdvantages" dataDxfId="97"/>
+    <tableColumn id="8" name="commonDisadvantages" dataDxfId="96"/>
+    <tableColumn id="9" name="uncommonAdvantages" dataDxfId="95"/>
+    <tableColumn id="10" name="uncommonDisadvantages" dataDxfId="94"/>
+    <tableColumn id="11" name="src" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:G95" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:G95" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="A1:G95">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10054,36 +10054,36 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="id" dataDxfId="99"/>
-    <tableColumn id="2" name="name" dataDxfId="98"/>
-    <tableColumn id="18" name="name_f" dataDxfId="97"/>
-    <tableColumn id="15" name="subname" dataDxfId="96"/>
-    <tableColumn id="19" name="subname_f" dataDxfId="95"/>
-    <tableColumn id="3" name="req" dataDxfId="94"/>
-    <tableColumn id="4" name="src" dataDxfId="93"/>
+    <tableColumn id="1" name="id" dataDxfId="90"/>
+    <tableColumn id="2" name="name" dataDxfId="89"/>
+    <tableColumn id="18" name="name_f" dataDxfId="88"/>
+    <tableColumn id="15" name="subname" dataDxfId="87"/>
+    <tableColumn id="19" name="subname_f" dataDxfId="86"/>
+    <tableColumn id="3" name="req" dataDxfId="85"/>
+    <tableColumn id="4" name="src" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A1:C1048576">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="id" dataDxfId="90"/>
-    <tableColumn id="2" name="name" dataDxfId="89"/>
-    <tableColumn id="9" name="name_f" dataDxfId="88"/>
+    <tableColumn id="1" name="id" dataDxfId="81"/>
+    <tableColumn id="2" name="name" dataDxfId="80"/>
+    <tableColumn id="9" name="name_f" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle8" displayName="Tabelle8" ref="A1:D76" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle8" displayName="Tabelle8" ref="A1:D76" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="A1:D76">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10091,17 +10091,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="id" dataDxfId="85"/>
-    <tableColumn id="2" name="name" dataDxfId="84"/>
-    <tableColumn id="6" name="sel" dataDxfId="83"/>
-    <tableColumn id="7" name="input" dataDxfId="82"/>
+    <tableColumn id="1" name="id" dataDxfId="76"/>
+    <tableColumn id="2" name="name" dataDxfId="75"/>
+    <tableColumn id="6" name="sel" dataDxfId="74"/>
+    <tableColumn id="7" name="input" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D72" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D72" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="A1:D72">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10109,17 +10109,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="id" dataDxfId="79"/>
-    <tableColumn id="2" name="name" dataDxfId="78"/>
-    <tableColumn id="6" name="sel" dataDxfId="77"/>
-    <tableColumn id="7" name="input" dataDxfId="76"/>
+    <tableColumn id="1" name="id" dataDxfId="70"/>
+    <tableColumn id="2" name="name" dataDxfId="69"/>
+    <tableColumn id="6" name="sel" dataDxfId="68"/>
+    <tableColumn id="7" name="input" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="A1:J60">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10136,37 +10136,37 @@
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="id" dataDxfId="73"/>
-    <tableColumn id="2" name="name" dataDxfId="72"/>
-    <tableColumn id="7" name="spec" dataDxfId="71"/>
-    <tableColumn id="8" name="spec_input" dataDxfId="70"/>
-    <tableColumn id="3" name="tools" dataDxfId="69"/>
-    <tableColumn id="4" name="quality" dataDxfId="68"/>
-    <tableColumn id="5" name="failed" dataDxfId="67"/>
-    <tableColumn id="6" name="critical" dataDxfId="66"/>
-    <tableColumn id="9" name="botch" dataDxfId="65"/>
-    <tableColumn id="10" name="src" dataDxfId="64"/>
+    <tableColumn id="1" name="id" dataDxfId="64"/>
+    <tableColumn id="2" name="name" dataDxfId="63"/>
+    <tableColumn id="7" name="spec" dataDxfId="62"/>
+    <tableColumn id="8" name="spec_input" dataDxfId="61"/>
+    <tableColumn id="3" name="tools" dataDxfId="60"/>
+    <tableColumn id="4" name="quality" dataDxfId="59"/>
+    <tableColumn id="5" name="failed" dataDxfId="58"/>
+    <tableColumn id="6" name="critical" dataDxfId="57"/>
+    <tableColumn id="9" name="botch" dataDxfId="56"/>
+    <tableColumn id="10" name="src" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A1:I1048576">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="id" dataDxfId="61"/>
-    <tableColumn id="2" name="name" dataDxfId="60"/>
-    <tableColumn id="3" name="effect" dataDxfId="59"/>
-    <tableColumn id="4" name="castingtime" dataDxfId="58"/>
-    <tableColumn id="5" name="aecost" dataDxfId="57"/>
-    <tableColumn id="6" name="range" dataDxfId="56"/>
-    <tableColumn id="7" name="duration" dataDxfId="55"/>
-    <tableColumn id="8" name="target" dataDxfId="54"/>
-    <tableColumn id="9" name="src" dataDxfId="53"/>
+    <tableColumn id="1" name="id" dataDxfId="52"/>
+    <tableColumn id="2" name="name" dataDxfId="51"/>
+    <tableColumn id="3" name="effect" dataDxfId="50"/>
+    <tableColumn id="4" name="castingtime" dataDxfId="49"/>
+    <tableColumn id="5" name="aecost" dataDxfId="48"/>
+    <tableColumn id="6" name="range" dataDxfId="47"/>
+    <tableColumn id="7" name="duration" dataDxfId="46"/>
+    <tableColumn id="8" name="target" dataDxfId="45"/>
+    <tableColumn id="9" name="src" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -29636,7 +29636,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/src/data/TDE5_de-DE.xlsx
+++ b/src/data/TDE5_de-DE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="30" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3360" uniqueCount="2845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5109" uniqueCount="3027">
   <si>
     <t>id</t>
   </si>
@@ -8591,12 +8591,558 @@
   <si>
     <t>Hitzeempfindlich, Nachtblind, Niedrige Seelenkraft, Niedrige Zähigkeit, Zerbrechlich</t>
   </si>
+  <si>
+    <t>castingtimeShort</t>
+  </si>
+  <si>
+    <t>aecostShort</t>
+  </si>
+  <si>
+    <t>rangeShort</t>
+  </si>
+  <si>
+    <t>durationShort</t>
+  </si>
+  <si>
+    <t>1 Aktion</t>
+  </si>
+  <si>
+    <t>16 Aktionen</t>
+  </si>
+  <si>
+    <t>4 Aktionen</t>
+  </si>
+  <si>
+    <t>8 Aktionen</t>
+  </si>
+  <si>
+    <t>8 Stunden</t>
+  </si>
+  <si>
+    <t>30 Minuten</t>
+  </si>
+  <si>
+    <t>5 Minuten</t>
+  </si>
+  <si>
+    <t>2 Stunden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 AsP für RS 1, 8 AsP für RS 2, 16 AsP für RS 3 </t>
+  </si>
+  <si>
+    <t>8 AsP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 AsP pro LeP, mindestens jedoch 4 AsP </t>
+  </si>
+  <si>
+    <t>4 AsP</t>
+  </si>
+  <si>
+    <t>8 AsP (Aktivierung des Zaubers) + 4 AsP pro 5 Minuten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 AsP pro Doppelgänger (bei Misslingen entsprechend 2 AsP) </t>
+  </si>
+  <si>
+    <t>2 AsP (Aktivierung des Zaubers) + 1 AsP pro Stunde</t>
+  </si>
+  <si>
+    <t>Mindestens 4 AsP</t>
+  </si>
+  <si>
+    <t>2 AsP (Aktivierung des Zaubers) + 1 AsP pro 10 Minuten</t>
+  </si>
+  <si>
+    <t>2 AsP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mindestens 4 AsP (Aktivierung) + Hälfte der notwendigen AsP pro 5 Minuten </t>
+  </si>
+  <si>
+    <t>4 AsP (Aktivierung des Zaubers) + 2 AsP pro Minute</t>
+  </si>
+  <si>
+    <t>4 AsP (Aktivierung des Zaubers) + 2 AsP pro 10 Minuten</t>
+  </si>
+  <si>
+    <t>4 AsP (Aktivierung des Zaubers) + 2 AsP pro Kampfrunde</t>
+  </si>
+  <si>
+    <t>8 AsP + 1 AsP pro Meile</t>
+  </si>
+  <si>
+    <t>32 AsP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhängig von der Waffe </t>
+  </si>
+  <si>
+    <t>14 AsP</t>
+  </si>
+  <si>
+    <t>21 AsP</t>
+  </si>
+  <si>
+    <t>7 AsP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stufe der Krankheit in AsP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 AsP pro 5 Minuten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 AsP pro 5 Minuten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 AsP pro Stunde, 1 permanenter AsP bei der letzten Strophe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 AsP pro Stunde </t>
+  </si>
+  <si>
+    <t>8 AsP (Aktivierung des Zaubers) + 4 AsP pro 10 Minuten</t>
+  </si>
+  <si>
+    <t>16 AsP (Aktivierung des Zaubers) + 8 AsP pro 5 Minuten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KL (t) des Tieres in AsP (Kosten nicht modifizierbar) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mindestens 4 AsP (Aktivierung) + Hälfte der Aktivierungskosten pro 5 Minuten (Kosten sind nicht modifizierbar) </t>
+  </si>
+  <si>
+    <t>3 AsP pro Giftstufe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 AsP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 AsP (Aktivierung des Zaubers), 4 AsP pro Minute </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 AsP + 4 pro 5 Kampfrunden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 AsP (Aktivierung des Zaubers) + 4 AsP pro Stunde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 AsP (Aktivierung des Zaubers) + 2 AsP pro 5 Minuten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 AsP (Aktivierung des Zaubers) + 4 AsP pro 10 Minuten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 AsP bzw. 16 AsP für Zauber mit Zielkategorie Zone </t>
+  </si>
+  <si>
+    <t>8 AsP (Aktivierung des Zaubers) + 4 AsP pro Stunde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 AsP (Aktivierung des Zaubers) + 2 AsP pro 10 Minuten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 AsP (Aktivierung des Zaubers) + 4 AsP pro 5 Minuten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 AsP + 1 AsP pro zusätzlicher Meile </t>
+  </si>
+  <si>
+    <t>4 AsP (Aktivierung des Zaubers) + 2 AsP pro KR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 AsP (Aktivierung des Zaubers), + 2 AsP pro 30 Sekunden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2/4/8/16 AsP für einen Gegenstand von der Größe einer Tasse/Truhe/Tür/Burgtor </t>
+  </si>
+  <si>
+    <t>10 AsP</t>
+  </si>
+  <si>
+    <t>8 AsP für die erste Person + 4 AsP für jede weitere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 AsP für die erste Person + 1 AsP für jede weitere </t>
+  </si>
+  <si>
+    <t>6 AsP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 AsP für die erste Person + 2 AsP für jede weitere </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 AsP für die erste Person + 4 AsP für jede weitere </t>
+  </si>
+  <si>
+    <t>12 AsP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gift- oder Krankheitsstufe x 3 in AsP </t>
+  </si>
+  <si>
+    <t>2 AsP pro Feuer</t>
+  </si>
+  <si>
+    <t>Berührung</t>
+  </si>
+  <si>
+    <t>4 Schritt</t>
+  </si>
+  <si>
+    <t>16 Schritt</t>
+  </si>
+  <si>
+    <t>1 Schritt</t>
+  </si>
+  <si>
+    <t>32 Schritt</t>
+  </si>
+  <si>
+    <t>QS x 20 Schritt</t>
+  </si>
+  <si>
+    <t>2 Schritt</t>
+  </si>
+  <si>
+    <t>sofort</t>
+  </si>
+  <si>
+    <t>QS x 3 Minuten</t>
+  </si>
+  <si>
+    <t>QS x 5 Kampfrunden</t>
+  </si>
+  <si>
+    <t>QS in Kampfrunden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QS x 3 Kampfrunden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bis zum nächsten Schuss, maximal QS x 2 Kampfrunden </t>
+  </si>
+  <si>
+    <t>QS x 15 Minuten</t>
+  </si>
+  <si>
+    <t>QS x 3 in Minuten</t>
+  </si>
+  <si>
+    <t>QS x 15 Minuten, danach verweht der Nebel</t>
+  </si>
+  <si>
+    <t>1 Minute</t>
+  </si>
+  <si>
+    <t>QS x 2 Minuten</t>
+  </si>
+  <si>
+    <t>QS x 15 in Minuten</t>
+  </si>
+  <si>
+    <t>QS x 3 in Stunden</t>
+  </si>
+  <si>
+    <t>FP in Tage</t>
+  </si>
+  <si>
+    <t>QS x 3 in Tagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bis zum Ende der Krankheit, maximal aber QS x 3 in Tagen </t>
+  </si>
+  <si>
+    <t>QS x 3 in Wochen</t>
+  </si>
+  <si>
+    <t>QS x 3 KR</t>
+  </si>
+  <si>
+    <t>QS Tage</t>
+  </si>
+  <si>
+    <t>QS x 10 in KR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bis zum Tod der Tiere, maximal jedoch 20 KR </t>
+  </si>
+  <si>
+    <t>QS in Jahren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aufrechterhaltend, maximal jedoch 50 KR </t>
+  </si>
+  <si>
+    <t>QS x 5 Minuten</t>
+  </si>
+  <si>
+    <t>QS in KR</t>
+  </si>
+  <si>
+    <t>QS Kampfrunden</t>
+  </si>
+  <si>
+    <t>QS x 2 KR</t>
+  </si>
+  <si>
+    <t>QS Stunden</t>
+  </si>
+  <si>
+    <t>QS x 2 Stunden</t>
+  </si>
+  <si>
+    <t>QS Minuten</t>
+  </si>
+  <si>
+    <t>QS x 3 Kampfrunden</t>
+  </si>
+  <si>
+    <t>10 Kampfrunden</t>
+  </si>
+  <si>
+    <t>30 Kampfrunden</t>
+  </si>
+  <si>
+    <t>1 Tag</t>
+  </si>
+  <si>
+    <t>QS x 2 Kampfrunden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QS x 2 KR (statt der üblichen Zeit von 2W20 KR des Status’ Blutrausch) </t>
+  </si>
+  <si>
+    <t>1 Jahr</t>
+  </si>
+  <si>
+    <t>QS x 30 Minuten</t>
+  </si>
+  <si>
+    <t>5 Kampfrunden</t>
+  </si>
+  <si>
+    <t>QS x 3 Stunden</t>
+  </si>
+  <si>
+    <t>QS x 3 Wochen</t>
+  </si>
+  <si>
+    <t>QS x 10 Minuten</t>
+  </si>
+  <si>
+    <t>lang, einmalig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kurz, aufrechterhaltend </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lang, einmalig </t>
+  </si>
+  <si>
+    <t>kurz, einmalig</t>
+  </si>
+  <si>
+    <t>Wesen, Objekt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulturschaffende </t>
+  </si>
+  <si>
+    <t>Kulturschaffende, übernatürliche Wesen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulturschaffende, übernatürliche Wesen </t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>alle</t>
+  </si>
+  <si>
+    <t>Objekt</t>
+  </si>
+  <si>
+    <t>Tiere</t>
+  </si>
+  <si>
+    <t>Objekt, Wesen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geweihte Objekte, profane Objekte </t>
+  </si>
+  <si>
+    <t>Elementare</t>
+  </si>
+  <si>
+    <t>Dämonen</t>
+  </si>
+  <si>
+    <t>Objekte (Schlösser)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiere (domestizierte Tiere oder Wildtiere der Größenkategorie groß oder kleiner) </t>
+  </si>
+  <si>
+    <t>Objekt (Holz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objekte (Zutaten für Alchimica) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone (Radius 3 x 3 Schritt) </t>
+  </si>
+  <si>
+    <t>Objekte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone (Radius von 5 x 5 Schritt) </t>
+  </si>
+  <si>
+    <t>Profane Objekte</t>
+  </si>
+  <si>
+    <t>Lebewesen (außer Pflanzen, Pilze und Wesen, die kleiner als eine Ratte sind)</t>
+  </si>
+  <si>
+    <t>Pflanze</t>
+  </si>
+  <si>
+    <t>Beseelte, Geister</t>
+  </si>
+  <si>
+    <t>Zone (max. 3 x 3 Schritt)</t>
+  </si>
+  <si>
+    <t>Kulturschaffende (selbst)</t>
+  </si>
+  <si>
+    <t>Kulturschaffende (Verstorbene)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objekt (profane Objekte bis zur Größe einer Truhe) </t>
+  </si>
+  <si>
+    <t>(A)</t>
+  </si>
+  <si>
+    <t>QS x 3 Min</t>
+  </si>
+  <si>
+    <t>5 Min</t>
+  </si>
+  <si>
+    <t>QS x 15 Min</t>
+  </si>
+  <si>
+    <t>QS x 2 Min</t>
+  </si>
+  <si>
+    <t>QS x 5 Min</t>
+  </si>
+  <si>
+    <t>QS Min</t>
+  </si>
+  <si>
+    <t>QS x 30 Min</t>
+  </si>
+  <si>
+    <t>QS x 10 Min</t>
+  </si>
+  <si>
+    <t>QS x 5 KR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QS x 3 KR </t>
+  </si>
+  <si>
+    <t>QS KR</t>
+  </si>
+  <si>
+    <t>10 KR</t>
+  </si>
+  <si>
+    <t>30 KR</t>
+  </si>
+  <si>
+    <t>5 KR</t>
+  </si>
+  <si>
+    <t>Schuss (QS x 2 KR)</t>
+  </si>
+  <si>
+    <t>30 Min</t>
+  </si>
+  <si>
+    <t>1 Min</t>
+  </si>
+  <si>
+    <t>QS x 3 h</t>
+  </si>
+  <si>
+    <t>QS h</t>
+  </si>
+  <si>
+    <t>QS x 2 h</t>
+  </si>
+  <si>
+    <t>8 h</t>
+  </si>
+  <si>
+    <t>FP Tage</t>
+  </si>
+  <si>
+    <t>QS x 3 d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krankh./QS x 3 d </t>
+  </si>
+  <si>
+    <t>QS x 10 KR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max. 20 KR </t>
+  </si>
+  <si>
+    <t>QS Jahre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A), max. 50 KR </t>
+  </si>
+  <si>
+    <t>lang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lang </t>
+  </si>
+  <si>
+    <t>kurz</t>
+  </si>
+  <si>
+    <t>kurz (A)</t>
+  </si>
+  <si>
+    <t>8 AsP + 4 AsP je zus. P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 AsP + 1 AsP je zus. P. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 AsP + 2 AsP je zus. P. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 AsP + 4 AsP je zus. P. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8658,8 +9204,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8672,6 +9233,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -8682,11 +9249,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -8746,12 +9315,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+  <cellStyles count="4">
+    <cellStyle name="Erklärender Text 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
-  <dxfs count="115">
+  <dxfs count="119">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -9081,6 +9655,18 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -9472,8 +10058,8 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Table Style 1" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="1">
-      <tableStyleElement type="headerRow" dxfId="114"/>
+    <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="118"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -9837,64 +10423,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="A1:B10" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
-  <autoFilter ref="A1:B10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:B10" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
+  <autoFilter ref="A1:B10" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <sortState ref="A2:B10">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="111"/>
-    <tableColumn id="2" name="name" dataDxfId="110"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A1:B44" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:B44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table14" displayName="Table14" ref="A1:B44" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:B44" xr:uid="{00000000-0009-0000-0100-00000E000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="41"/>
-    <tableColumn id="2" name="name" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="id" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="name" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:B193" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:B193">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabelle5" displayName="Tabelle5" ref="A1:B193" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A1:B193" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="37"/>
-    <tableColumn id="2" name="name" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="id" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="name" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="A1:B13" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A1:B13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table16" displayName="Table16" ref="A1:B13" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A1:B13" xr:uid="{00000000-0009-0000-0100-000010000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="33"/>
-    <tableColumn id="2" name="name" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="id" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="name" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A1:J502" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:J502">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Tabelle6" displayName="Tabelle6" ref="A1:J502" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:J502" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -9907,84 +10493,84 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="id" dataDxfId="29"/>
-    <tableColumn id="2" name="name" dataDxfId="28"/>
-    <tableColumn id="6" name="sel" dataDxfId="27"/>
-    <tableColumn id="7" name="input" dataDxfId="26"/>
-    <tableColumn id="3" name="Column1" dataDxfId="25"/>
-    <tableColumn id="4" name="Column2" dataDxfId="24"/>
-    <tableColumn id="5" name="Column3" dataDxfId="23"/>
-    <tableColumn id="8" name="Column4" dataDxfId="22"/>
-    <tableColumn id="9" name="Column5" dataDxfId="21"/>
-    <tableColumn id="10" name="Column6" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="id" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="name" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="sel" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="input" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Column1" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Column2" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Column3" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Column4" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="Column5" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="Column6" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:B111" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:B111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table10" displayName="Table10" ref="A1:B111" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:B111" xr:uid="{00000000-0009-0000-0100-00000A000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="17"/>
-    <tableColumn id="2" name="name" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="id" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="name" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:D76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:D76" xr:uid="{00000000-0009-0000-0100-00000C000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="id" dataDxfId="13"/>
-    <tableColumn id="2" name="name" dataDxfId="12"/>
-    <tableColumn id="3" name="spec" dataDxfId="11"/>
-    <tableColumn id="4" name="specInput" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="spec" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="specInput" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:B36" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:B36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table11" displayName="Table11" ref="A1:B36" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:B36" xr:uid="{00000000-0009-0000-0100-00000B000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="7"/>
-    <tableColumn id="2" name="name" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="id" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="name" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:B466" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:B466">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table15" displayName="Table15" ref="A1:B466" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:B466" xr:uid="{00000000-0009-0000-0100-00000F000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="4"/>
-    <tableColumn id="2" name="name" dataDxfId="3" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="id" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="name" dataDxfId="3" dataCellStyle="Excel Built-in Normal"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabelle9" displayName="Tabelle9" ref="A1:B484" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:B484">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabelle9" displayName="Tabelle9" ref="A1:B484" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:B484" xr:uid="{00000000-0009-0000-0100-000009000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
@@ -9992,30 +10578,30 @@
     <sortCondition ref="A1:A474"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="1"/>
-    <tableColumn id="2" name="name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="id" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A1:B8" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
-  <autoFilter ref="A1:B8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:B8" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+  <autoFilter ref="A1:B8" xr:uid="{00000000-0009-0000-0100-00000D000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="107"/>
-    <tableColumn id="2" name="name" dataDxfId="106"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle18" displayName="Tabelle18" ref="A1:K13" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
-  <autoFilter ref="A1:K13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle18" displayName="Tabelle18" ref="A1:K13" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+  <autoFilter ref="A1:K13" xr:uid="{00000000-0009-0000-0100-000012000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -10026,25 +10612,25 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" name="id" dataDxfId="103"/>
-    <tableColumn id="2" name="name" dataDxfId="102"/>
-    <tableColumn id="3" name="attributeAdjustments" dataDxfId="101"/>
-    <tableColumn id="4" name="automaticAdvantages" dataDxfId="100"/>
-    <tableColumn id="5" name="stronglyRecommendedAdvantages" dataDxfId="99"/>
-    <tableColumn id="6" name="stronglyRecommendedDisadvantages" dataDxfId="98"/>
-    <tableColumn id="7" name="commonAdvantages" dataDxfId="97"/>
-    <tableColumn id="8" name="commonDisadvantages" dataDxfId="96"/>
-    <tableColumn id="9" name="uncommonAdvantages" dataDxfId="95"/>
-    <tableColumn id="10" name="uncommonDisadvantages" dataDxfId="94"/>
-    <tableColumn id="11" name="src" dataDxfId="93"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="attributeAdjustments" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="automaticAdvantages" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="stronglyRecommendedAdvantages" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="stronglyRecommendedDisadvantages" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="commonAdvantages" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="commonDisadvantages" dataDxfId="100"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="uncommonAdvantages" dataDxfId="99"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="uncommonDisadvantages" dataDxfId="98"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="src" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:G95" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
-  <autoFilter ref="A1:G95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:G95" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
+  <autoFilter ref="A1:G95" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -10054,73 +10640,73 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="id" dataDxfId="90"/>
-    <tableColumn id="2" name="name" dataDxfId="89"/>
-    <tableColumn id="18" name="name_f" dataDxfId="88"/>
-    <tableColumn id="15" name="subname" dataDxfId="87"/>
-    <tableColumn id="19" name="subname_f" dataDxfId="86"/>
-    <tableColumn id="3" name="req" dataDxfId="85"/>
-    <tableColumn id="4" name="src" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="name" dataDxfId="93"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="name_f" dataDxfId="92"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="subname" dataDxfId="91"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="subname_f" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="req" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="src" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
-  <autoFilter ref="A1:C1048576">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+  <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="id" dataDxfId="81"/>
-    <tableColumn id="2" name="name" dataDxfId="80"/>
-    <tableColumn id="9" name="name_f" dataDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="name" dataDxfId="84"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="name_f" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle8" displayName="Tabelle8" ref="A1:D76" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
-  <autoFilter ref="A1:D76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabelle8" displayName="Tabelle8" ref="A1:D76" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+  <autoFilter ref="A1:D76" xr:uid="{00000000-0009-0000-0100-000008000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="id" dataDxfId="76"/>
-    <tableColumn id="2" name="name" dataDxfId="75"/>
-    <tableColumn id="6" name="sel" dataDxfId="74"/>
-    <tableColumn id="7" name="input" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="79"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="sel" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="input" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D72" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
-  <autoFilter ref="A1:D72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D72" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+  <autoFilter ref="A1:D72" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="id" dataDxfId="70"/>
-    <tableColumn id="2" name="name" dataDxfId="69"/>
-    <tableColumn id="6" name="sel" dataDxfId="68"/>
-    <tableColumn id="7" name="input" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="id" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="name" dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="sel" dataDxfId="72"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="input" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
-  <autoFilter ref="A1:J60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+  <autoFilter ref="A1:J60" xr:uid="{00000000-0009-0000-0100-000007000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -10136,37 +10722,41 @@
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="id" dataDxfId="64"/>
-    <tableColumn id="2" name="name" dataDxfId="63"/>
-    <tableColumn id="7" name="spec" dataDxfId="62"/>
-    <tableColumn id="8" name="spec_input" dataDxfId="61"/>
-    <tableColumn id="3" name="tools" dataDxfId="60"/>
-    <tableColumn id="4" name="quality" dataDxfId="59"/>
-    <tableColumn id="5" name="failed" dataDxfId="58"/>
-    <tableColumn id="6" name="critical" dataDxfId="57"/>
-    <tableColumn id="9" name="botch" dataDxfId="56"/>
-    <tableColumn id="10" name="src" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="id" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="name" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="spec" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="spec_input" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="tools" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="quality" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="failed" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="critical" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="botch" dataDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="src" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
-  <autoFilter ref="A1:I1048576">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:M1048576" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+  <autoFilter ref="A1:M1048576" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="9">
-    <tableColumn id="1" name="id" dataDxfId="52"/>
-    <tableColumn id="2" name="name" dataDxfId="51"/>
-    <tableColumn id="3" name="effect" dataDxfId="50"/>
-    <tableColumn id="4" name="castingtime" dataDxfId="49"/>
-    <tableColumn id="5" name="aecost" dataDxfId="48"/>
-    <tableColumn id="6" name="range" dataDxfId="47"/>
-    <tableColumn id="7" name="duration" dataDxfId="46"/>
-    <tableColumn id="8" name="target" dataDxfId="45"/>
-    <tableColumn id="9" name="src" dataDxfId="44"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="id" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="name" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="effect" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="castingtime" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{D89CFCD8-0667-4532-ADCB-656E0F380FC9}" name="castingtimeShort" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="aecost" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{AA76CB3A-D16A-4989-ACEE-9057F8B23848}" name="aecostShort" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="range" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{DD92ED00-D630-4075-AFBB-75382F298664}" name="rangeShort" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="duration" dataDxfId="47"/>
+    <tableColumn id="13" xr3:uid="{35897220-D86D-43E4-9246-750CE8AD5E3B}" name="durationShort" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="target" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="src" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10468,7 +11058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10570,7 +11160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
@@ -11598,7 +12188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11779,11 +12369,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I234"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:M234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="G187" sqref="G187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11793,7 +12383,7 @@
     <col min="3" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11806,23 +12396,35 @@
       <c r="D1" s="3" t="s">
         <v>2804</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="21" t="s">
+        <v>2845</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2805</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>2846</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>2806</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>2847</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>2807</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>2848</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>2808</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11836,78 +12438,279 @@
         <v>2810</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2811</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>2812</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>2813</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>2814</v>
       </c>
-      <c r="I2" s="1">
+      <c r="M2" s="1">
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D3" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D4" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D5" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D6" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D7" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D8" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D9" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -11921,1811 +12724,6845 @@
         <v>2810</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>2816</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>2817</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>2818</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="K10" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>2819</v>
       </c>
-      <c r="I10" s="1">
+      <c r="M10" s="1">
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D11" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D12" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>3000</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D13" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>3005</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D14" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D15" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D16" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D17" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D18" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D19" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D20" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D21" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D22" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D23" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D24" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D25" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D26" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D27" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D28" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>2867</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>2867</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D29" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D30" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D31" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>3007</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D32" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D33" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D34" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D35" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D36" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D37" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D38" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D39" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D40" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D41" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D42" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D43" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D44" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D45" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D46" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D47" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D48" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D49" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D50" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D51" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D52" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F53" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F54" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F55" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F56" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F57" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F58" s="1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F59" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F60" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F61" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F62" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F63" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F64" s="1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F65" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F66" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F67" s="1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F68" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>1853</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D69" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1854</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D70" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>1855</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D71" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1856</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D72" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1857</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D73" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1858</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D74" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>1859</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D75" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>1860</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D76" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1861</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D77" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>1862</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D78" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>1863</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D79" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>1864</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D80" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>1865</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D81" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>1866</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D82" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D83" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D84" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>1869</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D85" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>1870</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D86" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>1871</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D87" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>2889</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D88" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D89" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>1874</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D90" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>1875</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D91" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>1876</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D92" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>1877</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D93" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>1878</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D94" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>1879</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D95" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>1880</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D96" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>1881</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D97" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>1882</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D98" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>1883</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D99" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>1884</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D100" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>1885</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D101" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>1886</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D102" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>1887</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D103" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>1888</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D104" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>1889</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D105" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D106" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>1891</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D107" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>1892</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D108" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>1893</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D109" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>1894</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D110" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>1895</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D111" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D112" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>1897</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D113" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>3000</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>1898</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D114" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>1899</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D115" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>1900</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D116" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>1901</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D117" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>1902</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D118" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>1903</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D119" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>1904</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D120" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>1905</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D121" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>1906</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D122" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>1907</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D123" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>1908</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D124" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>3003</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>1909</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D125" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>1910</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D126" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D127" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>1912</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D128" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D129" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>1914</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D130" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>1915</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D131" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>1916</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D132" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>1917</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D133" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>1918</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D134" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>1919</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D135" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>1920</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D136" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>1921</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D137" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>1922</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D138" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>1923</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D139" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>1924</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D140" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>1925</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D141" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>1926</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D142" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>1927</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D143" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>1928</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D144" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>1929</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D145" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>1930</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D146" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>1931</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D147" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D148" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D149" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D150" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D151" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>1936</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D152" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D153" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>1938</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D154" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D155" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D156" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D157" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>1942</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D158" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>1943</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D159" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D160" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D161" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D162" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>1947</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D163" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D164" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>1949</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D165" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>1950</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D166" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>1951</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D167" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>1952</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D168" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>1953</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D169" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>1954</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D170" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>1955</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D171" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>1956</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D172" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>1957</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D173" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>1958</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D174" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>1959</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D175" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>1960</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D176" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>1961</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D177" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>1962</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D178" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>1963</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D179" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>1964</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D180" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>1965</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D181" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>1966</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D182" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>1967</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D183" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>2998</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>1968</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D184" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A185" s="12">
         <v>184</v>
       </c>
       <c r="B185" s="12" t="s">
         <v>2584</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D185" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186" s="12">
         <v>185</v>
       </c>
       <c r="B186" s="12" t="s">
         <v>2585</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D186" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187" s="12">
         <v>186</v>
       </c>
       <c r="B187" s="12" t="s">
         <v>2586</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D187" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A188" s="12">
         <v>187</v>
       </c>
       <c r="B188" s="12" t="s">
         <v>2587</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D188" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189" s="12">
         <v>188</v>
       </c>
       <c r="B189" s="12" t="s">
         <v>2588</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D189" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A190" s="12">
         <v>189</v>
       </c>
       <c r="B190" s="12" t="s">
         <v>2589</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D190" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>2903</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A191" s="12">
         <v>190</v>
       </c>
       <c r="B191" s="12" t="s">
         <v>2590</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D191" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A192" s="12">
         <v>191</v>
       </c>
       <c r="B192" s="12" t="s">
         <v>2591</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D192" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193" s="12">
         <v>192</v>
       </c>
       <c r="B193" s="12" t="s">
         <v>2592</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D193" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194" s="12">
         <v>193</v>
       </c>
       <c r="B194" s="12" t="s">
         <v>2593</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D194" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195" s="12">
         <v>194</v>
       </c>
       <c r="B195" s="12" t="s">
         <v>2594</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D195" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196" s="12">
         <v>195</v>
       </c>
       <c r="B196" s="12" t="s">
         <v>2595</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D196" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A197" s="12">
         <v>196</v>
       </c>
       <c r="B197" s="12" t="s">
         <v>2596</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D197" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198" s="12">
         <v>197</v>
       </c>
       <c r="B198" s="12" t="s">
         <v>2597</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D198" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A199" s="12">
         <v>198</v>
       </c>
       <c r="B199" s="12" t="s">
         <v>2598</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D199" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A200" s="12">
         <v>199</v>
       </c>
       <c r="B200" s="12" t="s">
         <v>2599</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D200" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A201" s="12">
         <v>200</v>
       </c>
       <c r="B201" s="12" t="s">
         <v>2641</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D201" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A202" s="12">
         <v>201</v>
       </c>
       <c r="B202" s="12" t="s">
         <v>2600</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D202" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A203" s="12">
         <v>202</v>
       </c>
       <c r="B203" s="12" t="s">
         <v>2601</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D203" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204" s="12">
         <v>203</v>
       </c>
       <c r="B204" s="12" t="s">
         <v>2602</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D204" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A205" s="12">
         <v>204</v>
       </c>
       <c r="B205" s="12" t="s">
         <v>2642</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D205" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A206" s="12">
         <v>205</v>
       </c>
       <c r="B206" s="12" t="s">
         <v>2603</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D206" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A207" s="12">
         <v>206</v>
       </c>
       <c r="B207" s="12" t="s">
         <v>2604</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D207" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A208" s="12">
         <v>207</v>
       </c>
       <c r="B208" s="12" t="s">
         <v>2605</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D208" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A209" s="12">
         <v>208</v>
       </c>
       <c r="B209" s="12" t="s">
         <v>2606</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D209" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A210" s="12">
         <v>209</v>
       </c>
       <c r="B210" s="12" t="s">
         <v>2607</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D210" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A211" s="12">
         <v>210</v>
       </c>
       <c r="B211" s="12" t="s">
         <v>2608</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D211" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212" s="12">
         <v>211</v>
       </c>
       <c r="B212" s="12" t="s">
         <v>2609</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D212" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213" s="12">
         <v>212</v>
       </c>
       <c r="B213" s="12" t="s">
         <v>2610</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D213" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214" s="12">
         <v>213</v>
       </c>
       <c r="B214" s="12" t="s">
         <v>2611</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D214" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215" s="12">
         <v>214</v>
       </c>
       <c r="B215" s="12" t="s">
         <v>2612</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D215" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216" s="12">
         <v>215</v>
       </c>
       <c r="B216" s="12" t="s">
         <v>2613</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D216" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217" s="12">
         <v>216</v>
       </c>
       <c r="B217" s="12" t="s">
         <v>2614</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D217" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218" s="12">
         <v>217</v>
       </c>
       <c r="B218" s="12" t="s">
         <v>2615</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D218" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219" s="12">
         <v>218</v>
       </c>
       <c r="B219" s="12" t="s">
         <v>2616</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D219" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A220" s="12">
         <v>219</v>
       </c>
       <c r="B220" s="12" t="s">
         <v>2617</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D220" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A221" s="12">
         <v>220</v>
       </c>
       <c r="B221" s="12" t="s">
         <v>2618</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D221" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A222" s="12">
         <v>221</v>
       </c>
       <c r="B222" s="12" t="s">
         <v>2619</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D222" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A223" s="12">
         <v>222</v>
       </c>
       <c r="B223" s="12" t="s">
         <v>2620</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D223" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224" s="12">
         <v>223</v>
       </c>
       <c r="B224" s="12" t="s">
         <v>2621</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D224" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A225" s="12">
         <v>224</v>
       </c>
       <c r="B225" s="12" t="s">
         <v>2622</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D225" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A226" s="12">
         <v>225</v>
       </c>
       <c r="B226" s="12" t="s">
         <v>2623</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D226" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A227" s="12">
         <v>226</v>
       </c>
       <c r="B227" s="12" t="s">
         <v>2624</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D227" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A228" s="12">
         <v>227</v>
       </c>
       <c r="B228" s="12" t="s">
         <v>2643</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D228" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A229" s="12">
         <v>228</v>
       </c>
       <c r="B229" s="12" t="s">
         <v>2625</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D229" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230" s="12">
         <v>229</v>
       </c>
       <c r="B230" s="12" t="s">
         <v>2626</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D230" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A231" s="12">
         <v>230</v>
       </c>
       <c r="B231" s="12" t="s">
         <v>2627</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D231" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A232" s="12">
         <v>231</v>
       </c>
       <c r="B232" s="12" t="s">
         <v>2628</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D232" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A233" s="12">
         <v>232</v>
       </c>
       <c r="B233" s="12" t="s">
         <v>2629</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D233" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234" s="12">
         <v>233</v>
       </c>
       <c r="B234" s="12" t="s">
         <v>2630</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>2907</v>
       </c>
     </row>
   </sheetData>
@@ -13738,7 +19575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14112,10 +19949,10 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B193"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
@@ -15679,7 +21516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15805,7 +21642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J502"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
@@ -19919,7 +25756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView topLeftCell="A90" workbookViewId="0">
@@ -20830,7 +26667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21586,7 +27423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
@@ -21896,7 +27733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21984,7 +27821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:B466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25735,7 +31572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:B484"/>
   <sheetViews>
     <sheetView topLeftCell="A466" workbookViewId="0">
@@ -29632,10 +35469,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -29988,7 +35825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30227,7 +36064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -31894,7 +37731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView topLeftCell="A155" workbookViewId="0">
@@ -33639,7 +39476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView topLeftCell="A60" workbookViewId="0">
@@ -34296,7 +40133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
@@ -34951,7 +40788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/src/data/TDE5_de-DE.xlsx
+++ b/src/data/TDE5_de-DE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="30" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5109" uniqueCount="3027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5264" uniqueCount="3091">
   <si>
     <t>id</t>
   </si>
@@ -9136,6 +9136,198 @@
   </si>
   <si>
     <t xml:space="preserve">8 AsP + 4 AsP je zus. P. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS/KS x 3 AsP </t>
+  </si>
+  <si>
+    <t>20 m</t>
+  </si>
+  <si>
+    <t>KS AsP</t>
+  </si>
+  <si>
+    <t>QS x 20 m</t>
+  </si>
+  <si>
+    <t>4 m</t>
+  </si>
+  <si>
+    <t>8 m</t>
+  </si>
+  <si>
+    <t>16 m</t>
+  </si>
+  <si>
+    <t>1 m</t>
+  </si>
+  <si>
+    <t>32 m</t>
+  </si>
+  <si>
+    <t>2 m</t>
+  </si>
+  <si>
+    <t>8 / 16 AsP</t>
+  </si>
+  <si>
+    <t>4 AsP + 2 AsP pro 5 Min</t>
+  </si>
+  <si>
+    <t>4/8/16 AsP</t>
+  </si>
+  <si>
+    <t>2 AsP + 1 AsP pro Stunde</t>
+  </si>
+  <si>
+    <t>4 AsP + 2 AsP pro Minute</t>
+  </si>
+  <si>
+    <t>4 AsP + 2 AsP pro Kampfrunde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 AsP, 4 AsP pro Minute </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 AsP + 4 AsP pro Stunde </t>
+  </si>
+  <si>
+    <t>8 AsP + 4 AsP pro Stunde</t>
+  </si>
+  <si>
+    <t>4 AsP + 2 AsP pro KR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 AsP, + 2 AsP pro 30 Sekunden </t>
+  </si>
+  <si>
+    <t>8 AsP + 4 AsP pro 5 Min</t>
+  </si>
+  <si>
+    <t>2 AsP + 1 AsP pro 10 Min</t>
+  </si>
+  <si>
+    <t>4 AsP + 2 AsP pro 10 Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 AsP pro 5 Min </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 AsP pro 5 Min </t>
+  </si>
+  <si>
+    <t>8 AsP + 4 AsP pro 10 Min</t>
+  </si>
+  <si>
+    <t>16 AsP + 8 AsP pro 5 Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mindestens 4 AsP (Aktivierung) + Hälfte der Aktivierungskosten pro 5 Min (Kosten sind nicht modifizierbar) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 AsP + 2 AsP pro 5 Min </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 AsP + 4 AsP pro 10 Min </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 AsP + 2 AsP pro 10 Min </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 AsP + 4 AsP pro 5 Min </t>
+  </si>
+  <si>
+    <t>1 AsP pro LeP (4+)</t>
+  </si>
+  <si>
+    <t>4 AsP pro DG</t>
+  </si>
+  <si>
+    <t>4+ AsP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4+ AsP + 1/2 pro 5 Min </t>
+  </si>
+  <si>
+    <t>8 AsP + 1 AsP pro km</t>
+  </si>
+  <si>
+    <t>10+ AsP</t>
+  </si>
+  <si>
+    <t>2 Akt</t>
+  </si>
+  <si>
+    <t>16 Akt</t>
+  </si>
+  <si>
+    <t>4 Akt</t>
+  </si>
+  <si>
+    <t>8 Akt</t>
+  </si>
+  <si>
+    <t>1 Akt</t>
+  </si>
+  <si>
+    <t>2 h</t>
+  </si>
+  <si>
+    <t>1+ Akt</t>
+  </si>
+  <si>
+    <t>64 m</t>
+  </si>
+  <si>
+    <t>4 AsP pro h/1 pAsP</t>
+  </si>
+  <si>
+    <t>4 AsP pro h</t>
+  </si>
+  <si>
+    <t>QS x 3 m</t>
+  </si>
+  <si>
+    <t>permanent</t>
+  </si>
+  <si>
+    <t>Hören</t>
+  </si>
+  <si>
+    <t>Musizieren oder Singen</t>
+  </si>
+  <si>
+    <t>Musizieren/Singen</t>
+  </si>
+  <si>
+    <t>1 h</t>
+  </si>
+  <si>
+    <t>3 Tage</t>
+  </si>
+  <si>
+    <t>bel.</t>
+  </si>
+  <si>
+    <t>30+ Min</t>
+  </si>
+  <si>
+    <t>24 h</t>
+  </si>
+  <si>
+    <t>max. 5 Min</t>
+  </si>
+  <si>
+    <t>12 h</t>
+  </si>
+  <si>
+    <t>max. 2 KR</t>
+  </si>
+  <si>
+    <t>kpcost</t>
+  </si>
+  <si>
+    <t>kpcostShort</t>
   </si>
 </sst>
 </file>
@@ -9255,7 +9447,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -9318,6 +9510,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Erklärender Text 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
@@ -9325,7 +9520,40 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
-  <dxfs count="119">
+  <dxfs count="130">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -10059,7 +10287,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Table Style 1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="118"/>
+      <tableStyleElement type="headerRow" dxfId="129"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -10423,63 +10651,85 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:B10" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:B10" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127">
   <autoFilter ref="A1:B10" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <sortState ref="A2:B10">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="115"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="114"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table14" displayName="Table14" ref="A1:B44" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table14" displayName="Table14" ref="A1:B44" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A1:B44" xr:uid="{00000000-0009-0000-0100-00000E000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="id" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="name" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="id" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="name" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabelle5" displayName="Tabelle5" ref="A1:B193" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:B193" xr:uid="{00000000-0009-0000-0100-000005000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabelle5" displayName="Tabelle5" ref="A1:M193" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="A1:M193" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="id" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="name" dataDxfId="36"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="id" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="name" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{452BCF15-63D6-4F0D-8237-F453C9931794}" name="effect" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{3C4B8B30-E7ED-4AB5-BC66-F5C283820DD3}" name="castingtime" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{EDD4FA58-CDB8-416C-923B-13AE644AA21A}" name="castingtimeShort" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{E3A80605-B07C-400F-9DD6-DA1ECD45B17F}" name="kpcost" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{3735962A-FF4F-4E3D-9AFC-95B48BCF0758}" name="kpcostShort" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{4D0248C5-34EF-49A3-B1B4-33D1C05D9FBB}" name="range" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{D6111C84-C6C2-4C98-9BAC-040E9A31F2B9}" name="rangeShort" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{F33F5A8B-FEA1-4B00-AE2D-20CCBB24FF2A}" name="duration" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{66749CC6-D9C4-4BF4-BA63-F5A58FD8E6CB}" name="durationShort" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{BE17D95F-F42A-48F5-9E7F-A545D95D81C2}" name="target" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{1E0275F4-0996-4EC0-B571-4BB2870B8257}" name="src" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table16" displayName="Table16" ref="A1:B13" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table16" displayName="Table16" ref="A1:B13" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A1:B13" xr:uid="{00000000-0009-0000-0100-000010000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="id" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="name" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="id" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="name" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Tabelle6" displayName="Tabelle6" ref="A1:J502" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Tabelle6" displayName="Tabelle6" ref="A1:J502" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:J502" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10493,37 +10743,37 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="id" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="name" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="sel" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="input" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Column1" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Column2" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Column3" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Column4" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="Column5" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="Column6" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="id" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="name" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="sel" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="input" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Column1" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Column2" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Column3" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Column4" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="Column5" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="Column6" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table10" displayName="Table10" ref="A1:B111" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table10" displayName="Table10" ref="A1:B111" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:B111" xr:uid="{00000000-0009-0000-0100-00000A000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="id" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="name" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="id" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="name" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:D76" xr:uid="{00000000-0009-0000-0100-00000C000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10531,45 +10781,45 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="id" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="spec" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="specInput" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="id" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="name" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="spec" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="specInput" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table11" displayName="Table11" ref="A1:B36" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table11" displayName="Table11" ref="A1:B36" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:B36" xr:uid="{00000000-0009-0000-0100-00000B000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="id" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="name" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="id" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="name" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table15" displayName="Table15" ref="A1:B466" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table15" displayName="Table15" ref="A1:B466" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A1:B466" xr:uid="{00000000-0009-0000-0100-00000F000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="id" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="name" dataDxfId="3" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="id" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="name" dataDxfId="14" dataCellStyle="Excel Built-in Normal"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabelle9" displayName="Tabelle9" ref="A1:B484" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabelle9" displayName="Tabelle9" ref="A1:B484" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:B484" xr:uid="{00000000-0009-0000-0100-000009000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10578,29 +10828,29 @@
     <sortCondition ref="A1:A474"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="id" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="id" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="name" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:B8" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:B8" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
   <autoFilter ref="A1:B8" xr:uid="{00000000-0009-0000-0100-00000D000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="110"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle18" displayName="Tabelle18" ref="A1:K13" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle18" displayName="Tabelle18" ref="A1:K13" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
   <autoFilter ref="A1:K13" xr:uid="{00000000-0009-0000-0100-000012000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10612,24 +10862,24 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="attributeAdjustments" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="automaticAdvantages" dataDxfId="104"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="stronglyRecommendedAdvantages" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="stronglyRecommendedDisadvantages" dataDxfId="102"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="commonAdvantages" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="commonDisadvantages" dataDxfId="100"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="uncommonAdvantages" dataDxfId="99"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="uncommonDisadvantages" dataDxfId="98"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="src" dataDxfId="97"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="117"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="attributeAdjustments" dataDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="automaticAdvantages" dataDxfId="115"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="stronglyRecommendedAdvantages" dataDxfId="114"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="stronglyRecommendedDisadvantages" dataDxfId="113"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="commonAdvantages" dataDxfId="112"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="commonDisadvantages" dataDxfId="111"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="uncommonAdvantages" dataDxfId="110"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="uncommonDisadvantages" dataDxfId="109"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="src" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:G95" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:G95" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="A1:G95" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10640,36 +10890,36 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="name" dataDxfId="93"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="name_f" dataDxfId="92"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="subname" dataDxfId="91"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="subname_f" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="req" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="src" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="name" dataDxfId="104"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="name_f" dataDxfId="103"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="subname" dataDxfId="102"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="subname_f" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="req" dataDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="src" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
   <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="name" dataDxfId="84"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="name_f" dataDxfId="83"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="name" dataDxfId="95"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="name_f" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabelle8" displayName="Tabelle8" ref="A1:D76" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabelle8" displayName="Tabelle8" ref="A1:D76" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <autoFilter ref="A1:D76" xr:uid="{00000000-0009-0000-0100-000008000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10677,17 +10927,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="79"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="sel" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="input" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="sel" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="input" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D72" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D72" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
   <autoFilter ref="A1:D72" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10695,17 +10945,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="id" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="name" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="sel" dataDxfId="72"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="input" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="id" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="name" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="sel" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="input" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
   <autoFilter ref="A1:J60" xr:uid="{00000000-0009-0000-0100-000007000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10722,41 +10972,41 @@
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="id" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="name" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="spec" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="spec_input" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="tools" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="quality" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="failed" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="critical" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="botch" dataDxfId="60"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="src" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="id" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="name" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="spec" dataDxfId="77"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="spec_input" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="tools" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="quality" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="failed" dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="critical" dataDxfId="72"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="botch" dataDxfId="71"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="src" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:M1048576" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:M1048576" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <autoFilter ref="A1:M1048576" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="id" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="name" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="effect" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="castingtime" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{D89CFCD8-0667-4532-ADCB-656E0F380FC9}" name="castingtimeShort" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="aecost" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{AA76CB3A-D16A-4989-ACEE-9057F8B23848}" name="aecostShort" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="range" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{DD92ED00-D630-4075-AFBB-75382F298664}" name="rangeShort" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="duration" dataDxfId="47"/>
-    <tableColumn id="13" xr3:uid="{35897220-D86D-43E4-9246-750CE8AD5E3B}" name="durationShort" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="target" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="src" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="id" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="name" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="effect" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="castingtime" dataDxfId="64"/>
+    <tableColumn id="10" xr3:uid="{D89CFCD8-0667-4532-ADCB-656E0F380FC9}" name="castingtimeShort" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="aecost" dataDxfId="62"/>
+    <tableColumn id="11" xr3:uid="{AA76CB3A-D16A-4989-ACEE-9057F8B23848}" name="aecostShort" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="range" dataDxfId="60"/>
+    <tableColumn id="12" xr3:uid="{DD92ED00-D630-4075-AFBB-75382F298664}" name="rangeShort" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="duration" dataDxfId="58"/>
+    <tableColumn id="13" xr3:uid="{35897220-D86D-43E4-9246-750CE8AD5E3B}" name="durationShort" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="target" dataDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="src" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12372,8 +12622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="G187" sqref="G187"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12438,13 +12688,13 @@
         <v>2810</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2811</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>2811</v>
+        <v>3038</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>2812</v>
@@ -12476,7 +12726,7 @@
         <v>2810</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2816</v>
@@ -12511,13 +12761,13 @@
         <v>2849</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2849</v>
+        <v>3070</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2857</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>2857</v>
+        <v>3039</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>2812</v>
@@ -12546,7 +12796,7 @@
         <v>2849</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2849</v>
+        <v>3070</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>2858</v>
@@ -12581,13 +12831,13 @@
         <v>2850</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2850</v>
+        <v>3067</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>2859</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>2859</v>
+        <v>3060</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>2910</v>
@@ -12616,7 +12866,7 @@
         <v>2851</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>2858</v>
@@ -12628,7 +12878,7 @@
         <v>2911</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>2911</v>
+        <v>3031</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>2918</v>
@@ -12651,7 +12901,7 @@
         <v>2851</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>2858</v>
@@ -12663,7 +12913,7 @@
         <v>2911</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>2911</v>
+        <v>3031</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>2813</v>
@@ -12686,7 +12936,7 @@
         <v>2849</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2849</v>
+        <v>3070</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>2860</v>
@@ -12698,7 +12948,7 @@
         <v>2817</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>2920</v>
@@ -12724,7 +12974,7 @@
         <v>2810</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2816</v>
@@ -12736,7 +12986,7 @@
         <v>2817</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>2818</v>
@@ -12762,13 +13012,13 @@
         <v>2852</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>2861</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>2861</v>
+        <v>3048</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>2812</v>
@@ -12797,13 +13047,13 @@
         <v>2810</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>2862</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>2862</v>
+        <v>3061</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>2910</v>
@@ -12832,7 +13082,7 @@
         <v>2810</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>2860</v>
@@ -12867,19 +13117,19 @@
         <v>2849</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>2849</v>
+        <v>3070</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>2863</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>2863</v>
+        <v>3040</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>2817</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>2813</v>
@@ -12902,7 +13152,7 @@
         <v>2849</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>2849</v>
+        <v>3070</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>2858</v>
@@ -12914,7 +13164,7 @@
         <v>2817</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>2917</v>
@@ -12937,13 +13187,13 @@
         <v>2849</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>2849</v>
+        <v>3070</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>2864</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>2864</v>
+        <v>3062</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>2812</v>
@@ -12972,7 +13222,7 @@
         <v>2810</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>2858</v>
@@ -13007,13 +13257,13 @@
         <v>2851</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>2861</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>2861</v>
+        <v>3048</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>2812</v>
@@ -13042,7 +13292,7 @@
         <v>2849</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>2849</v>
+        <v>3070</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>2860</v>
@@ -13077,7 +13327,7 @@
         <v>2849</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>2849</v>
+        <v>3070</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>2860</v>
@@ -13112,7 +13362,7 @@
         <v>2810</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>2858</v>
@@ -13124,7 +13374,7 @@
         <v>2817</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>2918</v>
@@ -13147,7 +13397,7 @@
         <v>2810</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>2858</v>
@@ -13159,7 +13409,7 @@
         <v>2912</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>2912</v>
+        <v>3033</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>2917</v>
@@ -13182,7 +13432,7 @@
         <v>2851</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>2860</v>
@@ -13194,7 +13444,7 @@
         <v>2913</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>2913</v>
+        <v>3034</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>2917</v>
@@ -13217,13 +13467,13 @@
         <v>2851</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>2865</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>2865</v>
+        <v>3049</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>2812</v>
@@ -13252,7 +13502,7 @@
         <v>2810</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>2866</v>
@@ -13287,7 +13537,7 @@
         <v>2851</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>2860</v>
@@ -13299,7 +13549,7 @@
         <v>2913</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>2913</v>
+        <v>3034</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>2917</v>
@@ -13322,13 +13572,13 @@
         <v>2810</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>2811</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>2811</v>
+        <v>3038</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>2812</v>
@@ -13357,19 +13607,19 @@
         <v>2810</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>2867</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>2867</v>
+        <v>3063</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>2817</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>2813</v>
@@ -13392,19 +13642,19 @@
         <v>2810</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>2864</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>2864</v>
+        <v>3062</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>2912</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>2912</v>
+        <v>3033</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>2925</v>
@@ -13427,19 +13677,19 @@
         <v>2851</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>2811</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>2811</v>
+        <v>3038</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>2817</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>2813</v>
@@ -13462,7 +13712,7 @@
         <v>2810</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>2860</v>
@@ -13474,7 +13724,7 @@
         <v>2817</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>2926</v>
@@ -13497,7 +13747,7 @@
         <v>2810</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>2858</v>
@@ -13509,7 +13759,7 @@
         <v>2817</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>2927</v>
@@ -13532,13 +13782,13 @@
         <v>2810</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>2868</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>2868</v>
+        <v>3041</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>2812</v>
@@ -13567,13 +13817,13 @@
         <v>2852</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>2869</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>2869</v>
+        <v>3050</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>2910</v>
@@ -13602,19 +13852,19 @@
         <v>2810</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>2870</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>2870</v>
+        <v>3046</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>2912</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>2912</v>
+        <v>3033</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>2813</v>
@@ -13637,7 +13887,7 @@
         <v>2810</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>2858</v>
@@ -13672,7 +13922,7 @@
         <v>2852</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>2816</v>
@@ -13707,7 +13957,7 @@
         <v>2810</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>2860</v>
@@ -13719,7 +13969,7 @@
         <v>2817</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>2918</v>
@@ -13742,7 +13992,7 @@
         <v>2851</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>2858</v>
@@ -13777,13 +14027,13 @@
         <v>2852</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>2811</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>2811</v>
+        <v>3038</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>2812</v>
@@ -13812,7 +14062,7 @@
         <v>2852</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>2858</v>
@@ -13824,7 +14074,7 @@
         <v>2817</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>2924</v>
@@ -13847,13 +14097,13 @@
         <v>2851</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>2811</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>2811</v>
+        <v>3038</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>2812</v>
@@ -13882,13 +14132,13 @@
         <v>2851</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>2811</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>2811</v>
+        <v>3038</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>2812</v>
@@ -13917,13 +14167,13 @@
         <v>2852</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>2871</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>2871</v>
+        <v>3064</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>2812</v>
@@ -13952,13 +14202,13 @@
         <v>2851</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>2861</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>2861</v>
+        <v>3048</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>2910</v>
@@ -13987,13 +14237,13 @@
         <v>2852</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>2811</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>2811</v>
+        <v>3038</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>2910</v>
@@ -14022,7 +14272,7 @@
         <v>2853</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>2853</v>
+        <v>3011</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>2816</v>
@@ -14034,7 +14284,7 @@
         <v>2817</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>2917</v>
@@ -14057,7 +14307,7 @@
         <v>2853</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>2853</v>
+        <v>3011</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>2872</v>
@@ -14069,7 +14319,7 @@
         <v>2817</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>2917</v>
@@ -14092,7 +14342,7 @@
         <v>2854</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>2854</v>
+        <v>3006</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>2816</v>
@@ -14104,7 +14354,7 @@
         <v>2817</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>2917</v>
@@ -14127,7 +14377,7 @@
         <v>2853</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>2853</v>
+        <v>3011</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>2872</v>
@@ -14139,7 +14389,7 @@
         <v>2817</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>2917</v>
@@ -14162,7 +14412,7 @@
         <v>2854</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>2854</v>
+        <v>3006</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>2816</v>
@@ -14174,7 +14424,7 @@
         <v>2817</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>2917</v>
@@ -14197,19 +14447,19 @@
         <v>2853</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>2853</v>
+        <v>3011</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>2873</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>2873</v>
+        <v>3065</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>2817</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>2930</v>
@@ -14228,11 +14478,17 @@
       <c r="B53" s="1" t="s">
         <v>455</v>
       </c>
+      <c r="E53" s="1" t="s">
+        <v>3072</v>
+      </c>
       <c r="F53" s="1" t="s">
         <v>2874</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>2874</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>3073</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>2931</v>
@@ -14248,11 +14504,17 @@
       <c r="B54" s="1" t="s">
         <v>456</v>
       </c>
+      <c r="E54" s="1" t="s">
+        <v>3072</v>
+      </c>
       <c r="F54" s="1" t="s">
         <v>2874</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>2874</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>3073</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>2931</v>
@@ -14268,11 +14530,17 @@
       <c r="B55" s="1" t="s">
         <v>457</v>
       </c>
+      <c r="E55" s="1" t="s">
+        <v>3072</v>
+      </c>
       <c r="F55" s="1" t="s">
         <v>2875</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>2875</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>3073</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>2928</v>
@@ -14288,11 +14556,17 @@
       <c r="B56" s="1" t="s">
         <v>458</v>
       </c>
+      <c r="E56" s="1" t="s">
+        <v>3072</v>
+      </c>
       <c r="F56" s="1" t="s">
         <v>2874</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>2874</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>3073</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>2929</v>
@@ -14308,11 +14582,17 @@
       <c r="B57" s="1" t="s">
         <v>459</v>
       </c>
+      <c r="E57" s="1" t="s">
+        <v>3072</v>
+      </c>
       <c r="F57" s="1" t="s">
         <v>2876</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>2876</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>3073</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>2931</v>
@@ -14328,11 +14608,17 @@
       <c r="B58" s="1" t="s">
         <v>460</v>
       </c>
+      <c r="E58" s="1" t="s">
+        <v>3072</v>
+      </c>
       <c r="F58" s="1" t="s">
         <v>2877</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>2877</v>
+        <v>3029</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>3073</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>2932</v>
@@ -14348,11 +14634,17 @@
       <c r="B59" s="1" t="s">
         <v>461</v>
       </c>
+      <c r="E59" s="1" t="s">
+        <v>3072</v>
+      </c>
       <c r="F59" s="1" t="s">
         <v>2874</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>2874</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>3073</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>2931</v>
@@ -14368,11 +14660,17 @@
       <c r="B60" s="1" t="s">
         <v>462</v>
       </c>
+      <c r="E60" s="1" t="s">
+        <v>3072</v>
+      </c>
       <c r="F60" s="1" t="s">
         <v>2874</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>2874</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>3073</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>2933</v>
@@ -14388,11 +14686,17 @@
       <c r="B61" s="1" t="s">
         <v>463</v>
       </c>
+      <c r="E61" s="1" t="s">
+        <v>3072</v>
+      </c>
       <c r="F61" s="1" t="s">
         <v>2876</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>2876</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>3073</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>2931</v>
@@ -14408,11 +14712,17 @@
       <c r="B62" s="1" t="s">
         <v>464</v>
       </c>
+      <c r="E62" s="1" t="s">
+        <v>3072</v>
+      </c>
       <c r="F62" s="1" t="s">
         <v>2874</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>2874</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>3073</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>2929</v>
@@ -14428,11 +14738,23 @@
       <c r="B63" s="1" t="s">
         <v>465</v>
       </c>
+      <c r="E63" s="1" t="s">
+        <v>3083</v>
+      </c>
       <c r="F63" s="1" t="s">
         <v>2878</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>2878</v>
+        <v>3051</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
@@ -14442,11 +14764,23 @@
       <c r="B64" s="1" t="s">
         <v>466</v>
       </c>
+      <c r="E64" s="1" t="s">
+        <v>2992</v>
+      </c>
       <c r="F64" s="1" t="s">
         <v>2879</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>2879</v>
+        <v>3052</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>3076</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.45">
@@ -14456,11 +14790,23 @@
       <c r="B65" s="1" t="s">
         <v>467</v>
       </c>
+      <c r="E65" s="1" t="s">
+        <v>3082</v>
+      </c>
       <c r="F65" s="1" t="s">
         <v>2880</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>2880</v>
+        <v>3074</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>3077</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>3077</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.45">
@@ -14470,11 +14816,23 @@
       <c r="B66" s="1" t="s">
         <v>468</v>
       </c>
+      <c r="E66" s="1" t="s">
+        <v>3083</v>
+      </c>
       <c r="F66" s="1" t="s">
         <v>2881</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>2881</v>
+        <v>3075</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.45">
@@ -14484,11 +14842,23 @@
       <c r="B67" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="E67" s="1" t="s">
+        <v>3083</v>
+      </c>
       <c r="F67" s="1" t="s">
         <v>2879</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>2879</v>
+        <v>3052</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.45">
@@ -14498,11 +14868,23 @@
       <c r="B68" s="1" t="s">
         <v>470</v>
       </c>
+      <c r="E68" s="1" t="s">
+        <v>3081</v>
+      </c>
       <c r="F68" s="1" t="s">
         <v>2858</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>2858</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>3079</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>3080</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.45">
@@ -14516,7 +14898,7 @@
         <v>2851</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>2858</v>
@@ -14551,7 +14933,7 @@
         <v>2849</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>2849</v>
+        <v>3070</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>2860</v>
@@ -14563,7 +14945,7 @@
         <v>2817</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>2920</v>
@@ -14586,13 +14968,13 @@
         <v>2852</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>2882</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>2882</v>
+        <v>3053</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>2910</v>
@@ -14621,7 +15003,7 @@
         <v>2810</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>2860</v>
@@ -14656,7 +15038,7 @@
         <v>2849</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>2849</v>
+        <v>3070</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>2858</v>
@@ -14668,7 +15050,7 @@
         <v>2912</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>2912</v>
+        <v>3033</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>2917</v>
@@ -14691,13 +15073,13 @@
         <v>2852</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>2883</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>2883</v>
+        <v>3054</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>2812</v>
@@ -14726,13 +15108,13 @@
         <v>2810</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>2870</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>2870</v>
+        <v>3042</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>2812</v>
@@ -14761,7 +15143,7 @@
         <v>2810</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>2816</v>
@@ -14773,7 +15155,7 @@
         <v>2817</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>2934</v>
@@ -14796,7 +15178,7 @@
         <v>2851</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>2884</v>
@@ -14808,7 +15190,7 @@
         <v>2817</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>2935</v>
@@ -14831,19 +15213,19 @@
         <v>2849</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>2849</v>
+        <v>3070</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>2885</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>2885</v>
+        <v>3055</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>2912</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>2912</v>
+        <v>3033</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>2813</v>
@@ -14866,7 +15248,7 @@
         <v>2851</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>2816</v>
@@ -14878,7 +15260,7 @@
         <v>2912</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>2912</v>
+        <v>3033</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>2936</v>
@@ -14901,7 +15283,7 @@
         <v>2851</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>2858</v>
@@ -14936,7 +15318,7 @@
         <v>2851</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>2872</v>
@@ -14948,7 +15330,7 @@
         <v>2914</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>2914</v>
+        <v>3035</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>2917</v>
@@ -14971,7 +15353,7 @@
         <v>2851</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>2886</v>
@@ -14983,7 +15365,7 @@
         <v>2911</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>2911</v>
+        <v>3031</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>2917</v>
@@ -15006,7 +15388,7 @@
         <v>2851</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>2887</v>
@@ -15018,7 +15400,7 @@
         <v>2913</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>2913</v>
+        <v>3034</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>2917</v>
@@ -15041,7 +15423,7 @@
         <v>2851</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>2816</v>
@@ -15053,7 +15435,7 @@
         <v>2817</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>2937</v>
@@ -15076,19 +15458,19 @@
         <v>2851</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>2888</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>2888</v>
+        <v>3043</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>2911</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>2911</v>
+        <v>3031</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>2813</v>
@@ -15111,7 +15493,7 @@
         <v>2851</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>2858</v>
@@ -15146,7 +15528,7 @@
         <v>2851</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>2889</v>
@@ -15158,7 +15540,7 @@
         <v>2817</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>2939</v>
@@ -15181,7 +15563,7 @@
         <v>2810</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>2858</v>
@@ -15193,7 +15575,7 @@
         <v>2817</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>2940</v>
@@ -15216,7 +15598,7 @@
         <v>2851</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>2816</v>
@@ -15228,7 +15610,7 @@
         <v>2817</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>2941</v>
@@ -15251,7 +15633,7 @@
         <v>2849</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>2849</v>
+        <v>3070</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>2858</v>
@@ -15286,7 +15668,7 @@
         <v>2852</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>2860</v>
@@ -15298,7 +15680,7 @@
         <v>2913</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>2913</v>
+        <v>3034</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>2917</v>
@@ -15321,13 +15703,13 @@
         <v>2852</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>2890</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>2890</v>
+        <v>3044</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>2812</v>
@@ -15356,7 +15738,7 @@
         <v>2849</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>2849</v>
+        <v>3070</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>2858</v>
@@ -15368,7 +15750,7 @@
         <v>2912</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>2912</v>
+        <v>3033</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>2917</v>
@@ -15391,7 +15773,7 @@
         <v>2849</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>2849</v>
+        <v>3070</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>2860</v>
@@ -15403,7 +15785,7 @@
         <v>2817</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>2942</v>
@@ -15426,7 +15808,7 @@
         <v>2851</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>2860</v>
@@ -15461,7 +15843,7 @@
         <v>2851</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>2816</v>
@@ -15496,7 +15878,7 @@
         <v>2810</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>2858</v>
@@ -15508,7 +15890,7 @@
         <v>2912</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>2912</v>
+        <v>3033</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>2917</v>
@@ -15531,7 +15913,7 @@
         <v>2851</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>2872</v>
@@ -15543,7 +15925,7 @@
         <v>2914</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>2914</v>
+        <v>3035</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>2917</v>
@@ -15566,19 +15948,19 @@
         <v>2851</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>2891</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>2891</v>
+        <v>3056</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>2817</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>2813</v>
@@ -15601,13 +15983,13 @@
         <v>2852</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>2892</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>2892</v>
+        <v>3057</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>2910</v>
@@ -15636,13 +16018,13 @@
         <v>2852</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>2892</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>2892</v>
+        <v>3057</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>2910</v>
@@ -15671,13 +16053,13 @@
         <v>2852</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>2892</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>2892</v>
+        <v>3057</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>2910</v>
@@ -15706,7 +16088,7 @@
         <v>2810</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>2860</v>
@@ -15718,7 +16100,7 @@
         <v>2912</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>2912</v>
+        <v>3033</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>2917</v>
@@ -15741,7 +16123,7 @@
         <v>2850</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>2850</v>
+        <v>3067</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>2872</v>
@@ -15753,7 +16135,7 @@
         <v>2914</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>2914</v>
+        <v>3035</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>2942</v>
@@ -15776,7 +16158,7 @@
         <v>2851</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>2866</v>
@@ -15811,19 +16193,19 @@
         <v>2851</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>2811</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>2811</v>
+        <v>3038</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>2817</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>2813</v>
@@ -15846,7 +16228,7 @@
         <v>2850</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>2850</v>
+        <v>3067</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>2858</v>
@@ -15858,7 +16240,7 @@
         <v>2817</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>2945</v>
@@ -15881,7 +16263,7 @@
         <v>2851</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>2860</v>
@@ -15893,7 +16275,7 @@
         <v>2817</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>2917</v>
@@ -15916,7 +16298,7 @@
         <v>2850</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>2850</v>
+        <v>3067</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>2816</v>
@@ -15928,7 +16310,7 @@
         <v>2817</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>2940</v>
@@ -15951,7 +16333,7 @@
         <v>2810</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>2858</v>
@@ -15986,7 +16368,7 @@
         <v>2851</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>2893</v>
@@ -15998,7 +16380,7 @@
         <v>2817</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>2917</v>
@@ -16021,7 +16403,7 @@
         <v>2849</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>2849</v>
+        <v>3070</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>2864</v>
@@ -16056,7 +16438,7 @@
         <v>2810</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>2816</v>
@@ -16091,7 +16473,7 @@
         <v>2852</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>2816</v>
@@ -16103,7 +16485,7 @@
         <v>2817</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>2917</v>
@@ -16126,7 +16508,7 @@
         <v>2851</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>2893</v>
@@ -16138,7 +16520,7 @@
         <v>2817</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>2917</v>
@@ -16161,7 +16543,7 @@
         <v>2851</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>2858</v>
@@ -16173,7 +16555,7 @@
         <v>2911</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>2911</v>
+        <v>3031</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>2917</v>
@@ -16196,19 +16578,19 @@
         <v>2851</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>2893</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>2893</v>
+        <v>3037</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>2817</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>2917</v>
@@ -16231,7 +16613,7 @@
         <v>2810</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>2860</v>
@@ -16243,7 +16625,7 @@
         <v>2911</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>2911</v>
+        <v>3031</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>2947</v>
@@ -16266,7 +16648,7 @@
         <v>2851</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>2858</v>
@@ -16301,7 +16683,7 @@
         <v>2810</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>2860</v>
@@ -16313,7 +16695,7 @@
         <v>2915</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>2915</v>
+        <v>3030</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>2948</v>
@@ -16336,7 +16718,7 @@
         <v>2849</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>2849</v>
+        <v>3070</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>2860</v>
@@ -16371,13 +16753,13 @@
         <v>2852</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>2894</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>2894</v>
+        <v>3045</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>2812</v>
@@ -16406,7 +16788,7 @@
         <v>2810</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>2858</v>
@@ -16441,7 +16823,7 @@
         <v>2851</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>2816</v>
@@ -16453,7 +16835,7 @@
         <v>2817</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>2949</v>
@@ -16476,7 +16858,7 @@
         <v>2810</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>2860</v>
@@ -16488,7 +16870,7 @@
         <v>2911</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>2911</v>
+        <v>3031</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>2947</v>
@@ -16511,7 +16893,7 @@
         <v>2852</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>2866</v>
@@ -16546,7 +16928,7 @@
         <v>2850</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>2850</v>
+        <v>3067</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>2860</v>
@@ -16558,7 +16940,7 @@
         <v>2916</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>2916</v>
+        <v>3036</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>2950</v>
@@ -16581,7 +16963,7 @@
         <v>2851</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>2893</v>
@@ -16593,7 +16975,7 @@
         <v>2817</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>2917</v>
@@ -16616,7 +16998,7 @@
         <v>2851</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>2893</v>
@@ -16628,7 +17010,7 @@
         <v>2817</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>2917</v>
@@ -16651,7 +17033,7 @@
         <v>2852</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>2858</v>
@@ -16663,7 +17045,7 @@
         <v>2817</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>2917</v>
@@ -16686,7 +17068,7 @@
         <v>2851</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>2816</v>
@@ -16721,7 +17103,7 @@
         <v>2852</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>2816</v>
@@ -16733,7 +17115,7 @@
         <v>2817</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>2917</v>
@@ -16756,7 +17138,7 @@
         <v>2851</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>2858</v>
@@ -16768,7 +17150,7 @@
         <v>2912</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>2912</v>
+        <v>3033</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>2946</v>
@@ -16791,7 +17173,7 @@
         <v>2851</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>2893</v>
@@ -16803,7 +17185,7 @@
         <v>2817</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>2917</v>
@@ -16826,7 +17208,7 @@
         <v>2850</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>2850</v>
+        <v>3067</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>2816</v>
@@ -16861,13 +17243,13 @@
         <v>2851</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>2895</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>2895</v>
+        <v>3058</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>2812</v>
@@ -16896,7 +17278,7 @@
         <v>2849</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>2849</v>
+        <v>3070</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>2858</v>
@@ -16908,7 +17290,7 @@
         <v>2912</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>2912</v>
+        <v>3033</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>2917</v>
@@ -16931,7 +17313,7 @@
         <v>2810</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>2858</v>
@@ -16966,7 +17348,7 @@
         <v>2851</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>2816</v>
@@ -16978,7 +17360,7 @@
         <v>2817</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>2952</v>
@@ -17001,7 +17383,7 @@
         <v>2849</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>2849</v>
+        <v>3070</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>2860</v>
@@ -17013,7 +17395,7 @@
         <v>2817</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>2918</v>
@@ -17036,7 +17418,7 @@
         <v>2851</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>2858</v>
@@ -17071,7 +17453,7 @@
         <v>2810</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>2860</v>
@@ -17106,19 +17488,19 @@
         <v>2851</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>2891</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>2891</v>
+        <v>3056</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>2817</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>2813</v>
@@ -17141,7 +17523,7 @@
         <v>2851</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>2860</v>
@@ -17153,7 +17535,7 @@
         <v>2817</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>2953</v>
@@ -17176,7 +17558,7 @@
         <v>2851</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>2866</v>
@@ -17188,7 +17570,7 @@
         <v>2817</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>2954</v>
@@ -17211,7 +17593,7 @@
         <v>2852</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>2858</v>
@@ -17223,7 +17605,7 @@
         <v>2911</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>2911</v>
+        <v>3031</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>2917</v>
@@ -17246,13 +17628,13 @@
         <v>2851</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>2896</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>2896</v>
+        <v>3059</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>2910</v>
@@ -17281,7 +17663,7 @@
         <v>2810</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>2860</v>
@@ -17316,7 +17698,7 @@
         <v>2851</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>2893</v>
@@ -17328,7 +17710,7 @@
         <v>2817</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>2917</v>
@@ -17351,7 +17733,7 @@
         <v>2810</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>2858</v>
@@ -17386,7 +17768,7 @@
         <v>2810</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>2858</v>
@@ -17398,7 +17780,7 @@
         <v>2912</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>2912</v>
+        <v>3033</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>2917</v>
@@ -17421,7 +17803,7 @@
         <v>2851</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>2872</v>
@@ -17433,7 +17815,7 @@
         <v>2914</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>2914</v>
+        <v>3035</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>2917</v>
@@ -17456,7 +17838,7 @@
         <v>2852</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>2816</v>
@@ -17468,7 +17850,7 @@
         <v>2817</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>2917</v>
@@ -17491,13 +17873,13 @@
         <v>2852</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>2895</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>2895</v>
+        <v>3058</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>2910</v>
@@ -17526,7 +17908,7 @@
         <v>2810</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>2858</v>
@@ -17538,7 +17920,7 @@
         <v>2817</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>2955</v>
@@ -17561,7 +17943,7 @@
         <v>2852</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>2897</v>
@@ -17596,7 +17978,7 @@
         <v>2851</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>2866</v>
@@ -17608,7 +17990,7 @@
         <v>2911</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>2911</v>
+        <v>3031</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>2918</v>
@@ -17631,13 +18013,13 @@
         <v>2851</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>2898</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>2898</v>
+        <v>3046</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>2812</v>
@@ -17666,7 +18048,7 @@
         <v>2851</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>2860</v>
@@ -17701,7 +18083,7 @@
         <v>2851</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>2858</v>
@@ -17736,7 +18118,7 @@
         <v>2810</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>2816</v>
@@ -17771,7 +18153,7 @@
         <v>2851</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>2858</v>
@@ -17783,7 +18165,7 @@
         <v>2817</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>2944</v>
@@ -17806,7 +18188,7 @@
         <v>2810</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>2858</v>
@@ -17818,7 +18200,7 @@
         <v>2817</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>2951</v>
@@ -17841,7 +18223,7 @@
         <v>2851</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>2858</v>
@@ -17876,7 +18258,7 @@
         <v>2851</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>2860</v>
@@ -17888,7 +18270,7 @@
         <v>2817</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>2940</v>
@@ -17911,7 +18293,7 @@
         <v>2851</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>2893</v>
@@ -17923,7 +18305,7 @@
         <v>2817</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>2917</v>
@@ -17946,19 +18328,19 @@
         <v>2851</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>2899</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>2899</v>
+        <v>3047</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>2911</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>2911</v>
+        <v>3031</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>2813</v>
@@ -17981,7 +18363,7 @@
         <v>2851</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>2851</v>
+        <v>3068</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>2893</v>
@@ -17993,7 +18375,7 @@
         <v>2817</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>2917</v>
@@ -18016,7 +18398,7 @@
         <v>2810</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>2810</v>
+        <v>3066</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>2860</v>
@@ -18051,13 +18433,13 @@
         <v>2852</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>2852</v>
+        <v>3069</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>2890</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>2890</v>
+        <v>3044</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>2812</v>
@@ -18086,7 +18468,7 @@
         <v>2855</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>2855</v>
+        <v>2992</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>2860</v>
@@ -18098,7 +18480,7 @@
         <v>2911</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>2911</v>
+        <v>3031</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>2927</v>
@@ -18121,7 +18503,7 @@
         <v>2855</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>2855</v>
+        <v>2992</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>2816</v>
@@ -18133,7 +18515,7 @@
         <v>2817</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>2817</v>
+        <v>3032</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>2940</v>
@@ -18156,7 +18538,7 @@
         <v>2855</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>2855</v>
+        <v>2992</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>2860</v>
@@ -18191,7 +18573,7 @@
         <v>2855</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>2855</v>
+        <v>2992</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>2872</v>
@@ -18226,7 +18608,7 @@
         <v>2854</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>2854</v>
+        <v>3006</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>2900</v>
@@ -18238,7 +18620,7 @@
         <v>2911</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>2911</v>
+        <v>3031</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>2927</v>
@@ -18261,7 +18643,7 @@
         <v>2855</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>2855</v>
+        <v>2992</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>2860</v>
@@ -18296,7 +18678,7 @@
         <v>2854</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>2854</v>
+        <v>3006</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>2860</v>
@@ -18331,7 +18713,7 @@
         <v>2856</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>2856</v>
+        <v>3071</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>2858</v>
@@ -18366,7 +18748,7 @@
         <v>2855</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>2855</v>
+        <v>2992</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>2860</v>
@@ -18401,7 +18783,7 @@
         <v>2855</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>2855</v>
+        <v>2992</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>2860</v>
@@ -18436,7 +18818,7 @@
         <v>2854</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>2854</v>
+        <v>3006</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>2816</v>
@@ -18471,7 +18853,7 @@
         <v>2854</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>2854</v>
+        <v>3006</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>2858</v>
@@ -18483,7 +18865,7 @@
         <v>2912</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>2912</v>
+        <v>3033</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>2944</v>
@@ -18506,7 +18888,7 @@
         <v>2855</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>2855</v>
+        <v>2992</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>2816</v>
@@ -18541,7 +18923,7 @@
         <v>2855</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>2855</v>
+        <v>2992</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>2858</v>
@@ -18584,6 +18966,12 @@
       <c r="G185" s="1" t="s">
         <v>2858</v>
       </c>
+      <c r="I185" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>3084</v>
+      </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186" s="12">
@@ -18604,6 +18992,12 @@
       <c r="G186" s="1" t="s">
         <v>2901</v>
       </c>
+      <c r="I186" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>2917</v>
+      </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187" s="12">
@@ -18624,6 +19018,12 @@
       <c r="G187" s="1" t="s">
         <v>3023</v>
       </c>
+      <c r="I187" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>3084</v>
+      </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A188" s="12">
@@ -18644,6 +19044,12 @@
       <c r="G188" s="1" t="s">
         <v>2858</v>
       </c>
+      <c r="I188" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>2917</v>
+      </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189" s="12">
@@ -18664,6 +19070,12 @@
       <c r="G189" s="1" t="s">
         <v>2901</v>
       </c>
+      <c r="I189" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>2917</v>
+      </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A190" s="12">
@@ -18684,6 +19096,12 @@
       <c r="G190" s="1" t="s">
         <v>3024</v>
       </c>
+      <c r="I190" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>3085</v>
+      </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A191" s="12">
@@ -18704,6 +19122,12 @@
       <c r="G191" s="1" t="s">
         <v>2904</v>
       </c>
+      <c r="I191" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K191" s="1" t="s">
+        <v>2998</v>
+      </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A192" s="12">
@@ -18724,8 +19148,14 @@
       <c r="G192" s="1" t="s">
         <v>2858</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I192" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A193" s="12">
         <v>192</v>
       </c>
@@ -18744,8 +19174,14 @@
       <c r="G193" s="1" t="s">
         <v>3025</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I193" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A194" s="12">
         <v>193</v>
       </c>
@@ -18764,8 +19200,14 @@
       <c r="G194" s="1" t="s">
         <v>2901</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I194" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A195" s="12">
         <v>194</v>
       </c>
@@ -18784,8 +19226,14 @@
       <c r="G195" s="1" t="s">
         <v>3026</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I195" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K195" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A196" s="12">
         <v>195</v>
       </c>
@@ -18804,8 +19252,14 @@
       <c r="G196" s="1" t="s">
         <v>3026</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I196" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K196" s="1" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A197" s="12">
         <v>196</v>
       </c>
@@ -18824,8 +19278,14 @@
       <c r="G197" s="1" t="s">
         <v>3025</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I197" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K197" s="1" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A198" s="12">
         <v>197</v>
       </c>
@@ -18844,8 +19304,14 @@
       <c r="G198" s="1" t="s">
         <v>3026</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I198" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K198" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A199" s="12">
         <v>198</v>
       </c>
@@ -18864,8 +19330,14 @@
       <c r="G199" s="1" t="s">
         <v>2816</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I199" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K199" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A200" s="12">
         <v>199</v>
       </c>
@@ -18884,8 +19356,14 @@
       <c r="G200" s="1" t="s">
         <v>3026</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I200" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A201" s="12">
         <v>200</v>
       </c>
@@ -18904,8 +19382,14 @@
       <c r="G201" s="1" t="s">
         <v>3025</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I201" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K201" s="1" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A202" s="12">
         <v>201</v>
       </c>
@@ -18924,8 +19408,14 @@
       <c r="G202" s="1" t="s">
         <v>3026</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I202" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K202" s="1" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A203" s="12">
         <v>202</v>
       </c>
@@ -18944,8 +19434,14 @@
       <c r="G203" s="1" t="s">
         <v>3026</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I203" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K203" s="1" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A204" s="12">
         <v>203</v>
       </c>
@@ -18964,8 +19460,14 @@
       <c r="G204" s="1" t="s">
         <v>3025</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I204" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K204" s="1" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A205" s="12">
         <v>204</v>
       </c>
@@ -18984,8 +19486,14 @@
       <c r="G205" s="1" t="s">
         <v>3026</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I205" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K205" s="1" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A206" s="12">
         <v>205</v>
       </c>
@@ -19004,8 +19512,14 @@
       <c r="G206" s="1" t="s">
         <v>2904</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I206" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K206" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A207" s="12">
         <v>206</v>
       </c>
@@ -19024,8 +19538,14 @@
       <c r="G207" s="1" t="s">
         <v>3026</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I207" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K207" s="1" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A208" s="12">
         <v>207</v>
       </c>
@@ -19044,8 +19564,14 @@
       <c r="G208" s="1" t="s">
         <v>2907</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I208" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K208" s="1" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A209" s="12">
         <v>208</v>
       </c>
@@ -19064,8 +19590,14 @@
       <c r="G209" s="1" t="s">
         <v>2907</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I209" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K209" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A210" s="12">
         <v>209</v>
       </c>
@@ -19084,8 +19616,14 @@
       <c r="G210" s="1" t="s">
         <v>2858</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I210" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K210" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A211" s="12">
         <v>210</v>
       </c>
@@ -19104,8 +19642,14 @@
       <c r="G211" s="1" t="s">
         <v>2860</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I211" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K211" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A212" s="12">
         <v>211</v>
       </c>
@@ -19124,8 +19668,14 @@
       <c r="G212" s="1" t="s">
         <v>2901</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I212" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K212" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A213" s="12">
         <v>212</v>
       </c>
@@ -19144,8 +19694,14 @@
       <c r="G213" s="1" t="s">
         <v>2816</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I213" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A214" s="12">
         <v>213</v>
       </c>
@@ -19164,8 +19720,14 @@
       <c r="G214" s="1" t="s">
         <v>2858</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I214" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K214" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A215" s="12">
         <v>214</v>
       </c>
@@ -19184,8 +19746,14 @@
       <c r="G215" s="1" t="s">
         <v>2858</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I215" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K215" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A216" s="12">
         <v>215</v>
       </c>
@@ -19202,10 +19770,16 @@
         <v>2908</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>2908</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+        <v>3027</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A217" s="12">
         <v>216</v>
       </c>
@@ -19224,8 +19798,14 @@
       <c r="G217" s="1" t="s">
         <v>2901</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I217" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K217" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A218" s="12">
         <v>217</v>
       </c>
@@ -19244,8 +19824,14 @@
       <c r="G218" s="1" t="s">
         <v>2901</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I218" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A219" s="12">
         <v>218</v>
       </c>
@@ -19264,8 +19850,14 @@
       <c r="G219" s="1" t="s">
         <v>2904</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I219" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K219" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A220" s="12">
         <v>219</v>
       </c>
@@ -19284,8 +19876,14 @@
       <c r="G220" s="1" t="s">
         <v>2904</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I220" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K220" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A221" s="12">
         <v>220</v>
       </c>
@@ -19304,8 +19902,14 @@
       <c r="G221" s="1" t="s">
         <v>2858</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I221" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K221" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A222" s="12">
         <v>221</v>
       </c>
@@ -19324,8 +19928,14 @@
       <c r="G222" s="1" t="s">
         <v>2858</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I222" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K222" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A223" s="12">
         <v>222</v>
       </c>
@@ -19344,8 +19954,14 @@
       <c r="G223" s="1" t="s">
         <v>2901</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I223" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K223" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A224" s="12">
         <v>223</v>
       </c>
@@ -19364,8 +19980,14 @@
       <c r="G224" s="1" t="s">
         <v>2907</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I224" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K224" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A225" s="12">
         <v>224</v>
       </c>
@@ -19384,8 +20006,14 @@
       <c r="G225" s="1" t="s">
         <v>2907</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I225" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K225" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A226" s="12">
         <v>225</v>
       </c>
@@ -19404,8 +20032,14 @@
       <c r="G226" s="1" t="s">
         <v>2816</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I226" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K226" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A227" s="12">
         <v>226</v>
       </c>
@@ -19424,8 +20058,14 @@
       <c r="G227" s="1" t="s">
         <v>2858</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I227" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K227" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A228" s="12">
         <v>227</v>
       </c>
@@ -19444,8 +20084,14 @@
       <c r="G228" s="1" t="s">
         <v>2816</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I228" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K228" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A229" s="12">
         <v>228</v>
       </c>
@@ -19464,8 +20110,14 @@
       <c r="G229" s="1" t="s">
         <v>2909</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I229" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K229" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A230" s="12">
         <v>229</v>
       </c>
@@ -19484,8 +20136,14 @@
       <c r="G230" s="1" t="s">
         <v>2858</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I230" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K230" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A231" s="12">
         <v>230</v>
       </c>
@@ -19504,8 +20162,14 @@
       <c r="G231" s="1" t="s">
         <v>2904</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I231" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K231" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A232" s="12">
         <v>231</v>
       </c>
@@ -19524,8 +20188,14 @@
       <c r="G232" s="1" t="s">
         <v>2858</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I232" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K232" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A233" s="12">
         <v>232</v>
       </c>
@@ -19544,8 +20214,14 @@
       <c r="G233" s="1" t="s">
         <v>2858</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I233" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K233" s="1" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A234" s="12">
         <v>233</v>
       </c>
@@ -19563,6 +20239,12 @@
       </c>
       <c r="G234" s="1" t="s">
         <v>2907</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K234" s="1" t="s">
+        <v>2917</v>
       </c>
     </row>
   </sheetData>
@@ -19950,10 +20632,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19963,15 +20645,48 @@
     <col min="3" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="3" t="s">
+        <v>2803</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2804</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>2845</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3089</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3090</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2806</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2847</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>2807</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>2848</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>2808</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -19979,7 +20694,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -19987,7 +20702,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -19995,7 +20710,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -20003,7 +20718,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -20011,7 +20726,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -20019,7 +20734,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -20027,7 +20742,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -20035,7 +20750,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -20043,7 +20758,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -20051,7 +20766,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -20059,7 +20774,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -20067,7 +20782,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -20075,7 +20790,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -20083,7 +20798,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>

--- a/src/data/TDE5_de-DE.xlsx
+++ b/src/data/TDE5_de-DE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="30" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5264" uniqueCount="3091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5440" uniqueCount="3223">
   <si>
     <t>id</t>
   </si>
@@ -9328,6 +9328,402 @@
   </si>
   <si>
     <t>kpcostShort</t>
+  </si>
+  <si>
+    <t>areaKnowledgeShort</t>
+  </si>
+  <si>
+    <t>areaKnowledge</t>
+  </si>
+  <si>
+    <t>commonMundaneProfessions</t>
+  </si>
+  <si>
+    <t>commonMagicalProfessions</t>
+  </si>
+  <si>
+    <t>commonBlessedProfessions</t>
+  </si>
+  <si>
+    <t>commonNames</t>
+  </si>
+  <si>
+    <t>Heimat</t>
+  </si>
+  <si>
+    <t>je nach Heimatort (z.B. Andergast-Stadt, Joborn)</t>
+  </si>
+  <si>
+    <t>alle außer Gladiatoren und Stammeskrieger</t>
+  </si>
+  <si>
+    <t>Hexe, Magier</t>
+  </si>
+  <si>
+    <t>Borongeweihte, Hesindegeweihte, Perainegeweihte, Phexgeweihte, Praiosgeweihte, Rondrageweihte</t>
+  </si>
+  <si>
+    <t>Richtungssinn, Zäher Hund</t>
+  </si>
+  <si>
+    <t>* *männlich*: Arnbold, Borkhelm, Eichward, Gartwald, Ludewich, Marik, Strammgert, Wendolyn, Wenzelaus, Zoltan\n* *weiblich*: Andra, Berga, Domela, Ernka, Hadwiga, Irmela, Larja, Marmelunde, Trashka, Wendeline\n* *Familiennamen*: Alrikshuber, Borkmeister, Eichinger, Haubeiler, Holzgut, Kuhbauer, Marktbauer, Sattelhuber, Schweinwirt, Zibbelbart\n* *Adelsfamilien*: von Anderstein, von Borkenfeld, von Steinbaum, von Tatzenstein, von Teshkal</t>
+  </si>
+  <si>
+    <t>je nach Heimatort (z.B. Baburin, Elburum, Llanka, Palmyrabad, Zorgan)</t>
+  </si>
+  <si>
+    <t>alle ausser Ritter, Gladiator und Stammeskrieger</t>
+  </si>
+  <si>
+    <t>Hexe (vor allem Katzenhexen), Magier (selten)</t>
+  </si>
+  <si>
+    <t>Begabung in Gesellschaftstalenten, Entfernungssinn</t>
+  </si>
+  <si>
+    <t>* *männlich*: Assaf, Djafardeon, Eslam, Faizal, Kazan, Mahdul, Marwamir, Nazir, Seyychaban, Zahir\n* *weiblich*: Aischanka, Belima, Delilah, Harizeth, Majula, Neraida, Rhayadaque, Shilaldara, Yamira, Zulhaminai\n* Namen werden mit *Ibn* bei Männern und *saba* oder *-sunni* bei Frauen mit dem Namen des Vaters oder der Mutter verbunden, beispielsweise Yamira saba Delihah, Belima Majulasunni oder Assaf ibn Eslam</t>
+  </si>
+  <si>
+    <t>je nach Heimatort (z.B. Festum, Norburg, Notmark, Ouvennmas, Rodebrannt)</t>
+  </si>
+  <si>
+    <t>alle ausser Gladiatoren und Stammeskrieger</t>
+  </si>
+  <si>
+    <t>Kälteresistenz, Richtungssinn, Zäher Hund</t>
+  </si>
+  <si>
+    <t>Hitzeempfindlich, Persönlichkeitsschwächen (Vorurteile - vor allem gegen Orks, Goblins, Al'Anfaner und Norbarden), Schlechte Eigenschaft (Aberglaube)</t>
+  </si>
+  <si>
+    <t>keine</t>
+  </si>
+  <si>
+    <t>* *männlich*: Bosjew, Danow, Elkwin, Firunew, Irjan, Jaakon, Jucho, Oswin, Travin, Vito\n* *weiblich*: Alwinja, Dunjascha, Elwinja, Hesinja, Irinja, Jadvine, Karinja, Nadjescha, Rowena, Vanjescha\n* *Familiennamen*: Alwinnen, Baerow, Bornski, Firunkis, Gartimpski, Gerberow, Karenkis, Larinow, Saraski, Timpski\n* *Adelsfamilien*: von Salderkeim, von Quelldunkel, von Ouvenstam, von Wosna, von Eschenfurt</t>
+  </si>
+  <si>
+    <t>Wegstrecke</t>
+  </si>
+  <si>
+    <t>Hexe (vor allem Kröten- und Rabenhexe), Magier</t>
+  </si>
+  <si>
+    <t>Persönlichkeitsschwächen (Eitelkeit, Vorurteile - vor allem gegen Novadis und Magier), Schlechte Eigenschaften (Aberglaube), Zerbrechlich</t>
+  </si>
+  <si>
+    <t>Persönlichkeitsschwächen (Vorurteile) – vor allem gegen Nostrier und Frauen, Weltfremd – vor allem gegenüber Fortschritt, Welt außerhalb des Königreichs), Schlechte Eigenschaften (Aberglaube)</t>
+  </si>
+  <si>
+    <t>Das Gegenüber ist bereit, mehr für den Helden zu tun.</t>
+  </si>
+  <si>
+    <t>Dem Held gelingt es nicht, sein Gegenüber zu überreden.</t>
+  </si>
+  <si>
+    <t>Die Person, die der Held überreden wollte, tut weit mehr als sie muss.</t>
+  </si>
+  <si>
+    <t>Die Person, die der Held überreden wollte, ist wütend auf den Helden und lässt sich in nächster Zeit nicht mehr überreden.</t>
+  </si>
+  <si>
+    <t>Die Verkleidung ist schwerer zu durchschauen.</t>
+  </si>
+  <si>
+    <t>Die Verkleidung ist nicht gut gewählt und hält einem prüfenden Blick nicht stand.</t>
+  </si>
+  <si>
+    <t>Die Verkleidung funktioniert tadellos.</t>
+  </si>
+  <si>
+    <t>Die Kleidung wird sofort durchschaut und der Held handelt sich in der Regel Ärger ein.</t>
+  </si>
+  <si>
+    <t>Die Auswirkungen von Verführungs- oder Überredensversuchen sind deutlich abgeschwächt oder es wird ihnen ganz widerstanden.</t>
+  </si>
+  <si>
+    <t>Der Held kann nicht widerstehen.</t>
+  </si>
+  <si>
+    <t>Der Held widersteht und kann von dieser Person oder Sache in nächster Zeit nicht mehr beeinflusst werden.</t>
+  </si>
+  <si>
+    <t>Der Held ist der Person, die ihn beeinflussen will, vollkommen verfallen oder fällt bei Anblick eines scheußlichen Dämons in Ohnmacht.</t>
+  </si>
+  <si>
+    <t>über die Qualitätsstufe kann der Held mehr Details in der Fährte erkennen.</t>
+  </si>
+  <si>
+    <t>Der Held findet keine Spur oder kann keine neuen Erkenntnisse gewinnen.</t>
+  </si>
+  <si>
+    <t>Sofern die Spur nicht komplett zerstört wurde, kann der Held ihr zielsicher bis zum Ende folgen. Er erhält mehr Informationen als üblich. Täuschungsmanöver wie das Verwischen der Spuren durchschaut er sofort.</t>
+  </si>
+  <si>
+    <t>Der Held verwechselt die Spur und folgt einer falschen Fährte. So trifft er vielleicht auf eine gefährliche Kreatur oder jagt den falschen Leuten hinterher.</t>
+  </si>
+  <si>
+    <t>Die Fessel hält länger und kann gegebenenfalls schwerer geöffnet werden.</t>
+  </si>
+  <si>
+    <t>Dem Held gelingt nur ein Knoten von schlechter Qualität. Das Befreien daraus ist leichter als üblich.</t>
+  </si>
+  <si>
+    <t>Der Held hat einen stabilen Knoten gemacht. Für Qualitätsstufen, Vergleichs- und Sammelproben gilt: FP = doppelter FW.</t>
+  </si>
+  <si>
+    <t>Der Held hat einen Knoten gemacht, der sich in jeder Lage löst - oder der denkbar ungünstigsten.</t>
+  </si>
+  <si>
+    <t>Die Fische sind wohlschmeckender als bei einem durchschnittlichen Fang.</t>
+  </si>
+  <si>
+    <t>Kein Fisch beißt an oder geht ins Netz.</t>
+  </si>
+  <si>
+    <t>Die Zahl der Rationen ist sehr hoch. Für Qualitätsstufen, Vergleichs- und Sammelproben gilt: FP = doppelter FW.</t>
+  </si>
+  <si>
+    <t>Der Angler fällt ins Wasser und die Angel geht verloren.</t>
+  </si>
+  <si>
+    <t>Der Held findet schneller heraus, in welche Richtung er sich bewegt.</t>
+  </si>
+  <si>
+    <t>Der Held weiß nicht sicher, wo es langgeht.</t>
+  </si>
+  <si>
+    <t>Der Held findet den Weg ohne Schwierigkeiten selbst unter schlechtesten Bedingungen.</t>
+  </si>
+  <si>
+    <t>Der Held hat sich komplett verlaufen und bewegt sich in die falsche Richtung, was ihm jedoch nicht bewusst ist.</t>
+  </si>
+  <si>
+    <t>genauere Informationen zu einer Pflanze</t>
+  </si>
+  <si>
+    <t>Der Held hat keine Ahnung.</t>
+  </si>
+  <si>
+    <t>Der Held weiß alles über die Pflanze, auch besondere Wirkungen, und kann sie doppelt so lange haltbar machen wie üblich.</t>
+  </si>
+  <si>
+    <t>Der Held verwechselt die Pflanze mit einer anderen.</t>
+  </si>
+  <si>
+    <t>genauere Informationen zu einem Tier</t>
+  </si>
+  <si>
+    <t>Der Held weiß alles über das Tier.</t>
+  </si>
+  <si>
+    <t>Der Held glaubt, etwas über das Tier zu wissen, liegt aber gefährlich falsch (schätzt es ungiftig ein, obwohl es sehr giftig ist, oder als Pflanzenfresser, obwohl es Fleischfresser ist).</t>
+  </si>
+  <si>
+    <t>Der Held benötigt nicht so lange, um ein Lager zu finden oder aufzubauen.</t>
+  </si>
+  <si>
+    <t>Der Lagerplatz ist schlecht gewählt. Die Regeneration ist um 1 gesenkt.</t>
+  </si>
+  <si>
+    <t>Ein phantastischer Schlafplatz! Die Regeneration ist um 1 Punkt erhöht.</t>
+  </si>
+  <si>
+    <t>Das Lager wird überschwemmt oder von Ungeziefer heimgesucht.</t>
+  </si>
+  <si>
+    <t>Der Held hat einen guten Spielzug gemacht.</t>
+  </si>
+  <si>
+    <t>Der Held verliert.</t>
+  </si>
+  <si>
+    <t>Der Held gewinnt auf spektakuläre Art und Weise. Wurde um Geld gespielt, verdoppelt sich sein Gewinn.</t>
+  </si>
+  <si>
+    <t>Der Held wird fälschlicherweise des Falschspiels verdächtigt oder hat eine Pechsträne. Wird um Geld gespielt, verliert er mindestens den kompletten Einsatz (oder mehr).</t>
+  </si>
+  <si>
+    <t>mehr Detailinformationen zur Bevölkerung, Örtlichkeiten und Flussübergängen</t>
+  </si>
+  <si>
+    <t>Der Held kennt viele Details der Region: Herrscher, Bevölkerungszahlen, Bräuche, Flussverläufe und Brücken.</t>
+  </si>
+  <si>
+    <t>Der Held erinnert sich an völlig falsche geographische Details: Einwohnerzahlen von Städten stimmen nicht, Brücken befinden sich an anderer Stelle als gedacht.</t>
+  </si>
+  <si>
+    <t>mehr Details zu historischen Persönlichkeiten und Epochen</t>
+  </si>
+  <si>
+    <t>Der Held kennt besonders viele Details über ein bestimmtes Ereignis oder eine historische Person.</t>
+  </si>
+  <si>
+    <t>Der Held kann zu diesem Thema nur falsche Informationen beitragen: er irrt sich in Daten und Ereignissen.</t>
+  </si>
+  <si>
+    <t>mehr Details zu Kulten, Göttern und Priestern</t>
+  </si>
+  <si>
+    <t>Der Held hat detaillierte Einsichten in das Thema und kennt selbst spezielle Rituale, Gebetstexte oder philosophische Grundlagen.</t>
+  </si>
+  <si>
+    <t>Der Held verwechselt kultische Handlungen und Ansichten dieser Kirche mit einer anderen.</t>
+  </si>
+  <si>
+    <t>bessere Vorteile während des Gefechts</t>
+  </si>
+  <si>
+    <t>Der Held unterliegt einer Fehleinschätzung.</t>
+  </si>
+  <si>
+    <t>Der Held hat einen vortrefflichen Plan, der ihm zusätzliche Vorteile im Kampf einbringt.</t>
+  </si>
+  <si>
+    <t>Der Held begeht einen kapitalen Planungsfehler, der den Kampf zu seinen Ungunsten beeinflusst oder ihm zumindest extreme Nachteile beschert.</t>
+  </si>
+  <si>
+    <t>mehr Details zu Zaubern, magischen Wesen oder exotischer Magieanwendung</t>
+  </si>
+  <si>
+    <t>Der Held kennt Herkunft, wirkenden Zauber und Auslöser eines alten Artefaktes.</t>
+  </si>
+  <si>
+    <t>Der Held hat falsche Vorstellungen und irrt sich, sodass es zu einem gravierenden Fehlurteil kommt.</t>
+  </si>
+  <si>
+    <t>schnellere Planung</t>
+  </si>
+  <si>
+    <t>Die geplante Mechanik funktioniert nicht.</t>
+  </si>
+  <si>
+    <t>Der doppelte FW zählt als FP.</t>
+  </si>
+  <si>
+    <t>Was immer der Held konstruieren wollte: Das Objekt ist gefährlich oder die Konstruktion fällt in sich zusammen. Eine Falle wird mit größtmöglichem Erfolg ausgelöst.</t>
+  </si>
+  <si>
+    <t>schnelleres Ergebnis</t>
+  </si>
+  <si>
+    <t>Das Ergebnis ist falsch.</t>
+  </si>
+  <si>
+    <t>Schnelle und exakte Bestimmung der Lösung</t>
+  </si>
+  <si>
+    <t>Das Ergebnis ist komplett falsch, der Held aber von der Richtigkeit absolut überzeugt.</t>
+  </si>
+  <si>
+    <t>mehr Optionen zur Lösung eines Falls</t>
+  </si>
+  <si>
+    <t>Der Held kennt sich mit Besonderheiten des Gesetzes aus und kann einen Plan entwickeln, es zu seinem Vorteil auszulegen.</t>
+  </si>
+  <si>
+    <t>Die Auslegung des Gesetzes ist falsch oder der Held übersieht einen wichtigen Passus.</t>
+  </si>
+  <si>
+    <t>mehr Details oder verschiedene Versionen einer Geschichte</t>
+  </si>
+  <si>
+    <t>Der Held kennt die Legende nicht.</t>
+  </si>
+  <si>
+    <t>Der Held kann sich an viele Details der Geschichte erinnern und kennt mehrere Varianten.</t>
+  </si>
+  <si>
+    <t>Der Held verwechselt die Geschichte mit einer anderen oder meint sich an völlig andere Details zu erinnern.</t>
+  </si>
+  <si>
+    <t>mehr Details zu Sphären oder dem Limbus</t>
+  </si>
+  <si>
+    <t>Der Held weiß nichts über das spezielle Thema.</t>
+  </si>
+  <si>
+    <t>Der Held erinnert sich an bemerkenswerte Details über einen einzelnen Dämon oder den Weg in eine verborgene Globule.</t>
+  </si>
+  <si>
+    <t>Der Held unterliegt einer gefährlichen Fehleinschätzung.</t>
+  </si>
+  <si>
+    <t>schnellere Horoskoperstellung</t>
+  </si>
+  <si>
+    <t>Der Held kann sehr genau die Bewegungen der Himmelskörper berechnen.</t>
+  </si>
+  <si>
+    <t>Eine Fehleinschätzung bei einem Horoskop, einer Mondfinsternis etc.</t>
+  </si>
+  <si>
+    <t>Der Trank weist eine bessere Qualität auf.</t>
+  </si>
+  <si>
+    <t>Das Elixier ist misslungen oder eine Analyse hat kein Ergebnis gebracht.</t>
+  </si>
+  <si>
+    <t>Der Held weiß exakt, welches Elixier er vor sich hat, welche Stufe es besitzt und wie lange haltbar es ist.</t>
+  </si>
+  <si>
+    <t>Das Elixier sorgt für einen unangenehmen Nebeneffekt.</t>
+  </si>
+  <si>
+    <t>Die Distanz bis zum Ziel kann schneller überwunden werden.</t>
+  </si>
+  <si>
+    <t>Der Held kommt mit dem Boot oder Schiff kaum voran.</t>
+  </si>
+  <si>
+    <t>Der Held nutzt günstige Strömungen und Winde, um doppelt so schnell voranzukommen wie üblich.</t>
+  </si>
+  <si>
+    <t>Der Held fällt von Bord oder ein wichtiger Teil des Wasserfahrzeugs wurde beschädigt.</t>
+  </si>
+  <si>
+    <t>Das Fahrzeug bewegt isch schwerfällig oder dem Helden gelingt es nicht, es in Bewegung zu setzen.</t>
+  </si>
+  <si>
+    <t>Das Fahrzeug kommt gut voran und schafft die Strecke in Rekordzeit.</t>
+  </si>
+  <si>
+    <t>Das Fahrzeug erleidet einen Achsenbruch oder fällt während der Fahrt mitsamt dem Fahrer um, und der Held erleidet Fallschaden.</t>
+  </si>
+  <si>
+    <t>Der Held kann präziser den Preis bestimmen.</t>
+  </si>
+  <si>
+    <t>Der Held bekommt nicht so viel wie erhofft.</t>
+  </si>
+  <si>
+    <t>Der Held bekommt die Ware zu einem Spottpreis bzw. kann sie zu Wucherpreisen loswerden - ohne dass sein Handelspartner es ihm übel nimmt. Die Preiserhöhung oder der Nachlass sollte mindestens 50 % betragen.</t>
+  </si>
+  <si>
+    <t>Der Held wird über den Tisch gezogen oder der Handelspartner weigert sich, Geschäfte mit dem Helden zu machen. Die Preiserhöhung oder der Nachlass sollte mindestens 50 % betragen.</t>
+  </si>
+  <si>
+    <t>Der Held kann das Gift schneller bestimmen.</t>
+  </si>
+  <si>
+    <t>Der Held hat keine Ahnung und kennt keine Möglichkeit der Heilung.</t>
+  </si>
+  <si>
+    <t>Der Patient kann vollständig entgiftet werden, ohne dass der Held das passende Gegenmittel verwenden musste.</t>
+  </si>
+  <si>
+    <t>Der Held ordnet einen (schädlichen) Aderlass an oder hat den Patienten bei der Behandlung verletzt oder gar zusätzlich vergiftet (1W6 SP).</t>
+  </si>
+  <si>
+    <t>Die Unterdrückung des Nachteils hält länger an.</t>
+  </si>
+  <si>
+    <t>Der Held hat keine Ahnung, wie er dem Patienten helfen kann.</t>
+  </si>
+  <si>
+    <t>Der Patient kann einen Nachteil (Angst, Persönlichkeitsschwäche oder Schlechte Eigenschaft) für einen ganzen Tag unterdrücken.</t>
+  </si>
+  <si>
+    <t>Der Held hat den Patienten</t>
   </si>
 </sst>
 </file>
@@ -9447,7 +9843,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -9513,6 +9909,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Erklärender Text 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
@@ -9520,40 +9932,7 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
-  <dxfs count="130">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="135">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -9815,6 +10194,39 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -10189,6 +10601,59 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -10287,7 +10752,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Table Style 1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="129"/>
+      <tableStyleElement type="headerRow" dxfId="134"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -10651,20 +11116,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:B10" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:B10" totalsRowShown="0" headerRowDxfId="133" dataDxfId="132">
   <autoFilter ref="A1:B10" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <sortState ref="A2:B10">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="126"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="125"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="131"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:M1048576" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+  <autoFilter ref="A1:M1048576" xr:uid="{00000000-0009-0000-0100-000004000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="id" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="name" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="effect" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="castingtime" dataDxfId="64"/>
+    <tableColumn id="10" xr3:uid="{D89CFCD8-0667-4532-ADCB-656E0F380FC9}" name="castingtimeShort" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="aecost" dataDxfId="62"/>
+    <tableColumn id="11" xr3:uid="{AA76CB3A-D16A-4989-ACEE-9057F8B23848}" name="aecostShort" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="range" dataDxfId="60"/>
+    <tableColumn id="12" xr3:uid="{DD92ED00-D630-4075-AFBB-75382F298664}" name="rangeShort" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="duration" dataDxfId="58"/>
+    <tableColumn id="13" xr3:uid="{35897220-D86D-43E4-9246-750CE8AD5E3B}" name="durationShort" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="target" dataDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="src" dataDxfId="55"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table14" displayName="Table14" ref="A1:B44" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A1:B44" xr:uid="{00000000-0009-0000-0100-00000E000000}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -10678,7 +11168,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabelle5" displayName="Tabelle5" ref="A1:M193" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="A1:M193" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -10698,38 +11188,38 @@
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="id" dataDxfId="48"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="name" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{452BCF15-63D6-4F0D-8237-F453C9931794}" name="effect" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{3C4B8B30-E7ED-4AB5-BC66-F5C283820DD3}" name="castingtime" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{EDD4FA58-CDB8-416C-923B-13AE644AA21A}" name="castingtimeShort" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{E3A80605-B07C-400F-9DD6-DA1ECD45B17F}" name="kpcost" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{3735962A-FF4F-4E3D-9AFC-95B48BCF0758}" name="kpcostShort" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{4D0248C5-34EF-49A3-B1B4-33D1C05D9FBB}" name="range" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{D6111C84-C6C2-4C98-9BAC-040E9A31F2B9}" name="rangeShort" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{F33F5A8B-FEA1-4B00-AE2D-20CCBB24FF2A}" name="duration" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{66749CC6-D9C4-4BF4-BA63-F5A58FD8E6CB}" name="durationShort" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{BE17D95F-F42A-48F5-9E7F-A545D95D81C2}" name="target" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{1E0275F4-0996-4EC0-B571-4BB2870B8257}" name="src" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{452BCF15-63D6-4F0D-8237-F453C9931794}" name="effect" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{3C4B8B30-E7ED-4AB5-BC66-F5C283820DD3}" name="castingtime" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{EDD4FA58-CDB8-416C-923B-13AE644AA21A}" name="castingtimeShort" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{E3A80605-B07C-400F-9DD6-DA1ECD45B17F}" name="kpcost" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{3735962A-FF4F-4E3D-9AFC-95B48BCF0758}" name="kpcostShort" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{4D0248C5-34EF-49A3-B1B4-33D1C05D9FBB}" name="range" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{D6111C84-C6C2-4C98-9BAC-040E9A31F2B9}" name="rangeShort" dataDxfId="40"/>
+    <tableColumn id="10" xr3:uid="{F33F5A8B-FEA1-4B00-AE2D-20CCBB24FF2A}" name="duration" dataDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{66749CC6-D9C4-4BF4-BA63-F5A58FD8E6CB}" name="durationShort" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{BE17D95F-F42A-48F5-9E7F-A545D95D81C2}" name="target" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{1E0275F4-0996-4EC0-B571-4BB2870B8257}" name="src" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table16" displayName="Table16" ref="A1:B13" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table16" displayName="Table16" ref="A1:B13" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:B13" xr:uid="{00000000-0009-0000-0100-000010000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="id" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="name" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="id" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="name" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Tabelle6" displayName="Tabelle6" ref="A1:J502" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Tabelle6" displayName="Tabelle6" ref="A1:J502" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:J502" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10743,37 +11233,37 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="id" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="name" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="sel" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="input" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Column1" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Column2" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Column3" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Column4" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="Column5" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="Column6" dataDxfId="31"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table10" displayName="Table10" ref="A1:B111" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A1:B111" xr:uid="{00000000-0009-0000-0100-00000A000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="id" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="name" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="id" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="name" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="sel" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="input" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Column1" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Column2" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Column3" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Column4" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="Column5" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="Column6" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table10" displayName="Table10" ref="A1:B111" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:B111" xr:uid="{00000000-0009-0000-0100-00000A000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="id" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="name" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:D76" xr:uid="{00000000-0009-0000-0100-00000C000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10781,45 +11271,45 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="id" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="name" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="spec" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="specInput" dataDxfId="21"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table11" displayName="Table11" ref="A1:B36" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:B36" xr:uid="{00000000-0009-0000-0100-00000B000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="id" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="name" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="spec" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="specInput" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table15" displayName="Table15" ref="A1:B466" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table11" displayName="Table11" ref="A1:B36" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:B36" xr:uid="{00000000-0009-0000-0100-00000B000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="id" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="name" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table15" displayName="Table15" ref="A1:B466" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:B466" xr:uid="{00000000-0009-0000-0100-00000F000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="id" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="name" dataDxfId="14" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="id" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="name" dataDxfId="3" dataCellStyle="Excel Built-in Normal"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabelle9" displayName="Tabelle9" ref="A1:B484" totalsRowShown="0" headerRowDxfId="13">
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabelle9" displayName="Tabelle9" ref="A1:B484" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:B484" xr:uid="{00000000-0009-0000-0100-000009000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10828,29 +11318,29 @@
     <sortCondition ref="A1:A474"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="id" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="name" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="id" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:B8" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:B8" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
   <autoFilter ref="A1:B8" xr:uid="{00000000-0009-0000-0100-00000D000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="121"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="127"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle18" displayName="Tabelle18" ref="A1:K13" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle18" displayName="Tabelle18" ref="A1:K13" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
   <autoFilter ref="A1:K13" xr:uid="{00000000-0009-0000-0100-000012000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10862,23 +11352,59 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="117"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="attributeAdjustments" dataDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="automaticAdvantages" dataDxfId="115"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="stronglyRecommendedAdvantages" dataDxfId="114"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="stronglyRecommendedDisadvantages" dataDxfId="113"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="commonAdvantages" dataDxfId="112"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="commonDisadvantages" dataDxfId="111"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="uncommonAdvantages" dataDxfId="110"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="uncommonDisadvantages" dataDxfId="109"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="src" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="122"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="attributeAdjustments" dataDxfId="121"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="automaticAdvantages" dataDxfId="120"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="stronglyRecommendedAdvantages" dataDxfId="119"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="stronglyRecommendedDisadvantages" dataDxfId="118"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="commonAdvantages" dataDxfId="117"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="commonDisadvantages" dataDxfId="116"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="uncommonAdvantages" dataDxfId="115"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="uncommonDisadvantages" dataDxfId="114"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="src" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{B4F1794A-E7C4-468F-B8D8-970C354AABE6}" name="Tabelle19" displayName="Tabelle19" ref="A1:M27" totalsRowShown="0" headerRowDxfId="112">
+  <autoFilter ref="A1:M27" xr:uid="{CF034C78-9071-47EC-AB34-3D606EE1BBA0}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{323211C5-81FD-41D0-9F64-A33241693AC3}" name="id" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{FDC1B446-D119-4AB0-BFD5-ACF6E75BA8A5}" name="name" dataDxfId="110"/>
+    <tableColumn id="3" xr3:uid="{92A07580-4496-4839-BDFD-3E1CD0593E78}" name="areaKnowledgeShort" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{44EF4FF0-9A41-48CA-BC45-CC1B1304A096}" name="areaKnowledge"/>
+    <tableColumn id="5" xr3:uid="{3A9496F5-2D90-4F09-9E2B-F936A6E5B397}" name="commonMundaneProfessions"/>
+    <tableColumn id="6" xr3:uid="{7D2183EE-15A4-4FF4-9222-723CACFF8CAA}" name="commonMagicalProfessions"/>
+    <tableColumn id="7" xr3:uid="{88CDD512-140B-4BF4-8F6C-75F9220452A7}" name="commonBlessedProfessions"/>
+    <tableColumn id="8" xr3:uid="{0886B565-04C1-413E-9E68-0C9819C638A1}" name="commonAdvantages"/>
+    <tableColumn id="9" xr3:uid="{2C6F7161-6DB9-4A45-A0C3-D2E4001E1BC3}" name="commonDisadvantages"/>
+    <tableColumn id="10" xr3:uid="{745A9F74-C60C-4CBC-9102-98FE33FC8526}" name="uncommonAdvantages"/>
+    <tableColumn id="11" xr3:uid="{C1FC4429-9AFB-46A3-A828-99A029A30219}" name="uncommonDisadvantages"/>
+    <tableColumn id="12" xr3:uid="{839A4140-773B-4A98-9156-075E987FA39A}" name="commonNames"/>
+    <tableColumn id="13" xr3:uid="{8C51E69A-3B2D-4662-B403-D59D4610C76D}" name="src" dataDxfId="108"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:G95" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="A1:G95" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -10902,7 +11428,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
   <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -10918,7 +11444,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabelle8" displayName="Tabelle8" ref="A1:D76" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <autoFilter ref="A1:D76" xr:uid="{00000000-0009-0000-0100-000008000000}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -10936,7 +11462,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D72" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
   <autoFilter ref="A1:D72" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -10954,7 +11480,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
   <autoFilter ref="A1:J60" xr:uid="{00000000-0009-0000-0100-000007000000}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -10982,31 +11508,6 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="critical" dataDxfId="72"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="botch" dataDxfId="71"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="src" dataDxfId="70"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:M1048576" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
-  <autoFilter ref="A1:M1048576" xr:uid="{00000000-0009-0000-0100-000004000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="id" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="name" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="effect" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="castingtime" dataDxfId="64"/>
-    <tableColumn id="10" xr3:uid="{D89CFCD8-0667-4532-ADCB-656E0F380FC9}" name="castingtimeShort" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="aecost" dataDxfId="62"/>
-    <tableColumn id="11" xr3:uid="{AA76CB3A-D16A-4989-ACEE-9057F8B23848}" name="aecostShort" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="range" dataDxfId="60"/>
-    <tableColumn id="12" xr3:uid="{DD92ED00-D630-4075-AFBB-75382F298664}" name="rangeShort" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="duration" dataDxfId="58"/>
-    <tableColumn id="13" xr3:uid="{35897220-D86D-43E4-9246-750CE8AD5E3B}" name="durationShort" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="target" dataDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="src" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11413,8 +11914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12006,6 +12507,21 @@
       <c r="C22" s="11" t="s">
         <v>2284</v>
       </c>
+      <c r="F22" s="28" t="s">
+        <v>3119</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>3120</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>3121</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>3122</v>
+      </c>
+      <c r="J22" s="27">
+        <v>197</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="10">
@@ -12017,6 +12533,21 @@
       <c r="C23" s="11" t="s">
         <v>2285</v>
       </c>
+      <c r="F23" s="28" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>3124</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>3125</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>3126</v>
+      </c>
+      <c r="J23" s="27">
+        <v>198</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="10">
@@ -12028,6 +12559,21 @@
       <c r="C24" s="11" t="s">
         <v>2286</v>
       </c>
+      <c r="F24" s="28" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>3128</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>3129</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>3130</v>
+      </c>
+      <c r="J24" s="27">
+        <v>198</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="10">
@@ -12039,6 +12585,21 @@
       <c r="C25" s="11" t="s">
         <v>2287</v>
       </c>
+      <c r="F25" s="28" t="s">
+        <v>3131</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>3132</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>3133</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>3134</v>
+      </c>
+      <c r="J25" s="27">
+        <v>198</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="10">
@@ -12050,6 +12611,21 @@
       <c r="C26" s="11" t="s">
         <v>2288</v>
       </c>
+      <c r="F26" s="28" t="s">
+        <v>3135</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>3136</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>3137</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>3138</v>
+      </c>
+      <c r="J26" s="27">
+        <v>199</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="10">
@@ -12061,6 +12637,21 @@
       <c r="C27" s="11" t="s">
         <v>2289</v>
       </c>
+      <c r="F27" s="28" t="s">
+        <v>3139</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>3140</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>3141</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>3142</v>
+      </c>
+      <c r="J27" s="27">
+        <v>199</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="10">
@@ -12072,6 +12663,21 @@
       <c r="C28" s="11" t="s">
         <v>2290</v>
       </c>
+      <c r="F28" s="28" t="s">
+        <v>3143</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>3144</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>3145</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>3146</v>
+      </c>
+      <c r="J28" s="27">
+        <v>200</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="10">
@@ -12083,6 +12689,21 @@
       <c r="C29" s="11" t="s">
         <v>2291</v>
       </c>
+      <c r="F29" s="28" t="s">
+        <v>3147</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>3148</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>3150</v>
+      </c>
+      <c r="J29" s="27">
+        <v>200</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="10">
@@ -12094,6 +12715,21 @@
       <c r="C30" s="11" t="s">
         <v>2292</v>
       </c>
+      <c r="F30" s="28" t="s">
+        <v>3151</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>3148</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>3152</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>3153</v>
+      </c>
+      <c r="J30" s="27">
+        <v>200</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="10">
@@ -12105,6 +12741,21 @@
       <c r="C31" s="11" t="s">
         <v>2293</v>
       </c>
+      <c r="F31" s="28" t="s">
+        <v>3154</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>3155</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>3156</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>3157</v>
+      </c>
+      <c r="J31" s="27">
+        <v>201</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="10">
@@ -12116,8 +12767,23 @@
       <c r="C32" s="11" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F32" s="28" t="s">
+        <v>3158</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>3159</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>3160</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>3161</v>
+      </c>
+      <c r="J32" s="27">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -12127,8 +12793,23 @@
       <c r="C33" s="11" t="s">
         <v>2295</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F33" s="28" t="s">
+        <v>3162</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>3148</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>3163</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>3164</v>
+      </c>
+      <c r="J33" s="27">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -12138,8 +12819,23 @@
       <c r="C34" s="11" t="s">
         <v>2295</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F34" s="28" t="s">
+        <v>3165</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>3148</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>3166</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>3167</v>
+      </c>
+      <c r="J34" s="27">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -12152,8 +12848,23 @@
       <c r="D35" s="10" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F35" s="28" t="s">
+        <v>3168</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>3148</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>3169</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>3170</v>
+      </c>
+      <c r="J35" s="27">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -12163,8 +12874,23 @@
       <c r="C36" s="11" t="s">
         <v>2297</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F36" s="28" t="s">
+        <v>3171</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>3172</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>3173</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>3174</v>
+      </c>
+      <c r="J36" s="27">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -12174,8 +12900,23 @@
       <c r="C37" s="11" t="s">
         <v>2298</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F37" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>3148</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>3176</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>3177</v>
+      </c>
+      <c r="J37" s="27">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -12185,8 +12926,23 @@
       <c r="C38" s="11" t="s">
         <v>2299</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F38" s="28" t="s">
+        <v>3178</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>3180</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>3181</v>
+      </c>
+      <c r="J38" s="27">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -12196,8 +12952,23 @@
       <c r="C39" s="11" t="s">
         <v>2300</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F39" s="28" t="s">
+        <v>3182</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>3183</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>3184</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>3185</v>
+      </c>
+      <c r="J39" s="27">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -12207,8 +12978,23 @@
       <c r="C40" s="11" t="s">
         <v>2295</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F40" s="28" t="s">
+        <v>3186</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>3148</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>3187</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>3188</v>
+      </c>
+      <c r="J40" s="27">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -12218,8 +13004,23 @@
       <c r="C41" s="11" t="s">
         <v>2295</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F41" s="28" t="s">
+        <v>3189</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>3190</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>3191</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>3192</v>
+      </c>
+      <c r="J41" s="27">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="10">
         <v>41</v>
       </c>
@@ -12229,8 +13030,23 @@
       <c r="C42" s="11" t="s">
         <v>2301</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F42" s="28" t="s">
+        <v>3193</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>3194</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>3195</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>3196</v>
+      </c>
+      <c r="J42" s="27">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="10">
         <v>42</v>
       </c>
@@ -12240,8 +13056,23 @@
       <c r="C43" s="11" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F43" s="28" t="s">
+        <v>3197</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>3148</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>3198</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>3199</v>
+      </c>
+      <c r="J43" s="27">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="10">
         <v>43</v>
       </c>
@@ -12251,8 +13082,23 @@
       <c r="C44" s="11" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F44" s="28" t="s">
+        <v>3200</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>3201</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>3202</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>3203</v>
+      </c>
+      <c r="J44" s="27">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="10">
         <v>44</v>
       </c>
@@ -12262,8 +13108,23 @@
       <c r="C45" s="11" t="s">
         <v>2304</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F45" s="28" t="s">
+        <v>3204</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>3205</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>3206</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>3207</v>
+      </c>
+      <c r="J45" s="27">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="10">
         <v>45</v>
       </c>
@@ -12273,8 +13134,23 @@
       <c r="C46" s="11" t="s">
         <v>2305</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F46" s="28" t="s">
+        <v>3204</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>3208</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>3209</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>3210</v>
+      </c>
+      <c r="J46" s="27">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -12284,8 +13160,23 @@
       <c r="C47" s="11" t="s">
         <v>2306</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F47" s="28" t="s">
+        <v>3211</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>3212</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>3213</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>3214</v>
+      </c>
+      <c r="J47" s="27">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -12295,8 +13186,23 @@
       <c r="C48" s="11" t="s">
         <v>2307</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F48" s="28" t="s">
+        <v>3215</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>3216</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>3217</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>3218</v>
+      </c>
+      <c r="J48" s="27">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -12306,8 +13212,20 @@
       <c r="C49" s="11" t="s">
         <v>2308</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F49" s="28" t="s">
+        <v>3219</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>3220</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>3221</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -12318,7 +13236,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -12329,7 +13247,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -12340,7 +13258,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -12351,7 +13269,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -12362,7 +13280,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -12373,7 +13291,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -12384,7 +13302,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -12395,7 +13313,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="10">
         <v>57</v>
       </c>
@@ -12406,7 +13324,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -12417,7 +13335,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="10">
         <v>59</v>
       </c>
@@ -20634,7 +21552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -36188,7 +37106,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -36541,240 +37459,672 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.6640625" style="1"/>
+    <col min="3" max="12" width="10.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+      <c r="C1" s="25" t="s">
+        <v>3091</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>3092</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>3094</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>3095</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>2798</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>2799</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>2800</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>2801</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>3096</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="C2" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>3098</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>3099</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>3100</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>3101</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>3102</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>3118</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>3103</v>
+      </c>
+      <c r="M2" s="26">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+      <c r="C3" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>3104</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>3105</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>3106</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>3101</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>3107</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>3117</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>3108</v>
+      </c>
+      <c r="M3" s="26"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+      <c r="C4" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>3109</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>3110</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>3101</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>3111</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>3112</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>3113</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>3114</v>
+      </c>
+      <c r="M4" s="26"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="24">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+      <c r="C5" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+      <c r="C6" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="26"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+      <c r="C7" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="26"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
+      <c r="C8" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" s="24">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
+      <c r="C9" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
+      <c r="C10" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="24">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
+      <c r="C11" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="24">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
+      <c r="C12" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="24">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
+      <c r="C13" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="26"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="24">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
+      <c r="C14" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="26"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="24">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
+      <c r="C15" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="26"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="24">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
+      <c r="C16" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="26"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" s="24">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
+      <c r="C17" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="26"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" s="24">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
+      <c r="C18" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="26"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" s="24">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
+      <c r="C19" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="26"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" s="24">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
+      <c r="C20" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="26"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" s="24">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="1">
+      <c r="C21" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="26"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22" s="24">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="1">
+      <c r="C22" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="26"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23" s="24">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="1">
+      <c r="C23" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="26"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A24" s="24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="1">
+      <c r="C24" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="26"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25" s="24">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="1">
+      <c r="C25" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="26"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A26" s="24">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
+      <c r="C26" s="24" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="26"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A27" s="24">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="24" t="s">
         <v>2502</v>
       </c>
+      <c r="C27" s="24" t="s">
+        <v>3115</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="26"/>
     </row>
   </sheetData>
   <sortState ref="A2:B26">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/src/data/TDE5_de-DE.xlsx
+++ b/src/data/TDE5_de-DE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="30" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5440" uniqueCount="3223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5440" uniqueCount="3224">
   <si>
     <t>id</t>
   </si>
@@ -9177,30 +9177,18 @@
     <t>4/8/16 AsP</t>
   </si>
   <si>
-    <t>2 AsP + 1 AsP pro Stunde</t>
-  </si>
-  <si>
     <t>4 AsP + 2 AsP pro Minute</t>
   </si>
   <si>
-    <t>4 AsP + 2 AsP pro Kampfrunde</t>
-  </si>
-  <si>
     <t xml:space="preserve">8 AsP, 4 AsP pro Minute </t>
   </si>
   <si>
     <t xml:space="preserve">8 AsP + 4 AsP pro Stunde </t>
   </si>
   <si>
-    <t>8 AsP + 4 AsP pro Stunde</t>
-  </si>
-  <si>
     <t>4 AsP + 2 AsP pro KR</t>
   </si>
   <si>
-    <t xml:space="preserve">4 AsP, + 2 AsP pro 30 Sekunden </t>
-  </si>
-  <si>
     <t>8 AsP + 4 AsP pro 5 Min</t>
   </si>
   <si>
@@ -9222,9 +9210,6 @@
     <t>16 AsP + 8 AsP pro 5 Min</t>
   </si>
   <si>
-    <t xml:space="preserve">mindestens 4 AsP (Aktivierung) + Hälfte der Aktivierungskosten pro 5 Min (Kosten sind nicht modifizierbar) </t>
-  </si>
-  <si>
     <t xml:space="preserve">4 AsP + 2 AsP pro 5 Min </t>
   </si>
   <si>
@@ -9724,6 +9709,24 @@
   </si>
   <si>
     <t>Der Held hat den Patienten</t>
+  </si>
+  <si>
+    <t>2 AsP + 1 AsP pro h</t>
+  </si>
+  <si>
+    <t>KL AsP</t>
+  </si>
+  <si>
+    <t>4+ AsP + 1/2 pro 5 Min</t>
+  </si>
+  <si>
+    <t>8 AsP + 4 AsP pro h</t>
+  </si>
+  <si>
+    <t>4 AsP, + 2 AsP pro 30 s</t>
+  </si>
+  <si>
+    <t>2/4/8/16 AsP</t>
   </si>
 </sst>
 </file>
@@ -11914,8 +11917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12508,16 +12511,16 @@
         <v>2284</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>3119</v>
+        <v>3114</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>3120</v>
+        <v>3115</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>3121</v>
+        <v>3116</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>3122</v>
+        <v>3117</v>
       </c>
       <c r="J22" s="27">
         <v>197</v>
@@ -12534,16 +12537,16 @@
         <v>2285</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>3123</v>
+        <v>3118</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>3124</v>
+        <v>3119</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>3125</v>
+        <v>3120</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>3126</v>
+        <v>3121</v>
       </c>
       <c r="J23" s="27">
         <v>198</v>
@@ -12560,16 +12563,16 @@
         <v>2286</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>3127</v>
+        <v>3122</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>3128</v>
+        <v>3123</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>3129</v>
+        <v>3124</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>3130</v>
+        <v>3125</v>
       </c>
       <c r="J24" s="27">
         <v>198</v>
@@ -12586,16 +12589,16 @@
         <v>2287</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>3131</v>
+        <v>3126</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>3132</v>
+        <v>3127</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>3133</v>
+        <v>3128</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>3134</v>
+        <v>3129</v>
       </c>
       <c r="J25" s="27">
         <v>198</v>
@@ -12612,16 +12615,16 @@
         <v>2288</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>3135</v>
+        <v>3130</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>3136</v>
+        <v>3131</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>3137</v>
+        <v>3132</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>3138</v>
+        <v>3133</v>
       </c>
       <c r="J26" s="27">
         <v>199</v>
@@ -12638,16 +12641,16 @@
         <v>2289</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>3139</v>
+        <v>3134</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>3140</v>
+        <v>3135</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>3141</v>
+        <v>3136</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>3142</v>
+        <v>3137</v>
       </c>
       <c r="J27" s="27">
         <v>199</v>
@@ -12664,16 +12667,16 @@
         <v>2290</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>3143</v>
+        <v>3138</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>3144</v>
+        <v>3139</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>3145</v>
+        <v>3140</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>3146</v>
+        <v>3141</v>
       </c>
       <c r="J28" s="27">
         <v>200</v>
@@ -12690,16 +12693,16 @@
         <v>2291</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>3147</v>
+        <v>3142</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>3148</v>
+        <v>3143</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>3149</v>
+        <v>3144</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>3150</v>
+        <v>3145</v>
       </c>
       <c r="J29" s="27">
         <v>200</v>
@@ -12716,16 +12719,16 @@
         <v>2292</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>3151</v>
+        <v>3146</v>
       </c>
       <c r="G30" s="28" t="s">
+        <v>3143</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>3147</v>
+      </c>
+      <c r="I30" s="28" t="s">
         <v>3148</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>3152</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>3153</v>
       </c>
       <c r="J30" s="27">
         <v>200</v>
@@ -12742,16 +12745,16 @@
         <v>2293</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>3154</v>
+        <v>3149</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>3155</v>
+        <v>3150</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>3156</v>
+        <v>3151</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>3157</v>
+        <v>3152</v>
       </c>
       <c r="J31" s="27">
         <v>201</v>
@@ -12768,16 +12771,16 @@
         <v>2294</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>3158</v>
+        <v>3153</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>3159</v>
+        <v>3154</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>3160</v>
+        <v>3155</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>3161</v>
+        <v>3156</v>
       </c>
       <c r="J32" s="27">
         <v>201</v>
@@ -12794,16 +12797,16 @@
         <v>2295</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>3162</v>
+        <v>3157</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>3148</v>
+        <v>3143</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>3163</v>
+        <v>3158</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>3164</v>
+        <v>3159</v>
       </c>
       <c r="J33" s="27">
         <v>202</v>
@@ -12820,16 +12823,16 @@
         <v>2295</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>3165</v>
+        <v>3160</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>3148</v>
+        <v>3143</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>3166</v>
+        <v>3161</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>3167</v>
+        <v>3162</v>
       </c>
       <c r="J34" s="27">
         <v>202</v>
@@ -12849,16 +12852,16 @@
         <v>606</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>3168</v>
+        <v>3163</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>3148</v>
+        <v>3143</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>3169</v>
+        <v>3164</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>3170</v>
+        <v>3165</v>
       </c>
       <c r="J35" s="27">
         <v>203</v>
@@ -12875,16 +12878,16 @@
         <v>2297</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>3171</v>
+        <v>3166</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>3172</v>
+        <v>3167</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>3173</v>
+        <v>3168</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>3174</v>
+        <v>3169</v>
       </c>
       <c r="J36" s="27">
         <v>203</v>
@@ -12901,16 +12904,16 @@
         <v>2298</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>3175</v>
+        <v>3170</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>3148</v>
+        <v>3143</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>3176</v>
+        <v>3171</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>3177</v>
+        <v>3172</v>
       </c>
       <c r="J37" s="27">
         <v>204</v>
@@ -12927,16 +12930,16 @@
         <v>2299</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>3178</v>
+        <v>3173</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>3179</v>
+        <v>3174</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>3180</v>
+        <v>3175</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>3181</v>
+        <v>3176</v>
       </c>
       <c r="J38" s="27">
         <v>204</v>
@@ -12953,16 +12956,16 @@
         <v>2300</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>3182</v>
+        <v>3177</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>3183</v>
+        <v>3178</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>3184</v>
+        <v>3179</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>3185</v>
+        <v>3180</v>
       </c>
       <c r="J39" s="27">
         <v>204</v>
@@ -12979,16 +12982,16 @@
         <v>2295</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>3186</v>
+        <v>3181</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>3148</v>
+        <v>3143</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>3187</v>
+        <v>3182</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>3188</v>
+        <v>3183</v>
       </c>
       <c r="J40" s="27">
         <v>205</v>
@@ -13005,16 +13008,16 @@
         <v>2295</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>3189</v>
+        <v>3184</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>3190</v>
+        <v>3185</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>3191</v>
+        <v>3186</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>3192</v>
+        <v>3187</v>
       </c>
       <c r="J41" s="27">
         <v>205</v>
@@ -13031,16 +13034,16 @@
         <v>2301</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>3193</v>
+        <v>3188</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>3194</v>
+        <v>3189</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>3195</v>
+        <v>3190</v>
       </c>
       <c r="I42" s="28" t="s">
-        <v>3196</v>
+        <v>3191</v>
       </c>
       <c r="J42" s="27">
         <v>206</v>
@@ -13057,16 +13060,16 @@
         <v>2302</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>3197</v>
+        <v>3192</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>3148</v>
+        <v>3143</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>3198</v>
+        <v>3193</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>3199</v>
+        <v>3194</v>
       </c>
       <c r="J43" s="27">
         <v>206</v>
@@ -13083,16 +13086,16 @@
         <v>2303</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>3200</v>
+        <v>3195</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>3201</v>
+        <v>3196</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>3202</v>
+        <v>3197</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>3203</v>
+        <v>3198</v>
       </c>
       <c r="J44" s="27">
         <v>206</v>
@@ -13109,16 +13112,16 @@
         <v>2304</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>3204</v>
+        <v>3199</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>3205</v>
+        <v>3200</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>3206</v>
+        <v>3201</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>3207</v>
+        <v>3202</v>
       </c>
       <c r="J45" s="27">
         <v>207</v>
@@ -13135,16 +13138,16 @@
         <v>2305</v>
       </c>
       <c r="F46" s="28" t="s">
+        <v>3199</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>3203</v>
+      </c>
+      <c r="H46" s="28" t="s">
         <v>3204</v>
       </c>
-      <c r="G46" s="28" t="s">
-        <v>3208</v>
-      </c>
-      <c r="H46" s="28" t="s">
-        <v>3209</v>
-      </c>
       <c r="I46" s="28" t="s">
-        <v>3210</v>
+        <v>3205</v>
       </c>
       <c r="J46" s="27">
         <v>207</v>
@@ -13161,16 +13164,16 @@
         <v>2306</v>
       </c>
       <c r="F47" s="28" t="s">
-        <v>3211</v>
+        <v>3206</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>3212</v>
+        <v>3207</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>3213</v>
+        <v>3208</v>
       </c>
       <c r="I47" s="28" t="s">
-        <v>3214</v>
+        <v>3209</v>
       </c>
       <c r="J47" s="27">
         <v>208</v>
@@ -13187,16 +13190,16 @@
         <v>2307</v>
       </c>
       <c r="F48" s="28" t="s">
-        <v>3215</v>
+        <v>3210</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>3216</v>
+        <v>3211</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>3217</v>
+        <v>3212</v>
       </c>
       <c r="I48" s="28" t="s">
-        <v>3218</v>
+        <v>3213</v>
       </c>
       <c r="J48" s="27">
         <v>208</v>
@@ -13213,16 +13216,16 @@
         <v>2308</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>3219</v>
+        <v>3214</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>3220</v>
+        <v>3215</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>3221</v>
+        <v>3216</v>
       </c>
       <c r="I49" s="28" t="s">
-        <v>3222</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
@@ -13540,15 +13543,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M234"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G179" sqref="G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.1328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.6640625" style="1"/>
+    <col min="3" max="6" width="10.6640625" style="1"/>
+    <col min="7" max="7" width="85.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
@@ -13606,7 +13611,7 @@
         <v>2810</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2811</v>
@@ -13644,7 +13649,7 @@
         <v>2810</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2816</v>
@@ -13679,7 +13684,7 @@
         <v>2849</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2857</v>
@@ -13714,7 +13719,7 @@
         <v>2849</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>2858</v>
@@ -13749,13 +13754,13 @@
         <v>2850</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3067</v>
+        <v>3062</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>2859</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>3060</v>
+        <v>3055</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>2910</v>
@@ -13784,7 +13789,7 @@
         <v>2851</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>2858</v>
@@ -13819,7 +13824,7 @@
         <v>2851</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>2858</v>
@@ -13854,7 +13859,7 @@
         <v>2849</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>2860</v>
@@ -13892,7 +13897,7 @@
         <v>2810</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2816</v>
@@ -13930,13 +13935,13 @@
         <v>2852</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>2861</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>3048</v>
+        <v>3044</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>2812</v>
@@ -13965,13 +13970,13 @@
         <v>2810</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>2862</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3061</v>
+        <v>3056</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>2910</v>
@@ -14000,7 +14005,7 @@
         <v>2810</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>2860</v>
@@ -14035,13 +14040,13 @@
         <v>2849</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>2863</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>3040</v>
+        <v>3218</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>2817</v>
@@ -14070,7 +14075,7 @@
         <v>2849</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>2858</v>
@@ -14105,13 +14110,13 @@
         <v>2849</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>2864</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>3062</v>
+        <v>3057</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>2812</v>
@@ -14140,7 +14145,7 @@
         <v>2810</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>2858</v>
@@ -14175,13 +14180,13 @@
         <v>2851</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>2861</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>3048</v>
+        <v>3044</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>2812</v>
@@ -14210,7 +14215,7 @@
         <v>2849</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>2860</v>
@@ -14245,7 +14250,7 @@
         <v>2849</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>2860</v>
@@ -14280,7 +14285,7 @@
         <v>2810</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>2858</v>
@@ -14315,7 +14320,7 @@
         <v>2810</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>2858</v>
@@ -14350,7 +14355,7 @@
         <v>2851</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>2860</v>
@@ -14385,13 +14390,13 @@
         <v>2851</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>2865</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>3049</v>
+        <v>3045</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>2812</v>
@@ -14420,7 +14425,7 @@
         <v>2810</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>2866</v>
@@ -14455,7 +14460,7 @@
         <v>2851</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>2860</v>
@@ -14490,7 +14495,7 @@
         <v>2810</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>2811</v>
@@ -14525,13 +14530,13 @@
         <v>2810</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>2867</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>3063</v>
+        <v>3058</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>2817</v>
@@ -14560,13 +14565,13 @@
         <v>2810</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>2864</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>3062</v>
+        <v>3057</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>2912</v>
@@ -14595,7 +14600,7 @@
         <v>2851</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>2811</v>
@@ -14630,7 +14635,7 @@
         <v>2810</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>2860</v>
@@ -14665,7 +14670,7 @@
         <v>2810</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>2858</v>
@@ -14700,13 +14705,13 @@
         <v>2810</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>2868</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>2812</v>
@@ -14735,13 +14740,13 @@
         <v>2852</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>2869</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>3050</v>
+        <v>3046</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>2910</v>
@@ -14770,13 +14775,13 @@
         <v>2810</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>2870</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>2912</v>
@@ -14805,7 +14810,7 @@
         <v>2810</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>2858</v>
@@ -14840,7 +14845,7 @@
         <v>2852</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>2816</v>
@@ -14875,7 +14880,7 @@
         <v>2810</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>2860</v>
@@ -14910,7 +14915,7 @@
         <v>2851</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>2858</v>
@@ -14945,7 +14950,7 @@
         <v>2852</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>2811</v>
@@ -14980,7 +14985,7 @@
         <v>2852</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>2858</v>
@@ -15015,7 +15020,7 @@
         <v>2851</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>2811</v>
@@ -15050,7 +15055,7 @@
         <v>2851</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>2811</v>
@@ -15085,13 +15090,13 @@
         <v>2852</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>2871</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>3064</v>
+        <v>3059</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>2812</v>
@@ -15120,13 +15125,13 @@
         <v>2851</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>2861</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>3048</v>
+        <v>3044</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>2910</v>
@@ -15155,7 +15160,7 @@
         <v>2852</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>2811</v>
@@ -15371,7 +15376,7 @@
         <v>2873</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>3065</v>
+        <v>3060</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>2817</v>
@@ -15397,7 +15402,7 @@
         <v>455</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>3072</v>
+        <v>3067</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>2874</v>
@@ -15406,7 +15411,7 @@
         <v>2874</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>3073</v>
+        <v>3068</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>2931</v>
@@ -15423,7 +15428,7 @@
         <v>456</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>3072</v>
+        <v>3067</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>2874</v>
@@ -15432,7 +15437,7 @@
         <v>2874</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>3073</v>
+        <v>3068</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>2931</v>
@@ -15449,7 +15454,7 @@
         <v>457</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>3072</v>
+        <v>3067</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>2875</v>
@@ -15458,7 +15463,7 @@
         <v>2875</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>3073</v>
+        <v>3068</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>2928</v>
@@ -15475,7 +15480,7 @@
         <v>458</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>3072</v>
+        <v>3067</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>2874</v>
@@ -15484,7 +15489,7 @@
         <v>2874</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>3073</v>
+        <v>3068</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>2929</v>
@@ -15501,7 +15506,7 @@
         <v>459</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>3072</v>
+        <v>3067</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>2876</v>
@@ -15510,7 +15515,7 @@
         <v>2876</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>3073</v>
+        <v>3068</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>2931</v>
@@ -15527,7 +15532,7 @@
         <v>460</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>3072</v>
+        <v>3067</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>2877</v>
@@ -15536,7 +15541,7 @@
         <v>3029</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>3073</v>
+        <v>3068</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>2932</v>
@@ -15553,7 +15558,7 @@
         <v>461</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>3072</v>
+        <v>3067</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>2874</v>
@@ -15562,7 +15567,7 @@
         <v>2874</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>3073</v>
+        <v>3068</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>2931</v>
@@ -15579,7 +15584,7 @@
         <v>462</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>3072</v>
+        <v>3067</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>2874</v>
@@ -15588,7 +15593,7 @@
         <v>2874</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>3073</v>
+        <v>3068</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>2933</v>
@@ -15605,7 +15610,7 @@
         <v>463</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>3072</v>
+        <v>3067</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>2876</v>
@@ -15614,7 +15619,7 @@
         <v>2876</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>3073</v>
+        <v>3068</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>2931</v>
@@ -15631,7 +15636,7 @@
         <v>464</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>3072</v>
+        <v>3067</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>2874</v>
@@ -15640,7 +15645,7 @@
         <v>2874</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>3073</v>
+        <v>3068</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>2929</v>
@@ -15657,13 +15662,13 @@
         <v>465</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>3083</v>
+        <v>3078</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>2878</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>3051</v>
+        <v>3047</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>2812</v>
@@ -15689,10 +15694,10 @@
         <v>2879</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>3076</v>
+        <v>3071</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>90</v>
@@ -15701,7 +15706,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -15709,25 +15714,25 @@
         <v>467</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>3082</v>
+        <v>3077</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>2880</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>3074</v>
+        <v>3069</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>3078</v>
+        <v>3073</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>3077</v>
+        <v>3072</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>3077</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -15735,13 +15740,13 @@
         <v>468</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>3083</v>
+        <v>3078</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>2881</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>3075</v>
+        <v>3070</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>2812</v>
@@ -15753,7 +15758,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -15761,13 +15766,13 @@
         <v>469</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>3083</v>
+        <v>3078</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>2879</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>2812</v>
@@ -15779,7 +15784,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -15787,7 +15792,7 @@
         <v>470</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>3081</v>
+        <v>3076</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>2858</v>
@@ -15799,13 +15804,13 @@
         <v>2812</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>3079</v>
+        <v>3074</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>3080</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -15816,7 +15821,7 @@
         <v>2851</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>2858</v>
@@ -15839,8 +15844,9 @@
       <c r="L69" s="1" t="s">
         <v>2964</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M69" s="24"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -15851,7 +15857,7 @@
         <v>2849</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>2860</v>
@@ -15874,8 +15880,9 @@
       <c r="L70" s="1" t="s">
         <v>2819</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M70" s="24"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -15886,13 +15893,13 @@
         <v>2852</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>2882</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>3053</v>
+        <v>3049</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>2910</v>
@@ -15909,8 +15916,9 @@
       <c r="L71" s="1" t="s">
         <v>2964</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M71" s="24"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -15921,7 +15929,7 @@
         <v>2810</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>2860</v>
@@ -15944,8 +15952,9 @@
       <c r="L72" s="1" t="s">
         <v>2975</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M72" s="24"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -15956,7 +15965,7 @@
         <v>2849</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>2858</v>
@@ -15979,8 +15988,9 @@
       <c r="L73" s="1" t="s">
         <v>2819</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M73" s="24"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -15991,13 +16001,13 @@
         <v>2852</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>2883</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>3054</v>
+        <v>3050</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>2812</v>
@@ -16014,8 +16024,9 @@
       <c r="L74" s="1" t="s">
         <v>2967</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M74" s="24"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -16026,13 +16037,13 @@
         <v>2810</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>2870</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>2812</v>
@@ -16049,8 +16060,9 @@
       <c r="L75" s="1" t="s">
         <v>2819</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M75" s="24"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -16061,7 +16073,7 @@
         <v>2810</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>2816</v>
@@ -16084,8 +16096,9 @@
       <c r="L76" s="1" t="s">
         <v>2819</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M76" s="24"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -16096,13 +16109,13 @@
         <v>2851</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>2884</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>2884</v>
+        <v>3219</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>2817</v>
@@ -16119,8 +16132,9 @@
       <c r="L77" s="1" t="s">
         <v>2976</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M77" s="24"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -16131,13 +16145,13 @@
         <v>2849</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>2885</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>3055</v>
+        <v>3220</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>2912</v>
@@ -16154,8 +16168,9 @@
       <c r="L78" s="1" t="s">
         <v>2977</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M78" s="24"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -16166,7 +16181,7 @@
         <v>2851</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>2816</v>
@@ -16189,8 +16204,9 @@
       <c r="L79" s="1" t="s">
         <v>2967</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M79" s="24"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -16201,7 +16217,7 @@
         <v>2851</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>2858</v>
@@ -16224,8 +16240,9 @@
       <c r="L80" s="1" t="s">
         <v>2819</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M80" s="24"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -16236,7 +16253,7 @@
         <v>2851</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>2872</v>
@@ -16259,8 +16276,9 @@
       <c r="L81" s="1" t="s">
         <v>2967</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M81" s="24"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -16271,7 +16289,7 @@
         <v>2851</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>2886</v>
@@ -16294,8 +16312,9 @@
       <c r="L82" s="1" t="s">
         <v>2819</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M82" s="24"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -16306,7 +16325,7 @@
         <v>2851</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>2887</v>
@@ -16329,8 +16348,9 @@
       <c r="L83" s="1" t="s">
         <v>2964</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M83" s="24"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -16341,7 +16361,7 @@
         <v>2851</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>2816</v>
@@ -16364,8 +16384,9 @@
       <c r="L84" s="1" t="s">
         <v>2967</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M84" s="24"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -16376,13 +16397,13 @@
         <v>2851</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>2888</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>2911</v>
@@ -16399,8 +16420,9 @@
       <c r="L85" s="1" t="s">
         <v>2964</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M85" s="24"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -16411,7 +16433,7 @@
         <v>2851</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>2858</v>
@@ -16435,7 +16457,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -16446,7 +16468,7 @@
         <v>2851</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>2889</v>
@@ -16470,7 +16492,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -16481,7 +16503,7 @@
         <v>2810</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>2858</v>
@@ -16505,7 +16527,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -16516,7 +16538,7 @@
         <v>2851</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>2816</v>
@@ -16540,7 +16562,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -16551,7 +16573,7 @@
         <v>2849</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>2858</v>
@@ -16575,7 +16597,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -16586,7 +16608,7 @@
         <v>2852</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>2860</v>
@@ -16610,7 +16632,7 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -16621,13 +16643,13 @@
         <v>2852</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>2890</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>2812</v>
@@ -16645,7 +16667,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -16656,7 +16678,7 @@
         <v>2849</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>2858</v>
@@ -16680,7 +16702,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -16691,7 +16713,7 @@
         <v>2849</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>2860</v>
@@ -16715,7 +16737,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -16726,7 +16748,7 @@
         <v>2851</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>2860</v>
@@ -16750,7 +16772,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -16761,7 +16783,7 @@
         <v>2851</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>2816</v>
@@ -16796,7 +16818,7 @@
         <v>2810</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>2858</v>
@@ -16831,7 +16853,7 @@
         <v>2851</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>2872</v>
@@ -16866,13 +16888,13 @@
         <v>2851</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>2891</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>3056</v>
+        <v>3051</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>2817</v>
@@ -16901,13 +16923,13 @@
         <v>2852</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>2892</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>3057</v>
+        <v>3052</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>2910</v>
@@ -16936,13 +16958,13 @@
         <v>2852</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>2892</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>3057</v>
+        <v>3052</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>2910</v>
@@ -16971,13 +16993,13 @@
         <v>2852</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>2892</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>3057</v>
+        <v>3052</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>2910</v>
@@ -17006,7 +17028,7 @@
         <v>2810</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>2860</v>
@@ -17041,7 +17063,7 @@
         <v>2850</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>3067</v>
+        <v>3062</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>2872</v>
@@ -17076,7 +17098,7 @@
         <v>2851</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>2866</v>
@@ -17111,7 +17133,7 @@
         <v>2851</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>2811</v>
@@ -17146,7 +17168,7 @@
         <v>2850</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>3067</v>
+        <v>3062</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>2858</v>
@@ -17181,7 +17203,7 @@
         <v>2851</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>2860</v>
@@ -17216,7 +17238,7 @@
         <v>2850</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>3067</v>
+        <v>3062</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>2816</v>
@@ -17251,7 +17273,7 @@
         <v>2810</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>2858</v>
@@ -17286,13 +17308,13 @@
         <v>2851</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>2893</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>2893</v>
+      <c r="G111" s="24" t="s">
+        <v>3037</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>2817</v>
@@ -17321,13 +17343,13 @@
         <v>2849</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>2864</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>2864</v>
+        <v>3057</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>2812</v>
@@ -17356,7 +17378,7 @@
         <v>2810</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>2816</v>
@@ -17391,7 +17413,7 @@
         <v>2852</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>2816</v>
@@ -17426,13 +17448,13 @@
         <v>2851</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>2893</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>2893</v>
+      <c r="G115" s="24" t="s">
+        <v>3037</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>2817</v>
@@ -17461,7 +17483,7 @@
         <v>2851</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>2858</v>
@@ -17496,7 +17518,7 @@
         <v>2851</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>2893</v>
@@ -17531,7 +17553,7 @@
         <v>2810</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>2860</v>
@@ -17566,7 +17588,7 @@
         <v>2851</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>2858</v>
@@ -17601,7 +17623,7 @@
         <v>2810</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>2860</v>
@@ -17636,7 +17658,7 @@
         <v>2849</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>2860</v>
@@ -17671,13 +17693,13 @@
         <v>2852</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>2894</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>3045</v>
+        <v>3221</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>2812</v>
@@ -17706,7 +17728,7 @@
         <v>2810</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>2858</v>
@@ -17741,7 +17763,7 @@
         <v>2851</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>2816</v>
@@ -17776,7 +17798,7 @@
         <v>2810</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>2860</v>
@@ -17811,7 +17833,7 @@
         <v>2852</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>2866</v>
@@ -17846,7 +17868,7 @@
         <v>2850</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>3067</v>
+        <v>3062</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>2860</v>
@@ -17881,13 +17903,13 @@
         <v>2851</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>2893</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>2893</v>
+      <c r="G128" s="24" t="s">
+        <v>3037</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>2817</v>
@@ -17916,13 +17938,13 @@
         <v>2851</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>2893</v>
       </c>
-      <c r="G129" s="1" t="s">
-        <v>2893</v>
+      <c r="G129" s="24" t="s">
+        <v>3037</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>2817</v>
@@ -17951,7 +17973,7 @@
         <v>2852</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>2858</v>
@@ -17986,7 +18008,7 @@
         <v>2851</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>2816</v>
@@ -18021,7 +18043,7 @@
         <v>2852</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>2816</v>
@@ -18056,7 +18078,7 @@
         <v>2851</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>2858</v>
@@ -18091,13 +18113,13 @@
         <v>2851</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>2893</v>
       </c>
-      <c r="G134" s="1" t="s">
-        <v>2893</v>
+      <c r="G134" s="24" t="s">
+        <v>3037</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>2817</v>
@@ -18126,7 +18148,7 @@
         <v>2850</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>3067</v>
+        <v>3062</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>2816</v>
@@ -18161,13 +18183,13 @@
         <v>2851</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>2895</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>3058</v>
+        <v>3053</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>2812</v>
@@ -18196,7 +18218,7 @@
         <v>2849</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>2858</v>
@@ -18231,7 +18253,7 @@
         <v>2810</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>2858</v>
@@ -18266,7 +18288,7 @@
         <v>2851</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>2816</v>
@@ -18301,7 +18323,7 @@
         <v>2849</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>2860</v>
@@ -18336,7 +18358,7 @@
         <v>2851</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>2858</v>
@@ -18371,7 +18393,7 @@
         <v>2810</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>2860</v>
@@ -18406,13 +18428,13 @@
         <v>2851</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>2891</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>3056</v>
+        <v>3051</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>2817</v>
@@ -18441,7 +18463,7 @@
         <v>2851</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>2860</v>
@@ -18476,7 +18498,7 @@
         <v>2851</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>2866</v>
@@ -18511,7 +18533,7 @@
         <v>2852</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>2858</v>
@@ -18546,13 +18568,13 @@
         <v>2851</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>2896</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>3059</v>
+        <v>3054</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>2910</v>
@@ -18581,7 +18603,7 @@
         <v>2810</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>2860</v>
@@ -18616,13 +18638,13 @@
         <v>2851</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>2893</v>
       </c>
-      <c r="G149" s="1" t="s">
-        <v>2893</v>
+      <c r="G149" s="24" t="s">
+        <v>3037</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>2817</v>
@@ -18651,7 +18673,7 @@
         <v>2810</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>2858</v>
@@ -18686,7 +18708,7 @@
         <v>2810</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>2858</v>
@@ -18721,7 +18743,7 @@
         <v>2851</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>2872</v>
@@ -18756,7 +18778,7 @@
         <v>2852</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>2816</v>
@@ -18791,13 +18813,13 @@
         <v>2852</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>2895</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>3058</v>
+        <v>3053</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>2910</v>
@@ -18826,7 +18848,7 @@
         <v>2810</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>2858</v>
@@ -18861,13 +18883,13 @@
         <v>2852</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>2897</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>2897</v>
+        <v>3059</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>2812</v>
@@ -18896,7 +18918,7 @@
         <v>2851</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>2866</v>
@@ -18931,13 +18953,13 @@
         <v>2851</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>2898</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>2812</v>
@@ -18966,7 +18988,7 @@
         <v>2851</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>2860</v>
@@ -19001,7 +19023,7 @@
         <v>2851</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>2858</v>
@@ -19036,7 +19058,7 @@
         <v>2810</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>2816</v>
@@ -19071,7 +19093,7 @@
         <v>2851</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>2858</v>
@@ -19106,7 +19128,7 @@
         <v>2810</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>2858</v>
@@ -19141,7 +19163,7 @@
         <v>2851</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>2858</v>
@@ -19176,7 +19198,7 @@
         <v>2851</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>2860</v>
@@ -19211,13 +19233,13 @@
         <v>2851</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>2893</v>
       </c>
-      <c r="G166" s="1" t="s">
-        <v>2893</v>
+      <c r="G166" s="24" t="s">
+        <v>3037</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>2817</v>
@@ -19246,13 +19268,13 @@
         <v>2851</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>2899</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>3047</v>
+        <v>3222</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>2911</v>
@@ -19281,13 +19303,13 @@
         <v>2851</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>2893</v>
       </c>
-      <c r="G168" s="1" t="s">
-        <v>2893</v>
+      <c r="G168" s="24" t="s">
+        <v>3037</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>2817</v>
@@ -19316,7 +19338,7 @@
         <v>2810</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>2860</v>
@@ -19351,13 +19373,13 @@
         <v>2852</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>2890</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>3044</v>
+        <v>3221</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>2812</v>
@@ -19532,7 +19554,7 @@
         <v>2900</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>2900</v>
+        <v>3223</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>2911</v>
@@ -19631,7 +19653,7 @@
         <v>2856</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>3071</v>
+        <v>3066</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>2858</v>
@@ -19888,7 +19910,7 @@
         <v>3028</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>3084</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.45">
@@ -19940,7 +19962,7 @@
         <v>3028</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>3084</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.45">
@@ -20018,7 +20040,7 @@
         <v>3028</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>3085</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.45">
@@ -20278,7 +20300,7 @@
         <v>3028</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>3086</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.45">
@@ -20382,7 +20404,7 @@
         <v>3028</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>3087</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.45">
@@ -20486,7 +20508,7 @@
         <v>3028</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>3088</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.45">
@@ -21580,10 +21602,10 @@
         <v>2845</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3089</v>
+        <v>3084</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>3090</v>
+        <v>3085</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>2806</v>
@@ -37482,19 +37504,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>3091</v>
+        <v>3086</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>3092</v>
+        <v>3087</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>3093</v>
+        <v>3088</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>3094</v>
+        <v>3089</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>3095</v>
+        <v>3090</v>
       </c>
       <c r="H1" s="25" t="s">
         <v>2798</v>
@@ -37509,7 +37531,7 @@
         <v>2801</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>3096</v>
+        <v>3091</v>
       </c>
       <c r="M1" s="25" t="s">
         <v>2326</v>
@@ -37523,25 +37545,25 @@
         <v>14</v>
       </c>
       <c r="C2" s="24" t="s">
+        <v>3092</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>3093</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>3094</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>3095</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>3096</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>3097</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>3098</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>3099</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>3100</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>3101</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>3102</v>
-      </c>
       <c r="I2" s="24" t="s">
-        <v>3118</v>
+        <v>3113</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>141</v>
@@ -37550,7 +37572,7 @@
         <v>171</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>3103</v>
+        <v>3098</v>
       </c>
       <c r="M2" s="26">
         <v>96</v>
@@ -37564,25 +37586,25 @@
         <v>15</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>3104</v>
+        <v>3099</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>3105</v>
+        <v>3100</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>3106</v>
+        <v>3101</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>3101</v>
+        <v>3096</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>3107</v>
+        <v>3102</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>3117</v>
+        <v>3112</v>
       </c>
       <c r="J3" s="24" t="s">
         <v>131</v>
@@ -37591,7 +37613,7 @@
         <v>160</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>3108</v>
+        <v>3103</v>
       </c>
       <c r="M3" s="26"/>
     </row>
@@ -37603,34 +37625,34 @@
         <v>16</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>3109</v>
+        <v>3104</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>3110</v>
+        <v>3105</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>3116</v>
+        <v>3111</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>3101</v>
+        <v>3096</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>3111</v>
+        <v>3106</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>3112</v>
+        <v>3107</v>
       </c>
       <c r="J4" s="24" t="s">
         <v>123</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>3113</v>
+        <v>3108</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>3114</v>
+        <v>3109</v>
       </c>
       <c r="M4" s="26"/>
     </row>
@@ -37642,7 +37664,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -37663,7 +37685,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -37684,7 +37706,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -37705,7 +37727,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -37726,7 +37748,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -37747,7 +37769,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -37768,7 +37790,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -37789,7 +37811,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -37810,7 +37832,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -37831,7 +37853,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -37852,7 +37874,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -37873,7 +37895,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -37894,7 +37916,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -37915,7 +37937,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -37936,7 +37958,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -37957,7 +37979,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -37978,7 +38000,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -37999,7 +38021,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
@@ -38020,7 +38042,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -38041,7 +38063,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -38062,7 +38084,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -38083,7 +38105,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -38104,7 +38126,7 @@
         <v>2502</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>3115</v>
+        <v>3110</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>

--- a/src/data/TDE5_de-DE.xlsx
+++ b/src/data/TDE5_de-DE.xlsx
@@ -12075,9 +12075,6 @@
     <t>Der Borongeweihte ist in der Lage, alle Geister zu sehen, die sich in einem Radius von QS x 3 Schritt befinden, selbst wenn sie mit bloßem Auge nicht sichtbar wären.</t>
   </si>
   <si>
-    <t>Bis zu QS/2 Grundeinheiten eines Rauschmittels verlieren nach Anwendung der Liturgie viele negative Eigenschaften. Sie können weiterhin den Geisteszustand der konsumierenden Person beeinflussen, werden jedoch keine Sucht herbeiführen, Kopfschmerzen hervorrufen oder Schaden/ Zustände verursachen. Auch nach Ablauf der Wirkungsdauer tritt keine dieser Wirkungen ein, solange der Verzehr bereits erfolgt ist.</t>
-  </si>
-  <si>
     <t>Der Ertrag von landwirtschaftlich genutztem Getreide (z. B. Weizen, Roggen, Reis) erhöht sich um QS x 5 %, wenn das Getreide angepflanzt wird.</t>
   </si>
   <si>
@@ -12087,9 +12084,6 @@
     <t>Der Giftbann neutralisiert ein Gift. Die maximale Giftstufe darf die QS nicht übersteigen, sonst wirkt die Liturgie nicht und gilt als misslungen.</t>
   </si>
   <si>
-    <t>Durch eine Berührung kann ein Objekt bis zur Größe eines Apfels in Gold, Silber&lt;/p&gt;\n&lt;p&gt;oder Edelsteine verwandelt werden. Der Wert des veränderten Objektes entspricht 50 Dukaten.</t>
-  </si>
-  <si>
     <t>Die Haut des Betroffenen überzieht sich mit einem golden leuchtenden Schein, der ihm RS verleiht. Die Höhe des gewünschten RS muss der Geweihte vor der Probe festlegen. Maximal ist so ein RS von 3 möglich. Der RS ist kombinierbar mit anderem, profanem RS, nicht aber mit magischem RS. Gegen Dämonen und magische Angriffe verleiht die Liturgie noch einen Punkt zusätzlichen RS.</t>
   </si>
   <si>
@@ -12625,6 +12619,12 @@
   </si>
   <si>
     <t>153&amp;159</t>
+  </si>
+  <si>
+    <t>Bis zu QS/2 Grundeinheiten eines Rauschmittels verlieren nach Anwendung der Liturgie viele negative Eigenschaften. Sie können weiterhin den Geisteszustand der konsumierenden Person beeinflussen, werden jedoch keine Sucht herbeiführen, Kopfschmerzen hervorrufen oder Schaden/Zustände verursachen. Auch nach Ablauf der Wirkungsdauer tritt keine dieser Wirkungen ein, solange der Verzehr bereits erfolgt ist.</t>
+  </si>
+  <si>
+    <t>Durch eine Berührung kann ein Objekt bis zur Größe eines Apfels in Gold, Silber oder Edelsteine verwandelt werden. Der Wert des veränderten Objektes entspricht 50 Dukaten.</t>
   </si>
 </sst>
 </file>
@@ -19781,7 +19781,7 @@
         <v>2947</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>4081</v>
+        <v>4079</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>2929</v>
@@ -19904,7 +19904,7 @@
         <v>2951</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>4075</v>
+        <v>4073</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>3104</v>
@@ -20027,7 +20027,7 @@
         <v>2949</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>4076</v>
+        <v>4074</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>2761</v>
@@ -20068,7 +20068,7 @@
         <v>2949</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>4077</v>
+        <v>4075</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>2773</v>
@@ -20642,7 +20642,7 @@
         <v>2949</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>4078</v>
+        <v>4076</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>2708</v>
@@ -20724,7 +20724,7 @@
         <v>2949</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>4076</v>
+        <v>4074</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>2761</v>
@@ -20970,7 +20970,7 @@
         <v>2948</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>4076</v>
+        <v>4074</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>2761</v>
@@ -21011,7 +21011,7 @@
         <v>2949</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>4079</v>
+        <v>4077</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>2756</v>
@@ -21298,7 +21298,7 @@
         <v>2951</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>4080</v>
+        <v>4078</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>2943</v>
@@ -21456,7 +21456,7 @@
         <v>3835</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>4082</v>
+        <v>4080</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>2949</v>
@@ -22030,7 +22030,7 @@
         <v>3852</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>4083</v>
+        <v>4081</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>2950</v>
@@ -22112,7 +22112,7 @@
         <v>3853</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>4083</v>
+        <v>4081</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>2950</v>
@@ -22487,7 +22487,7 @@
         <v>2949</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>4084</v>
+        <v>4082</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>2749</v>
@@ -22938,7 +22938,7 @@
         <v>2949</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>4076</v>
+        <v>4074</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>2761</v>
@@ -22973,7 +22973,7 @@
         <v>3880</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>4083</v>
+        <v>4081</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>2950</v>
@@ -23055,7 +23055,7 @@
         <v>3881</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>4087</v>
+        <v>4085</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>2947</v>
@@ -23178,13 +23178,13 @@
         <v>3884</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>4085</v>
+        <v>4083</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>2949</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>2929</v>
@@ -23963,7 +23963,7 @@
         <v>2892</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>4088</v>
+        <v>4086</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>2750</v>
@@ -26334,7 +26334,7 @@
   <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26396,7 +26396,7 @@
         <v>330</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>4089</v>
+        <v>4087</v>
       </c>
       <c r="M2" s="35">
         <v>324</v>
@@ -26410,7 +26410,7 @@
         <v>331</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>4090</v>
+        <v>4088</v>
       </c>
       <c r="M3" s="35">
         <v>324</v>
@@ -26438,7 +26438,7 @@
         <v>333</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>4091</v>
+        <v>4089</v>
       </c>
       <c r="M5" s="35">
         <v>324</v>
@@ -26480,7 +26480,7 @@
         <v>336</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>4092</v>
+        <v>4090</v>
       </c>
       <c r="M8" s="35">
         <v>325</v>
@@ -26508,7 +26508,7 @@
         <v>338</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>4093</v>
+        <v>4091</v>
       </c>
       <c r="M10" s="35">
         <v>325</v>
@@ -26522,7 +26522,7 @@
         <v>339</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="M11" s="35">
         <v>325</v>
@@ -26536,7 +26536,7 @@
         <v>340</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="M12" s="35">
         <v>326</v>
@@ -26550,7 +26550,7 @@
         <v>341</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>4094</v>
+        <v>4092</v>
       </c>
       <c r="M13" s="35">
         <v>326</v>
@@ -26564,7 +26564,7 @@
         <v>342</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
       <c r="M14" s="35">
         <v>326</v>
@@ -26578,7 +26578,7 @@
         <v>343</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>4020</v>
+        <v>4018</v>
       </c>
       <c r="M15" s="35">
         <v>327</v>
@@ -26592,7 +26592,7 @@
         <v>344</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
       <c r="M16" s="35">
         <v>327</v>
@@ -26606,7 +26606,7 @@
         <v>345</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
       <c r="M17" s="35">
         <v>327</v>
@@ -26620,7 +26620,7 @@
         <v>346</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>4095</v>
+        <v>4093</v>
       </c>
       <c r="M18" s="35">
         <v>327</v>
@@ -26634,7 +26634,7 @@
         <v>364</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
       <c r="M19" s="35">
         <v>328</v>
@@ -26648,7 +26648,7 @@
         <v>365</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>4096</v>
+        <v>4094</v>
       </c>
       <c r="M20" s="35">
         <v>328</v>
@@ -26662,7 +26662,7 @@
         <v>366</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="M21" s="35">
         <v>328</v>
@@ -26676,7 +26676,7 @@
         <v>367</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>4097</v>
+        <v>4095</v>
       </c>
       <c r="M22" s="35">
         <v>328</v>
@@ -26690,7 +26690,7 @@
         <v>368</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="M23" s="35">
         <v>328</v>
@@ -26704,7 +26704,7 @@
         <v>369</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>4098</v>
+        <v>4096</v>
       </c>
       <c r="M24" s="35">
         <v>329</v>
@@ -26718,7 +26718,7 @@
         <v>370</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>4040</v>
+        <v>4038</v>
       </c>
       <c r="M25" s="35">
         <v>329</v>
@@ -26732,7 +26732,7 @@
         <v>371</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>4042</v>
+        <v>4040</v>
       </c>
       <c r="M26" s="35">
         <v>329</v>
@@ -26746,7 +26746,7 @@
         <v>372</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>4099</v>
+        <v>4097</v>
       </c>
       <c r="M27" s="35">
         <v>329</v>
@@ -26760,7 +26760,7 @@
         <v>373</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>4100</v>
+        <v>4098</v>
       </c>
       <c r="M28" s="35">
         <v>329</v>
@@ -26774,7 +26774,7 @@
         <v>374</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>4047</v>
+        <v>4045</v>
       </c>
       <c r="M29" s="35">
         <v>330</v>
@@ -26788,7 +26788,7 @@
         <v>375</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>4101</v>
+        <v>4099</v>
       </c>
       <c r="M30" s="35">
         <v>330</v>
@@ -26802,7 +26802,7 @@
         <v>376</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>4049</v>
+        <v>4047</v>
       </c>
       <c r="M31" s="35">
         <v>330</v>
@@ -26816,7 +26816,7 @@
         <v>377</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>4102</v>
+        <v>4100</v>
       </c>
       <c r="M32" s="35">
         <v>330</v>
@@ -26830,7 +26830,7 @@
         <v>378</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>4065</v>
+        <v>4063</v>
       </c>
       <c r="M33" s="35">
         <v>331</v>
@@ -26844,7 +26844,7 @@
         <v>379</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>4103</v>
+        <v>4101</v>
       </c>
       <c r="M34" s="35">
         <v>331</v>
@@ -26858,7 +26858,7 @@
         <v>380</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>4104</v>
+        <v>4102</v>
       </c>
       <c r="M35" s="35">
         <v>331</v>
@@ -26900,7 +26900,7 @@
         <v>383</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="M38" s="35">
         <v>331</v>
@@ -26914,7 +26914,7 @@
         <v>386</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>4105</v>
+        <v>4103</v>
       </c>
       <c r="M39" s="35">
         <v>332</v>
@@ -26928,7 +26928,7 @@
         <v>384</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>4106</v>
+        <v>4104</v>
       </c>
       <c r="M40" s="35">
         <v>332</v>
@@ -26942,7 +26942,7 @@
         <v>385</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>4107</v>
+        <v>4105</v>
       </c>
       <c r="M41" s="35">
         <v>333</v>
@@ -26970,10 +26970,10 @@
         <v>2541</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>4108</v>
+        <v>4106</v>
       </c>
       <c r="M43" s="35" t="s">
-        <v>4170</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
@@ -26984,7 +26984,7 @@
         <v>2542</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>4109</v>
+        <v>4107</v>
       </c>
       <c r="M44" s="35">
         <v>112</v>
@@ -27054,7 +27054,7 @@
         <v>2547</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>4110</v>
+        <v>4108</v>
       </c>
       <c r="M49" s="35">
         <v>114</v>
@@ -27068,7 +27068,7 @@
         <v>2548</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>4111</v>
+        <v>4109</v>
       </c>
       <c r="M50" s="35">
         <v>114</v>
@@ -27166,7 +27166,7 @@
         <v>2555</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>4112</v>
+        <v>4110</v>
       </c>
       <c r="M57" s="35">
         <v>117</v>
@@ -27180,7 +27180,7 @@
         <v>2556</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>4113</v>
+        <v>4111</v>
       </c>
       <c r="M58" s="35">
         <v>117</v>
@@ -27194,7 +27194,7 @@
         <v>2557</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>4114</v>
+        <v>4112</v>
       </c>
       <c r="M59" s="35">
         <v>117</v>
@@ -27211,7 +27211,7 @@
         <v>3981</v>
       </c>
       <c r="M60" s="35" t="s">
-        <v>4171</v>
+        <v>4169</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.45">
@@ -27222,7 +27222,7 @@
         <v>2559</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>4115</v>
+        <v>4113</v>
       </c>
       <c r="M61" s="35">
         <v>118</v>
@@ -27236,7 +27236,7 @@
         <v>2560</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>4116</v>
+        <v>4114</v>
       </c>
       <c r="M62" s="35">
         <v>118</v>
@@ -27250,7 +27250,7 @@
         <v>2561</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>4117</v>
+        <v>4115</v>
       </c>
       <c r="M63" s="35">
         <v>118</v>
@@ -27264,7 +27264,7 @@
         <v>2562</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>4118</v>
+        <v>4116</v>
       </c>
       <c r="M64" s="35">
         <v>119</v>
@@ -27306,7 +27306,7 @@
         <v>2565</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>4119</v>
+        <v>4117</v>
       </c>
       <c r="M67" s="35">
         <v>119</v>
@@ -27334,7 +27334,7 @@
         <v>2567</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>4120</v>
+        <v>4118</v>
       </c>
       <c r="M69" s="35">
         <v>120</v>
@@ -27348,7 +27348,7 @@
         <v>2568</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>4121</v>
+        <v>4119</v>
       </c>
       <c r="M70" s="35">
         <v>120</v>
@@ -27362,7 +27362,7 @@
         <v>2569</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>4122</v>
+        <v>4120</v>
       </c>
       <c r="M71" s="35">
         <v>121</v>
@@ -27390,7 +27390,7 @@
         <v>2571</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>3998</v>
+        <v>4180</v>
       </c>
       <c r="M73" s="35">
         <v>122</v>
@@ -27404,7 +27404,7 @@
         <v>2572</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="M74" s="35">
         <v>122</v>
@@ -27418,7 +27418,7 @@
         <v>2573</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>4002</v>
+        <v>4181</v>
       </c>
       <c r="M75" s="35">
         <v>122</v>
@@ -27432,7 +27432,7 @@
         <v>2574</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="M76" s="35">
         <v>123</v>
@@ -27446,7 +27446,7 @@
         <v>2575</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>4123</v>
+        <v>4121</v>
       </c>
       <c r="M77" s="35">
         <v>123</v>
@@ -27460,7 +27460,7 @@
         <v>2576</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="M78" s="35">
         <v>123</v>
@@ -27474,7 +27474,7 @@
         <v>2577</v>
       </c>
       <c r="C79" s="35" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
       <c r="M79" s="35">
         <v>123</v>
@@ -27488,7 +27488,7 @@
         <v>2578</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>4124</v>
+        <v>4122</v>
       </c>
       <c r="M80" s="35">
         <v>124</v>
@@ -27502,10 +27502,10 @@
         <v>2579</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
       <c r="M81" s="35" t="s">
-        <v>4172</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.45">
@@ -27516,7 +27516,7 @@
         <v>2580</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="M82" s="35">
         <v>124</v>
@@ -27530,7 +27530,7 @@
         <v>2581</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>4125</v>
+        <v>4123</v>
       </c>
       <c r="M83" s="35">
         <v>124</v>
@@ -27544,7 +27544,7 @@
         <v>2582</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="M84" s="35">
         <v>125</v>
@@ -27558,7 +27558,7 @@
         <v>2583</v>
       </c>
       <c r="C85" s="35" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="M85" s="35">
         <v>126</v>
@@ -27572,7 +27572,7 @@
         <v>2584</v>
       </c>
       <c r="C86" s="35" t="s">
-        <v>4014</v>
+        <v>4012</v>
       </c>
       <c r="M86" s="35">
         <v>126</v>
@@ -27586,7 +27586,7 @@
         <v>2585</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>4015</v>
+        <v>4013</v>
       </c>
       <c r="M87" s="35">
         <v>127</v>
@@ -27600,7 +27600,7 @@
         <v>2586</v>
       </c>
       <c r="C88" s="35" t="s">
-        <v>4126</v>
+        <v>4124</v>
       </c>
       <c r="M88" s="35">
         <v>128</v>
@@ -27614,7 +27614,7 @@
         <v>2688</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
       <c r="M89" s="35">
         <v>128</v>
@@ -27628,7 +27628,7 @@
         <v>2587</v>
       </c>
       <c r="C90" s="35" t="s">
-        <v>4127</v>
+        <v>4125</v>
       </c>
       <c r="M90" s="35">
         <v>128</v>
@@ -27642,7 +27642,7 @@
         <v>2588</v>
       </c>
       <c r="C91" s="35" t="s">
-        <v>4128</v>
+        <v>4126</v>
       </c>
       <c r="M91" s="35">
         <v>128</v>
@@ -27656,10 +27656,10 @@
         <v>2589</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="M92" s="35" t="s">
-        <v>4173</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.45">
@@ -27670,7 +27670,7 @@
         <v>2590</v>
       </c>
       <c r="C93" s="35" t="s">
-        <v>4023</v>
+        <v>4021</v>
       </c>
       <c r="M93" s="35">
         <v>129</v>
@@ -27684,7 +27684,7 @@
         <v>2591</v>
       </c>
       <c r="C94" s="35" t="s">
-        <v>4024</v>
+        <v>4022</v>
       </c>
       <c r="M94" s="35">
         <v>129</v>
@@ -27698,7 +27698,7 @@
         <v>2592</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>4129</v>
+        <v>4127</v>
       </c>
       <c r="M95" s="35">
         <v>132</v>
@@ -27712,7 +27712,7 @@
         <v>2593</v>
       </c>
       <c r="C96" s="35" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
       <c r="M96" s="35">
         <v>129</v>
@@ -27726,7 +27726,7 @@
         <v>2594</v>
       </c>
       <c r="C97" s="35" t="s">
-        <v>4130</v>
+        <v>4128</v>
       </c>
       <c r="M97" s="35">
         <v>130</v>
@@ -27740,7 +27740,7 @@
         <v>2595</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>4131</v>
+        <v>4129</v>
       </c>
       <c r="M98" s="35">
         <v>130</v>
@@ -27754,7 +27754,7 @@
         <v>2596</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>4028</v>
+        <v>4026</v>
       </c>
       <c r="M99" s="35">
         <v>131</v>
@@ -27768,7 +27768,7 @@
         <v>2597</v>
       </c>
       <c r="C100" s="35" t="s">
-        <v>4030</v>
+        <v>4028</v>
       </c>
       <c r="M100" s="35">
         <v>131</v>
@@ -27782,7 +27782,7 @@
         <v>2598</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>4132</v>
+        <v>4130</v>
       </c>
       <c r="M101" s="35">
         <v>131</v>
@@ -27796,7 +27796,7 @@
         <v>2599</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>4133</v>
+        <v>4131</v>
       </c>
       <c r="M102" s="35">
         <v>131</v>
@@ -27810,7 +27810,7 @@
         <v>2600</v>
       </c>
       <c r="C103" s="35" t="s">
-        <v>4134</v>
+        <v>4132</v>
       </c>
       <c r="M103" s="35">
         <v>132</v>
@@ -27824,7 +27824,7 @@
         <v>2601</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>4032</v>
+        <v>4030</v>
       </c>
       <c r="M104" s="35">
         <v>132</v>
@@ -27838,7 +27838,7 @@
         <v>2602</v>
       </c>
       <c r="C105" s="35" t="s">
-        <v>4034</v>
+        <v>4032</v>
       </c>
       <c r="M105" s="35">
         <v>133</v>
@@ -27852,7 +27852,7 @@
         <v>2603</v>
       </c>
       <c r="C106" s="35" t="s">
-        <v>4035</v>
+        <v>4033</v>
       </c>
       <c r="M106" s="35">
         <v>133</v>
@@ -27866,7 +27866,7 @@
         <v>2604</v>
       </c>
       <c r="C107" s="35" t="s">
-        <v>4135</v>
+        <v>4133</v>
       </c>
       <c r="M107" s="35">
         <v>133</v>
@@ -27880,7 +27880,7 @@
         <v>2605</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>4038</v>
+        <v>4036</v>
       </c>
       <c r="M108" s="35">
         <v>134</v>
@@ -27894,7 +27894,7 @@
         <v>2606</v>
       </c>
       <c r="C109" s="35" t="s">
-        <v>4136</v>
+        <v>4134</v>
       </c>
       <c r="M109" s="35">
         <v>134</v>
@@ -27908,7 +27908,7 @@
         <v>2607</v>
       </c>
       <c r="C110" s="35" t="s">
-        <v>4044</v>
+        <v>4042</v>
       </c>
       <c r="M110" s="35">
         <v>135</v>
@@ -27922,7 +27922,7 @@
         <v>2608</v>
       </c>
       <c r="C111" s="35" t="s">
-        <v>4048</v>
+        <v>4046</v>
       </c>
       <c r="M111" s="35">
         <v>135</v>
@@ -27936,7 +27936,7 @@
         <v>2609</v>
       </c>
       <c r="C112" s="35" t="s">
-        <v>4137</v>
+        <v>4135</v>
       </c>
       <c r="M112" s="35">
         <v>135</v>
@@ -27950,7 +27950,7 @@
         <v>2610</v>
       </c>
       <c r="C113" s="35" t="s">
-        <v>4051</v>
+        <v>4049</v>
       </c>
       <c r="M113" s="35">
         <v>136</v>
@@ -27964,7 +27964,7 @@
         <v>2611</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>4053</v>
+        <v>4051</v>
       </c>
       <c r="M114" s="35">
         <v>136</v>
@@ -27978,10 +27978,10 @@
         <v>2612</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>4054</v>
+        <v>4052</v>
       </c>
       <c r="M115" s="35" t="s">
-        <v>4174</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.45">
@@ -27992,7 +27992,7 @@
         <v>2613</v>
       </c>
       <c r="C116" s="35" t="s">
-        <v>4138</v>
+        <v>4136</v>
       </c>
       <c r="M116" s="35">
         <v>136</v>
@@ -28006,7 +28006,7 @@
         <v>2614</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>4139</v>
+        <v>4137</v>
       </c>
       <c r="M117" s="35">
         <v>137</v>
@@ -28020,7 +28020,7 @@
         <v>2615</v>
       </c>
       <c r="C118" s="35" t="s">
-        <v>4058</v>
+        <v>4056</v>
       </c>
       <c r="M118" s="35">
         <v>137</v>
@@ -28034,7 +28034,7 @@
         <v>2616</v>
       </c>
       <c r="C119" s="35" t="s">
-        <v>4140</v>
+        <v>4138</v>
       </c>
       <c r="M119" s="35">
         <v>138</v>
@@ -28048,7 +28048,7 @@
         <v>2617</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>4059</v>
+        <v>4057</v>
       </c>
       <c r="M120" s="35">
         <v>138</v>
@@ -28062,7 +28062,7 @@
         <v>2618</v>
       </c>
       <c r="C121" s="35" t="s">
-        <v>4141</v>
+        <v>4139</v>
       </c>
       <c r="M121" s="35">
         <v>138</v>
@@ -28076,10 +28076,10 @@
         <v>2619</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>4060</v>
+        <v>4058</v>
       </c>
       <c r="M122" s="35" t="s">
-        <v>4175</v>
+        <v>4173</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.45">
@@ -28090,7 +28090,7 @@
         <v>2620</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>4063</v>
+        <v>4061</v>
       </c>
       <c r="M123" s="35">
         <v>139</v>
@@ -28104,10 +28104,10 @@
         <v>2621</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>4066</v>
+        <v>4064</v>
       </c>
       <c r="M124" s="35" t="s">
-        <v>4176</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.45">
@@ -28118,7 +28118,7 @@
         <v>2622</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>4070</v>
+        <v>4068</v>
       </c>
       <c r="M125" s="35">
         <v>139</v>
@@ -28132,10 +28132,10 @@
         <v>2623</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>4071</v>
+        <v>4069</v>
       </c>
       <c r="M126" s="35" t="s">
-        <v>4177</v>
+        <v>4175</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.45">
@@ -28146,7 +28146,7 @@
         <v>2624</v>
       </c>
       <c r="C127" s="35" t="s">
-        <v>4142</v>
+        <v>4140</v>
       </c>
       <c r="M127" s="35">
         <v>140</v>
@@ -28160,7 +28160,7 @@
         <v>2625</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>4143</v>
+        <v>4141</v>
       </c>
       <c r="M128" s="35">
         <v>140</v>
@@ -28188,7 +28188,7 @@
         <v>2627</v>
       </c>
       <c r="C130" s="35" t="s">
-        <v>4144</v>
+        <v>4142</v>
       </c>
       <c r="M130" s="35">
         <v>141</v>
@@ -28202,7 +28202,7 @@
         <v>2628</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>4145</v>
+        <v>4143</v>
       </c>
       <c r="M131" s="35">
         <v>141</v>
@@ -28244,7 +28244,7 @@
         <v>2631</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="M134" s="35">
         <v>142</v>
@@ -28272,7 +28272,7 @@
         <v>2633</v>
       </c>
       <c r="C136" s="35" t="s">
-        <v>4147</v>
+        <v>4145</v>
       </c>
       <c r="M136" s="35">
         <v>143</v>
@@ -28286,10 +28286,10 @@
         <v>2634</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>4148</v>
+        <v>4146</v>
       </c>
       <c r="M137" s="35" t="s">
-        <v>4178</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.45">
@@ -28412,7 +28412,7 @@
         <v>2689</v>
       </c>
       <c r="C146" s="35" t="s">
-        <v>4149</v>
+        <v>4147</v>
       </c>
       <c r="M146" s="35">
         <v>147</v>
@@ -28426,7 +28426,7 @@
         <v>2643</v>
       </c>
       <c r="C147" s="35" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="M147" s="35">
         <v>147</v>
@@ -28440,7 +28440,7 @@
         <v>2644</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="M148" s="35">
         <v>148</v>
@@ -28454,10 +28454,10 @@
         <v>2645</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>4150</v>
+        <v>4148</v>
       </c>
       <c r="M149" s="35" t="s">
-        <v>4179</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.45">
@@ -28468,7 +28468,7 @@
         <v>2646</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="M150" s="35">
         <v>149</v>
@@ -28482,7 +28482,7 @@
         <v>2647</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>4152</v>
+        <v>4150</v>
       </c>
       <c r="M151" s="35">
         <v>149</v>
@@ -28496,7 +28496,7 @@
         <v>2648</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>4153</v>
+        <v>4151</v>
       </c>
       <c r="M152" s="35">
         <v>149</v>
@@ -28510,7 +28510,7 @@
         <v>2649</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>4016</v>
+        <v>4014</v>
       </c>
       <c r="M153" s="35">
         <v>150</v>
@@ -28524,7 +28524,7 @@
         <v>2650</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>4154</v>
+        <v>4152</v>
       </c>
       <c r="M154" s="35">
         <v>150</v>
@@ -28538,7 +28538,7 @@
         <v>2651</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>4155</v>
+        <v>4153</v>
       </c>
       <c r="M155" s="35">
         <v>150</v>
@@ -28552,7 +28552,7 @@
         <v>2652</v>
       </c>
       <c r="C156" s="35" t="s">
-        <v>4018</v>
+        <v>4016</v>
       </c>
       <c r="M156" s="35">
         <v>151</v>
@@ -28566,10 +28566,10 @@
         <v>2653</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>4156</v>
+        <v>4154</v>
       </c>
       <c r="M157" s="35" t="s">
-        <v>4180</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.45">
@@ -28580,7 +28580,7 @@
         <v>2654</v>
       </c>
       <c r="C158" s="35" t="s">
-        <v>4157</v>
+        <v>4155</v>
       </c>
       <c r="M158" s="35">
         <v>151</v>
@@ -28594,7 +28594,7 @@
         <v>2655</v>
       </c>
       <c r="C159" s="35" t="s">
-        <v>4158</v>
+        <v>4156</v>
       </c>
       <c r="M159" s="35">
         <v>152</v>
@@ -28608,7 +28608,7 @@
         <v>2656</v>
       </c>
       <c r="C160" s="35" t="s">
-        <v>4159</v>
+        <v>4157</v>
       </c>
       <c r="M160" s="35">
         <v>152</v>
@@ -28622,7 +28622,7 @@
         <v>2657</v>
       </c>
       <c r="C161" s="35" t="s">
-        <v>4027</v>
+        <v>4025</v>
       </c>
       <c r="M161" s="35">
         <v>152</v>
@@ -28636,7 +28636,7 @@
         <v>2658</v>
       </c>
       <c r="C162" s="35" t="s">
-        <v>4160</v>
+        <v>4158</v>
       </c>
       <c r="M162" s="35">
         <v>153</v>
@@ -28650,7 +28650,7 @@
         <v>2659</v>
       </c>
       <c r="C163" s="35" t="s">
-        <v>4031</v>
+        <v>4029</v>
       </c>
       <c r="M163" s="35">
         <v>153</v>
@@ -28664,10 +28664,10 @@
         <v>3576</v>
       </c>
       <c r="C164" s="35" t="s">
-        <v>4161</v>
+        <v>4159</v>
       </c>
       <c r="M164" s="35" t="s">
-        <v>4181</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.45">
@@ -28678,7 +28678,7 @@
         <v>2660</v>
       </c>
       <c r="C165" s="35" t="s">
-        <v>4162</v>
+        <v>4160</v>
       </c>
       <c r="M165" s="35">
         <v>153</v>
@@ -28692,7 +28692,7 @@
         <v>2661</v>
       </c>
       <c r="C166" s="35" t="s">
-        <v>4036</v>
+        <v>4034</v>
       </c>
       <c r="M166" s="35">
         <v>154</v>
@@ -28706,7 +28706,7 @@
         <v>2662</v>
       </c>
       <c r="C167" s="35" t="s">
-        <v>4037</v>
+        <v>4035</v>
       </c>
       <c r="M167" s="35">
         <v>154</v>
@@ -28720,7 +28720,7 @@
         <v>2663</v>
       </c>
       <c r="C168" s="35" t="s">
-        <v>4039</v>
+        <v>4037</v>
       </c>
       <c r="M168" s="35">
         <v>155</v>
@@ -28734,7 +28734,7 @@
         <v>2664</v>
       </c>
       <c r="C169" s="35" t="s">
-        <v>4163</v>
+        <v>4161</v>
       </c>
       <c r="M169" s="35">
         <v>155</v>
@@ -28748,7 +28748,7 @@
         <v>2665</v>
       </c>
       <c r="C170" s="35" t="s">
-        <v>4041</v>
+        <v>4039</v>
       </c>
       <c r="M170" s="35">
         <v>155</v>
@@ -28762,7 +28762,7 @@
         <v>2666</v>
       </c>
       <c r="C171" s="35" t="s">
-        <v>4043</v>
+        <v>4041</v>
       </c>
       <c r="M171" s="35">
         <v>156</v>
@@ -28776,7 +28776,7 @@
         <v>2667</v>
       </c>
       <c r="C172" s="35" t="s">
-        <v>4045</v>
+        <v>4043</v>
       </c>
       <c r="M172" s="35">
         <v>156</v>
@@ -28790,7 +28790,7 @@
         <v>2668</v>
       </c>
       <c r="C173" s="35" t="s">
-        <v>4046</v>
+        <v>4044</v>
       </c>
       <c r="M173" s="35">
         <v>157</v>
@@ -28804,7 +28804,7 @@
         <v>2669</v>
       </c>
       <c r="C174" s="35" t="s">
-        <v>4050</v>
+        <v>4048</v>
       </c>
       <c r="M174" s="35">
         <v>157</v>
@@ -28818,7 +28818,7 @@
         <v>2670</v>
       </c>
       <c r="C175" s="35" t="s">
-        <v>4052</v>
+        <v>4050</v>
       </c>
       <c r="M175" s="35">
         <v>158</v>
@@ -28832,7 +28832,7 @@
         <v>2671</v>
       </c>
       <c r="C176" s="35" t="s">
-        <v>4164</v>
+        <v>4162</v>
       </c>
       <c r="M176" s="35">
         <v>158</v>
@@ -28846,7 +28846,7 @@
         <v>2672</v>
       </c>
       <c r="C177" s="35" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="M177" s="35">
         <v>158</v>
@@ -28860,7 +28860,7 @@
         <v>2673</v>
       </c>
       <c r="C178" s="35" t="s">
-        <v>4166</v>
+        <v>4164</v>
       </c>
       <c r="M178" s="35">
         <v>158</v>
@@ -28874,7 +28874,7 @@
         <v>2674</v>
       </c>
       <c r="C179" s="35" t="s">
-        <v>4055</v>
+        <v>4053</v>
       </c>
       <c r="M179" s="35">
         <v>159</v>
@@ -28888,7 +28888,7 @@
         <v>2675</v>
       </c>
       <c r="C180" s="35" t="s">
-        <v>4056</v>
+        <v>4054</v>
       </c>
       <c r="M180" s="35">
         <v>159</v>
@@ -28902,7 +28902,7 @@
         <v>2676</v>
       </c>
       <c r="C181" s="35" t="s">
-        <v>4167</v>
+        <v>4165</v>
       </c>
       <c r="M181" s="35">
         <v>159</v>
@@ -28916,7 +28916,7 @@
         <v>2677</v>
       </c>
       <c r="C182" s="35" t="s">
-        <v>4057</v>
+        <v>4055</v>
       </c>
       <c r="M182" s="35">
         <v>160</v>
@@ -28930,7 +28930,7 @@
         <v>2678</v>
       </c>
       <c r="C183" s="35" t="s">
-        <v>4168</v>
+        <v>4166</v>
       </c>
       <c r="M183" s="35">
         <v>160</v>
@@ -28944,7 +28944,7 @@
         <v>2679</v>
       </c>
       <c r="C184" s="35" t="s">
-        <v>4169</v>
+        <v>4167</v>
       </c>
       <c r="M184" s="35">
         <v>161</v>
@@ -28958,7 +28958,7 @@
         <v>2680</v>
       </c>
       <c r="C185" s="35" t="s">
-        <v>4061</v>
+        <v>4059</v>
       </c>
       <c r="M185" s="35">
         <v>161</v>
@@ -28972,7 +28972,7 @@
         <v>2681</v>
       </c>
       <c r="C186" s="35" t="s">
-        <v>4062</v>
+        <v>4060</v>
       </c>
       <c r="M186" s="35">
         <v>161</v>
@@ -28986,7 +28986,7 @@
         <v>2682</v>
       </c>
       <c r="C187" s="35" t="s">
-        <v>4064</v>
+        <v>4062</v>
       </c>
       <c r="M187" s="35">
         <v>162</v>
@@ -29000,7 +29000,7 @@
         <v>1704</v>
       </c>
       <c r="C188" s="35" t="s">
-        <v>4067</v>
+        <v>4065</v>
       </c>
       <c r="M188" s="35">
         <v>162</v>
@@ -29014,7 +29014,7 @@
         <v>2683</v>
       </c>
       <c r="C189" s="35" t="s">
-        <v>4068</v>
+        <v>4066</v>
       </c>
       <c r="M189" s="35">
         <v>162</v>
@@ -29028,7 +29028,7 @@
         <v>2684</v>
       </c>
       <c r="C190" s="35" t="s">
-        <v>4069</v>
+        <v>4067</v>
       </c>
       <c r="M190" s="35">
         <v>162</v>
@@ -29042,7 +29042,7 @@
         <v>2685</v>
       </c>
       <c r="C191" s="35" t="s">
-        <v>4072</v>
+        <v>4070</v>
       </c>
       <c r="M191" s="35">
         <v>163</v>
@@ -29056,7 +29056,7 @@
         <v>2686</v>
       </c>
       <c r="C192" s="35" t="s">
-        <v>4073</v>
+        <v>4071</v>
       </c>
       <c r="M192" s="35">
         <v>163</v>
@@ -29070,7 +29070,7 @@
         <v>2687</v>
       </c>
       <c r="C193" s="35" t="s">
-        <v>4074</v>
+        <v>4072</v>
       </c>
       <c r="M193" s="35">
         <v>163</v>
@@ -29078,8 +29078,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/src/data/TDE5_de-DE.xlsx
+++ b/src/data/TDE5_de-DE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="30" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6809" uniqueCount="4182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7071" uniqueCount="4287">
   <si>
     <t>id</t>
   </si>
@@ -12625,6 +12625,321 @@
   </si>
   <si>
     <t>Durch eine Berührung kann ein Objekt bis zur Größe eines Apfels in Gold, Silber oder Edelsteine verwandelt werden. Der Wert des veränderten Objektes entspricht 50 Dukaten.</t>
+  </si>
+  <si>
+    <t>Der Zauberer senkt die Temperatur einer kleinen Menge Flüssigkeit (maximal ein Becher voll) um bis zu 10 Grad.</t>
+  </si>
+  <si>
+    <t>Körperhaare werden durch diesen Zaubertrick entfernt. Der Zauberer kann festlegen, dass bestimmte Körperstellen nicht enthaart werden (beispielsweise, damit Augenbrauen oder ein Bart nicht entfernt werden).</t>
+  </si>
+  <si>
+    <t>Kulturschaffende</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Gildenmagier (Khelbara ay Baburia)</t>
+  </si>
+  <si>
+    <t>Der Druide kann seinen Bart augenblicklich auf bis zu 1 Schritt Länge wachsen lassen. Normales und magisches Haar unterscheidet sich optisch nicht voneinander. Schneidet der Druide den durch den Zaubertrick gewachsenen Bart ab, lösen sich die abgeschnittenen Haare sofort auf.</t>
+  </si>
+  <si>
+    <t>Druiden</t>
+  </si>
+  <si>
+    <t>Ein einzelnes Wort oder ein anderes kurzes, nicht allzu lautes Geräusch nach Wahl erklingt bis zu 8 Schritt entfernt vom Zaubernden.</t>
+  </si>
+  <si>
+    <t>Mit Hilfe dieses Zaubertricks sendet der Druide einen Befehl an ein nahes, kleines Tier (z. B. Eichhörnchen, Amsel), das ihm eine Nuss oder einige Beeren bringt. Zum Sattwerden reicht dies jedoch nicht aus, erst 30 Anwendungen des Zaubertricks ergeben eine Ration Nahrung.</t>
+  </si>
+  <si>
+    <t>64 Schritt</t>
+  </si>
+  <si>
+    <t>Ein schreiender Patient wird für kurze Zeit still, seine Angst verschwindet in dieser Zeit aber nicht. Das Ziel muss vorher den Status *Fixiert* erlitten haben, damit der Zaubertrick funktioniert.</t>
+  </si>
+  <si>
+    <t>1 Stunde</t>
+  </si>
+  <si>
+    <t>Gildenmagier (Perricum)</t>
+  </si>
+  <si>
+    <t>In einem Radius von 16 Schritt um den Magier verströmt die Umgebung einen angenehmen Geruch nach Blüten und Waldesgrün.</t>
+  </si>
+  <si>
+    <t>Elfen, Gildenmagier (Gerasim)</t>
+  </si>
+  <si>
+    <t>Der Zauberer riecht für etwa 5 Minuten nach einem Parfüm oder einem anderen für ihn angenehmen Geruch.</t>
+  </si>
+  <si>
+    <t>Ein Diener, Bauer oder eine andere, gegenüber dem Zauberer mit Ehrfurcht erfüllte Person weicht ihm sich verneigend aus. Personen, auf die dies nicht zutrifft, sind von dem Zaubertrick nicht betroffen.</t>
+  </si>
+  <si>
+    <t>30 Sekunden</t>
+  </si>
+  <si>
+    <t>Gildenmagier (Fasar Beherrschung)</t>
+  </si>
+  <si>
+    <t>Einem maximal 1 Stein wiegenden Objekt wachsen ein oder mehrere Paar kurze Beine, die es auf Befehl des Zauberers umhertragen.</t>
+  </si>
+  <si>
+    <t>Eine kleine Flamme entsteht etwa einen Zentimeter über einem Finger des Zaubernden. Sie brennt bis zu 5 Minuten. Der Zaubertrick schützt die Hand nicht vor der Hitze der Flamme.</t>
+  </si>
+  <si>
+    <t>Der Zaubernde kann aus einer überschaubaren Menge Objekte gezielt das gewünschte herausgreifen. Er kann aus einem Kartenstapel eine bestimmte Karte ziehen, aus einem Beutel eine gewünschte Münze oder von einem Schlüsselbund den richtigen Schlüssel. Er muss dazu das gewünschte Objekt kennen und dieses muss auch wirklich an dem Ort vorhanden sein.</t>
+  </si>
+  <si>
+    <t>Mit diesem Zaubertrick kann der Zauberer telepathisch jemandem einige Grußworte übermitteln.</t>
+  </si>
+  <si>
+    <t>Elfen, Gildenmagier (Donnerbach)</t>
+  </si>
+  <si>
+    <t>Das Ziel des Zaubertricks erwidert freundlich den Gruß des Zauberers. Der Trick funktioniert nur bei Personen, die dem Zauberer zumindest neutral gegenüber eingestellt sind.</t>
+  </si>
+  <si>
+    <t>Gildenmagier (Hesindius Lichtblick)</t>
+  </si>
+  <si>
+    <t>Der Zauberer kann die Farbe seines Haupthaars nach Belieben bestimmen. Gleiches gilt für die Länge, solange sie 1 Schritt nicht überschreitet. Schneidet der Zauberer die durch den Zaubertrick gewachsenen Haare ab, lösen sich diese sofort auf. Nachwachsende Haare sind von der Veränderung nicht betroffen.</t>
+  </si>
+  <si>
+    <t>Hexen</t>
+  </si>
+  <si>
+    <t>Dieser Zaubertrick hält die Temperatur eines maximal faustgroßen Objektes konstant, so lange es in der Hand gehalten wird, maximal jedoch 5 Minuten.</t>
+  </si>
+  <si>
+    <t>Der Zauberer zeigt auf einen Stern oder ein Sternzeichen am Himmel, der daraufhin kurz für den Zauberer und das Ziel aufleuchtet.</t>
+  </si>
+  <si>
+    <t>5 Sekunden</t>
+  </si>
+  <si>
+    <t>Gildenmagier (Töchter Niobaras)</t>
+  </si>
+  <si>
+    <t>Mittels Hexenblick kann eine Hexe herausfinden, ob eine andere Person ebenfalls die hexische Tradition beherrscht. Sollte das ausgewählte Ziel die Tradition besitzen, so leuchten ihre Augen kurz Purpur auf, was aber nur für die zaubernde Hexe sichtbar ist.</t>
+  </si>
+  <si>
+    <t>ausschließlich Hexen</t>
+  </si>
+  <si>
+    <t>In einem Radius von 16 Schritt um den Zauberer ist eine angenehme, zum Ort passende, Hintergrundmusik zu hören. Das Stück kann der Zauberer selbst bestimmten, es muss aber zum Ambiente passen.</t>
+  </si>
+  <si>
+    <t>Gildenmagier (Zorgan), Zauberbarden</t>
+  </si>
+  <si>
+    <t>Die Zauberin wird nicht von einfachen Insekten wie Fliegen oder Mücken belästigt. Der Zaubertrick schützt nicht vor Moskitos oder anderen Insekten, die bei Helden Schaden verursachen, Krankheiten übertragen oder ihnen gefährlich werden können. Die Insekten müssen der Größenkategorie winzig angehören.</t>
+  </si>
+  <si>
+    <t>6 Stunden</t>
+  </si>
+  <si>
+    <t>Hexen, Gildenmagier (Sinoda)</t>
+  </si>
+  <si>
+    <t>Die Hexe kann einem beliebigen Besen innerhalb der Reichweite befehlen, den Boden in einem Radius von 8 Schritt zu kehren. Der Besen weicht dabei Hindernissen aus und versucht Lebewesen der Größenkategorie klein und größer aus dem Weg zu gehen. Wird der Besen berührt, endet der Zaubertrick augenblicklich.</t>
+  </si>
+  <si>
+    <t>Objekte (Besen)</t>
+  </si>
+  <si>
+    <t>Aus dem rechten Zeigefinger des Magiers leuchtet ein schwaches Licht. Das Licht ist nicht hell genug, um Sichtmodifikatoren zu ändern, aber es reicht aus, um in der Dunkelheit ein Buch zu lesen.</t>
+  </si>
+  <si>
+    <t>Gildenmagier</t>
+  </si>
+  <si>
+    <t>Ein kleines Tier (Eichhörnchen, Taube) kommt neugierig auf den Zaubernden zu. Die Wirkung hält 5 Minuten an.</t>
+  </si>
+  <si>
+    <t>Ein kleiner Lufthauch bläst Kerzen und ähnlich große Flammen innerhalb eines Radius von 8 Schritt um den Zauberer aus.</t>
+  </si>
+  <si>
+    <t>Objekte (kleine Flammen)</t>
+  </si>
+  <si>
+    <t>Elfen, Gildenmagier</t>
+  </si>
+  <si>
+    <t>Durch diesen Trick kann der Zauberer beliebig viele seiner Finger- oder Fußnägel in einer beliebigen Farbe lackieren.</t>
+  </si>
+  <si>
+    <t>Gildenmagier (Al’Anfa), Hexen</t>
+  </si>
+  <si>
+    <t>Dieser Zaubertrick sorgt dafür, dass die Kleidung einer Person ordentlich sitzt.</t>
+  </si>
+  <si>
+    <t>Objekte (Kleidung)</t>
+  </si>
+  <si>
+    <t>Gildenmagier (Halle der Antimagie zu Kuslik)</t>
+  </si>
+  <si>
+    <t>Berührt der Druide eine Pflanze, kann er sich ein Bild von ihrem Gesundheitszustand machen und herausfinden, ob sie von Schädlingen befallen, vergiftet wurde oder Ähnliches.</t>
+  </si>
+  <si>
+    <t>Pflanzen</t>
+  </si>
+  <si>
+    <t>Die Augenfarbe des Zaubernden ändert sich für 5 Minuten. Es sind unnatürliche Farben möglich.</t>
+  </si>
+  <si>
+    <t>Dieser Zaubertrick sorgt dafür, dass jemand einen kleinen Schlag auf die Finger abbekommt, ganz so, als ob ihn jemand mit einem Rohrstock geschlagen hat. Schaden erleidet das Ziel dadurch nicht.</t>
+  </si>
+  <si>
+    <t>Gildenmagier (Akademie Schwert &amp; Stab zu Gareth)</t>
+  </si>
+  <si>
+    <t>Eine Handvoll Sand beginnt sich zu einer ca. 10 Halbfinger großen Figur zu formen, die nach dem Willen des Zauberers kleine Tricks zur Unterhaltung aufführt. Die Sandfigur muss in einem Radius von 10 Halbfingern verbleiben.</t>
+  </si>
+  <si>
+    <t>Objekte (Sand)</t>
+  </si>
+  <si>
+    <t>Gildenmagier (Vadif)</t>
+  </si>
+  <si>
+    <t>Ein aus einer Bibliothek geliehenes Buch fliegt wieder dorthin, woher es der Zauberer aus dem Regal entnommen hat. Dieser Zaubertrick funktioniert nur bei Büchern, die der Zauberer selbst ausgeliehen und aus der Bibliothek entnommen hat.</t>
+  </si>
+  <si>
+    <t>Objekte (Bücher)</t>
+  </si>
+  <si>
+    <t>Gildenmagier (Lowangen Verwandlung)</t>
+  </si>
+  <si>
+    <t>Durch diesen Zaubertrick tragen Schminkutensilien die Schminke so wie gewünscht auf, ohne dass der Zauberer seine Hände benutzen muss. Das Ziel muss in einem ruhigen Zustand verharren, bis der Schminkvorgang vollendet ist.</t>
+  </si>
+  <si>
+    <t>Gildenmagier, Hexen, Scharlatane, Zaubertänzer</t>
+  </si>
+  <si>
+    <t>Eine kurze telekinetische Entladung mit einer Reichweite von 4 Schritt, die beispielsweise eine Münze von einem Tisch fegen kann. Sie ist nicht stark genug, um eine Glasflasche zu zerbrechen, genügt aber für eine Ohrfeige.</t>
+  </si>
+  <si>
+    <t>Objekt und Wesen</t>
+  </si>
+  <si>
+    <t>Die Hand- und Fingerknochen des Zaubernden werden sehr flexibel, sodass sie durch enge Öffnungen gezwängt werden können. Die Wirkung hält 5 Minuten an.</t>
+  </si>
+  <si>
+    <t>Auf einem leblosen Objekt nach Wahl des Zaubernden erscheint eine Glyphe oder ein Symbol und verbleibt dauerhaft. Der Zaubernde muss das Objekt berühren. Das Symbol wirkt wie gemalt und kann weggeputzt werden. Mittels dieses Tricks kann man jeweils nur eine Art von Zeichen auftauchen lassen (z. B. ein Piktogramm).</t>
+  </si>
+  <si>
+    <t>Auf dem Körper des Verzauberten entsteht eine maximal 10 Halbfinger auf 10 Halbfinger große Tätowierung nach Wunsch des Zauberers. Bei den Tätowierungen muss es sich um einfache Runen oder einfache Muster handeln.</t>
+  </si>
+  <si>
+    <t>Der Zaubernde und seine Kleidung sind etwa 5 Minuten vor Nässe, beispielsweise durch Regen oder Schnee, geschützt. Nasse Kleidung wird durch den Trick nicht wieder trocken.</t>
+  </si>
+  <si>
+    <t>Objekt und Kulturschaffende</t>
+  </si>
+  <si>
+    <t>Das Lachen des Zauberers hört sich bedrohlich und unheimlich an. Weitere regeltechnische Auswirkungen hat das Lachen jedoch nicht.</t>
+  </si>
+  <si>
+    <t>Gildenmagier (Demirion Ophenos), Hexen</t>
+  </si>
+  <si>
+    <t>Dieser Zaubertrick reinigt eine beliebige Waffe, die der Zauberer berührt, vollständig von Flugrost, Blut und anderen Verschmutzungen.</t>
+  </si>
+  <si>
+    <t>Objekte (Waffen)</t>
+  </si>
+  <si>
+    <t>Der Zauberer kann sagen, ob ein Gewässer vor ihm tiefer ist, als er selbst groß ist.</t>
+  </si>
+  <si>
+    <t>Gildenmagier (Thorwaler)</t>
+  </si>
+  <si>
+    <t>Die Hörer innerhalb einer Reichweite von 8 Schritt Radius um den Zauberer vernehmen eine Stimme, die ihnen eine Passage aus einem Zauberbuch vorliest. Der Text muss dem Zaubernden bekannt sein. Die Passage kann er selbst auswählen, sie muss aber innerhalb von 10 Sekunden vorlesbar sein. Nur die Personen, die die Passage hören sollen, hören sie auch, alle übrigen bekommen von der Belehrung nichts mit.</t>
+  </si>
+  <si>
+    <t>max. 10 Sekunden</t>
+  </si>
+  <si>
+    <t>Gildenmagier (Alrik Dagabor)</t>
+  </si>
+  <si>
+    <t>Die Hexe kann mit diesem Zaubertrick eine einfache Speise, etwa eine Suppe, würzen, auch ohne über passende Gewürze wie Salz und Pfeffer zu verfügen. Ob die Speise gut gewürzt ist oder z. B. versalzen, hängt weiterhin von den Kochkünsten der Hexe ab. Die Hexe kann nur den Geschmack von Gewürzen erzeugen, die sie selbst schon einmal gekostet hat.</t>
+  </si>
+  <si>
+    <t>Objekte (Essen)</t>
+  </si>
+  <si>
+    <t>Dieser Trick verzaubert einen Federkiel, sodass dieser alles wortgetreu auf einem bereitgelegten Papier oder in ein Buch notiert, was der Zauberer sagt. Der Federkiel kann die Seiten des Buches umschlagen und taucht sich selbst in ein Tintenfäßchen ein, solange es maximal einen Schritt weit entfernt ist.</t>
+  </si>
+  <si>
+    <t>10 Minuten</t>
+  </si>
+  <si>
+    <t>Objekte (Federkiele)</t>
+  </si>
+  <si>
+    <t>Gildenmagier (Punin)</t>
+  </si>
+  <si>
+    <t>Auf der Handfläche oder dem Zeigefinger des Geweihten entsteht eine kleine Flamme, die einen Raum erhellt oder ausreicht, um eine Kerze zu entzünden. Der Geweihte kann durch die Flamme nicht verletzt werden (wohl aber durch Flammen, die durch den Feuersegen entzündet werden). Die Helligkeit der Flamme entspricht einer gewöhnlichen Kerze normaler Machart.</t>
+  </si>
+  <si>
+    <t>Ein Neugeborenes wird gesegnet und in die Gemeinschaft der Gläubigen aufgenommen. Es ist bis zum Ende der Wirkungsdauer vor dem Raub durch Kobolde, Feen und niedere Dämonen geschützt. Diese Segnung kann nur bis maximal 12 Tage nach der Geburt eingesetzt werden, danach wirkt sie nicht mehr auf das Neugeborene.</t>
+  </si>
+  <si>
+    <t>in Zwölfgötterkirchen bis zum 12. Lebensjahr</t>
+  </si>
+  <si>
+    <t>Der Gesegnete hat einmal während der Wirkungsdauer der Segnung ein Fünkchen Glück. Er kann nach dem Ablegen einer Fertigkeitsprobe 1 FP hinzuaddieren, um z. B. eine höhere Qualitätsstufe zu erreichen.</t>
+  </si>
+  <si>
+    <t>12 Stunden</t>
+  </si>
+  <si>
+    <t>12 Monate</t>
+  </si>
+  <si>
+    <t>Wer durch einen Harmoniesegen gesegnet wurde, der erfreut sich einen ganzen Tag lang positiver Gefühle. Alle Effekte, die Furcht auslösen, erhalten eine Erschwernis von 1.</t>
+  </si>
+  <si>
+    <t>Der Gesegnete erhält 1 Lebenspunkt zurück. Die Person kann nur einmal pro Tag von dieser Segnung profitieren.</t>
+  </si>
+  <si>
+    <t>4 Kampfrunden</t>
+  </si>
+  <si>
+    <t>Das gesegnete Essen ist wohlschmeckend und nahrhaft. Gifte bis Stufe 2 und Verunreinigungen werden in der Speise neutralisiert. Die Segnung reicht für eine Portion.</t>
+  </si>
+  <si>
+    <t>12 Kampfrunden</t>
+  </si>
+  <si>
+    <t>Wer von dem gesegneten Getränk trinkt, fühlt sich erfrischt. Gifte bis Stufe 2 und Verunreinigungen werden im Getränk neutralisiert. Die Segnung reicht für einen Liter.</t>
+  </si>
+  <si>
+    <t>Der Gesegnete wird von Weisheit erfüllt. Er kann die Lösung eines Problems besser erfassen und bei einer Probe auf ein Wissenstalent einen Würfel neu würfeln (wie unter dem Einsatz des Vorteils Begabung). Pro Tag kann nur ein Weisheitssegen auf eine Person angewandt werden. Nachdem die Segnung genutzt wurde, ist sie verbraucht.</t>
+  </si>
+  <si>
+    <t>Der Geweihte lässt jemanden einen Eid ablegen. Der Gesegnete empfindet den Eid als bindend und kann sich diesem nur durch eine Probe entziehen. Der Eidsprechende muss den Eid freiwillig leisten. Der Eid kann nur durch eine Probe auf *Willenskraft* erschwert um 1 gebrochen werden.</t>
+  </si>
+  <si>
+    <t>Das Grab eines Verstorbenen wird gesegnet. Um die Leiche auszugraben und das Grab zu entweihen, muss dem Grabräuber eine Probe auf *Willenskraft (Bedrohungen standhalten)* erschwert um 1 gelingen. Bei Misslingen verspürt er ein Unwohlsein, das ihn von der Grabschändung zurückhält. Nekromantische Zauber auf die Leiche sind um 1 erschwert, so lange der Körper sich im gesegneten Grab befindet.</t>
+  </si>
+  <si>
+    <t>Der Schutzsegen kann einige als unheilig geltende Wesen fernhalten. Folgende Typen von Wesen können aufgehalten werden: Untote (Hirnlose) und Dämonen (niedere Dämonen).\nBei Errichtung des kleinen Schutzsegens muss entschieden werden, welcher von beiden Typen aufgehalten wird. Das Wesen kann während der Wirkungsdauer das gesegnete Gebiet nicht betreten. Ist das Wesen gezwungen, das Gebiet zu betreten, dann versucht es sofort, sich wieder aus der Zone zurückzuziehen.\nDer Kleine Schutzsegen darf nicht größer sein als 4 Schritt Radius, sehr wohl aber kleiner. Die Zone ist stationär und bewegt sich nicht mit dem Geweihten. Wenn sich Personen innerhalb der Zone an den Rand der Zone bewegen, um dort lauernde Wesen im Nahkampf anzugreifen, können die Wesen ebenfalls angreifen.</t>
+  </si>
+  <si>
+    <t>Der Gesegnete verspürt keine Mattigkeit und Erschöpfung mehr. Er kann bei einer Probe auf *Selbstbeherrschung* einen Würfel neu würfeln (wie unter dem Einsatz des Vorteils Begabung). Pro Tag kann nur ein Stärkungssegen auf eine Person angewandt werden. Nachdem die Segnung genutzt wurde, ist sie verbraucht.</t>
+  </si>
+  <si>
+    <t>112&amp;166</t>
   </si>
 </sst>
 </file>
@@ -12916,7 +13231,40 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
-  <dxfs count="140">
+  <dxfs count="151">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -13813,7 +14161,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Table Style 1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="139"/>
+      <tableStyleElement type="headerRow" dxfId="150"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -14177,21 +14525,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:B10" totalsRowShown="0" headerRowDxfId="138" dataDxfId="137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:B10" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
   <autoFilter ref="A1:B10" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <sortState ref="A2:B10">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="136"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="135"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="147"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="146"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:M1048576" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:M1048576" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A1:M1048576" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14208,40 +14556,55 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="id" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="name" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="effect" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="castingtime" dataDxfId="67"/>
-    <tableColumn id="10" xr3:uid="{D89CFCD8-0667-4532-ADCB-656E0F380FC9}" name="castingtimeShort" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="aecost" dataDxfId="65"/>
-    <tableColumn id="11" xr3:uid="{AA76CB3A-D16A-4989-ACEE-9057F8B23848}" name="aecostShort" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="range" dataDxfId="63"/>
-    <tableColumn id="12" xr3:uid="{DD92ED00-D630-4075-AFBB-75382F298664}" name="rangeShort" dataDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="duration" dataDxfId="61"/>
-    <tableColumn id="13" xr3:uid="{35897220-D86D-43E4-9246-750CE8AD5E3B}" name="durationShort" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="target" dataDxfId="59"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="src" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="id" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="name" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="effect" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="castingtime" dataDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{D89CFCD8-0667-4532-ADCB-656E0F380FC9}" name="castingtimeShort" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="aecost" dataDxfId="76"/>
+    <tableColumn id="11" xr3:uid="{AA76CB3A-D16A-4989-ACEE-9057F8B23848}" name="aecostShort" dataDxfId="75"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="range" dataDxfId="74"/>
+    <tableColumn id="12" xr3:uid="{DD92ED00-D630-4075-AFBB-75382F298664}" name="rangeShort" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="duration" dataDxfId="72"/>
+    <tableColumn id="13" xr3:uid="{35897220-D86D-43E4-9246-750CE8AD5E3B}" name="durationShort" dataDxfId="71"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="target" dataDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="src" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table14" displayName="Table14" ref="A1:B44" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
-  <autoFilter ref="A1:B44" xr:uid="{00000000-0009-0000-0100-00000E000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table14" displayName="Table14" ref="A1:H44" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+  <autoFilter ref="A1:H44" xr:uid="{00000000-0009-0000-0100-00000E000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="id" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="name" dataDxfId="54"/>
+  <sortState ref="A2:H44">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="id" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="name" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{7C0356E8-3E12-4648-AED9-D4476F17A0CC}" name="effect" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{03F4DA49-0E9B-4841-B835-1233F9A33781}" name="range" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{1B189756-8D73-4A73-878A-C6D669265233}" name="duration" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{39D35FEE-F7F7-43E2-8D36-B288D27F4FED}" name="target" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{05155ABB-B917-4A7E-A43F-F1AF0533E4BC}" name="note" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{0202CF45-C4D3-4A21-820D-5E5F4A183383}" name="src" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabelle5" displayName="Tabelle5" ref="A1:M193" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabelle5" displayName="Tabelle5" ref="A1:M193" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="A1:M193" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14261,40 +14624,50 @@
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="id" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="name" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{452BCF15-63D6-4F0D-8237-F453C9931794}" name="effect" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{3C4B8B30-E7ED-4AB5-BC66-F5C283820DD3}" name="castingtime" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{EDD4FA58-CDB8-416C-923B-13AE644AA21A}" name="castingtimeShort" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{E3A80605-B07C-400F-9DD6-DA1ECD45B17F}" name="kpcost" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{3735962A-FF4F-4E3D-9AFC-95B48BCF0758}" name="kpcostShort" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{4D0248C5-34EF-49A3-B1B4-33D1C05D9FBB}" name="range" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{D6111C84-C6C2-4C98-9BAC-040E9A31F2B9}" name="rangeShort" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{F33F5A8B-FEA1-4B00-AE2D-20CCBB24FF2A}" name="duration" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{66749CC6-D9C4-4BF4-BA63-F5A58FD8E6CB}" name="durationShort" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{BE17D95F-F42A-48F5-9E7F-A545D95D81C2}" name="target" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{1E0275F4-0996-4EC0-B571-4BB2870B8257}" name="src" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="id" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="name" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{452BCF15-63D6-4F0D-8237-F453C9931794}" name="effect" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{3C4B8B30-E7ED-4AB5-BC66-F5C283820DD3}" name="castingtime" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{EDD4FA58-CDB8-416C-923B-13AE644AA21A}" name="castingtimeShort" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{E3A80605-B07C-400F-9DD6-DA1ECD45B17F}" name="kpcost" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{3735962A-FF4F-4E3D-9AFC-95B48BCF0758}" name="kpcostShort" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{4D0248C5-34EF-49A3-B1B4-33D1C05D9FBB}" name="range" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{D6111C84-C6C2-4C98-9BAC-040E9A31F2B9}" name="rangeShort" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{F33F5A8B-FEA1-4B00-AE2D-20CCBB24FF2A}" name="duration" dataDxfId="53"/>
+    <tableColumn id="11" xr3:uid="{66749CC6-D9C4-4BF4-BA63-F5A58FD8E6CB}" name="durationShort" dataDxfId="52"/>
+    <tableColumn id="12" xr3:uid="{BE17D95F-F42A-48F5-9E7F-A545D95D81C2}" name="target" dataDxfId="51"/>
+    <tableColumn id="13" xr3:uid="{1E0275F4-0996-4EC0-B571-4BB2870B8257}" name="src" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table16" displayName="Table16" ref="A1:B13" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A1:B13" xr:uid="{00000000-0009-0000-0100-000010000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table16" displayName="Table16" ref="A1:G13" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0009-0000-0100-000010000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="id" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="name" dataDxfId="35"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="id" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="name" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{459C17AD-3409-41D7-8801-F6FE1515AFC9}" name="effect" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{6753AB3A-2424-4D10-84BF-032777BAF818}" name="range" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{4411F645-F9D2-4514-A703-39B5D9965BFB}" name="duration" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{F4CC0549-F8A2-48BA-8FC4-7D4AD9A2368C}" name="target" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{C43A0203-6258-4D01-A81A-CBAD9FBB7A23}" name="src" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Tabelle6" displayName="Tabelle6" ref="A1:J664" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Tabelle6" displayName="Tabelle6" ref="A1:J664" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A1:J664" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14308,37 +14681,37 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="id" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="name" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="sel" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="input" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Column1" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Column2" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Column3" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Column4" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="Column5" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="Column6" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="id" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="name" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="sel" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="input" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Column1" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Column2" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Column3" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Column4" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="Column5" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="Column6" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table10" displayName="Table10" ref="A1:B111" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table10" displayName="Table10" ref="A1:B111" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:B111" xr:uid="{00000000-0009-0000-0100-00000A000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="id" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="name" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="id" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="name" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:D76" xr:uid="{00000000-0009-0000-0100-00000C000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14346,73 +14719,73 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="id" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="name" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="spec" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="specInput" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="id" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="name" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="spec" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="specInput" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table11" displayName="Table11" ref="A1:B36" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table11" displayName="Table11" ref="A1:B36" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:B36" xr:uid="{00000000-0009-0000-0100-00000B000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="id" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="name" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="id" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="name" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table15" displayName="Table15" ref="A1:B466" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table15" displayName="Table15" ref="A1:B466" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="A1:B466" xr:uid="{00000000-0009-0000-0100-00000F000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="id" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="name" dataDxfId="6" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="id" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="name" dataDxfId="17" dataCellStyle="Excel Built-in Normal"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{BB3927CB-5698-4DFF-B48D-425D7E21C02B}" name="Tabelle20" displayName="Tabelle20" ref="A1:B577" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{BB3927CB-5698-4DFF-B48D-425D7E21C02B}" name="Tabelle20" displayName="Tabelle20" ref="A1:B577" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A1:B577" xr:uid="{27BF4B55-7C3C-4E9B-A139-DBDDC3FBF905}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3B1007AC-E41F-48C9-90A0-CCE4A91720CD}" name="id" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{2C7E5741-9086-4357-A3F3-05CB168DE409}" name="name" dataDxfId="3" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="1" xr3:uid="{3B1007AC-E41F-48C9-90A0-CCE4A91720CD}" name="id" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{2C7E5741-9086-4357-A3F3-05CB168DE409}" name="name" dataDxfId="14" dataCellStyle="Excel Built-in Normal"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:B8" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:B8" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
   <autoFilter ref="A1:B8" xr:uid="{00000000-0009-0000-0100-00000D000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="131"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="143"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabelle9" displayName="Tabelle9" ref="A1:B546" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabelle9" displayName="Tabelle9" ref="A1:B546" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:B546" xr:uid="{00000000-0009-0000-0100-000009000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14421,15 +14794,15 @@
     <sortCondition ref="A1:A474"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="id" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="id" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="name" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle18" displayName="Tabelle18" ref="A1:K13" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle18" displayName="Tabelle18" ref="A1:K13" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140">
   <autoFilter ref="A1:K13" xr:uid="{00000000-0009-0000-0100-000012000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14441,24 +14814,24 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="128"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="127"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="attributeAdjustments" dataDxfId="126"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="automaticAdvantages" dataDxfId="125"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="stronglyRecommendedAdvantages" dataDxfId="124"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="stronglyRecommendedDisadvantages" dataDxfId="123"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="commonAdvantages" dataDxfId="122"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="commonDisadvantages" dataDxfId="121"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="uncommonAdvantages" dataDxfId="120"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="uncommonDisadvantages" dataDxfId="119"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="src" dataDxfId="118"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="139"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="138"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="attributeAdjustments" dataDxfId="137"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="automaticAdvantages" dataDxfId="136"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="stronglyRecommendedAdvantages" dataDxfId="135"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="stronglyRecommendedDisadvantages" dataDxfId="134"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="commonAdvantages" dataDxfId="133"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="commonDisadvantages" dataDxfId="132"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="uncommonAdvantages" dataDxfId="131"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="uncommonDisadvantages" dataDxfId="130"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="src" dataDxfId="129"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{B4F1794A-E7C4-468F-B8D8-970C354AABE6}" name="Tabelle19" displayName="Tabelle19" ref="A1:M27" totalsRowShown="0" headerRowDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{B4F1794A-E7C4-468F-B8D8-970C354AABE6}" name="Tabelle19" displayName="Tabelle19" ref="A1:M27" totalsRowShown="0" headerRowDxfId="128">
   <autoFilter ref="A1:M27" xr:uid="{CF034C78-9071-47EC-AB34-3D606EE1BBA0}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14475,9 +14848,9 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{323211C5-81FD-41D0-9F64-A33241693AC3}" name="id" dataDxfId="116"/>
-    <tableColumn id="2" xr3:uid="{FDC1B446-D119-4AB0-BFD5-ACF6E75BA8A5}" name="name" dataDxfId="115"/>
-    <tableColumn id="3" xr3:uid="{92A07580-4496-4839-BDFD-3E1CD0593E78}" name="areaKnowledgeShort" dataDxfId="114"/>
+    <tableColumn id="1" xr3:uid="{323211C5-81FD-41D0-9F64-A33241693AC3}" name="id" dataDxfId="127"/>
+    <tableColumn id="2" xr3:uid="{FDC1B446-D119-4AB0-BFD5-ACF6E75BA8A5}" name="name" dataDxfId="126"/>
+    <tableColumn id="3" xr3:uid="{92A07580-4496-4839-BDFD-3E1CD0593E78}" name="areaKnowledgeShort" dataDxfId="125"/>
     <tableColumn id="4" xr3:uid="{44EF4FF0-9A41-48CA-BC45-CC1B1304A096}" name="areaKnowledge"/>
     <tableColumn id="5" xr3:uid="{3A9496F5-2D90-4F09-9E2B-F936A6E5B397}" name="commonMundaneProfessions"/>
     <tableColumn id="6" xr3:uid="{7D2183EE-15A4-4FF4-9222-723CACFF8CAA}" name="commonMagicalProfessions"/>
@@ -14487,14 +14860,14 @@
     <tableColumn id="10" xr3:uid="{745A9F74-C60C-4CBC-9102-98FE33FC8526}" name="uncommonAdvantages"/>
     <tableColumn id="11" xr3:uid="{C1FC4429-9AFB-46A3-A828-99A029A30219}" name="uncommonDisadvantages"/>
     <tableColumn id="12" xr3:uid="{839A4140-773B-4A98-9156-075E987FA39A}" name="commonNames"/>
-    <tableColumn id="13" xr3:uid="{8C51E69A-3B2D-4662-B403-D59D4610C76D}" name="src" dataDxfId="113"/>
+    <tableColumn id="13" xr3:uid="{8C51E69A-3B2D-4662-B403-D59D4610C76D}" name="src" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:G95" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:G95" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
   <autoFilter ref="A1:G95" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14505,20 +14878,20 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="110"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="name" dataDxfId="109"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="name_f" dataDxfId="108"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="subname" dataDxfId="107"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="subname_f" dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="req" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="src" dataDxfId="104"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="name" dataDxfId="120"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="name_f" dataDxfId="119"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="subname" dataDxfId="118"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="subname_f" dataDxfId="117"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="req" dataDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="src" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
   <autoFilter ref="A1:E1048576" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14527,18 +14900,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="101"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="name" dataDxfId="100"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="name_f" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{091296A4-103F-48ED-8EF3-B2FEB3C87545}" name="precedingText" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{7DC6E788-BCD5-45BD-8F54-8F4B65BB3D80}" name="concludingText" dataDxfId="97"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="name" dataDxfId="111"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="name_f" dataDxfId="110"/>
+    <tableColumn id="3" xr3:uid="{091296A4-103F-48ED-8EF3-B2FEB3C87545}" name="precedingText" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{7DC6E788-BCD5-45BD-8F54-8F4B65BB3D80}" name="concludingText" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabelle8" displayName="Tabelle8" ref="A1:D97" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabelle8" displayName="Tabelle8" ref="A1:D97" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="A1:D97" xr:uid="{00000000-0009-0000-0100-000008000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14546,17 +14919,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="93"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="sel" dataDxfId="92"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="input" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="104"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="sel" dataDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="input" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D74" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D74" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <autoFilter ref="A1:D74" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14564,17 +14937,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="id" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="name" dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="sel" dataDxfId="86"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="input" dataDxfId="85"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="id" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="name" dataDxfId="98"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="sel" dataDxfId="97"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="input" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A1:J60" xr:uid="{00000000-0009-0000-0100-000007000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14591,16 +14964,16 @@
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="id" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="name" dataDxfId="81"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="spec" dataDxfId="80"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="spec_input" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="tools" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="quality" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="failed" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="critical" dataDxfId="75"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="botch" dataDxfId="74"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="src" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="id" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="name" dataDxfId="92"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="spec" dataDxfId="91"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="spec_input" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="tools" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="quality" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="failed" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="critical" dataDxfId="86"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="botch" dataDxfId="85"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="src" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14906,7 +15279,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25957,374 +26330,1143 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.6640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="3.73046875" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="18" t="s">
+        <v>2696</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>2699</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>2700</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>2701</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>4185</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C2" s="17" t="s">
+        <v>4182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>2855</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C3" s="17" t="s">
+        <v>4189</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>2741</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C4" s="17" t="s">
+        <v>4197</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C5" s="17" t="s">
+        <v>4202</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C6" s="17" t="s">
+        <v>4203</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>2855</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C7" s="17" t="s">
+        <v>4210</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>2855</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C8" s="17" t="s">
+        <v>4225</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>2797</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>2856</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C9" s="17" t="s">
+        <v>4236</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C10" s="17" t="s">
+        <v>4249</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C11" s="17" t="s">
+        <v>4247</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>2797</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>4248</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C12" s="17" t="s">
+        <v>4250</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>2855</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C13" s="17" t="s">
+        <v>4252</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>4253</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1863</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C14" s="17" t="s">
+        <v>4187</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>4188</v>
+      </c>
+      <c r="H14" s="17">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1864</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C15" s="17" t="s">
+        <v>4190</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>4191</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>2856</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>4188</v>
+      </c>
+      <c r="H15" s="17">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1865</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C16" s="17" t="s">
+        <v>4214</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>4215</v>
+      </c>
+      <c r="H16" s="17">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1866</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C17" s="17" t="s">
+        <v>4221</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>2746</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>4222</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>4209</v>
+      </c>
+      <c r="H17" s="17">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C18" s="17" t="s">
+        <v>4223</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>2746</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>4224</v>
+      </c>
+      <c r="H18" s="17">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C19" s="17" t="s">
+        <v>4234</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>4235</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>4188</v>
+      </c>
+      <c r="H19" s="17">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1869</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C20" s="17" t="s">
+        <v>4256</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>4257</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>4224</v>
+      </c>
+      <c r="H20" s="17">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1870</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C21" s="17" t="s">
+        <v>4263</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>4264</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>4209</v>
+      </c>
+      <c r="H21" s="17">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1871</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C22" s="17" t="s">
+        <v>4183</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>4186</v>
+      </c>
+      <c r="H22" s="17">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C23" s="17" t="s">
+        <v>4192</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>4193</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>4194</v>
+      </c>
+      <c r="H23" s="17">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C24" s="17" t="s">
+        <v>4195</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>2812</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>4196</v>
+      </c>
+      <c r="H24" s="17">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1874</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C25" s="17" t="s">
+        <v>4198</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>4199</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>4200</v>
+      </c>
+      <c r="H25" s="17">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1875</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C26" s="17" t="s">
+        <v>4201</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>2798</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>2866</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1876</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C27" s="17" t="s">
+        <v>4204</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>4205</v>
+      </c>
+      <c r="H27" s="17">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1877</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C28" s="17" t="s">
+        <v>4206</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>2797</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>4207</v>
+      </c>
+      <c r="H28" s="17">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>1878</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C29" s="17" t="s">
+        <v>4208</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>4209</v>
+      </c>
+      <c r="H29" s="17">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1879</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C30" s="17" t="s">
+        <v>4211</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>4212</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>4213</v>
+      </c>
+      <c r="H30" s="17">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1880</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C31" s="17" t="s">
+        <v>4216</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>4217</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>1881</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C32" s="17" t="s">
+        <v>4218</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>4219</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>4220</v>
+      </c>
+      <c r="H32" s="17">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>1882</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C33" s="17" t="s">
+        <v>4226</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>4227</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>4228</v>
+      </c>
+      <c r="H33" s="17">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1883</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C34" s="17" t="s">
+        <v>4229</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>4230</v>
+      </c>
+      <c r="H34" s="17">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1884</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C35" s="17" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>4219</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>4232</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>4233</v>
+      </c>
+      <c r="H35" s="17">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>1885</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C36" s="17" t="s">
+        <v>4237</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>2797</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>4238</v>
+      </c>
+      <c r="H36" s="17">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1886</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C37" s="17" t="s">
+        <v>4239</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>2812</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>4240</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>4241</v>
+      </c>
+      <c r="H37" s="17">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>1887</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C38" s="17" t="s">
+        <v>4245</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>4246</v>
+      </c>
+      <c r="H38" s="17">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>1888</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C39" s="17" t="s">
+        <v>4242</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>2798</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>4243</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>4244</v>
+      </c>
+      <c r="H39" s="17">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1889</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C40" s="17" t="s">
+        <v>4251</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>4193</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>4224</v>
+      </c>
+      <c r="H40" s="17">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C41" s="17" t="s">
+        <v>4254</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>4255</v>
+      </c>
+      <c r="H41" s="17">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>1891</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C42" s="17" t="s">
+        <v>4258</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>2797</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>4259</v>
+      </c>
+      <c r="H42" s="17">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>1892</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C43" s="17" t="s">
+        <v>4260</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>4261</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>4262</v>
+      </c>
+      <c r="H43" s="17">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>1893</v>
       </c>
+      <c r="C44" s="17" t="s">
+        <v>4265</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>4266</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>4267</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>4268</v>
+      </c>
+      <c r="H44" s="17">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -26333,7 +27475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
@@ -29087,120 +30229,316 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.73046875" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="18" t="s">
+        <v>2696</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>2699</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>2700</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>2701</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C2" s="17" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>2797</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>2839</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G2" s="17">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C3" s="17" t="s">
+        <v>4269</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G3" s="17">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C4" s="17" t="s">
+        <v>4270</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>4271</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G4" s="17">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C5" s="17" t="s">
+        <v>4272</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>4273</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G5" s="17">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C6" s="17" t="s">
+        <v>4283</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4274</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G6" s="17">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C7" s="17" t="s">
+        <v>4275</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>4273</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G7" s="17">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C8" s="17" t="s">
+        <v>4276</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G8" s="17">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C9" s="17" t="s">
+        <v>4284</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>2797</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>4277</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G9" s="17">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C10" s="17" t="s">
+        <v>4278</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>2855</v>
+      </c>
+      <c r="G10" s="17">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C11" s="17" t="s">
+        <v>4285</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>4279</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G11" s="17">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C12" s="17" t="s">
+        <v>4280</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>2855</v>
+      </c>
+      <c r="G12" s="17">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>502</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>4281</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>4273</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G13" s="17">
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/TDE5_de-DE.xlsx
+++ b/src/data/TDE5_de-DE.xlsx
@@ -17292,7 +17292,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/src/data/TDE5_de-DE.xlsx
+++ b/src/data/TDE5_de-DE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7755" xr2:uid="{20ED8CD0-32B3-4B44-9637-7F04B1E30A79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7755" firstSheet="13" activeTab="20" xr2:uid="{20ED8CD0-32B3-4B44-9637-7F04B1E30A79}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="30" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9480" uniqueCount="4917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10056" uniqueCount="5284">
   <si>
     <t>id</t>
   </si>
@@ -14830,6 +14830,1107 @@
   </si>
   <si>
     <t>Aventurisches Götterwirken</t>
+  </si>
+  <si>
+    <t>Reichweite beträgt 16 Schritt.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt 10 KR.</t>
+  </si>
+  <si>
+    <t>Geweihte kann QS Ziele auswählen.</t>
+  </si>
+  <si>
+    <t>Die Erschwernis der Probe auf *Körperbeherrschung* beträgt QS.</t>
+  </si>
+  <si>
+    <t>Die Welle verursacht zusätzlich 1W3+1 SP.</t>
+  </si>
+  <si>
+    <t>Maximal können 12 Ziele von der Wirkung der Welle betroffen sein.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann eine spezielle Art von Lebewesen benennen und mittels der Liturgie suchen (z. B. Hunde, Menschen, Pferde).</t>
+  </si>
+  <si>
+    <t>Die Liturgie wirkt auch durch Feuer und Erz bis zu einer maximalen Dicke von 1 Schritt hindurch.</t>
+  </si>
+  <si>
+    <t>Sichtbehinderung aufgrund von fallendem Schnee, Regen oder Nebel wird um 1 Stufe gesenkt.</t>
+  </si>
+  <si>
+    <t>Die Liturgiedauer ist doch modifizierbar.</t>
+  </si>
+  <si>
+    <t>Die Reichweite beträgt 4 Schritt.</t>
+  </si>
+  <si>
+    <t>Der Geweihte wählt 2 Ziele in Reichweite aus. Der Schaden kann beliebig auf beide Ziele verteilt werden.</t>
+  </si>
+  <si>
+    <t>Der Geweihte wählt 3 Ziele in Reichweite aus. Der Schaden kann beliebig zwischen den Zielen verteilt werden. Voraussetzung: Liturgieerweiterung *Verteilter Schaden 1*.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann bis zu 2 Ziele gleichzeitig treffen. Die KaP-Kosten der Liturgie verdoppeln sich.</t>
+  </si>
+  <si>
+    <t>Die Liturgie umfasst auch die Zielkategorie Lebewesen.</t>
+  </si>
+  <si>
+    <t>Die Kosten sind doch modifizierbar.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt 4 Stunden.</t>
+  </si>
+  <si>
+    <t>Als Reichweite gilt Berührung. Die Liturgie kann nur auf Kulturschaffende übertragen werden.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt 8 Stunden. Voraussetzung: Liturgieerweiterung *Längere Wirkungsdauer 1*.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann bis zu 2 Ziele gleichzeitig beruhigen. Das zweite Ziel kostet zusätzlich 2 KaP.</t>
+  </si>
+  <si>
+    <t>Das Ziel erhält *Prinzipientreue II (Traviakirche)*.</t>
+  </si>
+  <si>
+    <t>Das Ziel erhält *Prinzipientreue III (Traviakirche)*. Voraussetzung: Liturgieerweiterung *Starke Prinzipientreue I*.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann QS +2 Dienste von dem Wesen verlangen.</t>
+  </si>
+  <si>
+    <t>Die Reichweite beträgt 8 Schritt.</t>
+  </si>
+  <si>
+    <t>Die Liturgiedauer darf doch modifiziert werden.</t>
+  </si>
+  <si>
+    <t>Die Liturgie ist aufrechterhaltend, die Aktivierung kostet 4 KaP und 2 KaP pro Minuten.</t>
+  </si>
+  <si>
+    <t>Der Geweihte erhält eine genauere Erkenntnis der Art der Verletzung, z. B. des LeP-Standes, der Gift- oder Krankheitsstufe usw.</t>
+  </si>
+  <si>
+    <t>Das Ziel des Blitzschlags erhält automatisch 1 Stufe *Verwirrung*.</t>
+  </si>
+  <si>
+    <t>Das Ziel des Blitzschlags erhält automatisch 1 Stufe *Betäubung*.</t>
+  </si>
+  <si>
+    <t>Das Ziel erhält den Status *Brennend* auf großer Fläche.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann die Ziele auswählen, die vom Ziel der Liturgie angegriffen werden sollen, und jene, die verschont werden.</t>
+  </si>
+  <si>
+    <t>Das Ziel erhält +1 AT.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt 2 KR.</t>
+  </si>
+  <si>
+    <t>Die Kosten dürfen doch modifiziert werden.</t>
+  </si>
+  <si>
+    <t>Der Radius beträgt 8 Schritt.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS Stunden. Voraussetzung: Liturgieerweiterung *Längere Wirkungsdauer 1*.</t>
+  </si>
+  <si>
+    <t>Die Schildstärke beträgt KaP + (QS x 4), aber nur der Geweihte selbst ist von der Schutzwirkung betroffen.</t>
+  </si>
+  <si>
+    <t>Der Radius beträgt 5 Schritt. Es entstehen zusätzliche Kosten in Höhe von 4 KaP, die jedoch nicht die Schildstärke erhöhen.</t>
+  </si>
+  <si>
+    <t>Als Reichweite gilt Berührung. Die Schildstärke beträgt nur QS x 2. Die Liturgie kann nur auf Kulturschaffende übertragen werden.</t>
+  </si>
+  <si>
+    <t>Die Reichweite beträgt 32 Schritt.</t>
+  </si>
+  <si>
+    <t>Es erscheinen zwei Delphine, von denen jeder eine Person retten kann.</t>
+  </si>
+  <si>
+    <t>Es erscheinen vier Delphine, von denen jeder eine Person retten kann. Voraussetzung: Liturgieerweiterung *Zwei Delphine*.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS x 10 Minuten.</t>
+  </si>
+  <si>
+    <t>Die *Willenskraft*-Probe darf nur noch alle 10 Minuten abgelegt werden.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS Stunden und pro Stunde ist nur eine *Willenskraft*-Probe erlaubt. Voraussetzung: Liturgieerweiterungen *Längere Wirkungsdauer* und *Geringer Widerstand*.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt 1 Tag.</t>
+  </si>
+  <si>
+    <t>Die Erleichterung von QS/2 umfasst auch das Talent *Handel*, solange es um die aktuellen Vertragsverhandlungen geht.</t>
+  </si>
+  <si>
+    <t>Als Reichweite gilt Berührung. Die Liturgiewirkung kann nur auf Kulturschaffende übertragen werden.</t>
+  </si>
+  <si>
+    <t>Kosten sind doch modifizierbar.</t>
+  </si>
+  <si>
+    <t>Auch der Status Versteinert (siehe **Aventurisches Götterwirken** Seite **235**) kann aufgehoben werden.</t>
+  </si>
+  <si>
+    <t>Die Liturgiemodifikation Reichweite erhöhen ist nicht erschwert.</t>
+  </si>
+  <si>
+    <t>Feste Konstruktionen erleiden QS x 10 Strukturpunkte Schaden.</t>
+  </si>
+  <si>
+    <t>Neben *Betäubung* kann auch *Verwirrung*, die durch Rauschmittel verursacht wurde, abgebaut werden. Die QS/2 Stufen müssen hierbei zwischen den Zuständen aufgeteilt werden.</t>
+  </si>
+  <si>
+    <t>Neben *Betäubung* kann auch *Schmerz*, der durch Rauschmittel verursacht wurde, abgebaut werden. Die QS/2 Stufen müssen hierbei zwischen den Zuständen aufgeteilt werden.</t>
+  </si>
+  <si>
+    <t>Auch Gegenstände, die gleichzeitig aus Stein und Metall bestehen (beispielsweise Schmuck), können zurückgegeben werden.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann bis zu QS Stein an Material zurückgeben.</t>
+  </si>
+  <si>
+    <t>Das Material kann, nachdem es dem Fels zurückgegeben wurde, jederzeit wieder aus dem Fels geholt werden, solange Ingerimm keine Einwände hat. Dabei wird der Gegenstand nicht beschädigt, der Geweihte muss aber die Stelle berühren, an der er die Opfergabe dem Fels übergeben hat.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt 10 Minuten.</t>
+  </si>
+  <si>
+    <t>Der Radius beträgt QS Schritt.</t>
+  </si>
+  <si>
+    <t>Es muss nicht gewürfelt werden, ob Opfer der Flammenwand den Status *Brennend* erleidet, sondern sie erleiden diesen beim Durchquerungsversuch automatisch. Es entstehen zusätzliche Kosten in Höhe von 2 KaP.</t>
+  </si>
+  <si>
+    <t>Das Intervall bei der Aufrechterhaltung beträgt 4 KR (statt 2 KR).</t>
+  </si>
+  <si>
+    <t>Die Liturgie gilt nicht als aufrechterhaltend. Die Wirkungsdauer und damit die KaP-Kosten müssen beim Wirken der Liturgie festgelegt werden.</t>
+  </si>
+  <si>
+    <t>Die Zustandsstufen können auf mehrere Ziele verteilt werden, die vor dem Wirken der Liturgie benannt werden müssen. Werden z. B. insgesamt 3 Stufen *Betäubung* verursacht, darf die Geweihte drei Zielen je 1 Stufe zuweisen oder sie entscheidet sich, einem Ziel 2 Stufen und einem anderen 1 Stufe aufzubürden.</t>
+  </si>
+  <si>
+    <t>Der Radius beträgt 20 Schritt.</t>
+  </si>
+  <si>
+    <t>Der Froststurm verursacht QS/2+1 Kältestufen.</t>
+  </si>
+  <si>
+    <t>Die Reichweite beträgt 16 Schritt. Der Geweihte kann innerhalb dieser Reichweite das Zentrum des Radius der Liturgie auswählen.</t>
+  </si>
+  <si>
+    <t>Die Liturgie wirkt auch auf Brandherde, die so groß sind wie ein durchschnittliches, zweistöckiges Haus. Das Löschen dauert nach Meisterentscheid zwischen 2 und 20 KR.</t>
+  </si>
+  <si>
+    <t>Der Radius beträgt QS x 5 Schritt.</t>
+  </si>
+  <si>
+    <t>Solange der Geweihte einen anderen Kulturschaffenden berührt, können beide anwesende Geister sehen.</t>
+  </si>
+  <si>
+    <t>QS Grundeinheiten eines Rauschmittels sind von der Wirkung betroffen.</t>
+  </si>
+  <si>
+    <t>QS x 2 Grundeinheiten eines Rauschmittels sind von der Wirkung betroffen. Voraussetzung: Liturgieerweiterung *Größere Menge 1*.</t>
+  </si>
+  <si>
+    <t>Das Getreide wird resistent gegen Schädlinge.</t>
+  </si>
+  <si>
+    <t>Das Getreide kann auf kargem Boden wachsen.</t>
+  </si>
+  <si>
+    <t>Der Ertrag erhöht sich um QS x 10 %.</t>
+  </si>
+  <si>
+    <t>Der Wert des Gegenstandes entspricht 100 Dukaten.</t>
+  </si>
+  <si>
+    <t>Der Wert des Gegenstandes entspricht 250 Dukaten. Voraussetzung: Liturgieerweiterung *Höherer Wert 1*.</t>
+  </si>
+  <si>
+    <t>Der Wert des Gegenstandes entspricht 1.000 Dukaten. Voraussetzung: Liturgieerweiterung *Höherer Wert 2*.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann sich auch einen RS von 4 verleihen. Die Kosten dafür betragen 32 KaP (nicht modifizierbar, selbst wenn Liturgieerweiterung *Liturgiedauer modifizierbar* vorhanden ist).</t>
+  </si>
+  <si>
+    <t>Als Reichweite gilt Berührung. Die Liturgie kann nur auf Kulturschaffende übertragen werden. Die Kosten steigen dabei um eine Kategorie (von 4 auf 8, von 8 auf 16 usw.).</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS x 5 KR.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann beliebig viele Ziele gleichzeitig weihen. Jedes Ziel nach dem ersten kostet zusätzlich 8 KaP.</t>
+  </si>
+  <si>
+    <t>Die Botschaft wird an den heimatlichen Tempelvorsteher (oder in Abwesenheit: an dessen Stellvertreter) gesendet. Die Reichweite wird dabei automatisch auf unbegrenzt erhöht, solange sich der Geweihte noch auf demselben Kontinent befindet.</t>
+  </si>
+  <si>
+    <t>Die Reichweite beträgt QS x 10 Meilen.</t>
+  </si>
+  <si>
+    <t>Die Botschaft kann an einen, dem Geweihten persönlich bekannten, anderen Geweihten der eigenen Tradition gesendet werden. Die Reichweite wird dabei automatisch auf unbegrenzt erhöht, solange sich der Geweihte noch auf demselben Kontinent befindet. Voraussetzung: Liturgieerweiterung *Heimattempel*.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS x 3 Minuten.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann beliebig vielen Zielen gleichzeitig befehlen. Jedes Ziel nach dem ersten kostet zusätzlich 8 KaP.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS x 2 Stunden. Voraussetzung: Liturgieerweiterung *Längere Wirkungsdauer 1*.</t>
+  </si>
+  <si>
+    <t>Der Trinkende erhält QS+3 LeP zurück.</t>
+  </si>
+  <si>
+    <t>Pro volle 3 zurückerhaltene LeP baut der Trinkende auch eine Stufe *Betäubung* ab.</t>
+  </si>
+  <si>
+    <t>Zwei Personen können von der Quelle profitieren.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann beliebig viele Ziele gleichzeitig segnen. Jedes Ziel nach dem ersten kostet zusätzlich 8 KaP.</t>
+  </si>
+  <si>
+    <t>Die Erleichterung gilt auch bei Gruppenvergleichsproben.</t>
+  </si>
+  <si>
+    <t>Möglich sind bis zu QS Erleichterungen, die auf maximal 6 Personen verteilt werden (bis zu einem Maximum von 2 Erleichterungen pro Person).</t>
+  </si>
+  <si>
+    <t>Möglich sind bis zu QS Erleichterungen, die auf maximal 6 Personen verteilt werden (bis zu einem Maximum von 3 Erleichterungen pro Person). Voraussetzung: Liturgieerweiterung *Viele starke Hände 1*.</t>
+  </si>
+  <si>
+    <t>Die Ratten erhalten +1 AT.</t>
+  </si>
+  <si>
+    <t>Pro volle 10 Ratten, die ein Opfer angreifen, erleidet dieses eine Erschwernis von 1 auf alle Körpertalente, AT, Verteidigungen und FK, wenn die Ratten sich in Angriffsdistanz befinden.</t>
+  </si>
+  <si>
+    <t>Wenn sich mindestens 10 Ratten in Angriffsdistanz befinden und der Held eine Handlung ausführt, um sich zu bewegen, muss ihm eine Probe auf *Körperbeherrschung (Kampfmanöver)* gelingen, sonst erleidet er den Status Liegend. Erschwert ist die Probe um Anzahl der Ratten/20, also erst ab 10 Ratten um 1. Voraussetzung: Liturgieerweiterung *Rattenplage*.</t>
+  </si>
+  <si>
+    <t>Die Schakale erhalten +1 AT.</t>
+  </si>
+  <si>
+    <t>Schakale, die gemeinsam einen Gegner angreifen, erhalten pro Schakal in der Überzahl +1 AT (bis zu einem Maximum von +4 AT).</t>
+  </si>
+  <si>
+    <t>Schakale werden durch Verletzungen in den Status *Raserei* (siehe **Aventurisches Götterwirken** Seite **235**) versetzt. Sobald sie 5 LeP verloren haben, gelten für sie folgende Modifikatoren: +2 TP, immun gegen Schmerz. Dieser Status hält an, bis der Gegner getötet wurde, längstens jedoch eine halbe Stunde.</t>
+  </si>
+  <si>
+    <t>Die Vampirfledermäuse erhalten +1 AT.</t>
+  </si>
+  <si>
+    <t>Pro vollen 10 Vampirfledermäusen rings um den Geweihten des Namenlosen erhöht sich die Stufe der Sichtbehinderung um 1, bis zu einem Maximum von 4.\n\nUm eine höhere Stufe als 1 zu erreichen, muss der Geweihte die Liturgie mehrmals wirken.</t>
+  </si>
+  <si>
+    <t>Die Vampirfledermäuse werfen sich in die Geschosse eines Fernkampfangriffs, der auf den Namenlosen-Geweihten gerichtet ist. Ein gelungener Fernkampfangriff trifft zuerst die Vampirfledermäuse. Sollten die LeP einer Vampirfledermaus auf 0 sinken, stürzt sich sofort eine neue Fledermaus in die Flugbahn, sodass überzählige SP von ihren LeP abgezogen werden. Voraussetzung: Liturgieerweiterung *Fledermausschwarm*.</t>
+  </si>
+  <si>
+    <t>Die Spinnen erhalten +1 AT.</t>
+  </si>
+  <si>
+    <t>Die Giftstufe des Wolfsspinnengifts beträgt 6 statt 4.</t>
+  </si>
+  <si>
+    <t>Pro vollen 10 Spinnen, die sich in Sichtweite befinden, erhalten alle Kulturschaffenden, außer dem Geweihten, eine Stufe des Nachteils Angst vor *Spinnen*.</t>
+  </si>
+  <si>
+    <t>Am Leib getragene Kleidung und Gegenstände werden ebenfalls geschützt.</t>
+  </si>
+  <si>
+    <t>TP durch Feuerschaden werden halbiert und dann aufgerundet. Danach wird der RS abgezogen.</t>
+  </si>
+  <si>
+    <t>Das Ziel erhält *Prinzipientreue II (Ifirnkirche)*.</t>
+  </si>
+  <si>
+    <t>Das Ziel erhält *Prinzipientreue III (Ifirnkirche)*. Voraussetzung: Liturgieerweiterung *Starke Prinzipientreue 1*.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann beliebig viele Ziele gleichzeitig stärken. Jedes Ziel nach dem ersten kostet zusätzlich 8 KaP.</t>
+  </si>
+  <si>
+    <t>Die Liturgie hebt QS/2+1 Stufen *Verwirrung* auf. Dies kostet 4 KaP zusätzlich.</t>
+  </si>
+  <si>
+    <t>Die Probe auf Ausweichen ist um 1 erschwert.</t>
+  </si>
+  <si>
+    <t>Die kleine Windhose richtet 1W6+QS TP an.</t>
+  </si>
+  <si>
+    <t>Das Ziel erwacht mit 1W6+4 LeP, statt nur 1 LeP.</t>
+  </si>
+  <si>
+    <t>Die Schildstärke steigt um QS.</t>
+  </si>
+  <si>
+    <t>Der Radius der Kuppel beträgt 5 Schritt. Es entstehen zusätzliche Kosten in Höhe von 4 KaP.</t>
+  </si>
+  <si>
+    <t>Als Reichweite gilt Berührung. Die Schildstärke beträgt jedoch nur KaP+(QS x 2). Die Liturgie kann nur auf Kulturschaffende übertragen werden.</t>
+  </si>
+  <si>
+    <t>Bis zu drei Attacken können gestapelt werden. Die KaP-Kosten steigen auf 12.</t>
+  </si>
+  <si>
+    <t>Bis zu sechs Attacken können gestapelt werden. Die KaP-Kosten steigen auf 16. Voraussetzung: Liturgieerweiterung *Drei Attacken*.</t>
+  </si>
+  <si>
+    <t>Bis zu neun Attacken können gestapelt werden. Die KaP-Kosten steigen auf 20. Voraussetzung: Liturgieerweiterung *Sechs Attacken*.</t>
+  </si>
+  <si>
+    <t>Auch andere magische Effekte sind betroffen, etwa magische Handlungen.</t>
+  </si>
+  <si>
+    <t>Die Liturgie umfasst auch die Zielkategorie Wesen.</t>
+  </si>
+  <si>
+    <t>Die Liturgiekosten sind doch modifizierbar.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt 2 Stunden.</t>
+  </si>
+  <si>
+    <t>Die Liturgie ist aufrechterhaltend, was 4 KaP für die Aktivierung sowie 2 KaP pro angefangener Stunde kostet.</t>
+  </si>
+  <si>
+    <t>Das Ziel erleidet zusätzlich 1 Stufe *Verwirrung*.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt 8 Stunden.</t>
+  </si>
+  <si>
+    <t>Die Geweihte kann beliebig viele Ziele gleichzeitig motivieren. Jedes Ziel nach dem ersten kostet zusätzlich 2 KaP.</t>
+  </si>
+  <si>
+    <t>Der Geweihte ist selbst immun gegen die heraufbeschworene Kälte.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann in einer Entfernung von bis zu 16 Schritt eine stationäre Zone der Kälte errichten, die dort bis zum Ende der Wirkungsdauer bestehen bleibt.</t>
+  </si>
+  <si>
+    <t>Die Boni auf AT und TP steigen zusätzlich um 1.</t>
+  </si>
+  <si>
+    <t>Die Liturgie kann gegen bis zu 4 Ziele gleichzeitig eingesetzt werden. Jedes Ziel nach dem ersten kostet zusätzlich 8 KaP.</t>
+  </si>
+  <si>
+    <t>Die Boni auf AT und TP steigen zusätzlich um 1 (zusammen mit *Wüterich 1* also um 2). Voraussetzung: Liturgieerweiterung *Wüterich 1*.</t>
+  </si>
+  <si>
+    <t>Der FW der Willenskraft des Opfers sinkt um QS gegen Einflüsterungen des Namenlosen.</t>
+  </si>
+  <si>
+    <t>Die Liturgie kann gegen bis zu 4 Ziele gleichzeitig gewirkt werden. Jedes Ziel nach dem ersten kostet zusätzlich 8 KaP.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS Wochen.</t>
+  </si>
+  <si>
+    <t>Dem Opfer kommt nach Ablauf der Wirkungsdauer nichts seltsam vor. Es hat nicht das Gefühl, beherrscht worden zu sein.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann bis zu 4 Ziele gleichzeitig beeinflussen. Jedes Ziel nach dem ersten kostet zusätzlich 8 KaP.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann bis zu 4 Ziele gleichzeitig mit der Obsession belegen. Jedes Ziel nach dem ersten kostet zusätzlich 4 KaP.</t>
+  </si>
+  <si>
+    <t>Die *Sinnesschärfe*-Probe ist um QS x 2 erschwert.</t>
+  </si>
+  <si>
+    <t>Das Ziel der Liturgie bekommt +1 auf Verteidigung.</t>
+  </si>
+  <si>
+    <t>Das Ziel kann bis zu einer negativen Lebensenergie von KO x 2 kämpfen, bevor es endgültig stirbt.</t>
+  </si>
+  <si>
+    <t>Dem Ziel unterlaufen im Kampf keine Patzer mehr. Patzer werden wie einfach misslungene Proben behandelt.</t>
+  </si>
+  <si>
+    <t>Es muss nicht gewürfelt werden, ob das Ziel *Furcht* erleidet. Dies geschieht bei einem Treffer stattdessen automatisch. Es entstehen zusätzliche Kosten in Höhe von 2 KaP.</t>
+  </si>
+  <si>
+    <t>Das Ziel kann kaum noch ausweichen. Das Ausweichen ist um weitere 2 erschwert. Es entstehen zusätzliche Kosten in Höhe von 2 KaP.</t>
+  </si>
+  <si>
+    <t>Die Anzahl der Ratten erhöht sich um 10.</t>
+  </si>
+  <si>
+    <t>Solange mindestens eine Ratte überlebt, kann der Geweihte aus dieser seinen Körper wiederherstellen.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann die genaue Entfernung zu seinem Heimattempel bestimmen.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann einen beliebigen ihm bekannten Tempel seiner Tradition erspüren. Er muss den Tempel nicht schon einmal aufgesucht haben, allerdings darf dieser nicht verborgen oder geheim sein.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann die genaue Erreichbarkeit seines Heimattempels erspüren. Er weiß beispielsweise, dass er Umwege gehen muss, falls ihm der direkte Weg versperrt ist (also wird er sich in Richtung einer Brücke aufmachen, wenn ein Fluss ihn vom direkten Weg abschneidet).</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS x 2 Tage.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann beliebig viele Ziele gleichzeitig verfluchen. Jedes Ziel nach dem ersten kostet zusätzlich 16 KaP.</t>
+  </si>
+  <si>
+    <t>Auch Daimonide jeglicher Art können gewählt werden.</t>
+  </si>
+  <si>
+    <t>Das Intervall beträgt 10 KR.</t>
+  </si>
+  <si>
+    <t>Zauber sind innerhalb der Zone um 2 erschwert, zudem verlieren Zauberer pro KR 2 AsP.</t>
+  </si>
+  <si>
+    <t>Zauber sind innerhalb der Zone um 3 erschwert, zudem verlieren Zauberer pro KR 3 AsP. Voraussetzung: Liturgieerweiterung *Starker Zauberschwund 1*.</t>
+  </si>
+  <si>
+    <t>Der Radius beträgt 16 Schritt.</t>
+  </si>
+  <si>
+    <t>Liturgie wirkt 13 Stunden und kostet 16 KaP.</t>
+  </si>
+  <si>
+    <t>Die Proben, um den Namenlosen-Geweihten zu durchschauen, sind um QS x 2 erschwert.</t>
+  </si>
+  <si>
+    <t>Alle Seevögel innerhalb Hörund Sehreichweite des Geweihten sind betroffen.</t>
+  </si>
+  <si>
+    <t>Die Proben sind um QS/2+1 erleichtert.</t>
+  </si>
+  <si>
+    <t>Das Intervall beträgt 1 Stunde.</t>
+  </si>
+  <si>
+    <t>Das Intervall beträgt 2 Stunden. Voraussetzung: Liturgieerweiterung *Längeres Intervall 1*.</t>
+  </si>
+  <si>
+    <t>Der Radius beträgt QS x 10 Schritt.</t>
+  </si>
+  <si>
+    <t>Die Reichweite beträgt 64 Schritt.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS x 10 Minuten. Voraussetzung: Liturgieerweiterung *Längere Wirkungsdauer 1*.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann beliebig viele Tiere gleichzeitig heilen. Jedes Ziel nach dem ersten kostet zusätzlich 4 KaP.</t>
+  </si>
+  <si>
+    <t>Statt QS/2 können QS Stufen geheilt werden.</t>
+  </si>
+  <si>
+    <t>Alle Wildtiere innerhalb Hör- und Sichtweite des Geweihten sind betroffen.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann auch Tiere der Größenkategorie klein zu seinem Begleiter machen.</t>
+  </si>
+  <si>
+    <t>Als Reichweite gilt Berührung. Die Liturgie kann nur auf Lebewesen übertragen werden.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann bis zu 4 Ziele gleichzeitig von der Wirkung profitieren lassen. Die KaP-Kosten sind für jedes Ziel einzeln zu bezahlen.</t>
+  </si>
+  <si>
+    <t>Pro KR erhält das Ziel 2 Stufen *Paralyse*.</t>
+  </si>
+  <si>
+    <t>Die Geweihte kann jemanden mitnehmen, allerdings muss eine ständige Berührung während der Wirkung der Liturgie aufrechterhalten werden.</t>
+  </si>
+  <si>
+    <t>Die Probe auf Ausweichen ist zusätzlich um 1 erschwert.</t>
+  </si>
+  <si>
+    <t>Die Windhose richtet 2W6+(QS x 2) TP an.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt 1 Stunde.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt 2 Stunden. Voraussetzung: Liturgieerweiterung Längere *Wirkungsdauer 1*.</t>
+  </si>
+  <si>
+    <t>Die Winde entstehen in bis zu 64 Schritt Entfernung vom Geweihten.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann auch einen natürlichen RS von 2 erhalten. Die Kosten dafür betragen 8 KaP (nicht modifizierbar).</t>
+  </si>
+  <si>
+    <t>Auch Geweihte sind von der Zeremonie betroffen. Sie können nach der Exkommunikation kein Karma mehr regenerieren.</t>
+  </si>
+  <si>
+    <t>Die Exkommunikation kann nicht durch eine Buße wieder aufgehoben werden (siehe **Aventurisches Götterwirken** Seite **72**). Sie ist permanent und kostet den Geweihten zusätzlich 2 permanente KaP (also insgesamt 4 pKaP). Voraussetzung: Liturgieerweiterung *Geweihten-Exkommunikation 1*.</t>
+  </si>
+  <si>
+    <t>Geweihte sind von der Zeremonie betroffen und verlieren ihren Vorteil Geweihter, die Sonderfertigkeit der Tradition, karmale Sonderfertigkeiten, karmale Vor- und Nachteile sowie ihre Liturgien. Sie erhalten aber alle dafür ausgegebenen AP zurück. Die Exkommunikation ist permanent und kostet den Geweihten zusätzlich 4 permanente KaP (also insgesamt 6 pKaP). Voraussetzung: Liturgieerweiterung Für immer exkommuniziert.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann bis zu 2 Ziele gleichzeitig initiieren. Das zweite Ziel kostet 2 KaP extra.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann bis zu 4 Ziele gleichzeitig initiieren. Jedes weitere Ziel kostet 2 KaP extra. Voraussetzung: Liturgieerweiterung *Zwei Ziele*.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann bis zu 8 Ziele gleichzeitig initiieren. Jedes weitere Ziel kostet 2 KaP extra. Voraussetzung: Liturgieerweiterung *Vier Ziele*.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann bis zu 2 Ziele gleichzeitig der Zeremonie unterziehen. Das zweite Ziel kostet 16 KaP und es müssen insgesamt 8 permanente KaP ausgegeben werden.</t>
+  </si>
+  <si>
+    <t>Die Kosten sind doch modifizierbar, die permanenten Kosten bleiben gleich.</t>
+  </si>
+  <si>
+    <t>Geweihte sind von der Zeremonie betroffen und verlieren ihren Vorteil Geweihter, die Sonderfertigkeit der Tradition, karmale Sonderfertigkeiten, karmale Vor- und Nachteile sowie ihre Liturgien. Sie erhalten aber alle dafür ausgegebenen AP zurück. Das Anathema ist permanent und kostet den Geweihten 18 permanente KaP.</t>
+  </si>
+  <si>
+    <t>Die Reichweite ist unbegrenzt.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann den Bannfluch auch über Kulturschaffende sprechen, die keine Initiaten des gleichen Pantheons wie der Geweihte sind.</t>
+  </si>
+  <si>
+    <t>Wasser kann auch in andere Alkoholsorten verwandelt werden, allerdings keine hochprozentigen Alkoholika, sondern vor allem Bier und Met.</t>
+  </si>
+  <si>
+    <t>Es können bis zu QS x 2 Liter Wasser in Alkohol verwandelt werden.</t>
+  </si>
+  <si>
+    <t>Es können bis zu QS x 4 Liter Wasser in Alkohol verwandelt werden. Voraussetzung: Liturgieerweiterung *Mehr Wein!*.</t>
+  </si>
+  <si>
+    <t>Die Zeremoniedauer ist doch modifizierbar.</t>
+  </si>
+  <si>
+    <t>Mit der Zeremonie lassen sich alle Sinneseindrücke in das Gedächtnis brennen.</t>
+  </si>
+  <si>
+    <t>Der Geweihte sieht in den Flammen unzusammenhängende Visionen, was rund um das Entzünden und Löschen der Flammen geschehen ist. Diese sind allerdings undeutlich.</t>
+  </si>
+  <si>
+    <t>Der Geweihte erkennt die genaue Ursache des Feuers, beispielsweise Brandstiftung, Ingerimms Wirken oder einen Unfall. Voraussetzung: Liturgieerweiterung *Visionen*.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann zusätzliche Aussagen über die Hitze des Feuers treffen, wie schnell es sich ausgebreitet hat und ob Brandmittel eingesetzt wurden. Voraussetzung: Liturgieerweiterung *Erkenntnis*.</t>
+  </si>
+  <si>
+    <t>Die Zeremonie ist aufrechterhaltend mit Aktivierungskosten von 8 KaP und 4 KaP pro 3 Stunden.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann in Tiergestalt sprechen.</t>
+  </si>
+  <si>
+    <t>Liturgien können gewirkt werden, notwendige Gesten entfallen dabei. Für KaP gilt dann: wie Geweihter. Voraussetzung: Liturgieerweiterung *Sprachfähigkeit*.</t>
+  </si>
+  <si>
+    <t>Die Geweihte kann in Tiergestalt sprechen.</t>
+  </si>
+  <si>
+    <t>Als Reichweite gilt Berührung. Die Zeremonie kann nur auf Kulturschaffende übertragen werden.</t>
+  </si>
+  <si>
+    <t>Die Erinnerung darf bis zu QS Wochen zurückliegen.</t>
+  </si>
+  <si>
+    <t>Auch gelöschte Erinnerungen können wieder ins Gedächtnis gerufen werden, aber nur, wenn die QS der Zeremonie die QS der Unterdrückungsursache übersteigen.</t>
+  </si>
+  <si>
+    <t>Die Zeremonie kann auch während des Festes gewirkt werden.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt 24 Stunden.</t>
+  </si>
+  <si>
+    <t>Die Zeremonie gilt nicht als aufrechterhaltend. Die Wirkungsdauer und damit die KaP-Kosten müssen beim Wirken der Zeremonie festgelegt werden.</t>
+  </si>
+  <si>
+    <t>Die Zeremonie umfasst auch die Zielkategorie Lebewesen.</t>
+  </si>
+  <si>
+    <t>Die Wahrscheinlichkeit steigt statt um 30 % nun um 60 %.</t>
+  </si>
+  <si>
+    <t>Die Zeremonie kann auch nur auf eine Person angewendet werden, die dann besonders fruchtbar ist.</t>
+  </si>
+  <si>
+    <t>Als Ziel der Zeremonie dürfen auch Lebewesen der Größenkategorie winzig, klein und mittel gewählt werden. Voraussetzung: Liturgieerweiterung *Reichweite Berührung*.</t>
+  </si>
+  <si>
+    <t>Als Ziel der Zeremonie dürfen auch Lebewesen der Größenkategorie groß gewählt werden. Voraussetzung: Liturgieerweiterung Geänderte *Zielkategorie 1*.</t>
+  </si>
+  <si>
+    <t>Der Geweihte bekommt eine Begabung für die nächsten zwei Proben auf ein Wissenstalent innerhalb der Wirkungsdauer.</t>
+  </si>
+  <si>
+    <t>Der Geweihte bekommt eine Begabung für die nächsten drei Proben auf ein Wissenstalent innerhalb der Wirkungsdauer. Voraussetzung: Liturgieerweiterung *Mehr Proben 1*.</t>
+  </si>
+  <si>
+    <t>Der Greif nutzt auch sein eigenes Karma, um den Geweihten zu unterstützen.</t>
+  </si>
+  <si>
+    <t>Die Erleichterung bei der Fischen &amp; Angeln-Probe beträgt (QS/2)+1.</t>
+  </si>
+  <si>
+    <t>Die ermittelten Tagesrationen werden verdoppelt.</t>
+  </si>
+  <si>
+    <t>Die ermittelten Tagesrationen werden verdreifacht. Voraussetzung: Liturgieerweiterung *Mehr Rationen 1*.</t>
+  </si>
+  <si>
+    <t>Die Augenund Haarfarbe ändern sich bei der Häutung nach dem Willen der Geweihten.</t>
+  </si>
+  <si>
+    <t>Die Größe der Geweihten kann pro Häutung um bis zu 1 Finger willentlich nach oben oder unten geändert werden.</t>
+  </si>
+  <si>
+    <t>Details des Aussehens können von der Geweihten willentlich bestimmt werden. Regeltechnische Vor- und Nachteile lassen sich jedoch auch mit der Erweiterung nicht beeinflussen.</t>
+  </si>
+  <si>
+    <t>Die *Willenskraft*-Probe ist um (QS/2)+1 erschwert.</t>
+  </si>
+  <si>
+    <t>Die *Willenskraft*-Probe ist um (QS/2)+2 erschwert. Voraussetzung: Liturgieerweiterung *Starker Schwur 1*.</t>
+  </si>
+  <si>
+    <t>Die *Willenskraft*-Probe ist um (QS/2)+3 erschwert. Voraussetzung: Liturgieerweiterung *Starker Schwur 2*.</t>
+  </si>
+  <si>
+    <t>Das Wasserfahrzeug kann bis zu 30 Schritt lang sein und bis zu 60 Personen Platz bieten.</t>
+  </si>
+  <si>
+    <t>Das Wasserfahrzeug kann bis zu 40 Schritt lang sein und bis zu 120 Personen Platz bieten. Voraussetzung: Liturgieerweiterung *Größere Wasserfahrzeuge 1*.</t>
+  </si>
+  <si>
+    <t>Die Zeremonie wirkt auf mehrere Wasserfahrzeuge, jedes Ziel nach dem ersten kostet zusätzlich 16 KaP.</t>
+  </si>
+  <si>
+    <t>Die Geweihte kann auf eine Meile genau sagen, wie weit die notleidende Person entfernt ist.</t>
+  </si>
+  <si>
+    <t>Die Geweihte kann genauere Angaben zur Erreichbarkeit machen und z. B. spüren, ob ein Fluss oder ein Berg im Weg ist. Somit kann sie auch Umwege einkalkulieren.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt 16 Stunden. Voraussetzung: Liturgieerweiterung *Längere Wirkungsdauer 1*.</t>
+  </si>
+  <si>
+    <t>Das Ziel bekommt eine Begabung für die nächsten zwei Proben auf *Tierkunde* bei der Jagd innerhalb der Wirkungsdauer.</t>
+  </si>
+  <si>
+    <t>Das Ziel bekommt eine Begabung für die nächsten drei Proben auf *Tierkunde* bei der Jagd innerhalb der Wirkungsdauer. Voraussetzung: Liturgieerweiterung *Mehr Proben 1*.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS Jahre. Die KaP-Kosten steigen auf 64.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS x 3 Tage.</t>
+  </si>
+  <si>
+    <t>Bis zu drei *Willenskraft* *(Bedrohungen standhalten* oder *Einschüchtern widerstehen*)-Proben können neu gewürfelt werden.</t>
+  </si>
+  <si>
+    <t>Zusätzlich können auch Proben auf das Talent *Selbstbeherrschung* im Rahmen der Wirkung der Zeremonie neu gewürfelt werden.</t>
+  </si>
+  <si>
+    <t>Die Zeremonie wirkt auf alle Edelmetalle gleichzeitig.</t>
+  </si>
+  <si>
+    <t>Die Zeremonie wirkt auf alle Edelsteine gleichzeitig.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt 13 Tage.</t>
+  </si>
+  <si>
+    <t>Permanente Wirkungen können aufgehoben werden. Der Geweihte entscheidet sich vor Beginn der Zeremonie, ob er dies möchte. Die permanenten Kosten entsprechen denen, die für die Liturgie/Zeremonie ausgegeben wurden.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS x 5 Stunden.</t>
+  </si>
+  <si>
+    <t>Maximal lassen sich bis zu 5 Stein erhitzen.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS x 3 Stunden.</t>
+  </si>
+  <si>
+    <t>Maximal lassen sich bis zu 25 Stein erhitzen. Voraussetzung: Liturgieerweiterung *Größere Menge 1*.</t>
+  </si>
+  <si>
+    <t>Wirkungsdauer beträgt QS x 5 Tage.</t>
+  </si>
+  <si>
+    <t>Bei Proben auf *Boote &amp; Schiffe* bekommen alle Ziele +1 FP.</t>
+  </si>
+  <si>
+    <t>Auch das Talent *Selbstbeherrschung* bekommt eine entsprechende Begabung.</t>
+  </si>
+  <si>
+    <t>Die gereinigte Menge reicht für 12 Personen.</t>
+  </si>
+  <si>
+    <t>Die gereinigte Menge reicht für 50 Personen. Voraussetzung: Liturgieerweiterung *Größere Menge 1*.</t>
+  </si>
+  <si>
+    <t>Die gereinigte Menge reicht für 100 Personen. Voraussetzung: Liturgieerweiterung *Größere Menge 2*.</t>
+  </si>
+  <si>
+    <t>Die Reichweite beträgt 64 Schritt, der Nebel verharrt an der Stelle.</t>
+  </si>
+  <si>
+    <t>Der Nebel ist formbar und kann beliebige Gestalt annehmen.</t>
+  </si>
+  <si>
+    <t>Ein großes Terrain kann geweiht werden. Darunter fallen viele Stadttempel. Die KaP-Kosten belaufen sich auf 128 KaP, davon 32 permanent.</t>
+  </si>
+  <si>
+    <t>Ein riesiges Terrain kann geweiht werden. Darunter fällt beispielsweise das Gebrochene Rad, der Haupttempel der Puniner Boronkirche. Die KaP-Kosten belaufen sich auf 256 KaP, davon 64 permanent. Voraussetzung: Liturgieerweiterung *Große Gebäude/Orte 1*.</t>
+  </si>
+  <si>
+    <t>Ein gigantisches Terrain oder Tempelanlagen können geweiht werden. Darunter fällt z. B. die Stadt des Lichts in Gareth. Die KaP-Kosten belaufen sich auf 512 KaP, davon 128 permanent. Voraussetzung: Liturgieerweiterung *Große Gebäude/Orte 2*.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann bis zu 2 Ziele gleichzeitig ordinieren. Das zweite Ziel kostet 16 KaP und es müssen insgesamt 24 permanente KaP ausgegeben werden.</t>
+  </si>
+  <si>
+    <t>Das Ziel bekommt eine Begabung für die nächsten zwei Proben auf ein Naturtalent innerhalb der Wirkungsdauer.</t>
+  </si>
+  <si>
+    <t>Das Ziel bekommt eine Begabung für die nächsten drei Proben auf ein Naturtalent innerhalb der Wirkungsdauer. Voraussetzung: Liturgieerweiterung *Mehr Proben 1*.</t>
+  </si>
+  <si>
+    <t>Pro 0,5 Stein werden QS+1 Personen satt.</t>
+  </si>
+  <si>
+    <t>Bis zu 10 Stein an Nahrung können von der Zeremonie betroffen sein.</t>
+  </si>
+  <si>
+    <t>Die Zeremoniedauer beträgt 8 Stunden.</t>
+  </si>
+  <si>
+    <t>Die Geweihte kann bis zu 13 Ziele gleichzeitig opfern. Jedes Ziel nach dem ersten reduziert die KaP-Kosten um 2.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann erkennen, ob der Makel des Schwurbrechers (siehe **Aventurisches Götterwirken** Seite **71**) auf seinem Gegenüber liegt.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann erkennen, ob der Makel des Frevlers (siehe **Aventurisches Götterwirken** Seite **71**) auf seinem Gegenüber liegt. Voraussetzung: Liturgieerweiterung *Schwurbrecher-Aura*.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann erkennen, ob der Makel des Verdammten (siehe **Aventurisches Götterwirken** Seite **72**) auf seinem Gegenüber liegt. Voraussetzung: Liturgieerweiterung *Frevler-Aura*.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS Wochen. Voraussetzung: Liturgieerweiterung *Längere Wirkungsdauer 1*.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS Monate. Voraussetzung: Liturgieerweiterung *Längere Wirkungsdauer 2*.</t>
+  </si>
+  <si>
+    <t>Es können (QS/2)+1 Erschwernisse ignoriert werden.</t>
+  </si>
+  <si>
+    <t>Die Zeremonie erstreckt sich auf QS+3 Personen.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt 2 Tage.</t>
+  </si>
+  <si>
+    <t>Die Zielkategorie umfasst auch magische Objekte. Sind permanente AsP darin gebunden, muss der Geweihte ebenso viele permanente KaP opfern.</t>
+  </si>
+  <si>
+    <t>Die Zielkategorie umfasst auch karmale Objekte. Sind permanente KaP darin gebunden, muss der Geweihte ebenso viele permanente KaP opfern.</t>
+  </si>
+  <si>
+    <t>Große Tempel können geweiht werden. Darunter fallen viele Stadttempel. Die KaP-Kosten belaufen sich auf 64 KaP, davon 16 permanent.</t>
+  </si>
+  <si>
+    <t>Riesige Tempel können geweiht werden. Darunter fällt beispielsweise das Gebrochene Rad, der Haupttempel der Puniner Boronkirche. Die KaP-Kosten belaufen sich auf 128 KaP, davon 32 permanent. Voraussetzung: Liturgieerweiterung *Große Gebäude 1*.</t>
+  </si>
+  <si>
+    <t>Gigantische Tempel oder Tempelanlagen können geweiht werden. Darunter fällt z. B. die Stadt des Lichts in Gareth. Die KaP-Kosten belaufen sich auf 256 KaP, davon 64 permanent. Voraussetzung: Liturgieerweiterung *Große Gebäude 2*.</t>
+  </si>
+  <si>
+    <t>Der Geweihte erhält Einblick in die Persönlichkeit des Ziels und kann alle Persönlichkeitsschwächen und Schlechten Eigenschaften identifizieren.</t>
+  </si>
+  <si>
+    <t>Der Geweihte erkennt Ziele und Motivationen des Träumers. Bei *Menschenkenntnis*, Überzeugen, Überreden und *Heilkunde Seele* bekommt der Geweihte gegenüber dem Träumer eine Erleichterung von 1 für 1 Tag. Voraussetzung: Liturgieerweiterung *Tiefer Einblick*.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann im Traum zum Ziel sprechen. Voraussetzung: Liturgieerweiterung *Noch tieferer Einblick*.</t>
+  </si>
+  <si>
+    <t>Das Ziel kann QS x 2 Stein zusätzlich tragen (statt nur QS Stein).</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS Jahre.</t>
+  </si>
+  <si>
+    <t>Die *Heilkunde Seele-Probe* ist zusätzlich um 2 erleichtert.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS Wochen. Die Kosten steigen auf 16 KaP.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS Monate. Die Kosten steigen auf 32 KaP. Voraussetzung: Liturgieerweiterung *Längere Wirkungsdauer 1*.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS Jahre. Die Kosten steigen auf 64 KaP. Voraussetzung: Liturgieerweiterung *Längere Wirkungsdauer 2*.</t>
+  </si>
+  <si>
+    <t>Erleidet ein Geweihter SP durch die verfluchte Waffe, bekommt er zusätzlich 1 Stufe *Verwirrung*.</t>
+  </si>
+  <si>
+    <t>Erleidet ein Geweihter SP durch die verfluchte Waffe, bekommt er zusätzlich 1 Stufe *Furcht*.</t>
+  </si>
+  <si>
+    <t>Der Radius beträgt QS x 30 Meilen.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann auf eine Meile genau sagen, wie weit die Unterkunft entfernt ist.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann genauere Angaben zur Erreichbarkeit machen und z. B. spüren, ob ein Fluss oder ein Berg im Weg ist. Somit kann er auch Umwege einkalkulieren.</t>
+  </si>
+  <si>
+    <t>Größere Gebäude können geweiht werden. Darunter fallen viele Stadtvillen oder mehrstöckige Gebäude. Die KaP-Kosten belaufen sich auf 16 KaP.</t>
+  </si>
+  <si>
+    <t>Riesige Gebäude können geweiht werden. Darunter fallen beispielsweise kleinere Burgen. Die KaP-Kosten belaufen sich auf 32 KaP. Voraussetzung: Liturgieerweiterung *Größere Gebäude 1*.</t>
+  </si>
+  <si>
+    <t>Gigantische Gebäude können geweiht werden. Darunter fallen beispielsweise Schlösser und Festungen. Die KaP-Kosten belaufen sich auf 64 KaP. Voraussetzung: Liturgieerweiterung *Größere Gebäude 2*.</t>
+  </si>
+  <si>
+    <t>Die Zeremonie gibt QS x 30 Strukturpunkte wieder zurück.</t>
+  </si>
+  <si>
+    <t>Auch Waffen und Rüstungen können wiederhergestellt werden. Um Rüstungen wiederherzustellen, benötigt der Geweihte so viele QS, wie die Rüstung Rüstungsschutz besitzt. Bei Waffen der Kampftechniken Dolche und Raufen muss 1 QS erzielt werden, bei anderen Waffen mindestens 2 QS. Zweihandwaffen können nur mit mindestens 3 QS wiederhergestellt werden.</t>
+  </si>
+  <si>
+    <t>Die Zeremonie gibt QS x 50 Strukturpunkte wieder zurück. Außerdem wird bei Waffen und Rüstungen eine QS weniger benötigt. Voraussetzung: Liturgieerweiterung *Bessere Reparatur und Waffen- und Rüstungsreparatur*.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS Wochen, die Zeremonie kostet dafür 16 KaP (Kosten sind nicht modifizierbar).</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS Monate, die Zeremonie kostet dafür 32 KaP (Kosten sind nicht modifizierbar). Voraussetzung: Liturgieerweiterung *Längere Wirkungsdauer 1*.</t>
+  </si>
+  <si>
+    <t>Auch tierische Begleiter wie Esel, Pferde und Vertrautentiere werden durch die Zuflucht geschützt. Die Kosten betragen bei ihnen 2/4/8/16 KaP für die Größenkategorie winzig/klein/mittel/groß.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann das Licht innerhalb der Wirkungsdauer nach Belieben heller oder dunkler werden lassen (bis zu einem Maximum der erzielten QS).</t>
+  </si>
+  <si>
+    <t>Das Licht strömt in Form eines Kegels von 45 Grad vom Geweihten aus. In diesem Kegel wirkt die QS um 1 höher (bis zu einem Maximum von 6). Die restliche Umgebung wird mit einer um 1 niedrigeren als der erzielten QS beleuchtet (bis zu einem Minimum von 1).</t>
+  </si>
+  <si>
+    <t>Die Liturgie wirkt gegen bis zu 4 Ziele gleichzeitig. Jedes Ziel nach dem ersten kostet zusätzlich 4 KaP.</t>
+  </si>
+  <si>
+    <t>Das Intervall beträgt 15 Minuten.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS x 2 KR.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann bis zu 4 Ziele gleichzeitig treffen. Jedes Ziel nach dem ersten kostet zusätzlich 4 KaP.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann die Liturgie auf bis zu 4 Ziele gleichzeitig wirken. Jedes Ziel nach dem ersten kostet zusätzlich 4 KaP.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS x 15 Minuten, sodass der Held 25 Foliantenseiten pro QS entziffern kann.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann bis zu 4 Ziele gleichzeitig unterstützen. Jedes Ziel nach dem ersten kostet zusätzlich 2 KaP.</t>
+  </si>
+  <si>
+    <t>Die Liturgiedauer beträgt 1 Aktion, die Wirkungsdauer wird dafür auf QS KR reduziert.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann bis zu 4 Ziele gleichzeitig ermutigen. Jedes Ziel nach dem ersten kostet zusätzlich 4 KaP.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS Minuten.</t>
+  </si>
+  <si>
+    <t>Für jede QS kann der Geweihte 5 Schritt Fallschaden ignorieren.</t>
+  </si>
+  <si>
+    <t>Die Liturgie kann aufrechterhalten werden mit Aktivierungskosten von 16 KaP und 8 KaP pro 5 Minuten.</t>
+  </si>
+  <si>
+    <t>Als Reichweite gilt Berührung. Die Liturgie kann nur auf Kulturschaffende übertragen werden. Bei diesen ist die AT des Gegners jedoch nur um QS/2 erschwert und auch nur, wenn die Ziele der Liturgie sich ebenfalls friedfertig verhalten, solange die Liturgie wirkt.</t>
+  </si>
+  <si>
+    <t>Für jeweils 4 zusätzliche KaP kann die QS bei einer gelungenen Probe um 1 erhöht werden (bis zu einem Maximum von 6).</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann bis zu 4 Ziele gleichzeitig entgiften. Jedes Ziel nach dem ersten kostet zusätzlich Giftstufe x 2 KaP.</t>
+  </si>
+  <si>
+    <t>Der Gegenstand darf bis zu QS x 2 Schritt vom Geweihten entfernt sein.</t>
+  </si>
+  <si>
+    <t>Der Gegenstand darf auch durch magisches Wirken verborgen sein, aber die QS von Göttlicher Fingerzeig muss die QS der Magie übersteigen.</t>
+  </si>
+  <si>
+    <t>Der Gegenstand darf auch durch karmales Wirken verborgen sein, aber die QS von Göttlicher Fingerzeig muss die QS der Liturgie übersteigen.</t>
+  </si>
+  <si>
+    <t>Der Radius beträgt QS x 25 Schritt.</t>
+  </si>
+  <si>
+    <t>Die Erleichterung beträgt 2.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann bis zu 4 Ziele gleichzeitig heilen. Jedes Ziel nach dem ersten kostet zusätzlich mindestens 4 KaP (oder die Kosten der zurückgegebenen LeP, je nachdem, was teurer ist).</t>
+  </si>
+  <si>
+    <t>Der Geweihte wählt 3 Ziele in Reichweite aus. Der Schaden kann beliebig auf alle Ziele verteilt werden. Voraussetzung: Liturgieerweiterung *Verteilter Schaden 1*.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann bis zu 4 Ziele gleichzeitig heilen. Jedes Ziel nach dem ersten kostet zusätzlich Krankheitsstufe x 2 KaP.</t>
+  </si>
+  <si>
+    <t>Auch das Anwendungsgebiet sich Verstecken ist enthalten.</t>
+  </si>
+  <si>
+    <t>Als Reichweite gilt Berührung. Die Liturgie kann nur auf Kulturschaffende übertragen werden. Der Bonus beträgt hierbei QS/2 auf SK und ZK.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann beliebig viele Ziele gleichzeitig schützen. Die KaP-Kosten müssen für jedes Ziel extra getragen werden. Der Bonus beträgt hierbei QS/2 auf SK und ZK.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann die Liturgie auf bis zu zwei Gegenstände gleichzeitig wirken.</t>
+  </si>
+  <si>
+    <t>Die Liturgie wirkt für 1 KR lang innerhalb des Sichtfelds des Geweihten bis maximal 8 Schritt Entfernung auf alle in diesem Feld befindlichen Objekte und Wesen. Das Sichtfeld des Geweihten ist nicht veränderlich, erlaubt ist also nur der Blick in eine Richtung. Da der Geweihte sich dabei nicht auf eine spezielle Sache konzentrieren kann, werden die erreichten QS vor dem Konsultieren der Tabelle halbiert. Diese Art der karmalen Wahrnehmung zählt als ungerichtete karmale Wahrnehmung.</t>
+  </si>
+  <si>
+    <t>Für 1 KR erhält der Geweihte eine Rundumsicht, die 8 Schritt weit reicht. Er kann sich auf der Stelle drehen, aber sich nicht anderweitig bewegen. Bei Gelingen der Liturgie erhält er automatisch nur 1 QS, kann aber damit alle Gegenstände in Blickreichweite erfassen. Diese Art der karmalen Wahrnehmung zählt als ungerichtete karmale Wahrnehmung.</t>
+  </si>
+  <si>
+    <t>Pro 1 KaP kann die Liturgie 1 Stunde aufrechterhalten werden.</t>
+  </si>
+  <si>
+    <t>Durch den Geweihten gesegnete Materialien weisen eine besonders starke Wirkung gegen Dämonen auf. Sie erzeugen bei der Berührung durch Dämonen am Ende einer KR 1 SP zusätzlich (siehe **Regelwerk** Seite **316**). Dies gilt nur für die Berührung.</t>
+  </si>
+  <si>
+    <t>Die Wirkungsdauer beträgt QS x 10 Stunden. Voraussetzung: Liturgieerweiterung *Längere Wirkungsdauer 1*.</t>
+  </si>
+  <si>
+    <t>Auch laute Geräusche werden gedämpft (nicht aber Zauber, Liturgien und Schreie), allerdings ist die Probe auf *Sinnesschärfe* dafür nur um QS/2 erschwert. Der Geweihte kann sich selbst weiterhin gut hören.</t>
+  </si>
+  <si>
+    <t>Auch laute Geräusche werden gedämpft (nicht aber Zauber und Liturgien). Der Geweihte kann sich selbst weiterhin gut hören. Voraussetzung: Liturgieerweiterung *Stärkere Stille 1*.</t>
+  </si>
+  <si>
+    <t>Die Pflanze wächst um 50 % schneller.</t>
+  </si>
+  <si>
+    <t>Für 16 KaP kann ein kleines Beet angelegt werden, welches für 12 Pflanzen ausreicht.</t>
+  </si>
+  <si>
+    <t>Für 32 KaP kann ein kleines Feld angelegt werden, welches für 12 x 12 Pflanzen ausreicht. Voraussetzung: Liturgieerweiterung *Beet*.</t>
+  </si>
+  <si>
+    <t>Es können bis zu QS kleine Gegenstände transportiert werden.</t>
+  </si>
+  <si>
+    <t>Der Radius beträgt QS x 5 Meilen.</t>
+  </si>
+  <si>
+    <t>Die Transportreichweite beträgt QS x 5 Meilen.</t>
+  </si>
+  <si>
+    <t>Die Zustandsstufen können auf mehrere Ziele verteilt werden, die vor dem Wirken der Liturgie benannt werden müssen. Kann der Geweihte z. B. 3 Stufen *Betäubung* verursachen, darf er auf drei Ziele 1 Stufe verteilen oder einem Ziel 2 Stufen und einem anderen 1 Stufe aufbürden.</t>
+  </si>
+  <si>
+    <t>Das Gift der Stabschlange wird ersetzt durch ein Gift, das statt *Schmerz* *Verwirrung* verursacht. Außerdem steigt die AT auf 14, während die Giftstufe auf 4 sinkt.</t>
+  </si>
+  <si>
+    <t>Die Stabschlange verfügt über 20 LeP.</t>
+  </si>
+  <si>
+    <t>Die Stabschlange verfügt über INI 15 und VW 5.</t>
+  </si>
+  <si>
+    <t>Die Liturgie wirkt auf alle Schlangen innerhalb Hör- und Sichtweite des Geweihten.</t>
+  </si>
+  <si>
+    <t>Auch *Schmerz* der Stufe IV kann ignoriert werden.</t>
+  </si>
+  <si>
+    <t>Die Liturgie kann gegen bis zu 4 Ziele gleichzeitig gewirkt werden. Jedes Ziel nach dem ersten kostet zusätzlich 4 KaP.</t>
+  </si>
+  <si>
+    <t>Die Liturgie umfasst auch die Zielkategorie Wesen. Voraussetzung: Liturgieerweiterung *Zielkategorie Lebewesen*.</t>
+  </si>
+  <si>
+    <t>Das Objekt erzielt einen um QS x 20 % höheren Preis.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann beliebige Kulturschaffende benennen, denen das Ziel der Liturgie ebenso wahrheitsgemäß antworten muss.</t>
+  </si>
+  <si>
+    <t>Die Liturgiedauer beträgt nur 1 Aktion, die Wirkungsdauer wird dafür auf QS x 3 KR reduziert.</t>
+  </si>
+  <si>
+    <t>Die Liturgie wirkt auch bei Zeichensprachen.</t>
+  </si>
+  <si>
+    <t>Die gesegnete Fläche kann bis zu QS x 2.000 Quadratschritt groß sein.</t>
+  </si>
+  <si>
+    <t>Die gesegnete Fläche kann bis zu QS x 5.000 Quadratschritt groß sein. Voraussetzung: Liturgieerweiterung *Größerer Acker*.</t>
+  </si>
+  <si>
+    <t>Pro 8 KaP zusätzlich wirkt die Zeremonie einen weiteren Wachstumszyklus.</t>
+  </si>
+  <si>
+    <t>Eine Untergruppe von Wesen der Gegengottheit, die beim Aktivieren dieser Liturgieerweiterung ausgewählt werden muss, weist eine um 1 schlechtere SK gegen den Exorzismus auf. Dies können beispielsweise Zantim bei Rondrageweihten oder Gotongis bei Praiosgeweihten sein.</t>
+  </si>
+  <si>
+    <t>Geister weisen eine um 1 schlechtere SK gegen den Exorzismus auf.</t>
+  </si>
+  <si>
+    <t>Alle Dämonen mit bis zu 5 Hörnern weisen eine um 1 schlechtere SK gegen den Exorzismus auf. Voraussetzung: Liturgieerweiterung *Spezialisierter Exorzismus*.</t>
+  </si>
+  <si>
+    <t>Dämonen erleiden 1W3+1 SP bei der Berührung des geweihten Panzers.</t>
+  </si>
+  <si>
+    <t>Auch die Kleidung des Geweihten wird mitverwandelt.</t>
+  </si>
+  <si>
+    <t>Nur bei starkem Gegenwind muss eine *Willenskraft*-Probe abgelegt werden. Die GS des Geweihten als Nebel beträgt 8.</t>
+  </si>
+  <si>
+    <t>Das Objekt ist nicht permanent geweiht, sondern nur QS Tage. Es fallen keine permanenten KaP-Kosten an. Die Zeremoniedauer beträgt nur 30 Minuten.</t>
+  </si>
+  <si>
+    <t>Das Objekt kann bis (4+QS) x 3 Stein wiegen.</t>
+  </si>
+  <si>
+    <t>Der Geweihte kann beliebig viele Ziele gleichzeitig weihen. Jedes Ziel nach dem ersten kostet zusätzlich 8 KaP und 2 permanente KaP.</t>
   </si>
 </sst>
 </file>
@@ -15028,7 +16129,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -15147,6 +16248,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -17291,7 +18399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -50415,8 +51523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDF849A-84B1-4731-B5ED-CC1BDC8FBE84}">
   <dimension ref="A1:C577"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -50444,7 +51552,9 @@
       <c r="B2" s="10" t="s">
         <v>1912</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="46" t="s">
+        <v>4917</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
@@ -50453,7 +51563,9 @@
       <c r="B3" s="10" t="s">
         <v>1911</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="46" t="s">
+        <v>4918</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
@@ -50462,7 +51574,9 @@
       <c r="B4" s="10" t="s">
         <v>2111</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="46" t="s">
+        <v>4919</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
@@ -50471,7 +51585,9 @@
       <c r="B5" s="10" t="s">
         <v>3369</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="46" t="s">
+        <v>4920</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="8">
@@ -50480,7 +51596,9 @@
       <c r="B6" s="10" t="s">
         <v>3370</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="46" t="s">
+        <v>4921</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="8">
@@ -50489,7 +51607,9 @@
       <c r="B7" s="21" t="s">
         <v>2111</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="46" t="s">
+        <v>4922</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
@@ -50498,7 +51618,9 @@
       <c r="B8" s="21" t="s">
         <v>1958</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="46" t="s">
+        <v>4923</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="8">
@@ -50507,7 +51629,9 @@
       <c r="B9" s="21" t="s">
         <v>3371</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="46" t="s">
+        <v>4924</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="8">
@@ -50516,7 +51640,9 @@
       <c r="B10" s="21" t="s">
         <v>3372</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="46" t="s">
+        <v>4925</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="8">
@@ -50525,7 +51651,9 @@
       <c r="B11" s="21" t="s">
         <v>3373</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="46" t="s">
+        <v>4926</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="8">
@@ -50534,7 +51662,9 @@
       <c r="B12" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="46" t="s">
+        <v>4927</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="8">
@@ -50543,7 +51673,9 @@
       <c r="B13" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="46" t="s">
+        <v>4800</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="8">
@@ -50552,7 +51684,9 @@
       <c r="B14" s="21" t="s">
         <v>2067</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="46" t="s">
+        <v>4928</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="8">
@@ -50561,7 +51695,9 @@
       <c r="B15" s="21" t="s">
         <v>2068</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="46" t="s">
+        <v>4929</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="8">
@@ -50570,7 +51706,9 @@
       <c r="B16" s="21" t="s">
         <v>1905</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="46" t="s">
+        <v>4930</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="8">
@@ -50579,7 +51717,9 @@
       <c r="B17" s="21" t="s">
         <v>2067</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="45" t="s">
+        <v>4928</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="8">
@@ -50588,7 +51728,9 @@
       <c r="B18" s="21" t="s">
         <v>2068</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="46" t="s">
+        <v>4929</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="8">
@@ -50597,7 +51739,9 @@
       <c r="B19" s="21" t="s">
         <v>1905</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="46" t="s">
+        <v>4930</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="8">
@@ -50606,7 +51750,9 @@
       <c r="B20" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="46" t="s">
+        <v>4927</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="8">
@@ -50615,7 +51761,9 @@
       <c r="B21" s="21" t="s">
         <v>1910</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="46" t="s">
+        <v>4931</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="8">
@@ -50624,7 +51772,9 @@
       <c r="B22" s="21" t="s">
         <v>2044</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="46" t="s">
+        <v>4932</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="8">
@@ -50633,7 +51783,9 @@
       <c r="B23" s="21" t="s">
         <v>1933</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="46" t="s">
+        <v>4933</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="8">
@@ -50642,7 +51794,9 @@
       <c r="B24" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="46" t="s">
+        <v>4934</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="8">
@@ -50651,7 +51805,9 @@
       <c r="B25" s="21" t="s">
         <v>1934</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="46" t="s">
+        <v>4935</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="8">
@@ -50660,7 +51816,9 @@
       <c r="B26" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="46" t="s">
+        <v>4890</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="8">
@@ -50669,7 +51827,9 @@
       <c r="B27" s="21" t="s">
         <v>1905</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="46" t="s">
+        <v>4936</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="8">
@@ -50678,7 +51838,9 @@
       <c r="B28" s="21" t="s">
         <v>1910</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="46" t="s">
+        <v>4931</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="8">
@@ -50687,7 +51849,9 @@
       <c r="B29" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="46" t="s">
+        <v>4797</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="8">
@@ -50696,7 +51860,9 @@
       <c r="B30" s="21" t="s">
         <v>3374</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="46" t="s">
+        <v>4937</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="8">
@@ -50705,7 +51871,9 @@
       <c r="B31" s="21" t="s">
         <v>3375</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="46" t="s">
+        <v>4938</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="8">
@@ -50714,7 +51882,9 @@
       <c r="B32" s="21" t="s">
         <v>2018</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="46" t="s">
+        <v>4939</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="8">
@@ -50723,7 +51893,9 @@
       <c r="B33" s="21" t="s">
         <v>2115</v>
       </c>
-      <c r="C33" s="10"/>
+      <c r="C33" s="46" t="s">
+        <v>4757</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="8">
@@ -50732,7 +51904,9 @@
       <c r="B34" s="21" t="s">
         <v>2020</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="46" t="s">
+        <v>4758</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="8">
@@ -50741,7 +51915,9 @@
       <c r="B35" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="46" t="s">
+        <v>4800</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="8">
@@ -50750,7 +51926,9 @@
       <c r="B36" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="46" t="s">
+        <v>4940</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="8">
@@ -50759,7 +51937,9 @@
       <c r="B37" s="21" t="s">
         <v>3373</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="46" t="s">
+        <v>4941</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="8">
@@ -50768,7 +51948,9 @@
       <c r="B38" s="21" t="s">
         <v>1910</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="46" t="s">
+        <v>4931</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="8">
@@ -50777,7 +51959,9 @@
       <c r="B39" s="21" t="s">
         <v>3376</v>
       </c>
-      <c r="C39" s="10"/>
+      <c r="C39" s="46" t="s">
+        <v>4942</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="8">
@@ -50786,7 +51970,9 @@
       <c r="B40" s="21" t="s">
         <v>3377</v>
       </c>
-      <c r="C40" s="10"/>
+      <c r="C40" s="46" t="s">
+        <v>4943</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="8">
@@ -50795,7 +51981,9 @@
       <c r="B41" s="21" t="s">
         <v>3378</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="46" t="s">
+        <v>4944</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="8">
@@ -50804,7 +51992,9 @@
       <c r="B42" s="21" t="s">
         <v>3379</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="46" t="s">
+        <v>4945</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="8">
@@ -50813,7 +52003,9 @@
       <c r="B43" s="21" t="s">
         <v>3380</v>
       </c>
-      <c r="C43" s="10"/>
+      <c r="C43" s="46" t="s">
+        <v>4946</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="8">
@@ -50822,7 +52014,9 @@
       <c r="B44" s="21" t="s">
         <v>3381</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="46" t="s">
+        <v>4947</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="8">
@@ -50831,7 +52025,9 @@
       <c r="B45" s="21" t="s">
         <v>3382</v>
       </c>
-      <c r="C45" s="10"/>
+      <c r="C45" s="46" t="s">
+        <v>4948</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="8">
@@ -50840,7 +52036,9 @@
       <c r="B46" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C46" s="10"/>
+      <c r="C46" s="46" t="s">
+        <v>4949</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="8">
@@ -50849,7 +52047,9 @@
       <c r="B47" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C47" s="10"/>
+      <c r="C47" s="46" t="s">
+        <v>4602</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="8">
@@ -50858,7 +52058,9 @@
       <c r="B48" s="21" t="s">
         <v>2044</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="46" t="s">
+        <v>4950</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="8">
@@ -50867,7 +52069,9 @@
       <c r="B49" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C49" s="10"/>
+      <c r="C49" s="46" t="s">
+        <v>4934</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="8">
@@ -50876,7 +52080,9 @@
       <c r="B50" s="21" t="s">
         <v>1933</v>
       </c>
-      <c r="C50" s="10"/>
+      <c r="C50" s="46" t="s">
+        <v>4800</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="8">
@@ -50885,7 +52091,9 @@
       <c r="B51" s="21" t="s">
         <v>1925</v>
       </c>
-      <c r="C51" s="10"/>
+      <c r="C51" s="46" t="s">
+        <v>4951</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="8">
@@ -50894,7 +52102,9 @@
       <c r="B52" s="21" t="s">
         <v>1934</v>
       </c>
-      <c r="C52" s="10"/>
+      <c r="C52" s="46" t="s">
+        <v>4952</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="8">
@@ -50903,7 +52113,9 @@
       <c r="B53" s="21" t="s">
         <v>1941</v>
       </c>
-      <c r="C53" s="10"/>
+      <c r="C53" s="46" t="s">
+        <v>4953</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="8">
@@ -50912,7 +52124,9 @@
       <c r="B54" s="21" t="s">
         <v>1895</v>
       </c>
-      <c r="C54" s="10"/>
+      <c r="C54" s="46" t="s">
+        <v>4954</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="8">
@@ -50921,7 +52135,9 @@
       <c r="B55" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C55" s="10"/>
+      <c r="C55" s="46" t="s">
+        <v>4955</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="8">
@@ -50930,7 +52146,9 @@
       <c r="B56" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C56" s="10"/>
+      <c r="C56" s="46" t="s">
+        <v>4956</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="8">
@@ -50939,7 +52157,9 @@
       <c r="B57" s="21" t="s">
         <v>3383</v>
       </c>
-      <c r="C57" s="10"/>
+      <c r="C57" s="46" t="s">
+        <v>4957</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="8">
@@ -50948,7 +52168,9 @@
       <c r="B58" s="21" t="s">
         <v>3384</v>
       </c>
-      <c r="C58" s="10"/>
+      <c r="C58" s="46" t="s">
+        <v>4958</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="8">
@@ -50957,7 +52179,9 @@
       <c r="B59" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C59" s="10"/>
+      <c r="C59" s="46" t="s">
+        <v>4959</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="8">
@@ -50966,7 +52190,9 @@
       <c r="B60" s="21" t="s">
         <v>3385</v>
       </c>
-      <c r="C60" s="10"/>
+      <c r="C60" s="46" t="s">
+        <v>4960</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="8">
@@ -50975,7 +52201,9 @@
       <c r="B61" s="21" t="s">
         <v>3386</v>
       </c>
-      <c r="C61" s="10"/>
+      <c r="C61" s="46" t="s">
+        <v>4961</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="8">
@@ -50984,7 +52212,9 @@
       <c r="B62" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C62" s="10"/>
+      <c r="C62" s="46" t="s">
+        <v>4962</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="8">
@@ -50993,7 +52223,9 @@
       <c r="B63" s="21" t="s">
         <v>3348</v>
       </c>
-      <c r="C63" s="10"/>
+      <c r="C63" s="46" t="s">
+        <v>4963</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="8">
@@ -51002,7 +52234,9 @@
       <c r="B64" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C64" s="10"/>
+      <c r="C64" s="46" t="s">
+        <v>4964</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="8">
@@ -51011,7 +52245,9 @@
       <c r="B65" s="21" t="s">
         <v>1910</v>
       </c>
-      <c r="C65" s="10"/>
+      <c r="C65" s="46" t="s">
+        <v>4931</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="8">
@@ -51020,7 +52256,9 @@
       <c r="B66" s="21" t="s">
         <v>2044</v>
       </c>
-      <c r="C66" s="10"/>
+      <c r="C66" s="46" t="s">
+        <v>4965</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="8">
@@ -51029,7 +52267,9 @@
       <c r="B67" s="21" t="s">
         <v>3387</v>
       </c>
-      <c r="C67" s="10"/>
+      <c r="C67" s="46" t="s">
+        <v>4966</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="8">
@@ -51038,7 +52278,9 @@
       <c r="B68" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C68" s="10"/>
+      <c r="C68" s="46" t="s">
+        <v>4918</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="8">
@@ -51047,7 +52289,9 @@
       <c r="B69" s="21" t="s">
         <v>3388</v>
       </c>
-      <c r="C69" s="10"/>
+      <c r="C69" s="46" t="s">
+        <v>4967</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="8">
@@ -51056,7 +52300,9 @@
       <c r="B70" s="21" t="s">
         <v>3389</v>
       </c>
-      <c r="C70" s="10"/>
+      <c r="C70" s="46" t="s">
+        <v>4968</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="8">
@@ -51065,7 +52311,9 @@
       <c r="B71" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C71" s="10"/>
+      <c r="C71" s="46" t="s">
+        <v>4934</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="8">
@@ -51074,7 +52322,9 @@
       <c r="B72" s="21" t="s">
         <v>3390</v>
       </c>
-      <c r="C72" s="10"/>
+      <c r="C72" s="46" t="s">
+        <v>4969</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="8">
@@ -51083,7 +52333,9 @@
       <c r="B73" s="21" t="s">
         <v>3391</v>
       </c>
-      <c r="C73" s="10"/>
+      <c r="C73" s="46" t="s">
+        <v>4970</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="8">
@@ -51092,7 +52344,9 @@
       <c r="B74" s="21" t="s">
         <v>3392</v>
       </c>
-      <c r="C74" s="10"/>
+      <c r="C74" s="46" t="s">
+        <v>4971</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="8">
@@ -51101,7 +52355,9 @@
       <c r="B75" s="21" t="s">
         <v>3393</v>
       </c>
-      <c r="C75" s="10"/>
+      <c r="C75" s="46" t="s">
+        <v>4972</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="8">
@@ -51110,7 +52366,9 @@
       <c r="B76" s="21" t="s">
         <v>3394</v>
       </c>
-      <c r="C76" s="10"/>
+      <c r="C76" s="46" t="s">
+        <v>4973</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="8">
@@ -51119,7 +52377,9 @@
       <c r="B77" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C77" s="10"/>
+      <c r="C77" s="46" t="s">
+        <v>4974</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="8">
@@ -51128,7 +52388,9 @@
       <c r="B78" s="21" t="s">
         <v>1925</v>
       </c>
-      <c r="C78" s="10"/>
+      <c r="C78" s="46" t="s">
+        <v>4975</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="8">
@@ -51137,7 +52399,9 @@
       <c r="B79" s="21" t="s">
         <v>3395</v>
       </c>
-      <c r="C79" s="10"/>
+      <c r="C79" s="46" t="s">
+        <v>4976</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="8">
@@ -51146,7 +52410,9 @@
       <c r="B80" s="21" t="s">
         <v>1925</v>
       </c>
-      <c r="C80" s="10"/>
+      <c r="C80" s="46" t="s">
+        <v>4951</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="8">
@@ -51155,7 +52421,9 @@
       <c r="B81" s="21" t="s">
         <v>3396</v>
       </c>
-      <c r="C81" s="10"/>
+      <c r="C81" s="46" t="s">
+        <v>4977</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="8">
@@ -51164,7 +52432,9 @@
       <c r="B82" s="21" t="s">
         <v>1901</v>
       </c>
-      <c r="C82" s="10"/>
+      <c r="C82" s="46" t="s">
+        <v>4978</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="8">
@@ -51173,7 +52443,9 @@
       <c r="B83" s="21" t="s">
         <v>1913</v>
       </c>
-      <c r="C83" s="10"/>
+      <c r="C83" s="46" t="s">
+        <v>4979</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="8">
@@ -51182,7 +52454,9 @@
       <c r="B84" s="21" t="s">
         <v>1910</v>
       </c>
-      <c r="C84" s="10"/>
+      <c r="C84" s="46" t="s">
+        <v>4931</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="8">
@@ -51191,7 +52465,9 @@
       <c r="B85" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C85" s="10"/>
+      <c r="C85" s="46" t="s">
+        <v>4918</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="8">
@@ -51200,7 +52476,9 @@
       <c r="B86" s="21" t="s">
         <v>1925</v>
       </c>
-      <c r="C86" s="10"/>
+      <c r="C86" s="46" t="s">
+        <v>4980</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="8">
@@ -51209,7 +52487,9 @@
       <c r="B87" s="21" t="s">
         <v>3397</v>
       </c>
-      <c r="C87" s="10"/>
+      <c r="C87" s="46" t="s">
+        <v>4981</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="8">
@@ -51218,7 +52498,9 @@
       <c r="B88" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C88" s="10"/>
+      <c r="C88" s="46" t="s">
+        <v>4956</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="8">
@@ -51227,7 +52509,9 @@
       <c r="B89" s="21" t="s">
         <v>1901</v>
       </c>
-      <c r="C89" s="10"/>
+      <c r="C89" s="46" t="s">
+        <v>4978</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="8">
@@ -51236,7 +52520,9 @@
       <c r="B90" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C90" s="10"/>
+      <c r="C90" s="46" t="s">
+        <v>4982</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="8">
@@ -51245,7 +52531,9 @@
       <c r="B91" s="21" t="s">
         <v>3398</v>
       </c>
-      <c r="C91" s="10"/>
+      <c r="C91" s="46" t="s">
+        <v>4983</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="8">
@@ -51254,7 +52542,9 @@
       <c r="B92" s="21" t="s">
         <v>1925</v>
       </c>
-      <c r="C92" s="10"/>
+      <c r="C92" s="46" t="s">
+        <v>4984</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="8">
@@ -51263,7 +52553,9 @@
       <c r="B93" s="21" t="s">
         <v>1901</v>
       </c>
-      <c r="C93" s="10"/>
+      <c r="C93" s="46" t="s">
+        <v>4978</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="8">
@@ -51272,7 +52564,9 @@
       <c r="B94" s="21" t="s">
         <v>3399</v>
       </c>
-      <c r="C94" s="10"/>
+      <c r="C94" s="46" t="s">
+        <v>4985</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="8">
@@ -51281,7 +52575,9 @@
       <c r="B95" s="21" t="s">
         <v>3400</v>
       </c>
-      <c r="C95" s="9"/>
+      <c r="C95" s="45" t="s">
+        <v>4986</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="8">
@@ -51290,7 +52586,9 @@
       <c r="B96" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C96" s="10"/>
+      <c r="C96" s="46" t="s">
+        <v>4752</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="8">
@@ -51299,7 +52597,9 @@
       <c r="B97" s="21" t="s">
         <v>3401</v>
       </c>
-      <c r="C97" s="10"/>
+      <c r="C97" s="46" t="s">
+        <v>4987</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="8">
@@ -51308,7 +52608,9 @@
       <c r="B98" s="21" t="s">
         <v>3402</v>
       </c>
-      <c r="C98" s="9"/>
+      <c r="C98" s="45" t="s">
+        <v>4988</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="8">
@@ -51317,7 +52619,9 @@
       <c r="B99" s="21" t="s">
         <v>3403</v>
       </c>
-      <c r="C99" s="10"/>
+      <c r="C99" s="46" t="s">
+        <v>4989</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="8">
@@ -51326,7 +52630,9 @@
       <c r="B100" s="21" t="s">
         <v>3404</v>
       </c>
-      <c r="C100" s="10"/>
+      <c r="C100" s="46" t="s">
+        <v>4990</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="8">
@@ -51335,7 +52641,9 @@
       <c r="B101" s="21" t="s">
         <v>3405</v>
       </c>
-      <c r="C101" s="10"/>
+      <c r="C101" s="46" t="s">
+        <v>4991</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="8">
@@ -51344,7 +52652,9 @@
       <c r="B102" s="21" t="s">
         <v>3406</v>
       </c>
-      <c r="C102" s="10"/>
+      <c r="C102" s="46" t="s">
+        <v>4992</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="8">
@@ -51353,7 +52663,9 @@
       <c r="B103" s="21" t="s">
         <v>3407</v>
       </c>
-      <c r="C103" s="10"/>
+      <c r="C103" s="46" t="s">
+        <v>4993</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="8">
@@ -51362,7 +52674,9 @@
       <c r="B104" s="21" t="s">
         <v>3373</v>
       </c>
-      <c r="C104" s="10"/>
+      <c r="C104" s="46" t="s">
+        <v>4941</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="8">
@@ -51371,7 +52685,9 @@
       <c r="B105" s="21" t="s">
         <v>2054</v>
       </c>
-      <c r="C105" s="10"/>
+      <c r="C105" s="46" t="s">
+        <v>4994</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="8">
@@ -51380,7 +52696,9 @@
       <c r="B106" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C106" s="10"/>
+      <c r="C106" s="46" t="s">
+        <v>4995</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="8">
@@ -51389,7 +52707,9 @@
       <c r="B107" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C107" s="10"/>
+      <c r="C107" s="46" t="s">
+        <v>4996</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="8">
@@ -51398,7 +52718,9 @@
       <c r="B108" s="21" t="s">
         <v>2025</v>
       </c>
-      <c r="C108" s="10"/>
+      <c r="C108" s="46" t="s">
+        <v>4927</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="8">
@@ -51407,7 +52729,9 @@
       <c r="B109" s="21" t="s">
         <v>2111</v>
       </c>
-      <c r="C109" s="10"/>
+      <c r="C109" s="46" t="s">
+        <v>4997</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="8">
@@ -51416,7 +52740,9 @@
       <c r="B110" s="21" t="s">
         <v>3408</v>
       </c>
-      <c r="C110" s="10"/>
+      <c r="C110" s="46" t="s">
+        <v>4998</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="8">
@@ -51425,7 +52751,9 @@
       <c r="B111" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C111" s="10"/>
+      <c r="C111" s="46" t="s">
+        <v>4999</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="8">
@@ -51434,7 +52762,9 @@
       <c r="B112" s="21" t="s">
         <v>3409</v>
       </c>
-      <c r="C112" s="10"/>
+      <c r="C112" s="46" t="s">
+        <v>5000</v>
+      </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="8">
@@ -51443,7 +52773,9 @@
       <c r="B113" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C113" s="10"/>
+      <c r="C113" s="46" t="s">
+        <v>4940</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="8">
@@ -51452,7 +52784,9 @@
       <c r="B114" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C114" s="10"/>
+      <c r="C114" s="46" t="s">
+        <v>5001</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="8">
@@ -51461,7 +52795,9 @@
       <c r="B115" s="21" t="s">
         <v>2111</v>
       </c>
-      <c r="C115" s="10"/>
+      <c r="C115" s="46" t="s">
+        <v>5002</v>
+      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="8">
@@ -51470,7 +52806,9 @@
       <c r="B116" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C116" s="10"/>
+      <c r="C116" s="46" t="s">
+        <v>4927</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="8">
@@ -51479,7 +52817,9 @@
       <c r="B117" s="21" t="s">
         <v>1933</v>
       </c>
-      <c r="C117" s="10"/>
+      <c r="C117" s="46" t="s">
+        <v>4730</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="8">
@@ -51488,7 +52828,9 @@
       <c r="B118" s="21" t="s">
         <v>1934</v>
       </c>
-      <c r="C118" s="10"/>
+      <c r="C118" s="46" t="s">
+        <v>5003</v>
+      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="8">
@@ -51497,7 +52839,9 @@
       <c r="B119" s="21" t="s">
         <v>3410</v>
       </c>
-      <c r="C119" s="10"/>
+      <c r="C119" s="46" t="s">
+        <v>5004</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="8">
@@ -51506,7 +52850,9 @@
       <c r="B120" s="21" t="s">
         <v>3411</v>
       </c>
-      <c r="C120" s="10"/>
+      <c r="C120" s="46" t="s">
+        <v>5005</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="8">
@@ -51515,7 +52861,9 @@
       <c r="B121" s="21" t="s">
         <v>3412</v>
       </c>
-      <c r="C121" s="10"/>
+      <c r="C121" s="46" t="s">
+        <v>5006</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="8">
@@ -51524,7 +52872,9 @@
       <c r="B122" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C122" s="10"/>
+      <c r="C122" s="46" t="s">
+        <v>4918</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="8">
@@ -51533,7 +52883,9 @@
       <c r="B123" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C123" s="10"/>
+      <c r="C123" s="46" t="s">
+        <v>4934</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="8">
@@ -51542,7 +52894,9 @@
       <c r="B124" s="21" t="s">
         <v>2111</v>
       </c>
-      <c r="C124" s="10"/>
+      <c r="C124" s="46" t="s">
+        <v>5007</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="8">
@@ -51551,7 +52905,9 @@
       <c r="B125" s="21" t="s">
         <v>3413</v>
       </c>
-      <c r="C125" s="10"/>
+      <c r="C125" s="46" t="s">
+        <v>5008</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="8">
@@ -51560,7 +52916,9 @@
       <c r="B126" s="21" t="s">
         <v>3414</v>
       </c>
-      <c r="C126" s="10"/>
+      <c r="C126" s="46" t="s">
+        <v>5009</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="8">
@@ -51569,7 +52927,9 @@
       <c r="B127" s="21" t="s">
         <v>3415</v>
       </c>
-      <c r="C127" s="10"/>
+      <c r="C127" s="46" t="s">
+        <v>5010</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="8">
@@ -51578,7 +52938,9 @@
       <c r="B128" s="21" t="s">
         <v>2538</v>
       </c>
-      <c r="C128" s="10"/>
+      <c r="C128" s="46" t="s">
+        <v>5011</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="8">
@@ -51587,7 +52949,9 @@
       <c r="B129" s="21" t="s">
         <v>3416</v>
       </c>
-      <c r="C129" s="10"/>
+      <c r="C129" s="46" t="s">
+        <v>5012</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="8">
@@ -51596,7 +52960,9 @@
       <c r="B130" s="21" t="s">
         <v>3417</v>
       </c>
-      <c r="C130" s="10"/>
+      <c r="C130" s="46" t="s">
+        <v>5013</v>
+      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="8">
@@ -51605,7 +52971,9 @@
       <c r="B131" s="21" t="s">
         <v>2538</v>
       </c>
-      <c r="C131" s="10"/>
+      <c r="C131" s="46" t="s">
+        <v>5014</v>
+      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="8">
@@ -51614,7 +52982,9 @@
       <c r="B132" s="21" t="s">
         <v>3418</v>
       </c>
-      <c r="C132" s="10"/>
+      <c r="C132" s="46" t="s">
+        <v>5015</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="8">
@@ -51623,7 +52993,9 @@
       <c r="B133" s="21" t="s">
         <v>3419</v>
       </c>
-      <c r="C133" s="10"/>
+      <c r="C133" s="46" t="s">
+        <v>5016</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="8">
@@ -51632,7 +53004,9 @@
       <c r="B134" s="21" t="s">
         <v>2538</v>
       </c>
-      <c r="C134" s="10"/>
+      <c r="C134" s="46" t="s">
+        <v>5017</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="8">
@@ -51641,7 +53015,9 @@
       <c r="B135" s="21" t="s">
         <v>3420</v>
       </c>
-      <c r="C135" s="10"/>
+      <c r="C135" s="46" t="s">
+        <v>5018</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="8">
@@ -51650,7 +53026,9 @@
       <c r="B136" s="21" t="s">
         <v>3421</v>
       </c>
-      <c r="C136" s="10"/>
+      <c r="C136" s="46" t="s">
+        <v>5019</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" s="8">
@@ -51659,7 +53037,9 @@
       <c r="B137" s="21" t="s">
         <v>2538</v>
       </c>
-      <c r="C137" s="10"/>
+      <c r="C137" s="46" t="s">
+        <v>5020</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" s="8">
@@ -51668,7 +53048,9 @@
       <c r="B138" s="21" t="s">
         <v>3422</v>
       </c>
-      <c r="C138" s="10"/>
+      <c r="C138" s="46" t="s">
+        <v>5021</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" s="8">
@@ -51677,7 +53059,9 @@
       <c r="B139" s="21" t="s">
         <v>3423</v>
       </c>
-      <c r="C139" s="10"/>
+      <c r="C139" s="46" t="s">
+        <v>5022</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="8">
@@ -51686,7 +53070,9 @@
       <c r="B140" s="21" t="s">
         <v>3424</v>
       </c>
-      <c r="C140" s="10"/>
+      <c r="C140" s="46" t="s">
+        <v>5023</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" s="8">
@@ -51695,7 +53081,9 @@
       <c r="B141" s="21" t="s">
         <v>3425</v>
       </c>
-      <c r="C141" s="10"/>
+      <c r="C141" s="46" t="s">
+        <v>5024</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" s="8">
@@ -51704,7 +53092,9 @@
       <c r="B142" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C142" s="10"/>
+      <c r="C142" s="46" t="s">
+        <v>4934</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" s="8">
@@ -51713,7 +53103,9 @@
       <c r="B143" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C143" s="10"/>
+      <c r="C143" s="46" t="s">
+        <v>4797</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="8">
@@ -51722,7 +53114,9 @@
       <c r="B144" s="21" t="s">
         <v>3374</v>
       </c>
-      <c r="C144" s="10"/>
+      <c r="C144" s="46" t="s">
+        <v>5025</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="8">
@@ -51731,7 +53125,9 @@
       <c r="B145" s="21" t="s">
         <v>3375</v>
       </c>
-      <c r="C145" s="10"/>
+      <c r="C145" s="46" t="s">
+        <v>5026</v>
+      </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" s="8">
@@ -51740,7 +53136,9 @@
       <c r="B146" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C146" s="10"/>
+      <c r="C146" s="46" t="s">
+        <v>4974</v>
+      </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" s="8">
@@ -51749,7 +53147,9 @@
       <c r="B147" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C147" s="10"/>
+      <c r="C147" s="46" t="s">
+        <v>4934</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" s="8">
@@ -51758,7 +53158,9 @@
       <c r="B148" s="21" t="s">
         <v>2111</v>
       </c>
-      <c r="C148" s="10"/>
+      <c r="C148" s="46" t="s">
+        <v>5027</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" s="8">
@@ -51767,7 +53169,9 @@
       <c r="B149" s="21" t="s">
         <v>3426</v>
       </c>
-      <c r="C149" s="10"/>
+      <c r="C149" s="46" t="s">
+        <v>5028</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" s="8">
@@ -51776,7 +53180,9 @@
       <c r="B150" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C150" s="10"/>
+      <c r="C150" s="46" t="s">
+        <v>4927</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" s="8">
@@ -51785,7 +53191,9 @@
       <c r="B151" s="21" t="s">
         <v>1910</v>
       </c>
-      <c r="C151" s="10"/>
+      <c r="C151" s="46" t="s">
+        <v>4931</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" s="8">
@@ -51794,7 +53202,9 @@
       <c r="B152" s="21" t="s">
         <v>3427</v>
       </c>
-      <c r="C152" s="10"/>
+      <c r="C152" s="46" t="s">
+        <v>5029</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" s="8">
@@ -51803,7 +53213,9 @@
       <c r="B153" s="21" t="s">
         <v>3428</v>
       </c>
-      <c r="C153" s="10"/>
+      <c r="C153" s="46" t="s">
+        <v>5030</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" s="8">
@@ -51812,7 +53224,9 @@
       <c r="B154" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C154" s="10"/>
+      <c r="C154" s="46" t="s">
+        <v>4956</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" s="8">
@@ -51821,7 +53235,9 @@
       <c r="B155" s="21" t="s">
         <v>1910</v>
       </c>
-      <c r="C155" s="10"/>
+      <c r="C155" s="46" t="s">
+        <v>4931</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" s="8">
@@ -51830,7 +53246,9 @@
       <c r="B156" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C156" s="10"/>
+      <c r="C156" s="46" t="s">
+        <v>4927</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" s="8">
@@ -51839,7 +53257,9 @@
       <c r="B157" s="21" t="s">
         <v>3429</v>
       </c>
-      <c r="C157" s="10"/>
+      <c r="C157" s="46" t="s">
+        <v>5031</v>
+      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" s="8">
@@ -51848,7 +53268,9 @@
       <c r="B158" s="21" t="s">
         <v>1894</v>
       </c>
-      <c r="C158" s="10"/>
+      <c r="C158" s="46" t="s">
+        <v>5032</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" s="8">
@@ -51857,7 +53279,9 @@
       <c r="B159" s="21" t="s">
         <v>1895</v>
       </c>
-      <c r="C159" s="10"/>
+      <c r="C159" s="46" t="s">
+        <v>5033</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" s="8">
@@ -51866,7 +53290,9 @@
       <c r="B160" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C160" s="10"/>
+      <c r="C160" s="46" t="s">
+        <v>5034</v>
+      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" s="8">
@@ -51875,7 +53301,9 @@
       <c r="B161" s="21" t="s">
         <v>3430</v>
       </c>
-      <c r="C161" s="10"/>
+      <c r="C161" s="46" t="s">
+        <v>5035</v>
+      </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" s="8">
@@ -51884,7 +53312,9 @@
       <c r="B162" s="21" t="s">
         <v>3431</v>
       </c>
-      <c r="C162" s="10"/>
+      <c r="C162" s="46" t="s">
+        <v>5036</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" s="8">
@@ -51893,7 +53323,9 @@
       <c r="B163" s="21" t="s">
         <v>3432</v>
       </c>
-      <c r="C163" s="10"/>
+      <c r="C163" s="46" t="s">
+        <v>5037</v>
+      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" s="8">
@@ -51902,7 +53334,9 @@
       <c r="B164" s="21" t="s">
         <v>2025</v>
       </c>
-      <c r="C164" s="10"/>
+      <c r="C164" s="46" t="s">
+        <v>4927</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" s="8">
@@ -51911,7 +53345,9 @@
       <c r="B165" s="21" t="s">
         <v>3373</v>
       </c>
-      <c r="C165" s="10"/>
+      <c r="C165" s="46" t="s">
+        <v>4926</v>
+      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" s="8">
@@ -51920,7 +53356,9 @@
       <c r="B166" s="21" t="s">
         <v>3433</v>
       </c>
-      <c r="C166" s="10"/>
+      <c r="C166" s="46" t="s">
+        <v>5038</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" s="8">
@@ -51929,7 +53367,9 @@
       <c r="B167" s="21" t="s">
         <v>1901</v>
       </c>
-      <c r="C167" s="10"/>
+      <c r="C167" s="46" t="s">
+        <v>4978</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" s="8">
@@ -51938,7 +53378,9 @@
       <c r="B168" s="21" t="s">
         <v>3434</v>
       </c>
-      <c r="C168" s="10"/>
+      <c r="C168" s="46" t="s">
+        <v>5039</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" s="8">
@@ -51947,7 +53389,9 @@
       <c r="B169" s="21" t="s">
         <v>2044</v>
       </c>
-      <c r="C169" s="10"/>
+      <c r="C169" s="46" t="s">
+        <v>5040</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" s="8">
@@ -51956,7 +53400,9 @@
       <c r="B170" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C170" s="10"/>
+      <c r="C170" s="46" t="s">
+        <v>5041</v>
+      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" s="8">
@@ -51965,7 +53411,9 @@
       <c r="B171" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C171" s="10"/>
+      <c r="C171" s="46" t="s">
+        <v>4934</v>
+      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" s="8">
@@ -51974,7 +53422,9 @@
       <c r="B172" s="21" t="s">
         <v>3376</v>
       </c>
-      <c r="C172" s="10"/>
+      <c r="C172" s="46" t="s">
+        <v>5042</v>
+      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" s="8">
@@ -51983,7 +53433,9 @@
       <c r="B173" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C173" s="10"/>
+      <c r="C173" s="46" t="s">
+        <v>4927</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" s="8">
@@ -51992,7 +53444,9 @@
       <c r="B174" s="21" t="s">
         <v>3435</v>
       </c>
-      <c r="C174" s="10"/>
+      <c r="C174" s="46" t="s">
+        <v>5043</v>
+      </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" s="8">
@@ -52001,7 +53455,9 @@
       <c r="B175" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C175" s="10"/>
+      <c r="C175" s="46" t="s">
+        <v>5044</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" s="8">
@@ -52010,7 +53466,9 @@
       <c r="B176" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C176" s="10"/>
+      <c r="C176" s="46" t="s">
+        <v>4927</v>
+      </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" s="8">
@@ -52019,7 +53477,9 @@
       <c r="B177" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C177" s="10"/>
+      <c r="C177" s="46" t="s">
+        <v>5044</v>
+      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" s="8">
@@ -52028,7 +53488,9 @@
       <c r="B178" s="21" t="s">
         <v>2111</v>
       </c>
-      <c r="C178" s="10"/>
+      <c r="C178" s="46" t="s">
+        <v>5045</v>
+      </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" s="8">
@@ -52037,7 +53499,9 @@
       <c r="B179" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C179" s="10"/>
+      <c r="C179" s="44" t="s">
+        <v>5041</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" s="8">
@@ -52046,7 +53510,9 @@
       <c r="B180" s="21" t="s">
         <v>3436</v>
       </c>
-      <c r="C180" s="10"/>
+      <c r="C180" s="46" t="s">
+        <v>5046</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" s="8">
@@ -52055,7 +53521,9 @@
       <c r="B181" s="21" t="s">
         <v>3437</v>
       </c>
-      <c r="C181" s="10"/>
+      <c r="C181" s="46" t="s">
+        <v>5047</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" s="8">
@@ -52064,7 +53532,9 @@
       <c r="B182" s="21" t="s">
         <v>3438</v>
       </c>
-      <c r="C182" s="10"/>
+      <c r="C182" s="46" t="s">
+        <v>5048</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" s="8">
@@ -52073,7 +53543,9 @@
       <c r="B183" s="21" t="s">
         <v>1906</v>
       </c>
-      <c r="C183" s="10"/>
+      <c r="C183" s="46" t="s">
+        <v>5049</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" s="8">
@@ -52082,7 +53554,9 @@
       <c r="B184" s="21" t="s">
         <v>3439</v>
       </c>
-      <c r="C184" s="10"/>
+      <c r="C184" s="46" t="s">
+        <v>5050</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" s="8">
@@ -52091,7 +53565,9 @@
       <c r="B185" s="21" t="s">
         <v>3440</v>
       </c>
-      <c r="C185" s="10"/>
+      <c r="C185" s="46" t="s">
+        <v>5051</v>
+      </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" s="8">
@@ -52100,7 +53576,9 @@
       <c r="B186" s="21" t="s">
         <v>1906</v>
       </c>
-      <c r="C186" s="10"/>
+      <c r="C186" s="46" t="s">
+        <v>5052</v>
+      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" s="8">
@@ -52109,7 +53587,9 @@
       <c r="B187" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C187" s="10"/>
+      <c r="C187" s="46" t="s">
+        <v>5053</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" s="8">
@@ -52118,7 +53598,9 @@
       <c r="B188" s="21" t="s">
         <v>3441</v>
       </c>
-      <c r="C188" s="10"/>
+      <c r="C188" s="46" t="s">
+        <v>5054</v>
+      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" s="8">
@@ -52127,7 +53609,9 @@
       <c r="B189" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C189" s="10"/>
+      <c r="C189" s="46" t="s">
+        <v>4940</v>
+      </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" s="8">
@@ -52136,7 +53620,9 @@
       <c r="B190" s="21" t="s">
         <v>1906</v>
       </c>
-      <c r="C190" s="10"/>
+      <c r="C190" s="46" t="s">
+        <v>5055</v>
+      </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" s="8">
@@ -52145,7 +53631,9 @@
       <c r="B191" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C191" s="9"/>
+      <c r="C191" s="45" t="s">
+        <v>4927</v>
+      </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" s="8">
@@ -52154,7 +53642,9 @@
       <c r="B192" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C192" s="10"/>
+      <c r="C192" s="46" t="s">
+        <v>5041</v>
+      </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" s="8">
@@ -52163,7 +53653,9 @@
       <c r="B193" s="21" t="s">
         <v>1906</v>
       </c>
-      <c r="C193" s="10"/>
+      <c r="C193" s="46" t="s">
+        <v>5056</v>
+      </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" s="8">
@@ -52172,7 +53664,9 @@
       <c r="B194" s="21" t="s">
         <v>1901</v>
       </c>
-      <c r="C194" s="10"/>
+      <c r="C194" s="46" t="s">
+        <v>4978</v>
+      </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" s="8">
@@ -52181,7 +53675,9 @@
       <c r="B195" s="21" t="s">
         <v>3442</v>
       </c>
-      <c r="C195" s="10"/>
+      <c r="C195" s="46" t="s">
+        <v>5057</v>
+      </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" s="8">
@@ -52190,7 +53686,9 @@
       <c r="B196" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C196" s="10"/>
+      <c r="C196" s="46" t="s">
+        <v>4927</v>
+      </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" s="8">
@@ -52199,7 +53697,9 @@
       <c r="B197" s="21" t="s">
         <v>3443</v>
       </c>
-      <c r="C197" s="9"/>
+      <c r="C197" s="45" t="s">
+        <v>5058</v>
+      </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" s="8">
@@ -52208,7 +53708,9 @@
       <c r="B198" s="21" t="s">
         <v>3444</v>
       </c>
-      <c r="C198" s="10"/>
+      <c r="C198" s="46" t="s">
+        <v>5059</v>
+      </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" s="8">
@@ -52217,7 +53719,9 @@
       <c r="B199" s="21" t="s">
         <v>3445</v>
       </c>
-      <c r="C199" s="10"/>
+      <c r="C199" s="46" t="s">
+        <v>5060</v>
+      </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" s="8">
@@ -52226,7 +53730,9 @@
       <c r="B200" s="21" t="s">
         <v>1914</v>
       </c>
-      <c r="C200" s="9"/>
+      <c r="C200" s="45" t="s">
+        <v>5061</v>
+      </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" s="8">
@@ -52235,7 +53741,9 @@
       <c r="B201" s="21" t="s">
         <v>1915</v>
       </c>
-      <c r="C201" s="10"/>
+      <c r="C201" s="46" t="s">
+        <v>5062</v>
+      </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" s="8">
@@ -52244,7 +53752,9 @@
       <c r="B202" s="21" t="s">
         <v>1905</v>
       </c>
-      <c r="C202" s="10"/>
+      <c r="C202" s="46" t="s">
+        <v>4930</v>
+      </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" s="8">
@@ -52253,7 +53763,9 @@
       <c r="B203" s="21" t="s">
         <v>2044</v>
       </c>
-      <c r="C203" s="10"/>
+      <c r="C203" s="46" t="s">
+        <v>5040</v>
+      </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" s="8">
@@ -52262,7 +53774,9 @@
       <c r="B204" s="21" t="s">
         <v>3446</v>
       </c>
-      <c r="C204" s="10"/>
+      <c r="C204" s="46" t="s">
+        <v>5063</v>
+      </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" s="8">
@@ -52271,7 +53785,9 @@
       <c r="B205" s="21" t="s">
         <v>3447</v>
       </c>
-      <c r="C205" s="10"/>
+      <c r="C205" s="46" t="s">
+        <v>5064</v>
+      </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" s="8">
@@ -52280,7 +53796,9 @@
       <c r="B206" s="21" t="s">
         <v>3448</v>
       </c>
-      <c r="C206" s="10"/>
+      <c r="C206" s="46" t="s">
+        <v>5065</v>
+      </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" s="8">
@@ -52289,7 +53807,9 @@
       <c r="B207" s="21" t="s">
         <v>3449</v>
       </c>
-      <c r="C207" s="10"/>
+      <c r="C207" s="46" t="s">
+        <v>5066</v>
+      </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" s="8">
@@ -52298,7 +53818,9 @@
       <c r="B208" s="21" t="s">
         <v>3450</v>
       </c>
-      <c r="C208" s="10"/>
+      <c r="C208" s="46" t="s">
+        <v>5067</v>
+      </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" s="8">
@@ -52307,7 +53829,9 @@
       <c r="B209" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C209" s="10"/>
+      <c r="C209" s="46" t="s">
+        <v>4940</v>
+      </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" s="8">
@@ -52316,7 +53840,9 @@
       <c r="B210" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C210" s="10"/>
+      <c r="C210" s="46" t="s">
+        <v>5068</v>
+      </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" s="8">
@@ -52325,7 +53851,9 @@
       <c r="B211" s="21" t="s">
         <v>2111</v>
       </c>
-      <c r="C211" s="10"/>
+      <c r="C211" s="46" t="s">
+        <v>5069</v>
+      </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" s="8">
@@ -52334,7 +53862,9 @@
       <c r="B212" s="21" t="s">
         <v>3451</v>
       </c>
-      <c r="C212" s="9"/>
+      <c r="C212" s="45" t="s">
+        <v>5070</v>
+      </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" s="8">
@@ -52343,7 +53873,9 @@
       <c r="B213" s="21" t="s">
         <v>3373</v>
       </c>
-      <c r="C213" s="10"/>
+      <c r="C213" s="46" t="s">
+        <v>4926</v>
+      </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" s="8">
@@ -52352,7 +53884,9 @@
       <c r="B214" s="21" t="s">
         <v>3452</v>
       </c>
-      <c r="C214" s="10"/>
+      <c r="C214" s="46" t="s">
+        <v>5071</v>
+      </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" s="8">
@@ -52361,7 +53895,9 @@
       <c r="B215" s="21" t="s">
         <v>3453</v>
       </c>
-      <c r="C215" s="10"/>
+      <c r="C215" s="46" t="s">
+        <v>5072</v>
+      </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" s="8">
@@ -52370,7 +53906,9 @@
       <c r="B216" s="21" t="s">
         <v>3454</v>
       </c>
-      <c r="C216" s="10"/>
+      <c r="C216" s="46" t="s">
+        <v>5073</v>
+      </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" s="8">
@@ -52379,7 +53917,9 @@
       <c r="B217" s="21" t="s">
         <v>1925</v>
       </c>
-      <c r="C217" s="10"/>
+      <c r="C217" s="46" t="s">
+        <v>5074</v>
+      </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" s="8">
@@ -52388,7 +53928,9 @@
       <c r="B218" s="21" t="s">
         <v>1901</v>
       </c>
-      <c r="C218" s="10"/>
+      <c r="C218" s="46" t="s">
+        <v>5075</v>
+      </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" s="8">
@@ -52397,7 +53939,9 @@
       <c r="B219" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C219" s="10"/>
+      <c r="C219" s="46" t="s">
+        <v>4934</v>
+      </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" s="8">
@@ -52406,7 +53950,9 @@
       <c r="B220" s="21" t="s">
         <v>3455</v>
       </c>
-      <c r="C220" s="10"/>
+      <c r="C220" s="46" t="s">
+        <v>5076</v>
+      </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" s="8">
@@ -52415,7 +53961,9 @@
       <c r="B221" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C221" s="10"/>
+      <c r="C221" s="46" t="s">
+        <v>4959</v>
+      </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222" s="8">
@@ -52424,7 +53972,9 @@
       <c r="B222" s="21" t="s">
         <v>3456</v>
       </c>
-      <c r="C222" s="10"/>
+      <c r="C222" s="46" t="s">
+        <v>5077</v>
+      </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223" s="8">
@@ -52433,7 +53983,9 @@
       <c r="B223" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C223" s="10"/>
+      <c r="C223" s="46" t="s">
+        <v>4934</v>
+      </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224" s="8">
@@ -52442,7 +53994,9 @@
       <c r="B224" s="21" t="s">
         <v>3457</v>
       </c>
-      <c r="C224" s="10"/>
+      <c r="C224" s="46" t="s">
+        <v>5078</v>
+      </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225" s="8">
@@ -52451,7 +54005,9 @@
       <c r="B225" s="21" t="s">
         <v>3458</v>
       </c>
-      <c r="C225" s="10"/>
+      <c r="C225" s="46" t="s">
+        <v>5079</v>
+      </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226" s="8">
@@ -52460,7 +54016,9 @@
       <c r="B226" s="21" t="s">
         <v>3459</v>
       </c>
-      <c r="C226" s="10"/>
+      <c r="C226" s="46" t="s">
+        <v>5080</v>
+      </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227" s="8">
@@ -52469,7 +54027,9 @@
       <c r="B227" s="21" t="s">
         <v>1901</v>
       </c>
-      <c r="C227" s="10"/>
+      <c r="C227" s="46" t="s">
+        <v>4978</v>
+      </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228" s="8">
@@ -52478,7 +54038,9 @@
       <c r="B228" s="21" t="s">
         <v>1925</v>
       </c>
-      <c r="C228" s="10"/>
+      <c r="C228" s="46" t="s">
+        <v>5081</v>
+      </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229" s="8">
@@ -52487,7 +54049,9 @@
       <c r="B229" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C229" s="10"/>
+      <c r="C229" s="46" t="s">
+        <v>5082</v>
+      </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230" s="8">
@@ -52496,7 +54060,9 @@
       <c r="B230" s="21" t="s">
         <v>1933</v>
       </c>
-      <c r="C230" s="10"/>
+      <c r="C230" s="46" t="s">
+        <v>4733</v>
+      </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231" s="8">
@@ -52505,7 +54071,9 @@
       <c r="B231" s="21" t="s">
         <v>2104</v>
       </c>
-      <c r="C231" s="10"/>
+      <c r="C231" s="46" t="s">
+        <v>4890</v>
+      </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232" s="8">
@@ -52514,7 +54082,9 @@
       <c r="B232" s="21" t="s">
         <v>1934</v>
       </c>
-      <c r="C232" s="10"/>
+      <c r="C232" s="46" t="s">
+        <v>5083</v>
+      </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233" s="8">
@@ -52523,7 +54093,9 @@
       <c r="B233" s="21" t="s">
         <v>2044</v>
       </c>
-      <c r="C233" s="10"/>
+      <c r="C233" s="46" t="s">
+        <v>4932</v>
+      </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234" s="8">
@@ -52532,7 +54104,9 @@
       <c r="B234" s="21" t="s">
         <v>2111</v>
       </c>
-      <c r="C234" s="10"/>
+      <c r="C234" s="46" t="s">
+        <v>5084</v>
+      </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235" s="8">
@@ -52541,7 +54115,9 @@
       <c r="B235" s="21" t="s">
         <v>3460</v>
       </c>
-      <c r="C235" s="10"/>
+      <c r="C235" s="46" t="s">
+        <v>5085</v>
+      </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236" s="8">
@@ -52550,7 +54126,9 @@
       <c r="B236" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C236" s="10"/>
+      <c r="C236" s="46" t="s">
+        <v>5001</v>
+      </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237" s="8">
@@ -52559,7 +54137,9 @@
       <c r="B237" s="21" t="s">
         <v>3461</v>
       </c>
-      <c r="C237" s="10"/>
+      <c r="C237" s="46" t="s">
+        <v>5086</v>
+      </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238" s="8">
@@ -52568,7 +54148,9 @@
       <c r="B238" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C238" s="10"/>
+      <c r="C238" s="46" t="s">
+        <v>4934</v>
+      </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239" s="8">
@@ -52577,7 +54159,9 @@
       <c r="B239" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C239" s="10"/>
+      <c r="C239" s="46" t="s">
+        <v>4934</v>
+      </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240" s="8">
@@ -52586,7 +54170,9 @@
       <c r="B240" s="21" t="s">
         <v>3462</v>
       </c>
-      <c r="C240" s="10"/>
+      <c r="C240" s="46" t="s">
+        <v>5087</v>
+      </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241" s="8">
@@ -52595,7 +54181,9 @@
       <c r="B241" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C241" s="10"/>
+      <c r="C241" s="46" t="s">
+        <v>4797</v>
+      </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242" s="8">
@@ -52604,7 +54192,9 @@
       <c r="B242" s="21" t="s">
         <v>1901</v>
       </c>
-      <c r="C242" s="10"/>
+      <c r="C242" s="46" t="s">
+        <v>4978</v>
+      </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243" s="8">
@@ -52613,7 +54203,9 @@
       <c r="B243" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C243" s="10"/>
+      <c r="C243" s="46" t="s">
+        <v>5088</v>
+      </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244" s="8">
@@ -52622,7 +54214,9 @@
       <c r="B244" s="21" t="s">
         <v>1906</v>
       </c>
-      <c r="C244" s="10"/>
+      <c r="C244" s="46" t="s">
+        <v>5089</v>
+      </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245" s="8">
@@ -52631,7 +54225,9 @@
       <c r="B245" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C245" s="10"/>
+      <c r="C245" s="46" t="s">
+        <v>4940</v>
+      </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246" s="8">
@@ -52640,7 +54236,9 @@
       <c r="B246" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C246" s="10"/>
+      <c r="C246" s="46" t="s">
+        <v>4996</v>
+      </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247" s="8">
@@ -52649,7 +54247,9 @@
       <c r="B247" s="21" t="s">
         <v>3463</v>
       </c>
-      <c r="C247" s="10"/>
+      <c r="C247" s="46" t="s">
+        <v>5090</v>
+      </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A248" s="8">
@@ -52658,7 +54258,9 @@
       <c r="B248" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C248" s="10"/>
+      <c r="C248" s="46" t="s">
+        <v>4959</v>
+      </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A249" s="8">
@@ -52667,7 +54269,9 @@
       <c r="B249" s="21" t="s">
         <v>3464</v>
       </c>
-      <c r="C249" s="10"/>
+      <c r="C249" s="46" t="s">
+        <v>5091</v>
+      </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250" s="8">
@@ -52676,7 +54280,9 @@
       <c r="B250" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C250" s="10"/>
+      <c r="C250" s="46" t="s">
+        <v>5088</v>
+      </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251" s="8">
@@ -52685,7 +54291,9 @@
       <c r="B251" s="21" t="s">
         <v>3427</v>
       </c>
-      <c r="C251" s="10"/>
+      <c r="C251" s="46" t="s">
+        <v>5092</v>
+      </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252" s="8">
@@ -52694,7 +54302,9 @@
       <c r="B252" s="21" t="s">
         <v>3428</v>
       </c>
-      <c r="C252" s="10"/>
+      <c r="C252" s="46" t="s">
+        <v>5093</v>
+      </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253" s="8">
@@ -52703,7 +54313,9 @@
       <c r="B253" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C253" s="10"/>
+      <c r="C253" s="46" t="s">
+        <v>4956</v>
+      </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254" s="8">
@@ -52712,7 +54324,9 @@
       <c r="B254" s="21" t="s">
         <v>1933</v>
       </c>
-      <c r="C254" s="10"/>
+      <c r="C254" s="46" t="s">
+        <v>5094</v>
+      </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255" s="8">
@@ -52721,7 +54335,9 @@
       <c r="B255" s="21" t="s">
         <v>1934</v>
       </c>
-      <c r="C255" s="10"/>
+      <c r="C255" s="46" t="s">
+        <v>5095</v>
+      </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256" s="8">
@@ -52730,7 +54346,9 @@
       <c r="B256" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C256" s="10"/>
+      <c r="C256" s="46" t="s">
+        <v>5096</v>
+      </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257" s="8">
@@ -52739,7 +54357,9 @@
       <c r="B257" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C257" s="10"/>
+      <c r="C257" s="46" t="s">
+        <v>4996</v>
+      </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258" s="8">
@@ -52748,7 +54368,9 @@
       <c r="B258" s="21" t="s">
         <v>2054</v>
       </c>
-      <c r="C258" s="10"/>
+      <c r="C258" s="46" t="s">
+        <v>5097</v>
+      </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259" s="8">
@@ -52757,7 +54379,9 @@
       <c r="B259" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C259" s="10"/>
+      <c r="C259" s="46" t="s">
+        <v>4934</v>
+      </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260" s="8">
@@ -52766,7 +54390,9 @@
       <c r="B260" s="21" t="s">
         <v>3465</v>
       </c>
-      <c r="C260" s="10"/>
+      <c r="C260" s="46" t="s">
+        <v>5098</v>
+      </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261" s="8">
@@ -52775,7 +54401,9 @@
       <c r="B261" s="21" t="s">
         <v>3466</v>
       </c>
-      <c r="C261" s="10"/>
+      <c r="C261" s="46" t="s">
+        <v>5099</v>
+      </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262" s="8">
@@ -52784,7 +54412,9 @@
       <c r="B262" s="21" t="s">
         <v>3467</v>
       </c>
-      <c r="C262" s="10"/>
+      <c r="C262" s="46" t="s">
+        <v>5100</v>
+      </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263" s="8">
@@ -52793,7 +54423,9 @@
       <c r="B263" s="21" t="s">
         <v>1905</v>
       </c>
-      <c r="C263" s="10"/>
+      <c r="C263" s="46" t="s">
+        <v>5101</v>
+      </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264" s="8">
@@ -52802,7 +54434,9 @@
       <c r="B264" s="21" t="s">
         <v>1906</v>
       </c>
-      <c r="C264" s="10"/>
+      <c r="C264" s="46" t="s">
+        <v>5102</v>
+      </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265" s="8">
@@ -52811,7 +54445,9 @@
       <c r="B265" s="21" t="s">
         <v>1907</v>
       </c>
-      <c r="C265" s="10"/>
+      <c r="C265" s="46" t="s">
+        <v>5103</v>
+      </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266" s="8">
@@ -52820,7 +54456,9 @@
       <c r="B266" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C266" s="10"/>
+      <c r="C266" s="46" t="s">
+        <v>4927</v>
+      </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267" s="8">
@@ -52829,7 +54467,9 @@
       <c r="B267" s="21" t="s">
         <v>1905</v>
       </c>
-      <c r="C267" s="10"/>
+      <c r="C267" s="46" t="s">
+        <v>5104</v>
+      </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268" s="8">
@@ -52838,7 +54478,9 @@
       <c r="B268" s="21" t="s">
         <v>2044</v>
       </c>
-      <c r="C268" s="10"/>
+      <c r="C268" s="46" t="s">
+        <v>5105</v>
+      </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A269" s="8">
@@ -52847,7 +54489,9 @@
       <c r="B269" s="21" t="s">
         <v>3468</v>
       </c>
-      <c r="C269" s="10"/>
+      <c r="C269" s="46" t="s">
+        <v>5106</v>
+      </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270" s="8">
@@ -52856,7 +54500,9 @@
       <c r="B270" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C270" s="10"/>
+      <c r="C270" s="46" t="s">
+        <v>5107</v>
+      </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271" s="8">
@@ -52865,7 +54511,9 @@
       <c r="B271" s="21" t="s">
         <v>3469</v>
       </c>
-      <c r="C271" s="10"/>
+      <c r="C271" s="46" t="s">
+        <v>5108</v>
+      </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272" s="8">
@@ -52874,7 +54522,9 @@
       <c r="B272" s="21" t="s">
         <v>3470</v>
       </c>
-      <c r="C272" s="10"/>
+      <c r="C272" s="46" t="s">
+        <v>5109</v>
+      </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273" s="8">
@@ -52883,7 +54533,9 @@
       <c r="B273" s="21" t="s">
         <v>3471</v>
       </c>
-      <c r="C273" s="10"/>
+      <c r="C273" s="46" t="s">
+        <v>5110</v>
+      </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A274" s="8">
@@ -52892,7 +54544,9 @@
       <c r="B274" s="21" t="s">
         <v>3472</v>
       </c>
-      <c r="C274" s="10"/>
+      <c r="C274" s="46" t="s">
+        <v>5111</v>
+      </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275" s="8">
@@ -52901,7 +54555,9 @@
       <c r="B275" s="21" t="s">
         <v>2018</v>
       </c>
-      <c r="C275" s="10"/>
+      <c r="C275" s="46" t="s">
+        <v>4939</v>
+      </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A276" s="8">
@@ -52910,7 +54566,9 @@
       <c r="B276" s="21" t="s">
         <v>2115</v>
       </c>
-      <c r="C276" s="10"/>
+      <c r="C276" s="46" t="s">
+        <v>4757</v>
+      </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277" s="8">
@@ -52919,7 +54577,9 @@
       <c r="B277" s="21" t="s">
         <v>2020</v>
       </c>
-      <c r="C277" s="10"/>
+      <c r="C277" s="46" t="s">
+        <v>4758</v>
+      </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A278" s="8">
@@ -52928,7 +54588,9 @@
       <c r="B278" s="21" t="s">
         <v>2018</v>
       </c>
-      <c r="C278" s="10"/>
+      <c r="C278" s="46" t="s">
+        <v>4939</v>
+      </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A279" s="8">
@@ -52937,7 +54599,9 @@
       <c r="B279" s="21" t="s">
         <v>2115</v>
       </c>
-      <c r="C279" s="10"/>
+      <c r="C279" s="46" t="s">
+        <v>4757</v>
+      </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A280" s="8">
@@ -52946,7 +54610,9 @@
       <c r="B280" s="21" t="s">
         <v>2020</v>
       </c>
-      <c r="C280" s="10"/>
+      <c r="C280" s="46" t="s">
+        <v>4758</v>
+      </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A281" s="8">
@@ -52955,7 +54621,9 @@
       <c r="B281" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C281" s="9"/>
+      <c r="C281" s="45" t="s">
+        <v>5001</v>
+      </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A282" s="8">
@@ -52964,7 +54632,9 @@
       <c r="B282" s="21" t="s">
         <v>3473</v>
       </c>
-      <c r="C282" s="10"/>
+      <c r="C282" s="46" t="s">
+        <v>5112</v>
+      </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A283" s="8">
@@ -52973,7 +54643,9 @@
       <c r="B283" s="21" t="s">
         <v>3474</v>
       </c>
-      <c r="C283" s="10"/>
+      <c r="C283" s="46" t="s">
+        <v>5113</v>
+      </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A284" s="8">
@@ -52982,7 +54654,9 @@
       <c r="B284" s="21" t="s">
         <v>3475</v>
       </c>
-      <c r="C284" s="10"/>
+      <c r="C284" s="46" t="s">
+        <v>5114</v>
+      </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A285" s="8">
@@ -52991,7 +54665,9 @@
       <c r="B285" s="21" t="s">
         <v>3476</v>
       </c>
-      <c r="C285" s="10"/>
+      <c r="C285" s="46" t="s">
+        <v>5115</v>
+      </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A286" s="8">
@@ -53000,7 +54676,9 @@
       <c r="B286" s="21" t="s">
         <v>3477</v>
       </c>
-      <c r="C286" s="10"/>
+      <c r="C286" s="46" t="s">
+        <v>5116</v>
+      </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A287" s="8">
@@ -53009,7 +54687,9 @@
       <c r="B287" s="21" t="s">
         <v>3376</v>
       </c>
-      <c r="C287" s="10"/>
+      <c r="C287" s="46" t="s">
+        <v>5117</v>
+      </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A288" s="8">
@@ -53018,7 +54698,9 @@
       <c r="B288" s="21" t="s">
         <v>3478</v>
       </c>
-      <c r="C288" s="10"/>
+      <c r="C288" s="46" t="s">
+        <v>5118</v>
+      </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A289" s="8">
@@ -53027,7 +54709,9 @@
       <c r="B289" s="21" t="s">
         <v>3479</v>
       </c>
-      <c r="C289" s="10"/>
+      <c r="C289" s="46" t="s">
+        <v>5119</v>
+      </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A290" s="8">
@@ -53036,7 +54720,9 @@
       <c r="B290" s="21" t="s">
         <v>3376</v>
       </c>
-      <c r="C290" s="9"/>
+      <c r="C290" s="45" t="s">
+        <v>5117</v>
+      </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A291" s="8">
@@ -53045,7 +54731,9 @@
       <c r="B291" s="21" t="s">
         <v>3478</v>
       </c>
-      <c r="C291" s="10"/>
+      <c r="C291" s="46" t="s">
+        <v>5120</v>
+      </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A292" s="8">
@@ -53054,7 +54742,9 @@
       <c r="B292" s="21" t="s">
         <v>3479</v>
       </c>
-      <c r="C292" s="10"/>
+      <c r="C292" s="46" t="s">
+        <v>5119</v>
+      </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A293" s="8">
@@ -53063,7 +54753,9 @@
       <c r="B293" s="21" t="s">
         <v>3376</v>
       </c>
-      <c r="C293" s="10"/>
+      <c r="C293" s="46" t="s">
+        <v>5117</v>
+      </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A294" s="8">
@@ -53072,7 +54764,9 @@
       <c r="B294" s="21" t="s">
         <v>3478</v>
       </c>
-      <c r="C294" s="10"/>
+      <c r="C294" s="46" t="s">
+        <v>5118</v>
+      </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A295" s="8">
@@ -53081,7 +54775,9 @@
       <c r="B295" s="21" t="s">
         <v>3479</v>
       </c>
-      <c r="C295" s="10"/>
+      <c r="C295" s="46" t="s">
+        <v>5119</v>
+      </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A296" s="8">
@@ -53090,7 +54786,9 @@
       <c r="B296" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C296" s="10"/>
+      <c r="C296" s="46" t="s">
+        <v>5121</v>
+      </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A297" s="8">
@@ -53099,7 +54797,9 @@
       <c r="B297" s="21" t="s">
         <v>3480</v>
       </c>
-      <c r="C297" s="10"/>
+      <c r="C297" s="46" t="s">
+        <v>5122</v>
+      </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A298" s="8">
@@ -53108,7 +54808,9 @@
       <c r="B298" s="21" t="s">
         <v>3481</v>
       </c>
-      <c r="C298" s="10"/>
+      <c r="C298" s="46" t="s">
+        <v>5123</v>
+      </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A299" s="8">
@@ -53117,7 +54819,9 @@
       <c r="B299" s="21" t="s">
         <v>1925</v>
       </c>
-      <c r="C299" s="10"/>
+      <c r="C299" s="46" t="s">
+        <v>5081</v>
+      </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A300" s="8">
@@ -53126,7 +54830,9 @@
       <c r="B300" s="21" t="s">
         <v>3482</v>
       </c>
-      <c r="C300" s="10"/>
+      <c r="C300" s="46" t="s">
+        <v>5124</v>
+      </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A301" s="8">
@@ -53135,7 +54841,9 @@
       <c r="B301" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C301" s="10"/>
+      <c r="C301" s="46" t="s">
+        <v>5125</v>
+      </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A302" s="8">
@@ -53144,7 +54852,9 @@
       <c r="B302" s="21" t="s">
         <v>1901</v>
       </c>
-      <c r="C302" s="10"/>
+      <c r="C302" s="46" t="s">
+        <v>5126</v>
+      </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A303" s="8">
@@ -53153,7 +54863,9 @@
       <c r="B303" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C303" s="10"/>
+      <c r="C303" s="46" t="s">
+        <v>5121</v>
+      </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A304" s="8">
@@ -53162,7 +54874,9 @@
       <c r="B304" s="21" t="s">
         <v>1910</v>
       </c>
-      <c r="C304" s="10"/>
+      <c r="C304" s="46" t="s">
+        <v>5127</v>
+      </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A305" s="8">
@@ -53171,7 +54885,9 @@
       <c r="B305" s="21" t="s">
         <v>3483</v>
       </c>
-      <c r="C305" s="10"/>
+      <c r="C305" s="46" t="s">
+        <v>5128</v>
+      </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A306" s="8">
@@ -53180,7 +54896,9 @@
       <c r="B306" s="21" t="s">
         <v>3484</v>
       </c>
-      <c r="C306" s="10"/>
+      <c r="C306" s="46" t="s">
+        <v>5129</v>
+      </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A307" s="8">
@@ -53189,7 +54907,9 @@
       <c r="B307" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C307" s="10"/>
+      <c r="C307" s="46" t="s">
+        <v>4797</v>
+      </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A308" s="8">
@@ -53198,7 +54918,9 @@
       <c r="B308" s="21" t="s">
         <v>3376</v>
       </c>
-      <c r="C308" s="10"/>
+      <c r="C308" s="46" t="s">
+        <v>5117</v>
+      </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A309" s="8">
@@ -53207,7 +54929,9 @@
       <c r="B309" s="21" t="s">
         <v>3478</v>
       </c>
-      <c r="C309" s="10"/>
+      <c r="C309" s="46" t="s">
+        <v>5120</v>
+      </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A310" s="8">
@@ -53216,7 +54940,9 @@
       <c r="B310" s="21" t="s">
         <v>3479</v>
       </c>
-      <c r="C310" s="10"/>
+      <c r="C310" s="46" t="s">
+        <v>5119</v>
+      </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A311" s="8">
@@ -53225,7 +54951,9 @@
       <c r="B311" s="21" t="s">
         <v>3376</v>
       </c>
-      <c r="C311" s="10"/>
+      <c r="C311" s="46" t="s">
+        <v>5117</v>
+      </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A312" s="8">
@@ -53234,7 +54962,9 @@
       <c r="B312" s="21" t="s">
         <v>3478</v>
       </c>
-      <c r="C312" s="10"/>
+      <c r="C312" s="46" t="s">
+        <v>5118</v>
+      </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A313" s="8">
@@ -53243,7 +54973,9 @@
       <c r="B313" s="21" t="s">
         <v>3479</v>
       </c>
-      <c r="C313" s="10"/>
+      <c r="C313" s="46" t="s">
+        <v>5119</v>
+      </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A314" s="8">
@@ -53252,7 +54984,9 @@
       <c r="B314" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C314" s="10"/>
+      <c r="C314" s="46" t="s">
+        <v>5121</v>
+      </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A315" s="8">
@@ -53261,7 +54995,9 @@
       <c r="B315" s="21" t="s">
         <v>2042</v>
       </c>
-      <c r="C315" s="10"/>
+      <c r="C315" s="46" t="s">
+        <v>5130</v>
+      </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A316" s="8">
@@ -53270,7 +55006,9 @@
       <c r="B316" s="21" t="s">
         <v>2043</v>
       </c>
-      <c r="C316" s="10"/>
+      <c r="C316" s="46" t="s">
+        <v>5131</v>
+      </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A317" s="8">
@@ -53279,7 +55017,9 @@
       <c r="B317" s="21" t="s">
         <v>3485</v>
       </c>
-      <c r="C317" s="10"/>
+      <c r="C317" s="46" t="s">
+        <v>5132</v>
+      </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A318" s="8">
@@ -53288,7 +55028,9 @@
       <c r="B318" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C318" s="10"/>
+      <c r="C318" s="46" t="s">
+        <v>4800</v>
+      </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A319" s="8">
@@ -53297,7 +55039,9 @@
       <c r="B319" s="21" t="s">
         <v>3486</v>
       </c>
-      <c r="C319" s="10"/>
+      <c r="C319" s="46" t="s">
+        <v>5133</v>
+      </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A320" s="8">
@@ -53306,7 +55050,9 @@
       <c r="B320" s="21" t="s">
         <v>3473</v>
       </c>
-      <c r="C320" s="10"/>
+      <c r="C320" s="46" t="s">
+        <v>5112</v>
+      </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A321" s="8">
@@ -53315,7 +55061,9 @@
       <c r="B321" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C321" s="10"/>
+      <c r="C321" s="46" t="s">
+        <v>4730</v>
+      </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A322" s="8">
@@ -53324,7 +55072,9 @@
       <c r="B322" s="21" t="s">
         <v>3487</v>
       </c>
-      <c r="C322" s="10"/>
+      <c r="C322" s="46" t="s">
+        <v>5134</v>
+      </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A323" s="8">
@@ -53333,7 +55083,9 @@
       <c r="B323" s="21" t="s">
         <v>3488</v>
       </c>
-      <c r="C323" s="10"/>
+      <c r="C323" s="46" t="s">
+        <v>5135</v>
+      </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A324" s="8">
@@ -53342,7 +55094,9 @@
       <c r="B324" s="21" t="s">
         <v>3489</v>
       </c>
-      <c r="C324" s="10"/>
+      <c r="C324" s="46" t="s">
+        <v>5136</v>
+      </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A325" s="8">
@@ -53351,7 +55105,9 @@
       <c r="B325" s="21" t="s">
         <v>3490</v>
       </c>
-      <c r="C325" s="10"/>
+      <c r="C325" s="46" t="s">
+        <v>5137</v>
+      </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A326" s="8">
@@ -53360,7 +55116,9 @@
       <c r="B326" s="21" t="s">
         <v>3491</v>
       </c>
-      <c r="C326" s="10"/>
+      <c r="C326" s="46" t="s">
+        <v>5138</v>
+      </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A327" s="8">
@@ -53369,7 +55127,9 @@
       <c r="B327" s="21" t="s">
         <v>3492</v>
       </c>
-      <c r="C327" s="10"/>
+      <c r="C327" s="46" t="s">
+        <v>5139</v>
+      </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A328" s="8">
@@ -53378,7 +55138,9 @@
       <c r="B328" s="21" t="s">
         <v>3493</v>
       </c>
-      <c r="C328" s="10"/>
+      <c r="C328" s="46" t="s">
+        <v>5140</v>
+      </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A329" s="8">
@@ -53387,7 +55149,9 @@
       <c r="B329" s="21" t="s">
         <v>3494</v>
       </c>
-      <c r="C329" s="10"/>
+      <c r="C329" s="46" t="s">
+        <v>5141</v>
+      </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A330" s="8">
@@ -53396,7 +55160,9 @@
       <c r="B330" s="21" t="s">
         <v>3495</v>
       </c>
-      <c r="C330" s="10"/>
+      <c r="C330" s="46" t="s">
+        <v>5142</v>
+      </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A331" s="8">
@@ -53405,7 +55171,9 @@
       <c r="B331" s="21" t="s">
         <v>3496</v>
       </c>
-      <c r="C331" s="10"/>
+      <c r="C331" s="46" t="s">
+        <v>5143</v>
+      </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A332" s="8">
@@ -53414,7 +55182,9 @@
       <c r="B332" s="21" t="s">
         <v>3497</v>
       </c>
-      <c r="C332" s="10"/>
+      <c r="C332" s="46" t="s">
+        <v>5144</v>
+      </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A333" s="8">
@@ -53423,7 +55193,9 @@
       <c r="B333" s="21" t="s">
         <v>3498</v>
       </c>
-      <c r="C333" s="10"/>
+      <c r="C333" s="46" t="s">
+        <v>5145</v>
+      </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A334" s="8">
@@ -53432,7 +55204,9 @@
       <c r="B334" s="21" t="s">
         <v>2111</v>
       </c>
-      <c r="C334" s="10"/>
+      <c r="C334" s="46" t="s">
+        <v>5146</v>
+      </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A335" s="8">
@@ -53441,7 +55215,9 @@
       <c r="B335" s="21" t="s">
         <v>3499</v>
       </c>
-      <c r="C335" s="10"/>
+      <c r="C335" s="46" t="s">
+        <v>5147</v>
+      </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A336" s="8">
@@ -53450,7 +55226,9 @@
       <c r="B336" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C336" s="10"/>
+      <c r="C336" s="46" t="s">
+        <v>4730</v>
+      </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A337" s="8">
@@ -53459,7 +55237,9 @@
       <c r="B337" s="21" t="s">
         <v>3500</v>
       </c>
-      <c r="C337" s="10"/>
+      <c r="C337" s="46" t="s">
+        <v>5148</v>
+      </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A338" s="8">
@@ -53468,7 +55248,9 @@
       <c r="B338" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C338" s="10"/>
+      <c r="C338" s="46" t="s">
+        <v>5121</v>
+      </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A339" s="8">
@@ -53477,7 +55259,9 @@
       <c r="B339" s="21" t="s">
         <v>1933</v>
       </c>
-      <c r="C339" s="10"/>
+      <c r="C339" s="46" t="s">
+        <v>5044</v>
+      </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A340" s="8">
@@ -53486,7 +55270,9 @@
       <c r="B340" s="21" t="s">
         <v>1934</v>
       </c>
-      <c r="C340" s="10"/>
+      <c r="C340" s="46" t="s">
+        <v>5149</v>
+      </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A341" s="8">
@@ -53495,7 +55281,9 @@
       <c r="B341" s="21" t="s">
         <v>3485</v>
       </c>
-      <c r="C341" s="10"/>
+      <c r="C341" s="46" t="s">
+        <v>5150</v>
+      </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A342" s="8">
@@ -53504,7 +55292,9 @@
       <c r="B342" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C342" s="10"/>
+      <c r="C342" s="46" t="s">
+        <v>5121</v>
+      </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A343" s="8">
@@ -53513,7 +55303,9 @@
       <c r="B343" s="21" t="s">
         <v>3486</v>
       </c>
-      <c r="C343" s="10"/>
+      <c r="C343" s="46" t="s">
+        <v>5151</v>
+      </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A344" s="8">
@@ -53522,7 +55314,9 @@
       <c r="B344" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C344" s="10"/>
+      <c r="C344" s="46" t="s">
+        <v>5121</v>
+      </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A345" s="8">
@@ -53531,7 +55325,9 @@
       <c r="B345" s="21" t="s">
         <v>1910</v>
       </c>
-      <c r="C345" s="10"/>
+      <c r="C345" s="46" t="s">
+        <v>5127</v>
+      </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A346" s="8">
@@ -53540,7 +55336,9 @@
       <c r="B346" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C346" s="10"/>
+      <c r="C346" s="46" t="s">
+        <v>5152</v>
+      </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A347" s="8">
@@ -53549,7 +55347,9 @@
       <c r="B347" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C347" s="10"/>
+      <c r="C347" s="46" t="s">
+        <v>5153</v>
+      </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A348" s="8">
@@ -53558,7 +55358,9 @@
       <c r="B348" s="21" t="s">
         <v>3501</v>
       </c>
-      <c r="C348" s="10"/>
+      <c r="C348" s="46" t="s">
+        <v>5154</v>
+      </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A349" s="8">
@@ -53567,7 +55369,9 @@
       <c r="B349" s="21" t="s">
         <v>3502</v>
       </c>
-      <c r="C349" s="10"/>
+      <c r="C349" s="46" t="s">
+        <v>5155</v>
+      </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A350" s="8">
@@ -53576,7 +55380,9 @@
       <c r="B350" s="21" t="s">
         <v>1925</v>
       </c>
-      <c r="C350" s="10"/>
+      <c r="C350" s="46" t="s">
+        <v>4984</v>
+      </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A351" s="8">
@@ -53585,7 +55391,9 @@
       <c r="B351" s="21" t="s">
         <v>3503</v>
       </c>
-      <c r="C351" s="10"/>
+      <c r="C351" s="46" t="s">
+        <v>5156</v>
+      </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A352" s="8">
@@ -53594,7 +55402,9 @@
       <c r="B352" s="21" t="s">
         <v>3504</v>
       </c>
-      <c r="C352" s="10"/>
+      <c r="C352" s="46" t="s">
+        <v>5157</v>
+      </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A353" s="8">
@@ -53603,7 +55413,9 @@
       <c r="B353" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C353" s="10"/>
+      <c r="C353" s="46" t="s">
+        <v>4956</v>
+      </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A354" s="8">
@@ -53612,7 +55424,9 @@
       <c r="B354" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C354" s="10"/>
+      <c r="C354" s="44" t="s">
+        <v>5158</v>
+      </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A355" s="8">
@@ -53621,7 +55435,9 @@
       <c r="B355" s="21" t="s">
         <v>3505</v>
       </c>
-      <c r="C355" s="10"/>
+      <c r="C355" s="46" t="s">
+        <v>5159</v>
+      </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A356" s="8">
@@ -53630,7 +55446,9 @@
       <c r="B356" s="21" t="s">
         <v>2044</v>
       </c>
-      <c r="C356" s="10"/>
+      <c r="C356" s="46" t="s">
+        <v>4932</v>
+      </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A357" s="8">
@@ -53639,7 +55457,9 @@
       <c r="B357" s="21" t="s">
         <v>1933</v>
       </c>
-      <c r="C357" s="10"/>
+      <c r="C357" s="46" t="s">
+        <v>5160</v>
+      </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A358" s="8">
@@ -53648,7 +55468,9 @@
       <c r="B358" s="21" t="s">
         <v>1934</v>
       </c>
-      <c r="C358" s="10"/>
+      <c r="C358" s="46" t="s">
+        <v>4797</v>
+      </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A359" s="8">
@@ -53657,7 +55479,9 @@
       <c r="B359" s="21" t="s">
         <v>3400</v>
       </c>
-      <c r="C359" s="10"/>
+      <c r="C359" s="46" t="s">
+        <v>5161</v>
+      </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A360" s="8">
@@ -53666,7 +55490,9 @@
       <c r="B360" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C360" s="10"/>
+      <c r="C360" s="46" t="s">
+        <v>5162</v>
+      </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A361" s="8">
@@ -53675,7 +55501,9 @@
       <c r="B361" s="21" t="s">
         <v>3401</v>
       </c>
-      <c r="C361" s="10"/>
+      <c r="C361" s="46" t="s">
+        <v>5163</v>
+      </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A362" s="8">
@@ -53684,7 +55512,9 @@
       <c r="B362" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C362" s="10"/>
+      <c r="C362" s="46" t="s">
+        <v>5164</v>
+      </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A363" s="8">
@@ -53693,7 +55523,9 @@
       <c r="B363" s="21" t="s">
         <v>3506</v>
       </c>
-      <c r="C363" s="10"/>
+      <c r="C363" s="46" t="s">
+        <v>5165</v>
+      </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A364" s="8">
@@ -53702,7 +55534,9 @@
       <c r="B364" s="21" t="s">
         <v>3502</v>
       </c>
-      <c r="C364" s="10"/>
+      <c r="C364" s="46" t="s">
+        <v>5166</v>
+      </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A365" s="8">
@@ -53711,7 +55545,9 @@
       <c r="B365" s="21" t="s">
         <v>3400</v>
       </c>
-      <c r="C365" s="10"/>
+      <c r="C365" s="46" t="s">
+        <v>5167</v>
+      </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A366" s="8">
@@ -53720,7 +55556,9 @@
       <c r="B366" s="21" t="s">
         <v>3401</v>
       </c>
-      <c r="C366" s="10"/>
+      <c r="C366" s="46" t="s">
+        <v>5168</v>
+      </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A367" s="8">
@@ -53729,7 +55567,9 @@
       <c r="B367" s="21" t="s">
         <v>3507</v>
       </c>
-      <c r="C367" s="10"/>
+      <c r="C367" s="46" t="s">
+        <v>5169</v>
+      </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A368" s="8">
@@ -53738,7 +55578,9 @@
       <c r="B368" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C368" s="10"/>
+      <c r="C368" s="46" t="s">
+        <v>5162</v>
+      </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A369" s="8">
@@ -53747,7 +55589,9 @@
       <c r="B369" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C369" s="10"/>
+      <c r="C369" s="46" t="s">
+        <v>5170</v>
+      </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A370" s="8">
@@ -53756,7 +55600,9 @@
       <c r="B370" s="21" t="s">
         <v>3508</v>
       </c>
-      <c r="C370" s="10"/>
+      <c r="C370" s="46" t="s">
+        <v>5171</v>
+      </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A371" s="8">
@@ -53765,7 +55611,9 @@
       <c r="B371" s="21" t="s">
         <v>3509</v>
       </c>
-      <c r="C371" s="10"/>
+      <c r="C371" s="46" t="s">
+        <v>5172</v>
+      </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A372" s="8">
@@ -53774,7 +55622,9 @@
       <c r="B372" s="21" t="s">
         <v>3510</v>
       </c>
-      <c r="C372" s="10"/>
+      <c r="C372" s="46" t="s">
+        <v>5173</v>
+      </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A373" s="8">
@@ -53783,7 +55633,9 @@
       <c r="B373" s="21" t="s">
         <v>3511</v>
       </c>
-      <c r="C373" s="10"/>
+      <c r="C373" s="46" t="s">
+        <v>5174</v>
+      </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A374" s="8">
@@ -53792,7 +55644,9 @@
       <c r="B374" s="21" t="s">
         <v>3376</v>
       </c>
-      <c r="C374" s="10"/>
+      <c r="C374" s="46" t="s">
+        <v>5117</v>
+      </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A375" s="8">
@@ -53801,7 +55655,9 @@
       <c r="B375" s="21" t="s">
         <v>3478</v>
       </c>
-      <c r="C375" s="10"/>
+      <c r="C375" s="46" t="s">
+        <v>5120</v>
+      </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A376" s="8">
@@ -53810,7 +55666,9 @@
       <c r="B376" s="21" t="s">
         <v>3479</v>
       </c>
-      <c r="C376" s="10"/>
+      <c r="C376" s="46" t="s">
+        <v>5119</v>
+      </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A377" s="8">
@@ -53819,7 +55677,9 @@
       <c r="B377" s="21" t="s">
         <v>3376</v>
       </c>
-      <c r="C377" s="9"/>
+      <c r="C377" s="45" t="s">
+        <v>5117</v>
+      </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A378" s="8">
@@ -53828,7 +55688,9 @@
       <c r="B378" s="21" t="s">
         <v>3478</v>
       </c>
-      <c r="C378" s="10"/>
+      <c r="C378" s="46" t="s">
+        <v>5118</v>
+      </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A379" s="8">
@@ -53837,7 +55699,9 @@
       <c r="B379" s="21" t="s">
         <v>3479</v>
       </c>
-      <c r="C379" s="10"/>
+      <c r="C379" s="46" t="s">
+        <v>5119</v>
+      </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A380" s="8">
@@ -53846,7 +55710,9 @@
       <c r="B380" s="21" t="s">
         <v>3376</v>
       </c>
-      <c r="C380" s="10"/>
+      <c r="C380" s="46" t="s">
+        <v>5117</v>
+      </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A381" s="8">
@@ -53855,7 +55721,9 @@
       <c r="B381" s="21" t="s">
         <v>3478</v>
       </c>
-      <c r="C381" s="10"/>
+      <c r="C381" s="46" t="s">
+        <v>5120</v>
+      </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A382" s="8">
@@ -53864,7 +55732,9 @@
       <c r="B382" s="21" t="s">
         <v>3479</v>
       </c>
-      <c r="C382" s="10"/>
+      <c r="C382" s="46" t="s">
+        <v>5119</v>
+      </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A383" s="8">
@@ -53873,7 +55743,9 @@
       <c r="B383" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C383" s="10"/>
+      <c r="C383" s="46" t="s">
+        <v>4927</v>
+      </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A384" s="8">
@@ -53882,7 +55754,9 @@
       <c r="B384" s="21" t="s">
         <v>1905</v>
       </c>
-      <c r="C384" s="10"/>
+      <c r="C384" s="46" t="s">
+        <v>5175</v>
+      </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A385" s="8">
@@ -53891,7 +55765,9 @@
       <c r="B385" s="21" t="s">
         <v>2044</v>
       </c>
-      <c r="C385" s="10"/>
+      <c r="C385" s="46" t="s">
+        <v>5105</v>
+      </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A386" s="8">
@@ -53900,7 +55776,9 @@
       <c r="B386" s="21" t="s">
         <v>3376</v>
       </c>
-      <c r="C386" s="10"/>
+      <c r="C386" s="46" t="s">
+        <v>5117</v>
+      </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A387" s="8">
@@ -53909,7 +55787,9 @@
       <c r="B387" s="21" t="s">
         <v>3478</v>
       </c>
-      <c r="C387" s="10"/>
+      <c r="C387" s="46" t="s">
+        <v>5118</v>
+      </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A388" s="8">
@@ -53918,7 +55798,9 @@
       <c r="B388" s="21" t="s">
         <v>3479</v>
       </c>
-      <c r="C388" s="10"/>
+      <c r="C388" s="46" t="s">
+        <v>5119</v>
+      </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A389" s="8">
@@ -53927,7 +55809,9 @@
       <c r="B389" s="21" t="s">
         <v>3485</v>
       </c>
-      <c r="C389" s="10"/>
+      <c r="C389" s="46" t="s">
+        <v>5176</v>
+      </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A390" s="8">
@@ -53936,7 +55820,9 @@
       <c r="B390" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C390" s="10"/>
+      <c r="C390" s="46" t="s">
+        <v>4797</v>
+      </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A391" s="8">
@@ -53945,7 +55831,9 @@
       <c r="B391" s="21" t="s">
         <v>3486</v>
       </c>
-      <c r="C391" s="10"/>
+      <c r="C391" s="46" t="s">
+        <v>5177</v>
+      </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A392" s="8">
@@ -53954,7 +55842,9 @@
       <c r="B392" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C392" s="10"/>
+      <c r="C392" s="46" t="s">
+        <v>5125</v>
+      </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A393" s="8">
@@ -53963,7 +55853,9 @@
       <c r="B393" s="21" t="s">
         <v>3512</v>
       </c>
-      <c r="C393" s="10"/>
+      <c r="C393" s="46" t="s">
+        <v>5178</v>
+      </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A394" s="8">
@@ -53972,7 +55864,9 @@
       <c r="B394" s="21" t="s">
         <v>3513</v>
       </c>
-      <c r="C394" s="10"/>
+      <c r="C394" s="46" t="s">
+        <v>5179</v>
+      </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A395" s="8">
@@ -53981,7 +55875,9 @@
       <c r="B395" s="21" t="s">
         <v>3376</v>
       </c>
-      <c r="C395" s="10"/>
+      <c r="C395" s="46" t="s">
+        <v>5117</v>
+      </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A396" s="8">
@@ -53990,7 +55886,9 @@
       <c r="B396" s="21" t="s">
         <v>3478</v>
       </c>
-      <c r="C396" s="10"/>
+      <c r="C396" s="46" t="s">
+        <v>5118</v>
+      </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A397" s="8">
@@ -53999,7 +55897,9 @@
       <c r="B397" s="21" t="s">
         <v>3479</v>
       </c>
-      <c r="C397" s="10"/>
+      <c r="C397" s="46" t="s">
+        <v>5119</v>
+      </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A398" s="8">
@@ -54008,7 +55908,9 @@
       <c r="B398" s="21" t="s">
         <v>3376</v>
       </c>
-      <c r="C398" s="10"/>
+      <c r="C398" s="46" t="s">
+        <v>5117</v>
+      </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A399" s="8">
@@ -54017,7 +55919,9 @@
       <c r="B399" s="21" t="s">
         <v>3478</v>
       </c>
-      <c r="C399" s="10"/>
+      <c r="C399" s="46" t="s">
+        <v>5120</v>
+      </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A400" s="8">
@@ -54026,7 +55930,9 @@
       <c r="B400" s="21" t="s">
         <v>3479</v>
       </c>
-      <c r="C400" s="10"/>
+      <c r="C400" s="46" t="s">
+        <v>5119</v>
+      </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A401" s="8">
@@ -54035,7 +55941,9 @@
       <c r="B401" s="21" t="s">
         <v>2044</v>
       </c>
-      <c r="C401" s="10"/>
+      <c r="C401" s="46" t="s">
+        <v>4932</v>
+      </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A402" s="8">
@@ -54044,7 +55952,9 @@
       <c r="B402" s="21" t="s">
         <v>3514</v>
       </c>
-      <c r="C402" s="10"/>
+      <c r="C402" s="46" t="s">
+        <v>5180</v>
+      </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A403" s="8">
@@ -54053,7 +55963,9 @@
       <c r="B403" s="21" t="s">
         <v>3515</v>
       </c>
-      <c r="C403" s="10"/>
+      <c r="C403" s="46" t="s">
+        <v>5181</v>
+      </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A404" s="8">
@@ -54062,7 +55974,9 @@
       <c r="B404" s="21" t="s">
         <v>3516</v>
       </c>
-      <c r="C404" s="9"/>
+      <c r="C404" s="45" t="s">
+        <v>5182</v>
+      </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A405" s="8">
@@ -54071,7 +55985,9 @@
       <c r="B405" s="21" t="s">
         <v>3517</v>
       </c>
-      <c r="C405" s="10"/>
+      <c r="C405" s="46" t="s">
+        <v>5183</v>
+      </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A406" s="8">
@@ -54080,7 +55996,9 @@
       <c r="B406" s="21" t="s">
         <v>3518</v>
       </c>
-      <c r="C406" s="10"/>
+      <c r="C406" s="44" t="s">
+        <v>5184</v>
+      </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A407" s="8">
@@ -54089,7 +56007,9 @@
       <c r="B407" s="21" t="s">
         <v>1933</v>
       </c>
-      <c r="C407" s="10"/>
+      <c r="C407" s="46" t="s">
+        <v>5153</v>
+      </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A408" s="8">
@@ -54098,7 +56018,9 @@
       <c r="B408" s="21" t="s">
         <v>1934</v>
       </c>
-      <c r="C408" s="10"/>
+      <c r="C408" s="46" t="s">
+        <v>5185</v>
+      </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A409" s="8">
@@ -54107,7 +56029,9 @@
       <c r="B409" s="21" t="s">
         <v>1935</v>
       </c>
-      <c r="C409" s="10"/>
+      <c r="C409" s="46" t="s">
+        <v>5186</v>
+      </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A410" s="8">
@@ -54116,7 +56040,9 @@
       <c r="B410" s="21" t="s">
         <v>3519</v>
       </c>
-      <c r="C410" s="10"/>
+      <c r="C410" s="46" t="s">
+        <v>5187</v>
+      </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A411" s="8">
@@ -54125,7 +56051,9 @@
       <c r="B411" s="21" t="s">
         <v>1901</v>
       </c>
-      <c r="C411" s="10"/>
+      <c r="C411" s="46" t="s">
+        <v>5126</v>
+      </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A412" s="8">
@@ -54134,7 +56062,9 @@
       <c r="B412" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C412" s="10"/>
+      <c r="C412" s="46" t="s">
+        <v>5121</v>
+      </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A413" s="8">
@@ -54143,7 +56073,9 @@
       <c r="B413" s="21" t="s">
         <v>1954</v>
       </c>
-      <c r="C413" s="10"/>
+      <c r="C413" s="46" t="s">
+        <v>5188</v>
+      </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A414" s="8">
@@ -54152,7 +56084,9 @@
       <c r="B414" s="21" t="s">
         <v>2044</v>
       </c>
-      <c r="C414" s="10"/>
+      <c r="C414" s="46" t="s">
+        <v>4932</v>
+      </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A415" s="8">
@@ -54161,7 +56095,9 @@
       <c r="B415" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C415" s="10"/>
+      <c r="C415" s="46" t="s">
+        <v>5189</v>
+      </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A416" s="8">
@@ -54170,7 +56106,9 @@
       <c r="B416" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C416" s="10"/>
+      <c r="C416" s="46" t="s">
+        <v>4890</v>
+      </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A417" s="8">
@@ -54179,7 +56117,9 @@
       <c r="B417" s="21" t="s">
         <v>3520</v>
       </c>
-      <c r="C417" s="10"/>
+      <c r="C417" s="46" t="s">
+        <v>5190</v>
+      </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A418" s="8">
@@ -54188,7 +56128,9 @@
       <c r="B418" s="21" t="s">
         <v>3521</v>
       </c>
-      <c r="C418" s="10"/>
+      <c r="C418" s="46" t="s">
+        <v>5191</v>
+      </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A419" s="8">
@@ -54197,7 +56139,9 @@
       <c r="B419" s="21" t="s">
         <v>3376</v>
       </c>
-      <c r="C419" s="10"/>
+      <c r="C419" s="46" t="s">
+        <v>5117</v>
+      </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A420" s="8">
@@ -54206,7 +56150,9 @@
       <c r="B420" s="21" t="s">
         <v>3478</v>
       </c>
-      <c r="C420" s="10"/>
+      <c r="C420" s="46" t="s">
+        <v>5118</v>
+      </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A421" s="8">
@@ -54215,7 +56161,9 @@
       <c r="B421" s="21" t="s">
         <v>3479</v>
       </c>
-      <c r="C421" s="10"/>
+      <c r="C421" s="46" t="s">
+        <v>5119</v>
+      </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A422" s="8">
@@ -54224,7 +56172,9 @@
       <c r="B422" s="21" t="s">
         <v>3522</v>
       </c>
-      <c r="C422" s="10"/>
+      <c r="C422" s="46" t="s">
+        <v>5192</v>
+      </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A423" s="8">
@@ -54233,7 +56183,9 @@
       <c r="B423" s="21" t="s">
         <v>3523</v>
       </c>
-      <c r="C423" s="10"/>
+      <c r="C423" s="46" t="s">
+        <v>5193</v>
+      </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A424" s="8">
@@ -54242,7 +56194,9 @@
       <c r="B424" s="21" t="s">
         <v>3524</v>
       </c>
-      <c r="C424" s="10"/>
+      <c r="C424" s="46" t="s">
+        <v>5194</v>
+      </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A425" s="8">
@@ -54251,7 +56205,9 @@
       <c r="B425" s="21" t="s">
         <v>3525</v>
       </c>
-      <c r="C425" s="10"/>
+      <c r="C425" s="46" t="s">
+        <v>5195</v>
+      </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A426" s="8">
@@ -54260,7 +56216,9 @@
       <c r="B426" s="21" t="s">
         <v>3526</v>
       </c>
-      <c r="C426" s="10"/>
+      <c r="C426" s="46" t="s">
+        <v>5196</v>
+      </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A427" s="8">
@@ -54269,7 +56227,9 @@
       <c r="B427" s="21" t="s">
         <v>3527</v>
       </c>
-      <c r="C427" s="10"/>
+      <c r="C427" s="46" t="s">
+        <v>5197</v>
+      </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A428" s="8">
@@ -54278,7 +56238,9 @@
       <c r="B428" s="21" t="s">
         <v>2044</v>
       </c>
-      <c r="C428" s="10"/>
+      <c r="C428" s="44" t="s">
+        <v>4932</v>
+      </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A429" s="8">
@@ -54287,7 +56249,9 @@
       <c r="B429" s="21" t="s">
         <v>2084</v>
       </c>
-      <c r="C429" s="10"/>
+      <c r="C429" s="46" t="s">
+        <v>5198</v>
+      </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A430" s="8">
@@ -54296,7 +56260,9 @@
       <c r="B430" s="21" t="s">
         <v>1896</v>
       </c>
-      <c r="C430" s="10"/>
+      <c r="C430" s="46" t="s">
+        <v>5121</v>
+      </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A431" s="8">
@@ -54305,7 +56271,9 @@
       <c r="B431" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C431" s="10"/>
+      <c r="C431" s="46" t="s">
+        <v>5199</v>
+      </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A432" s="8">
@@ -54314,7 +56282,9 @@
       <c r="B432" s="21" t="s">
         <v>2044</v>
       </c>
-      <c r="C432" s="10"/>
+      <c r="C432" s="46" t="s">
+        <v>4932</v>
+      </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A433" s="8">
@@ -54323,7 +56293,9 @@
       <c r="B433" s="21" t="s">
         <v>3528</v>
       </c>
-      <c r="C433" s="10"/>
+      <c r="C433" s="46" t="s">
+        <v>5200</v>
+      </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A434" s="8">
@@ -54332,7 +56304,9 @@
       <c r="B434" s="21" t="s">
         <v>1933</v>
       </c>
-      <c r="C434" s="10"/>
+      <c r="C434" s="46" t="s">
+        <v>5201</v>
+      </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A435" s="8">
@@ -54341,7 +56315,9 @@
       <c r="B435" s="21" t="s">
         <v>1934</v>
       </c>
-      <c r="C435" s="10"/>
+      <c r="C435" s="46" t="s">
+        <v>5202</v>
+      </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A436" s="8">
@@ -54350,7 +56326,9 @@
       <c r="B436" s="21" t="s">
         <v>1935</v>
       </c>
-      <c r="C436" s="10"/>
+      <c r="C436" s="46" t="s">
+        <v>5203</v>
+      </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A437" s="8">
@@ -54359,7 +56337,9 @@
       <c r="B437" s="21" t="s">
         <v>3529</v>
       </c>
-      <c r="C437" s="10"/>
+      <c r="C437" s="46" t="s">
+        <v>5204</v>
+      </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A438" s="8">
@@ -54368,7 +56348,9 @@
       <c r="B438" s="21" t="s">
         <v>3530</v>
       </c>
-      <c r="C438" s="10"/>
+      <c r="C438" s="46" t="s">
+        <v>5205</v>
+      </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A439" s="8">
@@ -54377,7 +56359,9 @@
       <c r="B439" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C439" s="10"/>
+      <c r="C439" s="46" t="s">
+        <v>4797</v>
+      </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A440" s="8">
@@ -54386,7 +56370,9 @@
       <c r="B440" s="21" t="s">
         <v>1925</v>
       </c>
-      <c r="C440" s="10"/>
+      <c r="C440" s="46" t="s">
+        <v>5206</v>
+      </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A441" s="8">
@@ -54395,7 +56381,9 @@
       <c r="B441" s="21" t="s">
         <v>3499</v>
       </c>
-      <c r="C441" s="10"/>
+      <c r="C441" s="46" t="s">
+        <v>5207</v>
+      </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A442" s="8">
@@ -54404,7 +56392,9 @@
       <c r="B442" s="21" t="s">
         <v>3500</v>
       </c>
-      <c r="C442" s="10"/>
+      <c r="C442" s="46" t="s">
+        <v>5208</v>
+      </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A443" s="8">
@@ -54413,7 +56403,9 @@
       <c r="B443" s="21" t="s">
         <v>3522</v>
       </c>
-      <c r="C443" s="10"/>
+      <c r="C443" s="46" t="s">
+        <v>5209</v>
+      </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A444" s="8">
@@ -54422,7 +56414,9 @@
       <c r="B444" s="21" t="s">
         <v>3523</v>
       </c>
-      <c r="C444" s="10"/>
+      <c r="C444" s="46" t="s">
+        <v>5210</v>
+      </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A445" s="8">
@@ -54431,7 +56425,9 @@
       <c r="B445" s="21" t="s">
         <v>3524</v>
       </c>
-      <c r="C445" s="10"/>
+      <c r="C445" s="46" t="s">
+        <v>5211</v>
+      </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A446" s="8">
@@ -54440,7 +56436,9 @@
       <c r="B446" s="21" t="s">
         <v>3531</v>
       </c>
-      <c r="C446" s="10"/>
+      <c r="C446" s="46" t="s">
+        <v>5212</v>
+      </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A447" s="8">
@@ -54449,7 +56447,9 @@
       <c r="B447" s="21" t="s">
         <v>3532</v>
       </c>
-      <c r="C447" s="10"/>
+      <c r="C447" s="46" t="s">
+        <v>5213</v>
+      </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A448" s="8">
@@ -54458,7 +56458,9 @@
       <c r="B448" s="21" t="s">
         <v>3533</v>
       </c>
-      <c r="C448" s="10"/>
+      <c r="C448" s="46" t="s">
+        <v>5214</v>
+      </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A449" s="8">
@@ -54467,7 +56469,9 @@
       <c r="B449" s="21" t="s">
         <v>1910</v>
       </c>
-      <c r="C449" s="10"/>
+      <c r="C449" s="46" t="s">
+        <v>5127</v>
+      </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A450" s="8">
@@ -54476,7 +56480,9 @@
       <c r="B450" s="21" t="s">
         <v>1933</v>
       </c>
-      <c r="C450" s="10"/>
+      <c r="C450" s="46" t="s">
+        <v>5215</v>
+      </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A451" s="8">
@@ -54485,7 +56491,9 @@
       <c r="B451" s="21" t="s">
         <v>1934</v>
       </c>
-      <c r="C451" s="10"/>
+      <c r="C451" s="46" t="s">
+        <v>5216</v>
+      </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A452" s="8">
@@ -54494,7 +56502,9 @@
       <c r="B452" s="21" t="s">
         <v>3534</v>
       </c>
-      <c r="C452" s="10"/>
+      <c r="C452" s="46" t="s">
+        <v>5217</v>
+      </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A453" s="8">
@@ -54503,7 +56513,9 @@
       <c r="B453" s="21" t="s">
         <v>2044</v>
       </c>
-      <c r="C453" s="10"/>
+      <c r="C453" s="46" t="s">
+        <v>4932</v>
+      </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A454" s="8">
@@ -54512,7 +56524,9 @@
       <c r="B454" s="21" t="s">
         <v>1911</v>
       </c>
-      <c r="C454" s="10"/>
+      <c r="C454" s="46" t="s">
+        <v>5125</v>
+      </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A455" s="8">
@@ -54521,7 +56535,9 @@
       <c r="B455" s="21" t="s">
         <v>3376</v>
       </c>
-      <c r="C455" s="10"/>
+      <c r="C455" s="46" t="s">
+        <v>5117</v>
+      </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A456" s="8">
@@ -54530,7 +56546,9 @@
       <c r="B456" s="21" t="s">
         <v>3478</v>
       </c>
-      <c r="C456" s="10"/>
+      <c r="C456" s="46" t="s">
+        <v>5120</v>
+      </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A457" s="8">
@@ -54539,7 +56557,9 @@
       <c r="B457" s="21" t="s">
         <v>3479</v>
       </c>
-      <c r="C457" s="10"/>
+      <c r="C457" s="46" t="s">
+        <v>5119</v>
+      </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A458" s="8">
@@ -54548,7 +56568,9 @@
       <c r="B458" s="21" t="s">
         <v>2065</v>
       </c>
-      <c r="C458" s="10"/>
+      <c r="C458" s="46" t="s">
+        <v>5218</v>
+      </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A459" s="8">
@@ -54557,7 +56579,9 @@
       <c r="B459" s="21" t="s">
         <v>1901</v>
       </c>
-      <c r="C459" s="10"/>
+      <c r="C459" s="46" t="s">
+        <v>4978</v>
+      </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A460" s="8">
@@ -54566,7 +56590,9 @@
       <c r="B460" s="21" t="s">
         <v>3535</v>
       </c>
-      <c r="C460" s="10"/>
+      <c r="C460" s="46" t="s">
+        <v>5219</v>
+      </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A461" s="8">
@@ -54575,7 +56601,9 @@
       <c r="B461" s="21" t="s">
         <v>1910</v>
       </c>
-      <c r="C461" s="10"/>
+      <c r="C461" s="46" t="s">
+        <v>4931</v>
+      </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A462" s="8">
@@ -54584,7 +56612,9 @@
       <c r="B462" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C462" s="10"/>
+      <c r="C462" s="46" t="s">
+        <v>4927</v>
+      </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A463" s="8">
@@ -54593,7 +56623,9 @@
       <c r="B463" s="21" t="s">
         <v>1906</v>
       </c>
-      <c r="C463" s="10"/>
+      <c r="C463" s="46" t="s">
+        <v>5220</v>
+      </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A464" s="8">
@@ -54602,7 +56634,9 @@
       <c r="B464" s="21" t="s">
         <v>3536</v>
       </c>
-      <c r="C464" s="10"/>
+      <c r="C464" s="46" t="s">
+        <v>5221</v>
+      </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A465" s="8">
@@ -54611,7 +56645,9 @@
       <c r="B465" s="21" t="s">
         <v>1925</v>
       </c>
-      <c r="C465" s="10"/>
+      <c r="C465" s="46" t="s">
+        <v>4984</v>
+      </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A466" s="8">
@@ -54620,7 +56656,9 @@
       <c r="B466" s="21" t="s">
         <v>1901</v>
       </c>
-      <c r="C466" s="10"/>
+      <c r="C466" s="46" t="s">
+        <v>4978</v>
+      </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A467" s="8">
@@ -54629,6 +56667,9 @@
       <c r="B467" s="21" t="s">
         <v>1911</v>
       </c>
+      <c r="C467" s="44" t="s">
+        <v>5222</v>
+      </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A468" s="8">
@@ -54637,6 +56678,9 @@
       <c r="B468" s="21" t="s">
         <v>1912</v>
       </c>
+      <c r="C468" s="44" t="s">
+        <v>4890</v>
+      </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A469" s="8">
@@ -54645,6 +56689,9 @@
       <c r="B469" s="21" t="s">
         <v>1906</v>
       </c>
+      <c r="C469" s="44" t="s">
+        <v>5223</v>
+      </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A470" s="8">
@@ -54653,6 +56700,9 @@
       <c r="B470" s="21" t="s">
         <v>1912</v>
       </c>
+      <c r="C470" s="44" t="s">
+        <v>4890</v>
+      </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A471" s="8">
@@ -54661,6 +56711,9 @@
       <c r="B471" s="21" t="s">
         <v>1911</v>
       </c>
+      <c r="C471" s="44" t="s">
+        <v>4959</v>
+      </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A472" s="8">
@@ -54669,6 +56722,9 @@
       <c r="B472" s="21" t="s">
         <v>1906</v>
       </c>
+      <c r="C472" s="44" t="s">
+        <v>5224</v>
+      </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A473" s="8">
@@ -54677,6 +56733,9 @@
       <c r="B473" s="21" t="s">
         <v>1896</v>
       </c>
+      <c r="C473" s="44" t="s">
+        <v>4934</v>
+      </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A474" s="8">
@@ -54685,6 +56744,9 @@
       <c r="B474" s="21" t="s">
         <v>1911</v>
       </c>
+      <c r="C474" s="44" t="s">
+        <v>5225</v>
+      </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A475" s="8">
@@ -54693,6 +56755,9 @@
       <c r="B475" s="21" t="s">
         <v>1906</v>
       </c>
+      <c r="C475" s="44" t="s">
+        <v>5226</v>
+      </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A476" s="8">
@@ -54701,6 +56766,9 @@
       <c r="B476" s="21" t="s">
         <v>1912</v>
       </c>
+      <c r="C476" s="44" t="s">
+        <v>4927</v>
+      </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A477" s="8">
@@ -54709,6 +56777,9 @@
       <c r="B477" s="21" t="s">
         <v>1921</v>
       </c>
+      <c r="C477" s="44" t="s">
+        <v>5227</v>
+      </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A478" s="8">
@@ -54717,6 +56788,9 @@
       <c r="B478" s="21" t="s">
         <v>1906</v>
       </c>
+      <c r="C478" s="44" t="s">
+        <v>5228</v>
+      </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A479" s="8">
@@ -54725,6 +56799,9 @@
       <c r="B479" s="21" t="s">
         <v>1911</v>
       </c>
+      <c r="C479" s="44" t="s">
+        <v>5229</v>
+      </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A480" s="8">
@@ -54733,781 +56810,1075 @@
       <c r="B480" s="21" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C480" s="44" t="s">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A481" s="8">
         <v>480</v>
       </c>
       <c r="B481" s="21" t="s">
         <v>3537</v>
       </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C481" s="44" t="s">
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A482" s="8">
         <v>481</v>
       </c>
       <c r="B482" s="21" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C482" s="44" t="s">
+        <v>4996</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A483" s="8">
         <v>482</v>
       </c>
       <c r="B483" s="21" t="s">
         <v>3376</v>
       </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C483" s="44" t="s">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A484" s="8">
         <v>483</v>
       </c>
       <c r="B484" s="21" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C484" s="44" t="s">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A485" s="8">
         <v>484</v>
       </c>
       <c r="B485" s="21" t="s">
         <v>1912</v>
       </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C485" s="44" t="s">
+        <v>4927</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A486" s="8">
         <v>485</v>
       </c>
       <c r="B486" s="21" t="s">
         <v>1995</v>
       </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C486" s="44" t="s">
+        <v>5233</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A487" s="8">
         <v>486</v>
       </c>
       <c r="B487" s="21" t="s">
         <v>1906</v>
       </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C487" s="44" t="s">
+        <v>5234</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A488" s="8">
         <v>487</v>
       </c>
       <c r="B488" s="21" t="s">
         <v>3538</v>
       </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C488" s="44" t="s">
+        <v>5235</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A489" s="8">
         <v>488</v>
       </c>
       <c r="B489" s="21" t="s">
         <v>3539</v>
       </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C489" s="44" t="s">
+        <v>5236</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A490" s="8">
         <v>489</v>
       </c>
       <c r="B490" s="21" t="s">
         <v>3540</v>
       </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C490" s="44" t="s">
+        <v>5237</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A491" s="8">
         <v>490</v>
       </c>
       <c r="B491" s="21" t="s">
         <v>1912</v>
       </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C491" s="44" t="s">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A492" s="8">
         <v>491</v>
       </c>
       <c r="B492" s="21" t="s">
         <v>1925</v>
       </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C492" s="44" t="s">
+        <v>5238</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A493" s="8">
         <v>492</v>
       </c>
       <c r="B493" s="21" t="s">
         <v>3541</v>
       </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C493" s="44" t="s">
+        <v>5239</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A494" s="8">
         <v>493</v>
       </c>
       <c r="B494" s="21" t="s">
         <v>1910</v>
       </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C494" s="44" t="s">
+        <v>4931</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A495" s="8">
         <v>494</v>
       </c>
       <c r="B495" s="21" t="s">
         <v>1912</v>
       </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C495" s="44" t="s">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A496" s="8">
         <v>495</v>
       </c>
       <c r="B496" s="21" t="s">
         <v>1906</v>
       </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C496" s="44" t="s">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A497" s="8">
         <v>496</v>
       </c>
       <c r="B497" s="21" t="s">
         <v>2067</v>
       </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C497" s="44" t="s">
+        <v>4928</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A498" s="8">
         <v>497</v>
       </c>
       <c r="B498" s="21" t="s">
         <v>2068</v>
       </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C498" s="44" t="s">
+        <v>5241</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A499" s="8">
         <v>498</v>
       </c>
       <c r="B499" s="21" t="s">
         <v>1905</v>
       </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C499" s="44" t="s">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A500" s="8">
         <v>499</v>
       </c>
       <c r="B500" s="21" t="s">
         <v>2067</v>
       </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C500" s="44" t="s">
+        <v>4928</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A501" s="8">
         <v>500</v>
       </c>
       <c r="B501" s="21" t="s">
         <v>2068</v>
       </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C501" s="44" t="s">
+        <v>5241</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A502" s="8">
         <v>501</v>
       </c>
       <c r="B502" s="21" t="s">
         <v>1905</v>
       </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C502" s="44" t="s">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A503" s="8">
         <v>502</v>
       </c>
       <c r="B503" s="21" t="s">
         <v>1912</v>
       </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C503" s="44" t="s">
+        <v>4927</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A504" s="8">
         <v>503</v>
       </c>
       <c r="B504" s="21" t="s">
         <v>3542</v>
       </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C504" s="44" t="s">
+        <v>5233</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A505" s="8">
         <v>504</v>
       </c>
       <c r="B505" s="21" t="s">
         <v>1906</v>
       </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C505" s="44" t="s">
+        <v>5242</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A506" s="8">
         <v>505</v>
       </c>
       <c r="B506" s="21" t="s">
         <v>3543</v>
       </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C506" s="44" t="s">
+        <v>5243</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A507" s="8">
         <v>506</v>
       </c>
       <c r="B507" s="21" t="s">
         <v>1901</v>
       </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C507" s="44" t="s">
+        <v>4978</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A508" s="8">
         <v>507</v>
       </c>
       <c r="B508" s="21" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C508" s="44" t="s">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A509" s="8">
         <v>508</v>
       </c>
       <c r="B509" s="21" t="s">
         <v>1901</v>
       </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C509" s="44" t="s">
+        <v>4978</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A510" s="8">
         <v>509</v>
       </c>
       <c r="B510" s="21" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C510" s="44" t="s">
+        <v>5244</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A511" s="8">
         <v>510</v>
       </c>
       <c r="B511" s="21" t="s">
         <v>3544</v>
       </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C511" s="44" t="s">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A512" s="8">
         <v>511</v>
       </c>
       <c r="B512" s="21" t="s">
         <v>2051</v>
       </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C512" s="44" t="s">
+        <v>5246</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A513" s="8">
         <v>512</v>
       </c>
       <c r="B513" s="21" t="s">
         <v>2092</v>
       </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C513" s="44" t="s">
+        <v>5247</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A514" s="8">
         <v>513</v>
       </c>
       <c r="B514" s="21" t="s">
         <v>2093</v>
       </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C514" s="44" t="s">
+        <v>5248</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A515" s="8">
         <v>514</v>
       </c>
       <c r="B515" s="21" t="s">
         <v>3536</v>
       </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C515" s="44" t="s">
+        <v>5249</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A516" s="8">
         <v>515</v>
       </c>
       <c r="B516" s="21" t="s">
         <v>1901</v>
       </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C516" s="44" t="s">
+        <v>4978</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A517" s="8">
         <v>516</v>
       </c>
       <c r="B517" s="21" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C517" s="44" t="s">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A518" s="8">
         <v>517</v>
       </c>
       <c r="B518" s="21" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C518" s="44" t="s">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A519" s="8">
         <v>518</v>
       </c>
       <c r="B519" s="21" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C519" s="44" t="s">
+        <v>5083</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A520" s="8">
         <v>519</v>
       </c>
       <c r="B520" s="21" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C520" s="44" t="s">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A521" s="8">
         <v>520</v>
       </c>
       <c r="B521" s="21" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C521" s="44" t="s">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A522" s="8">
         <v>521</v>
       </c>
       <c r="B522" s="21" t="s">
         <v>3545</v>
       </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C522" s="44" t="s">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A523" s="8">
         <v>522</v>
       </c>
       <c r="B523" s="21" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C523" s="44" t="s">
+        <v>5251</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A524" s="8">
         <v>523</v>
       </c>
       <c r="B524" s="21" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C524" s="44" t="s">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A525" s="8">
         <v>524</v>
       </c>
       <c r="B525" s="21" t="s">
         <v>3546</v>
       </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C525" s="44" t="s">
+        <v>5252</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A526" s="8">
         <v>525</v>
       </c>
       <c r="B526" s="21" t="s">
         <v>3547</v>
       </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C526" s="44" t="s">
+        <v>5253</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A527" s="8">
         <v>526</v>
       </c>
       <c r="B527" s="21" t="s">
         <v>3548</v>
       </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C527" s="44" t="s">
+        <v>5254</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A528" s="8">
         <v>527</v>
       </c>
       <c r="B528" s="21" t="s">
         <v>3549</v>
       </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C528" s="44" t="s">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A529" s="8">
         <v>528</v>
       </c>
       <c r="B529" s="21" t="s">
         <v>3550</v>
       </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C529" s="44" t="s">
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A530" s="8">
         <v>529</v>
       </c>
       <c r="B530" s="21" t="s">
         <v>3551</v>
       </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C530" s="44" t="s">
+        <v>5257</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A531" s="8">
         <v>530</v>
       </c>
       <c r="B531" s="21" t="s">
         <v>1925</v>
       </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C531" s="44" t="s">
+        <v>5258</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A532" s="8">
         <v>531</v>
       </c>
       <c r="B532" s="21" t="s">
         <v>3552</v>
       </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C532" s="44" t="s">
+        <v>5259</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A533" s="8">
         <v>532</v>
       </c>
       <c r="B533" s="21" t="s">
         <v>3373</v>
       </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C533" s="44" t="s">
+        <v>4926</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A534" s="8">
         <v>533</v>
       </c>
       <c r="B534" s="21" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C534" s="44" t="s">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A535" s="8">
         <v>534</v>
       </c>
       <c r="B535" s="21" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C535" s="44" t="s">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A536" s="8">
         <v>535</v>
       </c>
       <c r="B536" s="21" t="s">
         <v>3553</v>
       </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C536" s="44" t="s">
+        <v>5261</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A537" s="8">
         <v>536</v>
       </c>
       <c r="B537" s="21" t="s">
         <v>3554</v>
       </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C537" s="44" t="s">
+        <v>5262</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A538" s="8">
         <v>537</v>
       </c>
       <c r="B538" s="21" t="s">
         <v>3555</v>
       </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C538" s="44" t="s">
+        <v>5263</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A539" s="8">
         <v>538</v>
       </c>
       <c r="B539" s="21" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C539" s="44" t="s">
+        <v>4959</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A540" s="8">
         <v>539</v>
       </c>
       <c r="B540" s="21" t="s">
         <v>3556</v>
       </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C540" s="44" t="s">
+        <v>5264</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A541" s="8">
         <v>540</v>
       </c>
       <c r="B541" s="21" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C541" s="44" t="s">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A542" s="8">
         <v>541</v>
       </c>
       <c r="B542" s="21" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C542" s="44" t="s">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A543" s="8">
         <v>542</v>
       </c>
       <c r="B543" s="21" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C543" s="44" t="s">
+        <v>4996</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A544" s="8">
         <v>543</v>
       </c>
       <c r="B544" s="21" t="s">
         <v>3557</v>
       </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C544" s="44" t="s">
+        <v>5265</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A545" s="8">
         <v>544</v>
       </c>
       <c r="B545" s="21" t="s">
         <v>1906</v>
       </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C545" s="44" t="s">
+        <v>5266</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A546" s="8">
         <v>545</v>
       </c>
       <c r="B546" s="21" t="s">
         <v>1910</v>
       </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C546" s="44" t="s">
+        <v>4931</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A547" s="8">
         <v>546</v>
       </c>
       <c r="B547" s="21" t="s">
         <v>3434</v>
       </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C547" s="44" t="s">
+        <v>5267</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A548" s="8">
         <v>547</v>
       </c>
       <c r="B548" s="21" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C548" s="44" t="s">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A549" s="8">
         <v>548</v>
       </c>
       <c r="B549" s="21" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C549" s="44" t="s">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A550" s="8">
         <v>549</v>
       </c>
       <c r="B550" s="21" t="s">
         <v>3558</v>
       </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C550" s="44" t="s">
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A551" s="8">
         <v>550</v>
       </c>
       <c r="B551" s="21" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C551" s="44" t="s">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A552" s="8">
         <v>551</v>
       </c>
       <c r="B552" s="21" t="s">
         <v>1912</v>
       </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C552" s="44" t="s">
+        <v>4927</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A553" s="8">
         <v>552</v>
       </c>
       <c r="B553" s="21" t="s">
         <v>3559</v>
       </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C553" s="44" t="s">
+        <v>5269</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A554" s="8">
         <v>553</v>
       </c>
       <c r="B554" s="21" t="s">
         <v>1921</v>
       </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C554" s="44" t="s">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A555" s="8">
         <v>554</v>
       </c>
       <c r="B555" s="21" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C555" s="44" t="s">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A556" s="8">
         <v>555</v>
       </c>
       <c r="B556" s="21" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C556" s="44" t="s">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A557" s="8">
         <v>556</v>
       </c>
       <c r="B557" s="21" t="s">
         <v>3560</v>
       </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C557" s="44" t="s">
+        <v>5271</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A558" s="8">
         <v>557</v>
       </c>
       <c r="B558" s="21" t="s">
         <v>3561</v>
       </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C558" s="44" t="s">
+        <v>5233</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A559" s="8">
         <v>558</v>
       </c>
       <c r="B559" s="21" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C559" s="44" t="s">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A560" s="8">
         <v>559</v>
       </c>
       <c r="B560" s="21" t="s">
         <v>3562</v>
       </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C560" s="44" t="s">
+        <v>5272</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A561" s="8">
         <v>560</v>
       </c>
       <c r="B561" s="21" t="s">
         <v>3563</v>
       </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C561" s="44" t="s">
+        <v>5273</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A562" s="8">
         <v>561</v>
       </c>
       <c r="B562" s="21" t="s">
         <v>3564</v>
       </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C562" s="44" t="s">
+        <v>5274</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A563" s="8">
         <v>562</v>
       </c>
       <c r="B563" s="21" t="s">
         <v>3565</v>
       </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C563" s="44" t="s">
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A564" s="8">
         <v>563</v>
       </c>
       <c r="B564" s="21" t="s">
         <v>3566</v>
       </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C564" s="44" t="s">
+        <v>5276</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A565" s="8">
         <v>564</v>
       </c>
       <c r="B565" s="21" t="s">
         <v>3567</v>
       </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C565" s="44" t="s">
+        <v>5277</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A566" s="8">
         <v>565</v>
       </c>
       <c r="B566" s="21" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C566" s="44" t="s">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A567" s="8">
         <v>566</v>
       </c>
       <c r="B567" s="21" t="s">
         <v>3568</v>
       </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C567" s="44" t="s">
+        <v>5278</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A568" s="8">
         <v>567</v>
       </c>
       <c r="B568" s="21" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C568" s="44" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A569" s="8">
         <v>568</v>
       </c>
       <c r="B569" s="21" t="s">
         <v>3376</v>
       </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C569" s="44" t="s">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A570" s="8">
         <v>569</v>
       </c>
       <c r="B570" s="21" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C570" s="44" t="s">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A571" s="8">
         <v>570</v>
       </c>
       <c r="B571" s="21" t="s">
         <v>3479</v>
       </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C571" s="44" t="s">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A572" s="8">
         <v>571</v>
       </c>
       <c r="B572" s="21" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C572" s="44" t="s">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A573" s="8">
         <v>572</v>
       </c>
       <c r="B573" s="21" t="s">
         <v>3569</v>
       </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C573" s="44" t="s">
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A574" s="8">
         <v>573</v>
       </c>
       <c r="B574" s="21" t="s">
         <v>3570</v>
       </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C574" s="44" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A575" s="8">
         <v>574</v>
       </c>
       <c r="B575" s="21" t="s">
         <v>3571</v>
       </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C575" s="44" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A576" s="8">
         <v>575</v>
       </c>
       <c r="B576" s="21" t="s">
         <v>2084</v>
       </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C576" s="44" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A577" s="8">
         <v>576</v>
       </c>
       <c r="B577" s="21" t="s">
         <v>2111</v>
+      </c>
+      <c r="C577" s="44" t="s">
+        <v>5283</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/TDE5_de-DE.xlsx
+++ b/src/data/TDE5_de-DE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7755" firstSheet="13" activeTab="20" xr2:uid="{20ED8CD0-32B3-4B44-9637-7F04B1E30A79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7755" firstSheet="1" activeTab="3" xr2:uid="{20ED8CD0-32B3-4B44-9637-7F04B1E30A79}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="30" r:id="rId1"/>
@@ -51523,7 +51523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDF849A-84B1-4731-B5ED-CC1BDC8FBE84}">
   <dimension ref="A1:C577"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C577"/>
     </sheetView>
   </sheetViews>
@@ -62640,8 +62640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -63621,7 +63621,7 @@
         <v>4453</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>4453</v>
+        <v>4545</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16" t="s">

--- a/src/data/TDE5_de-DE.xlsx
+++ b/src/data/TDE5_de-DE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7755" firstSheet="1" activeTab="3" xr2:uid="{20ED8CD0-32B3-4B44-9637-7F04B1E30A79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7755" xr2:uid="{20ED8CD0-32B3-4B44-9637-7F04B1E30A79}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="30" r:id="rId1"/>
@@ -13794,12 +13794,6 @@
     <t>ABE</t>
   </si>
   <si>
-    <t>AMI</t>
-  </si>
-  <si>
-    <t>AGW</t>
-  </si>
-  <si>
     <t>US25002</t>
   </si>
   <si>
@@ -13812,12 +13806,6 @@
     <t>RW</t>
   </si>
   <si>
-    <t>AMII</t>
-  </si>
-  <si>
-    <t>Aventurische Magie II</t>
-  </si>
-  <si>
     <t>SWK</t>
   </si>
   <si>
@@ -14826,9 +14814,6 @@
     <t>Zielkategorie Objekt</t>
   </si>
   <si>
-    <t>US25006</t>
-  </si>
-  <si>
     <t>Aventurisches Götterwirken</t>
   </si>
   <si>
@@ -15931,6 +15916,21 @@
   </si>
   <si>
     <t>Der Geweihte kann beliebig viele Ziele gleichzeitig weihen. Jedes Ziel nach dem ersten kostet zusätzlich 8 KaP und 2 permanente KaP.</t>
+  </si>
+  <si>
+    <t>US25514</t>
+  </si>
+  <si>
+    <t>K&amp;T</t>
+  </si>
+  <si>
+    <t>Kneipen &amp; Tavernen</t>
+  </si>
+  <si>
+    <t>AGÖ</t>
+  </si>
+  <si>
+    <t>AMAI</t>
   </si>
 </sst>
 </file>
@@ -18399,14 +18399,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1328125" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18426,7 +18426,7 @@
         <v>2119</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>4576</v>
+        <v>4574</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2120</v>
@@ -18434,13 +18434,13 @@
     </row>
     <row r="3" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
+        <v>4571</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>4573</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>4574</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>4575</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -18459,7 +18459,7 @@
         <v>2123</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>4571</v>
+        <v>5283</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2124</v>
@@ -18470,65 +18470,65 @@
         <v>2125</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>4572</v>
+        <v>5282</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4916</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="17" t="s">
-        <v>4915</v>
+        <v>4911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>2126</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>4577</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>4578</v>
+        <v>4576</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2127</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>4580</v>
+        <v>4575</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>4579</v>
+        <v>4570</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>4570</v>
+        <v>4577</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>2132</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>4581</v>
-      </c>
-      <c r="C11" s="1" t="s">
         <v>2133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="44" t="s">
+        <v>5279</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>5280</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>5281</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -18536,7 +18536,7 @@
         <v>2134</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>4582</v>
+        <v>4578</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2135</v>
@@ -46404,7 +46404,7 @@
         <v>1894</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>4583</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -46415,7 +46415,7 @@
         <v>1895</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>4584</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -46426,7 +46426,7 @@
         <v>1896</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>4585</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -46437,7 +46437,7 @@
         <v>1897</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>4586</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -46448,7 +46448,7 @@
         <v>1898</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>4587</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -46459,7 +46459,7 @@
         <v>1899</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>4588</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -46470,7 +46470,7 @@
         <v>1900</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>4589</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -46481,7 +46481,7 @@
         <v>1901</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -46492,7 +46492,7 @@
         <v>1902</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>4591</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -46500,10 +46500,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>4914</v>
+        <v>4910</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>4592</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -46514,7 +46514,7 @@
         <v>1903</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>4593</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -46525,7 +46525,7 @@
         <v>1904</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>4594</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -46536,7 +46536,7 @@
         <v>1905</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>4595</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -46547,7 +46547,7 @@
         <v>1906</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>4596</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -46558,7 +46558,7 @@
         <v>1907</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>4597</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -46569,7 +46569,7 @@
         <v>1896</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>4598</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -46580,7 +46580,7 @@
         <v>1908</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>4599</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -46591,7 +46591,7 @@
         <v>1909</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>4600</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -46602,7 +46602,7 @@
         <v>1910</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>4601</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -46613,7 +46613,7 @@
         <v>1911</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>4602</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -46624,7 +46624,7 @@
         <v>1895</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>4603</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -46635,7 +46635,7 @@
         <v>1912</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>4604</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -46646,7 +46646,7 @@
         <v>1913</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>4605</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -46657,7 +46657,7 @@
         <v>1905</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>4606</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -46668,7 +46668,7 @@
         <v>1914</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>4607</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -46679,7 +46679,7 @@
         <v>1915</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>4608</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -46690,7 +46690,7 @@
         <v>1905</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>4609</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -46701,7 +46701,7 @@
         <v>1916</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>4610</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -46712,7 +46712,7 @@
         <v>1917</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>4611</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -46723,7 +46723,7 @@
         <v>1895</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>4612</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
@@ -46734,7 +46734,7 @@
         <v>1918</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>4613</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -46745,7 +46745,7 @@
         <v>1919</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>4614</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -46756,7 +46756,7 @@
         <v>1920</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>4615</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -46767,7 +46767,7 @@
         <v>1910</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>4616</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -46778,7 +46778,7 @@
         <v>1921</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>4617</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -46789,7 +46789,7 @@
         <v>1901</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -46800,7 +46800,7 @@
         <v>1910</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>4616</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -46811,7 +46811,7 @@
         <v>1921</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>4617</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -46822,7 +46822,7 @@
         <v>1901</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -46833,7 +46833,7 @@
         <v>1910</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>4616</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -46844,7 +46844,7 @@
         <v>1921</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>4617</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
@@ -46855,7 +46855,7 @@
         <v>1901</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -46866,7 +46866,7 @@
         <v>1910</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>4616</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -46877,7 +46877,7 @@
         <v>1921</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>4617</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -46888,7 +46888,7 @@
         <v>1901</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -46899,7 +46899,7 @@
         <v>1905</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>4618</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -46910,7 +46910,7 @@
         <v>1906</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>4619</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -46921,7 +46921,7 @@
         <v>1922</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>4620</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -46932,7 +46932,7 @@
         <v>1923</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>4621</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -46943,7 +46943,7 @@
         <v>1924</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>4622</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -46954,7 +46954,7 @@
         <v>1925</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>4623</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -46965,7 +46965,7 @@
         <v>1918</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>4613</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -46976,7 +46976,7 @@
         <v>1919</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>4614</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
@@ -46987,7 +46987,7 @@
         <v>1920</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>4615</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
@@ -46998,7 +46998,7 @@
         <v>1918</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>4613</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -47009,7 +47009,7 @@
         <v>1919</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>4614</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
@@ -47020,7 +47020,7 @@
         <v>1920</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>4615</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -47031,7 +47031,7 @@
         <v>1926</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>4624</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -47042,7 +47042,7 @@
         <v>1927</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>4625</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
@@ -47053,7 +47053,7 @@
         <v>1928</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>4626</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -47064,7 +47064,7 @@
         <v>1929</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>4627</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
@@ -47075,7 +47075,7 @@
         <v>1905</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>4628</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
@@ -47086,7 +47086,7 @@
         <v>1906</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>4629</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
@@ -47097,7 +47097,7 @@
         <v>1910</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>4630</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
@@ -47108,7 +47108,7 @@
         <v>1930</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>4631</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
@@ -47119,7 +47119,7 @@
         <v>1905</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>4632</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
@@ -47130,7 +47130,7 @@
         <v>1931</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>4633</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
@@ -47141,7 +47141,7 @@
         <v>1932</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>4634</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
@@ -47152,7 +47152,7 @@
         <v>1896</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>4598</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
@@ -47163,7 +47163,7 @@
         <v>1933</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>4635</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
@@ -47174,7 +47174,7 @@
         <v>1934</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>4636</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
@@ -47185,7 +47185,7 @@
         <v>1935</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>4637</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
@@ -47193,10 +47193,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>4914</v>
+        <v>4910</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>4638</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
@@ -47207,7 +47207,7 @@
         <v>1936</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>4639</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
@@ -47218,7 +47218,7 @@
         <v>1937</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>4640</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
@@ -47229,7 +47229,7 @@
         <v>1938</v>
       </c>
       <c r="C77" s="42" t="s">
-        <v>4641</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
@@ -47240,7 +47240,7 @@
         <v>1939</v>
       </c>
       <c r="C78" s="42" t="s">
-        <v>4642</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
@@ -47251,7 +47251,7 @@
         <v>1940</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>4643</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
@@ -47262,7 +47262,7 @@
         <v>1941</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>4644</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
@@ -47273,7 +47273,7 @@
         <v>1895</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>4584</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
@@ -47284,7 +47284,7 @@
         <v>1896</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>4585</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
@@ -47295,7 +47295,7 @@
         <v>1942</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>4645</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
@@ -47306,7 +47306,7 @@
         <v>1943</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>4646</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
@@ -47317,7 +47317,7 @@
         <v>1944</v>
       </c>
       <c r="C85" s="42" t="s">
-        <v>4647</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
@@ -47328,7 +47328,7 @@
         <v>1945</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>4648</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
@@ -47339,7 +47339,7 @@
         <v>1946</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>4649</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
@@ -47350,7 +47350,7 @@
         <v>1947</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>4650</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
@@ -47361,7 +47361,7 @@
         <v>1895</v>
       </c>
       <c r="C89" s="42" t="s">
-        <v>4651</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
@@ -47372,7 +47372,7 @@
         <v>1948</v>
       </c>
       <c r="C90" s="42" t="s">
-        <v>4652</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
@@ -47383,7 +47383,7 @@
         <v>1901</v>
       </c>
       <c r="C91" s="42" t="s">
-        <v>4653</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
@@ -47394,7 +47394,7 @@
         <v>1949</v>
       </c>
       <c r="C92" s="42" t="s">
-        <v>4654</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
@@ -47405,7 +47405,7 @@
         <v>1901</v>
       </c>
       <c r="C93" s="42" t="s">
-        <v>4655</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
@@ -47416,7 +47416,7 @@
         <v>1950</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>4656</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
@@ -47427,7 +47427,7 @@
         <v>1938</v>
       </c>
       <c r="C95" s="41" t="s">
-        <v>4641</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
@@ -47438,7 +47438,7 @@
         <v>1939</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>4642</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
@@ -47449,7 +47449,7 @@
         <v>1940</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>4643</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
@@ -47460,7 +47460,7 @@
         <v>1951</v>
       </c>
       <c r="C98" s="41" t="s">
-        <v>4657</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
@@ -47471,7 +47471,7 @@
         <v>1952</v>
       </c>
       <c r="C99" s="42" t="s">
-        <v>4658</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
@@ -47482,7 +47482,7 @@
         <v>1947</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>4659</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
@@ -47493,7 +47493,7 @@
         <v>1938</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>4641</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
@@ -47504,7 +47504,7 @@
         <v>1939</v>
       </c>
       <c r="C102" s="42" t="s">
-        <v>4642</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
@@ -47515,7 +47515,7 @@
         <v>1940</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>4643</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
@@ -47526,7 +47526,7 @@
         <v>1953</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>4660</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
@@ -47537,7 +47537,7 @@
         <v>1954</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>4661</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
@@ -47548,7 +47548,7 @@
         <v>1955</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>4662</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
@@ -47559,7 +47559,7 @@
         <v>1933</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>4663</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
@@ -47570,7 +47570,7 @@
         <v>1934</v>
       </c>
       <c r="C108" s="42" t="s">
-        <v>4664</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
@@ -47581,7 +47581,7 @@
         <v>1935</v>
       </c>
       <c r="C109" s="42" t="s">
-        <v>4665</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
@@ -47592,7 +47592,7 @@
         <v>1956</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>4666</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
@@ -47603,7 +47603,7 @@
         <v>1957</v>
       </c>
       <c r="C111" s="42" t="s">
-        <v>4667</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
@@ -47614,7 +47614,7 @@
         <v>1958</v>
       </c>
       <c r="C112" s="42" t="s">
-        <v>4668</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
@@ -47625,7 +47625,7 @@
         <v>1959</v>
       </c>
       <c r="C113" s="42" t="s">
-        <v>4669</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
@@ -47636,7 +47636,7 @@
         <v>1960</v>
       </c>
       <c r="C114" s="42" t="s">
-        <v>4670</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
@@ -47647,7 +47647,7 @@
         <v>1896</v>
       </c>
       <c r="C115" s="42" t="s">
-        <v>4598</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
@@ -47658,7 +47658,7 @@
         <v>1900</v>
       </c>
       <c r="C116" s="42" t="s">
-        <v>4671</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
@@ -47669,7 +47669,7 @@
         <v>1901</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
@@ -47680,7 +47680,7 @@
         <v>1902</v>
       </c>
       <c r="C118" s="42" t="s">
-        <v>4672</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
@@ -47691,7 +47691,7 @@
         <v>1961</v>
       </c>
       <c r="C119" s="42" t="s">
-        <v>4673</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
@@ -47702,7 +47702,7 @@
         <v>1962</v>
       </c>
       <c r="C120" s="42" t="s">
-        <v>4674</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
@@ -47713,7 +47713,7 @@
         <v>1963</v>
       </c>
       <c r="C121" s="42" t="s">
-        <v>4675</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
@@ -47724,7 +47724,7 @@
         <v>1964</v>
       </c>
       <c r="C122" s="42" t="s">
-        <v>4676</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
@@ -47735,7 +47735,7 @@
         <v>1965</v>
       </c>
       <c r="C123" s="42" t="s">
-        <v>4677</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
@@ -47746,7 +47746,7 @@
         <v>1966</v>
       </c>
       <c r="C124" s="42" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
@@ -47757,7 +47757,7 @@
         <v>1953</v>
       </c>
       <c r="C125" s="42" t="s">
-        <v>4679</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
@@ -47768,7 +47768,7 @@
         <v>1954</v>
       </c>
       <c r="C126" s="42" t="s">
-        <v>4661</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
@@ -47779,7 +47779,7 @@
         <v>1955</v>
       </c>
       <c r="C127" s="42" t="s">
-        <v>4680</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
@@ -47790,7 +47790,7 @@
         <v>1967</v>
       </c>
       <c r="C128" s="42" t="s">
-        <v>4681</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
@@ -47801,7 +47801,7 @@
         <v>1968</v>
       </c>
       <c r="C129" s="42" t="s">
-        <v>4682</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
@@ -47812,7 +47812,7 @@
         <v>1969</v>
       </c>
       <c r="C130" s="42" t="s">
-        <v>4683</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
@@ -47823,7 +47823,7 @@
         <v>1970</v>
       </c>
       <c r="C131" s="42" t="s">
-        <v>4684</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
@@ -47834,7 +47834,7 @@
         <v>1911</v>
       </c>
       <c r="C132" s="42" t="s">
-        <v>4685</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
@@ -47845,7 +47845,7 @@
         <v>1971</v>
       </c>
       <c r="C133" s="42" t="s">
-        <v>4686</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
@@ -47856,7 +47856,7 @@
         <v>1938</v>
       </c>
       <c r="C134" s="42" t="s">
-        <v>4641</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
@@ -47867,7 +47867,7 @@
         <v>1939</v>
       </c>
       <c r="C135" s="42" t="s">
-        <v>4642</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
@@ -47878,7 +47878,7 @@
         <v>1940</v>
       </c>
       <c r="C136" s="42" t="s">
-        <v>4643</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
@@ -47889,7 +47889,7 @@
         <v>1938</v>
       </c>
       <c r="C137" s="42" t="s">
-        <v>4641</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
@@ -47900,7 +47900,7 @@
         <v>1939</v>
       </c>
       <c r="C138" s="42" t="s">
-        <v>4642</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
@@ -47911,7 +47911,7 @@
         <v>1940</v>
       </c>
       <c r="C139" s="42" t="s">
-        <v>4643</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
@@ -47922,7 +47922,7 @@
         <v>1952</v>
       </c>
       <c r="C140" s="42" t="s">
-        <v>4687</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
@@ -47933,7 +47933,7 @@
         <v>1972</v>
       </c>
       <c r="C141" s="42" t="s">
-        <v>4688</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
@@ -47944,7 +47944,7 @@
         <v>1973</v>
       </c>
       <c r="C142" s="42" t="s">
-        <v>4689</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
@@ -47955,7 +47955,7 @@
         <v>1974</v>
       </c>
       <c r="C143" s="42" t="s">
-        <v>4690</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
@@ -47966,7 +47966,7 @@
         <v>1975</v>
       </c>
       <c r="C144" s="42" t="s">
-        <v>4691</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
@@ -47977,7 +47977,7 @@
         <v>1976</v>
       </c>
       <c r="C145" s="42" t="s">
-        <v>4692</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
@@ -47988,7 +47988,7 @@
         <v>1952</v>
       </c>
       <c r="C146" s="42" t="s">
-        <v>4687</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
@@ -47999,7 +47999,7 @@
         <v>1977</v>
       </c>
       <c r="C147" s="42" t="s">
-        <v>4693</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
@@ -48010,7 +48010,7 @@
         <v>1978</v>
       </c>
       <c r="C148" s="42" t="s">
-        <v>4694</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
@@ -48021,7 +48021,7 @@
         <v>1979</v>
       </c>
       <c r="C149" s="42" t="s">
-        <v>4695</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
@@ -48032,7 +48032,7 @@
         <v>1980</v>
       </c>
       <c r="C150" s="42" t="s">
-        <v>4696</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
@@ -48043,7 +48043,7 @@
         <v>1981</v>
       </c>
       <c r="C151" s="42" t="s">
-        <v>4697</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
@@ -48054,7 +48054,7 @@
         <v>1916</v>
       </c>
       <c r="C152" s="42" t="s">
-        <v>4698</v>
+        <v>4694</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
@@ -48065,7 +48065,7 @@
         <v>1917</v>
       </c>
       <c r="C153" s="42" t="s">
-        <v>4699</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
@@ -48076,7 +48076,7 @@
         <v>1895</v>
       </c>
       <c r="C154" s="42" t="s">
-        <v>4700</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
@@ -48087,7 +48087,7 @@
         <v>1910</v>
       </c>
       <c r="C155" s="42" t="s">
-        <v>4630</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
@@ -48098,7 +48098,7 @@
         <v>1982</v>
       </c>
       <c r="C156" s="42" t="s">
-        <v>4701</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
@@ -48109,7 +48109,7 @@
         <v>1983</v>
       </c>
       <c r="C157" s="42" t="s">
-        <v>4702</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
@@ -48120,7 +48120,7 @@
         <v>1938</v>
       </c>
       <c r="C158" s="42" t="s">
-        <v>4641</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
@@ -48131,7 +48131,7 @@
         <v>1939</v>
       </c>
       <c r="C159" s="42" t="s">
-        <v>4642</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
@@ -48142,7 +48142,7 @@
         <v>1940</v>
       </c>
       <c r="C160" s="42" t="s">
-        <v>4643</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
@@ -48153,7 +48153,7 @@
         <v>1984</v>
       </c>
       <c r="C161" s="42" t="s">
-        <v>4703</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.45">
@@ -48164,7 +48164,7 @@
         <v>1985</v>
       </c>
       <c r="C162" s="42" t="s">
-        <v>4704</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.45">
@@ -48175,7 +48175,7 @@
         <v>1986</v>
       </c>
       <c r="C163" s="42" t="s">
-        <v>4705</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
@@ -48186,7 +48186,7 @@
         <v>1918</v>
       </c>
       <c r="C164" s="42" t="s">
-        <v>4613</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.45">
@@ -48197,7 +48197,7 @@
         <v>1919</v>
       </c>
       <c r="C165" s="42" t="s">
-        <v>4614</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.45">
@@ -48208,7 +48208,7 @@
         <v>1920</v>
       </c>
       <c r="C166" s="42" t="s">
-        <v>4615</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.45">
@@ -48216,10 +48216,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>4914</v>
+        <v>4910</v>
       </c>
       <c r="C167" s="42" t="s">
-        <v>4706</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.45">
@@ -48230,7 +48230,7 @@
         <v>1987</v>
       </c>
       <c r="C168" s="42" t="s">
-        <v>4707</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.45">
@@ -48241,7 +48241,7 @@
         <v>1988</v>
       </c>
       <c r="C169" s="42" t="s">
-        <v>4708</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.45">
@@ -48252,7 +48252,7 @@
         <v>1989</v>
       </c>
       <c r="C170" s="42" t="s">
-        <v>4709</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.45">
@@ -48263,7 +48263,7 @@
         <v>1990</v>
       </c>
       <c r="C171" s="42" t="s">
-        <v>4710</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.45">
@@ -48274,7 +48274,7 @@
         <v>1991</v>
       </c>
       <c r="C172" s="42" t="s">
-        <v>4711</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.45">
@@ -48285,7 +48285,7 @@
         <v>1992</v>
       </c>
       <c r="C173" s="42" t="s">
-        <v>4712</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.45">
@@ -48296,7 +48296,7 @@
         <v>1993</v>
       </c>
       <c r="C174" s="42" t="s">
-        <v>4713</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.45">
@@ -48307,7 +48307,7 @@
         <v>1994</v>
       </c>
       <c r="C175" s="42" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.45">
@@ -48318,7 +48318,7 @@
         <v>1897</v>
       </c>
       <c r="C176" s="42" t="s">
-        <v>4715</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.45">
@@ -48329,7 +48329,7 @@
         <v>1995</v>
       </c>
       <c r="C177" s="42" t="s">
-        <v>4588</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.45">
@@ -48340,7 +48340,7 @@
         <v>1905</v>
       </c>
       <c r="C178" s="42" t="s">
-        <v>4609</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.45">
@@ -48351,7 +48351,7 @@
         <v>1913</v>
       </c>
       <c r="C179" s="42" t="s">
-        <v>4716</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.45">
@@ -48362,7 +48362,7 @@
         <v>1996</v>
       </c>
       <c r="C180" s="42" t="s">
-        <v>4717</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.45">
@@ -48373,7 +48373,7 @@
         <v>1905</v>
       </c>
       <c r="C181" s="42" t="s">
-        <v>4595</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.45">
@@ -48384,7 +48384,7 @@
         <v>1933</v>
       </c>
       <c r="C182" s="42" t="s">
-        <v>4718</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.45">
@@ -48395,7 +48395,7 @@
         <v>1997</v>
       </c>
       <c r="C183" s="42" t="s">
-        <v>4697</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.45">
@@ -48406,7 +48406,7 @@
         <v>1934</v>
       </c>
       <c r="C184" s="42" t="s">
-        <v>4719</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.45">
@@ -48417,7 +48417,7 @@
         <v>1896</v>
       </c>
       <c r="C185" s="42" t="s">
-        <v>4598</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.45">
@@ -48428,7 +48428,7 @@
         <v>1998</v>
       </c>
       <c r="C186" s="42" t="s">
-        <v>4720</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.45">
@@ -48439,7 +48439,7 @@
         <v>1911</v>
       </c>
       <c r="C187" s="42" t="s">
-        <v>4602</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.45">
@@ -48450,7 +48450,7 @@
         <v>1918</v>
       </c>
       <c r="C188" s="42" t="s">
-        <v>4613</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.45">
@@ -48461,7 +48461,7 @@
         <v>1919</v>
       </c>
       <c r="C189" s="42" t="s">
-        <v>4614</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.45">
@@ -48472,7 +48472,7 @@
         <v>1920</v>
       </c>
       <c r="C190" s="42" t="s">
-        <v>4721</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.45">
@@ -48483,7 +48483,7 @@
         <v>1999</v>
       </c>
       <c r="C191" s="41" t="s">
-        <v>4722</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.45">
@@ -48494,7 +48494,7 @@
         <v>2000</v>
       </c>
       <c r="C192" s="42" t="s">
-        <v>4723</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.45">
@@ -48505,7 +48505,7 @@
         <v>1911</v>
       </c>
       <c r="C193" s="42" t="s">
-        <v>4724</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.45">
@@ -48516,7 +48516,7 @@
         <v>1918</v>
       </c>
       <c r="C194" s="42" t="s">
-        <v>4613</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.45">
@@ -48527,7 +48527,7 @@
         <v>1919</v>
       </c>
       <c r="C195" s="42" t="s">
-        <v>4614</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.45">
@@ -48538,7 +48538,7 @@
         <v>1920</v>
       </c>
       <c r="C196" s="42" t="s">
-        <v>4615</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.45">
@@ -48549,7 +48549,7 @@
         <v>2001</v>
       </c>
       <c r="C197" s="41" t="s">
-        <v>4725</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.45">
@@ -48560,7 +48560,7 @@
         <v>2002</v>
       </c>
       <c r="C198" s="42" t="s">
-        <v>4726</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.45">
@@ -48571,7 +48571,7 @@
         <v>2003</v>
       </c>
       <c r="C199" s="42" t="s">
-        <v>4727</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.45">
@@ -48582,7 +48582,7 @@
         <v>1996</v>
       </c>
       <c r="C200" s="41" t="s">
-        <v>4728</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.45">
@@ -48593,7 +48593,7 @@
         <v>1901</v>
       </c>
       <c r="C201" s="42" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.45">
@@ -48604,7 +48604,7 @@
         <v>2004</v>
       </c>
       <c r="C202" s="42" t="s">
-        <v>4729</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.45">
@@ -48615,7 +48615,7 @@
         <v>1911</v>
       </c>
       <c r="C203" s="42" t="s">
-        <v>4730</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.45">
@@ -48626,7 +48626,7 @@
         <v>2005</v>
       </c>
       <c r="C204" s="42" t="s">
-        <v>4731</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.45">
@@ -48637,7 +48637,7 @@
         <v>2006</v>
       </c>
       <c r="C205" s="42" t="s">
-        <v>4732</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.45">
@@ -48648,7 +48648,7 @@
         <v>1938</v>
       </c>
       <c r="C206" s="42" t="s">
-        <v>4641</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.45">
@@ -48659,7 +48659,7 @@
         <v>1939</v>
       </c>
       <c r="C207" s="42" t="s">
-        <v>4642</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.45">
@@ -48670,7 +48670,7 @@
         <v>1940</v>
       </c>
       <c r="C208" s="42" t="s">
-        <v>4643</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.45">
@@ -48681,7 +48681,7 @@
         <v>1933</v>
       </c>
       <c r="C209" s="42" t="s">
-        <v>4733</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.45">
@@ -48692,7 +48692,7 @@
         <v>1934</v>
       </c>
       <c r="C210" s="42" t="s">
-        <v>4734</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.45">
@@ -48703,7 +48703,7 @@
         <v>1935</v>
       </c>
       <c r="C211" s="42" t="s">
-        <v>4735</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.45">
@@ -48714,7 +48714,7 @@
         <v>1914</v>
       </c>
       <c r="C212" s="41" t="s">
-        <v>4736</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.45">
@@ -48725,7 +48725,7 @@
         <v>1915</v>
       </c>
       <c r="C213" s="42" t="s">
-        <v>4608</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.45">
@@ -48736,7 +48736,7 @@
         <v>1905</v>
       </c>
       <c r="C214" s="42" t="s">
-        <v>4609</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.45">
@@ -48747,7 +48747,7 @@
         <v>1916</v>
       </c>
       <c r="C215" s="42" t="s">
-        <v>4737</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.45">
@@ -48758,7 +48758,7 @@
         <v>1917</v>
       </c>
       <c r="C216" s="42" t="s">
-        <v>4699</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.45">
@@ -48769,7 +48769,7 @@
         <v>1895</v>
       </c>
       <c r="C217" s="43" t="s">
-        <v>4700</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.45">
@@ -48780,7 +48780,7 @@
         <v>1952</v>
       </c>
       <c r="C218" s="43" t="s">
-        <v>4687</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.45">
@@ -48791,7 +48791,7 @@
         <v>2007</v>
       </c>
       <c r="C219" s="42" t="s">
-        <v>4738</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.45">
@@ -48802,7 +48802,7 @@
         <v>2008</v>
       </c>
       <c r="C220" s="42" t="s">
-        <v>4739</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.45">
@@ -48813,7 +48813,7 @@
         <v>1913</v>
       </c>
       <c r="C221" s="42" t="s">
-        <v>4740</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.45">
@@ -48824,7 +48824,7 @@
         <v>1921</v>
       </c>
       <c r="C222" s="42" t="s">
-        <v>4741</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.45">
@@ -48835,7 +48835,7 @@
         <v>1901</v>
       </c>
       <c r="C223" s="42" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.45">
@@ -48846,7 +48846,7 @@
         <v>2009</v>
       </c>
       <c r="C224" s="42" t="s">
-        <v>4742</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.45">
@@ -48857,7 +48857,7 @@
         <v>1910</v>
       </c>
       <c r="C225" s="42" t="s">
-        <v>4630</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.45">
@@ -48868,7 +48868,7 @@
         <v>1905</v>
       </c>
       <c r="C226" s="42" t="s">
-        <v>4609</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.45">
@@ -48879,7 +48879,7 @@
         <v>1918</v>
       </c>
       <c r="C227" s="42" t="s">
-        <v>4613</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.45">
@@ -48890,7 +48890,7 @@
         <v>1919</v>
       </c>
       <c r="C228" s="42" t="s">
-        <v>4614</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.45">
@@ -48901,7 +48901,7 @@
         <v>1920</v>
       </c>
       <c r="C229" s="42" t="s">
-        <v>4615</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.45">
@@ -48912,7 +48912,7 @@
         <v>1918</v>
       </c>
       <c r="C230" s="42" t="s">
-        <v>4613</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.45">
@@ -48923,7 +48923,7 @@
         <v>1919</v>
       </c>
       <c r="C231" s="42" t="s">
-        <v>4614</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.45">
@@ -48934,7 +48934,7 @@
         <v>1920</v>
       </c>
       <c r="C232" s="42" t="s">
-        <v>4615</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.45">
@@ -48945,7 +48945,7 @@
         <v>1952</v>
       </c>
       <c r="C233" s="42" t="s">
-        <v>4687</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.45">
@@ -48956,7 +48956,7 @@
         <v>1896</v>
       </c>
       <c r="C234" s="42" t="s">
-        <v>4743</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.45">
@@ -48967,7 +48967,7 @@
         <v>2010</v>
       </c>
       <c r="C235" s="42" t="s">
-        <v>4744</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.45">
@@ -48978,7 +48978,7 @@
         <v>2011</v>
       </c>
       <c r="C236" s="42" t="s">
-        <v>4745</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.45">
@@ -48989,7 +48989,7 @@
         <v>1910</v>
       </c>
       <c r="C237" s="42" t="s">
-        <v>4630</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.45">
@@ -49000,7 +49000,7 @@
         <v>1925</v>
       </c>
       <c r="C238" s="42" t="s">
-        <v>4746</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.45">
@@ -49011,7 +49011,7 @@
         <v>1912</v>
       </c>
       <c r="C239" s="42" t="s">
-        <v>4604</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.45">
@@ -49022,7 +49022,7 @@
         <v>1913</v>
       </c>
       <c r="C240" s="42" t="s">
-        <v>4747</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.45">
@@ -49033,7 +49033,7 @@
         <v>1905</v>
       </c>
       <c r="C241" s="42" t="s">
-        <v>4606</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.45">
@@ -49044,7 +49044,7 @@
         <v>1910</v>
       </c>
       <c r="C242" s="42" t="s">
-        <v>4748</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.45">
@@ -49055,7 +49055,7 @@
         <v>2012</v>
       </c>
       <c r="C243" s="42" t="s">
-        <v>4749</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.45">
@@ -49066,7 +49066,7 @@
         <v>2013</v>
       </c>
       <c r="C244" s="42" t="s">
-        <v>4750</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.45">
@@ -49077,7 +49077,7 @@
         <v>2014</v>
       </c>
       <c r="C245" s="42" t="s">
-        <v>4751</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.45">
@@ -49088,7 +49088,7 @@
         <v>1911</v>
       </c>
       <c r="C246" s="42" t="s">
-        <v>4752</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.45">
@@ -49099,7 +49099,7 @@
         <v>2015</v>
       </c>
       <c r="C247" s="42" t="s">
-        <v>4753</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.45">
@@ -49110,7 +49110,7 @@
         <v>2016</v>
       </c>
       <c r="C248" s="42" t="s">
-        <v>4754</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.45">
@@ -49121,7 +49121,7 @@
         <v>2017</v>
       </c>
       <c r="C249" s="42" t="s">
-        <v>4755</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.45">
@@ -49132,7 +49132,7 @@
         <v>1901</v>
       </c>
       <c r="C250" s="42" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.45">
@@ -49143,7 +49143,7 @@
         <v>2018</v>
       </c>
       <c r="C251" s="42" t="s">
-        <v>4756</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.45">
@@ -49154,7 +49154,7 @@
         <v>2019</v>
       </c>
       <c r="C252" s="42" t="s">
-        <v>4757</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.45">
@@ -49165,7 +49165,7 @@
         <v>2020</v>
       </c>
       <c r="C253" s="42" t="s">
-        <v>4758</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.45">
@@ -49176,7 +49176,7 @@
         <v>2021</v>
       </c>
       <c r="C254" s="42" t="s">
-        <v>4759</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.45">
@@ -49187,7 +49187,7 @@
         <v>2005</v>
       </c>
       <c r="C255" s="42" t="s">
-        <v>4760</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.45">
@@ -49198,7 +49198,7 @@
         <v>2022</v>
       </c>
       <c r="C256" s="42" t="s">
-        <v>4761</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.45">
@@ -49209,7 +49209,7 @@
         <v>1910</v>
       </c>
       <c r="C257" s="42" t="s">
-        <v>4630</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.45">
@@ -49220,7 +49220,7 @@
         <v>2023</v>
       </c>
       <c r="C258" s="42" t="s">
-        <v>4762</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.45">
@@ -49231,7 +49231,7 @@
         <v>1905</v>
       </c>
       <c r="C259" s="42" t="s">
-        <v>4595</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.45">
@@ -49242,7 +49242,7 @@
         <v>1938</v>
       </c>
       <c r="C260" s="42" t="s">
-        <v>4641</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.45">
@@ -49253,7 +49253,7 @@
         <v>1939</v>
       </c>
       <c r="C261" s="42" t="s">
-        <v>4642</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.45">
@@ -49264,7 +49264,7 @@
         <v>1940</v>
       </c>
       <c r="C262" s="42" t="s">
-        <v>4643</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.45">
@@ -49275,7 +49275,7 @@
         <v>2024</v>
       </c>
       <c r="C263" s="42" t="s">
-        <v>4763</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.45">
@@ -49286,7 +49286,7 @@
         <v>2025</v>
       </c>
       <c r="C264" s="42" t="s">
-        <v>4764</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.45">
@@ -49297,7 +49297,7 @@
         <v>2026</v>
       </c>
       <c r="C265" s="42" t="s">
-        <v>4765</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.45">
@@ -49308,7 +49308,7 @@
         <v>1938</v>
       </c>
       <c r="C266" s="42" t="s">
-        <v>4641</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.45">
@@ -49319,7 +49319,7 @@
         <v>1939</v>
       </c>
       <c r="C267" s="42" t="s">
-        <v>4642</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.45">
@@ -49330,7 +49330,7 @@
         <v>1940</v>
       </c>
       <c r="C268" s="42" t="s">
-        <v>4643</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.45">
@@ -49341,7 +49341,7 @@
         <v>1918</v>
       </c>
       <c r="C269" s="42" t="s">
-        <v>4613</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.45">
@@ -49352,7 +49352,7 @@
         <v>1919</v>
       </c>
       <c r="C270" s="42" t="s">
-        <v>4614</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.45">
@@ -49363,7 +49363,7 @@
         <v>1920</v>
       </c>
       <c r="C271" s="42" t="s">
-        <v>4615</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.45">
@@ -49374,7 +49374,7 @@
         <v>1900</v>
       </c>
       <c r="C272" s="42" t="s">
-        <v>4766</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.45">
@@ -49385,7 +49385,7 @@
         <v>1901</v>
       </c>
       <c r="C273" s="42" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.45">
@@ -49396,7 +49396,7 @@
         <v>1902</v>
       </c>
       <c r="C274" s="42" t="s">
-        <v>4767</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.45">
@@ -49407,7 +49407,7 @@
         <v>2027</v>
       </c>
       <c r="C275" s="42" t="s">
-        <v>4768</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.45">
@@ -49418,7 +49418,7 @@
         <v>2028</v>
       </c>
       <c r="C276" s="42" t="s">
-        <v>4769</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.45">
@@ -49429,7 +49429,7 @@
         <v>2029</v>
       </c>
       <c r="C277" s="42" t="s">
-        <v>4770</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.45">
@@ -49440,7 +49440,7 @@
         <v>2030</v>
       </c>
       <c r="C278" s="42" t="s">
-        <v>4771</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.45">
@@ -49451,7 +49451,7 @@
         <v>2031</v>
       </c>
       <c r="C279" s="42" t="s">
-        <v>4772</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.45">
@@ -49462,7 +49462,7 @@
         <v>2032</v>
       </c>
       <c r="C280" s="42" t="s">
-        <v>4773</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.45">
@@ -49473,7 +49473,7 @@
         <v>1911</v>
       </c>
       <c r="C281" s="41" t="s">
-        <v>4752</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.45">
@@ -49484,7 +49484,7 @@
         <v>1925</v>
       </c>
       <c r="C282" s="42" t="s">
-        <v>4774</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.45">
@@ -49495,7 +49495,7 @@
         <v>2025</v>
       </c>
       <c r="C283" s="42" t="s">
-        <v>4775</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.45">
@@ -49506,7 +49506,7 @@
         <v>2033</v>
       </c>
       <c r="C284" s="42" t="s">
-        <v>4776</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.45">
@@ -49517,7 +49517,7 @@
         <v>1911</v>
       </c>
       <c r="C285" s="42" t="s">
-        <v>4733</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.45">
@@ -49528,7 +49528,7 @@
         <v>2034</v>
       </c>
       <c r="C286" s="42" t="s">
-        <v>4777</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.45">
@@ -49539,7 +49539,7 @@
         <v>2035</v>
       </c>
       <c r="C287" s="42" t="s">
-        <v>4778</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.45">
@@ -49550,7 +49550,7 @@
         <v>2036</v>
       </c>
       <c r="C288" s="42" t="s">
-        <v>4779</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.45">
@@ -49561,7 +49561,7 @@
         <v>2037</v>
       </c>
       <c r="C289" s="42" t="s">
-        <v>4780</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.45">
@@ -49572,7 +49572,7 @@
         <v>2038</v>
       </c>
       <c r="C290" s="41" t="s">
-        <v>4781</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.45">
@@ -49583,7 +49583,7 @@
         <v>1911</v>
       </c>
       <c r="C291" s="42" t="s">
-        <v>4730</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.45">
@@ -49594,7 +49594,7 @@
         <v>2039</v>
       </c>
       <c r="C292" s="42" t="s">
-        <v>4782</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.45">
@@ -49605,7 +49605,7 @@
         <v>1986</v>
       </c>
       <c r="C293" s="42" t="s">
-        <v>4783</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.45">
@@ -49616,7 +49616,7 @@
         <v>2040</v>
       </c>
       <c r="C294" s="42" t="s">
-        <v>4784</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.45">
@@ -49627,7 +49627,7 @@
         <v>2041</v>
       </c>
       <c r="C295" s="42" t="s">
-        <v>4785</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.45">
@@ -49638,7 +49638,7 @@
         <v>2026</v>
       </c>
       <c r="C296" s="42" t="s">
-        <v>4786</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.45">
@@ -49649,7 +49649,7 @@
         <v>2042</v>
       </c>
       <c r="C297" s="42" t="s">
-        <v>4787</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.45">
@@ -49660,7 +49660,7 @@
         <v>2043</v>
       </c>
       <c r="C298" s="42" t="s">
-        <v>4788</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.45">
@@ -49671,7 +49671,7 @@
         <v>2044</v>
       </c>
       <c r="C299" s="42" t="s">
-        <v>4789</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.45">
@@ -49682,7 +49682,7 @@
         <v>2045</v>
       </c>
       <c r="C300" s="42" t="s">
-        <v>4790</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.45">
@@ -49693,7 +49693,7 @@
         <v>2046</v>
       </c>
       <c r="C301" s="42" t="s">
-        <v>4791</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.45">
@@ -49704,7 +49704,7 @@
         <v>2005</v>
       </c>
       <c r="C302" s="42" t="s">
-        <v>4792</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.45">
@@ -49715,7 +49715,7 @@
         <v>1933</v>
       </c>
       <c r="C303" s="42" t="s">
-        <v>4793</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.45">
@@ -49726,7 +49726,7 @@
         <v>1934</v>
       </c>
       <c r="C304" s="42" t="s">
-        <v>4794</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.45">
@@ -49737,7 +49737,7 @@
         <v>2047</v>
       </c>
       <c r="C305" s="42" t="s">
-        <v>4795</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.45">
@@ -49748,7 +49748,7 @@
         <v>2048</v>
       </c>
       <c r="C306" s="42" t="s">
-        <v>4796</v>
+        <v>4792</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.45">
@@ -49759,7 +49759,7 @@
         <v>1911</v>
       </c>
       <c r="C307" s="42" t="s">
-        <v>4797</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.45">
@@ -49770,7 +49770,7 @@
         <v>1933</v>
       </c>
       <c r="C308" s="42" t="s">
-        <v>4730</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.45">
@@ -49781,7 +49781,7 @@
         <v>1925</v>
       </c>
       <c r="C309" s="42" t="s">
-        <v>4798</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.45">
@@ -49792,7 +49792,7 @@
         <v>1934</v>
       </c>
       <c r="C310" s="42" t="s">
-        <v>4799</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.45">
@@ -49803,7 +49803,7 @@
         <v>1933</v>
       </c>
       <c r="C311" s="42" t="s">
-        <v>4800</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.45">
@@ -49814,7 +49814,7 @@
         <v>1934</v>
       </c>
       <c r="C312" s="42" t="s">
-        <v>4801</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.45">
@@ -49825,7 +49825,7 @@
         <v>1935</v>
       </c>
       <c r="C313" s="42" t="s">
-        <v>4802</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.45">
@@ -49836,7 +49836,7 @@
         <v>2049</v>
       </c>
       <c r="C314" s="42" t="s">
-        <v>4803</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.45">
@@ -49847,7 +49847,7 @@
         <v>2050</v>
       </c>
       <c r="C315" s="42" t="s">
-        <v>4804</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.45">
@@ -49858,7 +49858,7 @@
         <v>1901</v>
       </c>
       <c r="C316" s="42" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.45">
@@ -49869,7 +49869,7 @@
         <v>2051</v>
       </c>
       <c r="C317" s="42" t="s">
-        <v>4805</v>
+        <v>4801</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.45">
@@ -49880,7 +49880,7 @@
         <v>2052</v>
       </c>
       <c r="C318" s="42" t="s">
-        <v>4806</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.45">
@@ -49891,7 +49891,7 @@
         <v>2053</v>
       </c>
       <c r="C319" s="42" t="s">
-        <v>4807</v>
+        <v>4803</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.45">
@@ -49899,10 +49899,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>4914</v>
+        <v>4910</v>
       </c>
       <c r="C320" s="42" t="s">
-        <v>4808</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.45">
@@ -49913,7 +49913,7 @@
         <v>2054</v>
       </c>
       <c r="C321" s="42" t="s">
-        <v>4809</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.45">
@@ -49924,7 +49924,7 @@
         <v>1896</v>
       </c>
       <c r="C322" s="42" t="s">
-        <v>4810</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.45">
@@ -49935,7 +49935,7 @@
         <v>2055</v>
       </c>
       <c r="C323" s="42" t="s">
-        <v>4811</v>
+        <v>4807</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.45">
@@ -49946,7 +49946,7 @@
         <v>2056</v>
       </c>
       <c r="C324" s="42" t="s">
-        <v>4812</v>
+        <v>4808</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.45">
@@ -49957,7 +49957,7 @@
         <v>2057</v>
       </c>
       <c r="C325" s="42" t="s">
-        <v>4813</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.45">
@@ -49968,7 +49968,7 @@
         <v>1905</v>
       </c>
       <c r="C326" s="42" t="s">
-        <v>4814</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.45">
@@ -49979,7 +49979,7 @@
         <v>1906</v>
       </c>
       <c r="C327" s="42" t="s">
-        <v>4815</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.45">
@@ -49990,7 +49990,7 @@
         <v>1910</v>
       </c>
       <c r="C328" s="42" t="s">
-        <v>4630</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.45">
@@ -50001,7 +50001,7 @@
         <v>2058</v>
       </c>
       <c r="C329" s="42" t="s">
-        <v>4816</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.45">
@@ -50012,7 +50012,7 @@
         <v>2059</v>
       </c>
       <c r="C330" s="42" t="s">
-        <v>4817</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.45">
@@ -50023,7 +50023,7 @@
         <v>2060</v>
       </c>
       <c r="C331" s="42" t="s">
-        <v>4818</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.45">
@@ -50034,7 +50034,7 @@
         <v>2016</v>
       </c>
       <c r="C332" s="42" t="s">
-        <v>4754</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.45">
@@ -50045,7 +50045,7 @@
         <v>2017</v>
       </c>
       <c r="C333" s="42" t="s">
-        <v>4819</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.45">
@@ -50056,7 +50056,7 @@
         <v>1901</v>
       </c>
       <c r="C334" s="42" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.45">
@@ -50067,7 +50067,7 @@
         <v>1905</v>
       </c>
       <c r="C335" s="42" t="s">
-        <v>4820</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.45">
@@ -50078,7 +50078,7 @@
         <v>1906</v>
       </c>
       <c r="C336" s="42" t="s">
-        <v>4821</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.45">
@@ -50089,7 +50089,7 @@
         <v>1907</v>
       </c>
       <c r="C337" s="42" t="s">
-        <v>4822</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.45">
@@ -50100,7 +50100,7 @@
         <v>1913</v>
       </c>
       <c r="C338" s="42" t="s">
-        <v>4823</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.45">
@@ -50111,7 +50111,7 @@
         <v>1996</v>
       </c>
       <c r="C339" s="42" t="s">
-        <v>4824</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.45">
@@ -50122,7 +50122,7 @@
         <v>1905</v>
       </c>
       <c r="C340" s="42" t="s">
-        <v>4825</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.45">
@@ -50133,7 +50133,7 @@
         <v>1895</v>
       </c>
       <c r="C341" s="42" t="s">
-        <v>4603</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.45">
@@ -50144,7 +50144,7 @@
         <v>1896</v>
       </c>
       <c r="C342" s="42" t="s">
-        <v>4598</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.45">
@@ -50155,7 +50155,7 @@
         <v>2061</v>
       </c>
       <c r="C343" s="42" t="s">
-        <v>4826</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.45">
@@ -50166,7 +50166,7 @@
         <v>1918</v>
       </c>
       <c r="C344" s="42" t="s">
-        <v>4827</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.45">
@@ -50177,7 +50177,7 @@
         <v>1919</v>
       </c>
       <c r="C345" s="42" t="s">
-        <v>4828</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.45">
@@ -50188,7 +50188,7 @@
         <v>1920</v>
       </c>
       <c r="C346" s="42" t="s">
-        <v>4829</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.45">
@@ -50199,7 +50199,7 @@
         <v>2062</v>
       </c>
       <c r="C347" s="42" t="s">
-        <v>4830</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.45">
@@ -50210,7 +50210,7 @@
         <v>2063</v>
       </c>
       <c r="C348" s="42" t="s">
-        <v>4831</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.45">
@@ -50221,7 +50221,7 @@
         <v>2064</v>
       </c>
       <c r="C349" s="42" t="s">
-        <v>4832</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.45">
@@ -50232,7 +50232,7 @@
         <v>2065</v>
       </c>
       <c r="C350" s="42" t="s">
-        <v>4833</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.45">
@@ -50243,7 +50243,7 @@
         <v>1901</v>
       </c>
       <c r="C351" s="42" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.45">
@@ -50254,7 +50254,7 @@
         <v>2066</v>
       </c>
       <c r="C352" s="42" t="s">
-        <v>4834</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.45">
@@ -50265,7 +50265,7 @@
         <v>2067</v>
       </c>
       <c r="C353" s="42" t="s">
-        <v>4835</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.45">
@@ -50276,7 +50276,7 @@
         <v>2068</v>
       </c>
       <c r="C354" s="42" t="s">
-        <v>4836</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.45">
@@ -50287,7 +50287,7 @@
         <v>2069</v>
       </c>
       <c r="C355" s="42" t="s">
-        <v>4837</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.45">
@@ -50298,7 +50298,7 @@
         <v>1894</v>
       </c>
       <c r="C356" s="42" t="s">
-        <v>4838</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.45">
@@ -50309,7 +50309,7 @@
         <v>1895</v>
       </c>
       <c r="C357" s="42" t="s">
-        <v>4839</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.45">
@@ -50320,7 +50320,7 @@
         <v>1896</v>
       </c>
       <c r="C358" s="42" t="s">
-        <v>4840</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.45">
@@ -50331,7 +50331,7 @@
         <v>2058</v>
       </c>
       <c r="C359" s="42" t="s">
-        <v>4816</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.45">
@@ -50342,7 +50342,7 @@
         <v>2059</v>
       </c>
       <c r="C360" s="42" t="s">
-        <v>4841</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.45">
@@ -50353,7 +50353,7 @@
         <v>2060</v>
       </c>
       <c r="C361" s="42" t="s">
-        <v>4842</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.45">
@@ -50364,7 +50364,7 @@
         <v>1918</v>
       </c>
       <c r="C362" s="42" t="s">
-        <v>4827</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.45">
@@ -50375,7 +50375,7 @@
         <v>1919</v>
       </c>
       <c r="C363" s="42" t="s">
-        <v>4828</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.45">
@@ -50386,7 +50386,7 @@
         <v>1920</v>
       </c>
       <c r="C364" s="42" t="s">
-        <v>4829</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.45">
@@ -50397,7 +50397,7 @@
         <v>2070</v>
       </c>
       <c r="C365" s="42" t="s">
-        <v>4843</v>
+        <v>4839</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.45">
@@ -50408,7 +50408,7 @@
         <v>2071</v>
       </c>
       <c r="C366" s="42" t="s">
-        <v>4844</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.45">
@@ -50419,7 +50419,7 @@
         <v>2072</v>
       </c>
       <c r="C367" s="42" t="s">
-        <v>4845</v>
+        <v>4841</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.45">
@@ -50430,7 +50430,7 @@
         <v>2073</v>
       </c>
       <c r="C368" s="42" t="s">
-        <v>4846</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.45">
@@ -50441,7 +50441,7 @@
         <v>2074</v>
       </c>
       <c r="C369" s="42" t="s">
-        <v>4847</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.45">
@@ -50452,7 +50452,7 @@
         <v>2075</v>
       </c>
       <c r="C370" s="42" t="s">
-        <v>4848</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.45">
@@ -50463,7 +50463,7 @@
         <v>1913</v>
       </c>
       <c r="C371" s="42" t="s">
-        <v>4849</v>
+        <v>4845</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.45">
@@ -50474,7 +50474,7 @@
         <v>1996</v>
       </c>
       <c r="C372" s="42" t="s">
-        <v>4850</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.45">
@@ -50485,7 +50485,7 @@
         <v>1905</v>
       </c>
       <c r="C373" s="42" t="s">
-        <v>4851</v>
+        <v>4847</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.45">
@@ -50496,7 +50496,7 @@
         <v>1914</v>
       </c>
       <c r="C374" s="42" t="s">
-        <v>4852</v>
+        <v>4848</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.45">
@@ -50507,7 +50507,7 @@
         <v>1915</v>
       </c>
       <c r="C375" s="42" t="s">
-        <v>4608</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.45">
@@ -50518,7 +50518,7 @@
         <v>1905</v>
       </c>
       <c r="C376" s="42" t="s">
-        <v>4853</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.45">
@@ -50529,7 +50529,7 @@
         <v>2076</v>
       </c>
       <c r="C377" s="41" t="s">
-        <v>4854</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.45">
@@ -50540,7 +50540,7 @@
         <v>2077</v>
       </c>
       <c r="C378" s="42" t="s">
-        <v>4855</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.45">
@@ -50551,7 +50551,7 @@
         <v>2078</v>
       </c>
       <c r="C379" s="42" t="s">
-        <v>4856</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.45">
@@ -50562,7 +50562,7 @@
         <v>2079</v>
       </c>
       <c r="C380" s="42" t="s">
-        <v>4857</v>
+        <v>4853</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.45">
@@ -50573,7 +50573,7 @@
         <v>1896</v>
       </c>
       <c r="C381" s="42" t="s">
-        <v>4598</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.45">
@@ -50584,7 +50584,7 @@
         <v>2080</v>
       </c>
       <c r="C382" s="42" t="s">
-        <v>4858</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.45">
@@ -50595,7 +50595,7 @@
         <v>2081</v>
       </c>
       <c r="C383" s="42" t="s">
-        <v>4859</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.45">
@@ -50606,7 +50606,7 @@
         <v>2082</v>
       </c>
       <c r="C384" s="42" t="s">
-        <v>4860</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.45">
@@ -50617,7 +50617,7 @@
         <v>2083</v>
       </c>
       <c r="C385" s="42" t="s">
-        <v>4861</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.45">
@@ -50628,7 +50628,7 @@
         <v>2076</v>
       </c>
       <c r="C386" s="42" t="s">
-        <v>4862</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.45">
@@ -50639,7 +50639,7 @@
         <v>2077</v>
       </c>
       <c r="C387" s="42" t="s">
-        <v>4863</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.45">
@@ -50650,7 +50650,7 @@
         <v>2078</v>
       </c>
       <c r="C388" s="42" t="s">
-        <v>4864</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.45">
@@ -50661,7 +50661,7 @@
         <v>2084</v>
       </c>
       <c r="C389" s="42" t="s">
-        <v>4865</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.45">
@@ -50672,7 +50672,7 @@
         <v>2085</v>
       </c>
       <c r="C390" s="42" t="s">
-        <v>4866</v>
+        <v>4862</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.45">
@@ -50683,7 +50683,7 @@
         <v>2086</v>
       </c>
       <c r="C391" s="42" t="s">
-        <v>4867</v>
+        <v>4863</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.45">
@@ -50694,7 +50694,7 @@
         <v>2084</v>
       </c>
       <c r="C392" s="42" t="s">
-        <v>4868</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.45">
@@ -50705,7 +50705,7 @@
         <v>2087</v>
       </c>
       <c r="C393" s="42" t="s">
-        <v>4869</v>
+        <v>4865</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.45">
@@ -50716,7 +50716,7 @@
         <v>2088</v>
       </c>
       <c r="C394" s="42" t="s">
-        <v>4870</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.45">
@@ -50727,7 +50727,7 @@
         <v>2089</v>
       </c>
       <c r="C395" s="42" t="s">
-        <v>4871</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.45">
@@ -50738,7 +50738,7 @@
         <v>2090</v>
       </c>
       <c r="C396" s="42" t="s">
-        <v>4730</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.45">
@@ -50749,7 +50749,7 @@
         <v>2091</v>
       </c>
       <c r="C397" s="42" t="s">
-        <v>4872</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.45">
@@ -50760,7 +50760,7 @@
         <v>1918</v>
       </c>
       <c r="C398" s="42" t="s">
-        <v>4827</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.45">
@@ -50771,7 +50771,7 @@
         <v>1919</v>
       </c>
       <c r="C399" s="42" t="s">
-        <v>4828</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.45">
@@ -50782,7 +50782,7 @@
         <v>1920</v>
       </c>
       <c r="C400" s="42" t="s">
-        <v>4829</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.45">
@@ -50793,7 +50793,7 @@
         <v>2051</v>
       </c>
       <c r="C401" s="42" t="s">
-        <v>4873</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.45">
@@ -50804,7 +50804,7 @@
         <v>2092</v>
       </c>
       <c r="C402" s="42" t="s">
-        <v>4874</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.45">
@@ -50815,7 +50815,7 @@
         <v>2093</v>
       </c>
       <c r="C403" s="42" t="s">
-        <v>4875</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.45">
@@ -50826,7 +50826,7 @@
         <v>1913</v>
       </c>
       <c r="C404" s="41" t="s">
-        <v>4876</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.45">
@@ -50837,7 +50837,7 @@
         <v>1996</v>
       </c>
       <c r="C405" s="42" t="s">
-        <v>4877</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.45">
@@ -50848,7 +50848,7 @@
         <v>1905</v>
       </c>
       <c r="C406" s="42" t="s">
-        <v>4609</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.45">
@@ -50859,7 +50859,7 @@
         <v>2094</v>
       </c>
       <c r="C407" s="42" t="s">
-        <v>4878</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.45">
@@ -50870,7 +50870,7 @@
         <v>2095</v>
       </c>
       <c r="C408" s="42" t="s">
-        <v>4879</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.45">
@@ -50881,7 +50881,7 @@
         <v>2096</v>
       </c>
       <c r="C409" s="42" t="s">
-        <v>4880</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.45">
@@ -50892,7 +50892,7 @@
         <v>1913</v>
       </c>
       <c r="C410" s="42" t="s">
-        <v>4881</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.45">
@@ -50903,7 +50903,7 @@
         <v>1921</v>
       </c>
       <c r="C411" s="42" t="s">
-        <v>4882</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.45">
@@ -50914,7 +50914,7 @@
         <v>1901</v>
       </c>
       <c r="C412" s="42" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.45">
@@ -50925,7 +50925,7 @@
         <v>2097</v>
       </c>
       <c r="C413" s="42" t="s">
-        <v>4883</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.45">
@@ -50936,7 +50936,7 @@
         <v>2098</v>
       </c>
       <c r="C414" s="42" t="s">
-        <v>4884</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.45">
@@ -50947,7 +50947,7 @@
         <v>1901</v>
       </c>
       <c r="C415" s="42" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.45">
@@ -50958,7 +50958,7 @@
         <v>2099</v>
       </c>
       <c r="C416" s="42" t="s">
-        <v>4885</v>
+        <v>4881</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.45">
@@ -50969,7 +50969,7 @@
         <v>2100</v>
       </c>
       <c r="C417" s="42" t="s">
-        <v>4886</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.45">
@@ -50980,7 +50980,7 @@
         <v>2101</v>
       </c>
       <c r="C418" s="42" t="s">
-        <v>4887</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.45">
@@ -50991,7 +50991,7 @@
         <v>2102</v>
       </c>
       <c r="C419" s="42" t="s">
-        <v>4888</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.45">
@@ -51002,7 +51002,7 @@
         <v>2103</v>
       </c>
       <c r="C420" s="42" t="s">
-        <v>4889</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.45">
@@ -51013,7 +51013,7 @@
         <v>1911</v>
       </c>
       <c r="C421" s="42" t="s">
-        <v>4797</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.45">
@@ -51024,7 +51024,7 @@
         <v>1933</v>
       </c>
       <c r="C422" s="42" t="s">
-        <v>4733</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.45">
@@ -51035,7 +51035,7 @@
         <v>2104</v>
       </c>
       <c r="C423" s="42" t="s">
-        <v>4890</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.45">
@@ -51046,7 +51046,7 @@
         <v>1934</v>
       </c>
       <c r="C424" s="42" t="s">
-        <v>4734</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.45">
@@ -51057,7 +51057,7 @@
         <v>1896</v>
       </c>
       <c r="C425" s="42" t="s">
-        <v>4891</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.45">
@@ -51068,7 +51068,7 @@
         <v>1911</v>
       </c>
       <c r="C426" s="42" t="s">
-        <v>4892</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.45">
@@ -51079,7 +51079,7 @@
         <v>2105</v>
       </c>
       <c r="C427" s="42" t="s">
-        <v>4893</v>
+        <v>4889</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.45">
@@ -51090,7 +51090,7 @@
         <v>2106</v>
       </c>
       <c r="C428" s="42" t="s">
-        <v>4894</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.45">
@@ -51101,7 +51101,7 @@
         <v>1896</v>
       </c>
       <c r="C429" s="42" t="s">
-        <v>4895</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.45">
@@ -51112,7 +51112,7 @@
         <v>1901</v>
       </c>
       <c r="C430" s="42" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.45">
@@ -51123,7 +51123,7 @@
         <v>1913</v>
       </c>
       <c r="C431" s="42" t="s">
-        <v>4896</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.45">
@@ -51134,7 +51134,7 @@
         <v>1996</v>
       </c>
       <c r="C432" s="42" t="s">
-        <v>4850</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.45">
@@ -51145,7 +51145,7 @@
         <v>1905</v>
       </c>
       <c r="C433" s="42" t="s">
-        <v>4609</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.45">
@@ -51156,7 +51156,7 @@
         <v>2107</v>
       </c>
       <c r="C434" s="42" t="s">
-        <v>4897</v>
+        <v>4893</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.45">
@@ -51167,7 +51167,7 @@
         <v>1896</v>
       </c>
       <c r="C435" s="42" t="s">
-        <v>4891</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.45">
@@ -51178,7 +51178,7 @@
         <v>1901</v>
       </c>
       <c r="C436" s="42" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.45">
@@ -51189,7 +51189,7 @@
         <v>1896</v>
       </c>
       <c r="C437" s="42" t="s">
-        <v>4891</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.45">
@@ -51200,7 +51200,7 @@
         <v>2106</v>
       </c>
       <c r="C438" s="42" t="s">
-        <v>4898</v>
+        <v>4894</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.45">
@@ -51211,7 +51211,7 @@
         <v>1901</v>
       </c>
       <c r="C439" s="42" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.45">
@@ -51222,7 +51222,7 @@
         <v>2084</v>
       </c>
       <c r="C440" s="42" t="s">
-        <v>4899</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.45">
@@ -51233,7 +51233,7 @@
         <v>2108</v>
       </c>
       <c r="C441" s="42" t="s">
-        <v>4900</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.45">
@@ -51244,7 +51244,7 @@
         <v>2109</v>
       </c>
       <c r="C442" s="42" t="s">
-        <v>4901</v>
+        <v>4897</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.45">
@@ -51255,7 +51255,7 @@
         <v>2106</v>
       </c>
       <c r="C443" s="42" t="s">
-        <v>4902</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.45">
@@ -51266,7 +51266,7 @@
         <v>1901</v>
       </c>
       <c r="C444" s="42" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.45">
@@ -51277,7 +51277,7 @@
         <v>2110</v>
       </c>
       <c r="C445" s="42" t="s">
-        <v>4903</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.45">
@@ -51288,7 +51288,7 @@
         <v>2106</v>
       </c>
       <c r="C446" s="42" t="s">
-        <v>4894</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.45">
@@ -51299,7 +51299,7 @@
         <v>1901</v>
       </c>
       <c r="C447" s="42" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.45">
@@ -51310,7 +51310,7 @@
         <v>2111</v>
       </c>
       <c r="C448" s="42" t="s">
-        <v>4904</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.45">
@@ -51321,7 +51321,7 @@
         <v>2112</v>
       </c>
       <c r="C449" s="42" t="s">
-        <v>4905</v>
+        <v>4901</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.45">
@@ -51332,7 +51332,7 @@
         <v>2113</v>
       </c>
       <c r="C450" s="42" t="s">
-        <v>4906</v>
+        <v>4902</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.45">
@@ -51343,7 +51343,7 @@
         <v>2114</v>
       </c>
       <c r="C451" s="42" t="s">
-        <v>4907</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.45">
@@ -51354,7 +51354,7 @@
         <v>2018</v>
       </c>
       <c r="C452" s="42" t="s">
-        <v>4756</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.45">
@@ -51365,7 +51365,7 @@
         <v>2115</v>
       </c>
       <c r="C453" s="42" t="s">
-        <v>4757</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.45">
@@ -51376,7 +51376,7 @@
         <v>2020</v>
       </c>
       <c r="C454" s="42" t="s">
-        <v>4758</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.45">
@@ -51387,7 +51387,7 @@
         <v>2018</v>
       </c>
       <c r="C455" s="42" t="s">
-        <v>4756</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.45">
@@ -51398,7 +51398,7 @@
         <v>2115</v>
       </c>
       <c r="C456" s="42" t="s">
-        <v>4757</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.45">
@@ -51409,7 +51409,7 @@
         <v>2020</v>
       </c>
       <c r="C457" s="42" t="s">
-        <v>4758</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.45">
@@ -51420,7 +51420,7 @@
         <v>2018</v>
       </c>
       <c r="C458" s="42" t="s">
-        <v>4756</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.45">
@@ -51431,7 +51431,7 @@
         <v>2115</v>
       </c>
       <c r="C459" s="42" t="s">
-        <v>4757</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.45">
@@ -51442,7 +51442,7 @@
         <v>2020</v>
       </c>
       <c r="C460" s="42" t="s">
-        <v>4758</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.45">
@@ -51453,7 +51453,7 @@
         <v>2018</v>
       </c>
       <c r="C461" s="42" t="s">
-        <v>4756</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.45">
@@ -51464,7 +51464,7 @@
         <v>2115</v>
       </c>
       <c r="C462" s="42" t="s">
-        <v>4757</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.45">
@@ -51475,7 +51475,7 @@
         <v>2020</v>
       </c>
       <c r="C463" s="42" t="s">
-        <v>4758</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.45">
@@ -51486,7 +51486,7 @@
         <v>2116</v>
       </c>
       <c r="C464" s="42" t="s">
-        <v>4905</v>
+        <v>4901</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.45">
@@ -51497,7 +51497,7 @@
         <v>2117</v>
       </c>
       <c r="C465" s="42" t="s">
-        <v>4908</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.45">
@@ -51508,7 +51508,7 @@
         <v>2118</v>
       </c>
       <c r="C466" s="42" t="s">
-        <v>4909</v>
+        <v>4905</v>
       </c>
     </row>
   </sheetData>
@@ -51553,7 +51553,7 @@
         <v>1912</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>4917</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -51564,7 +51564,7 @@
         <v>1911</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>4918</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -51575,7 +51575,7 @@
         <v>2111</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>4919</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -51586,7 +51586,7 @@
         <v>3369</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>4920</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -51597,7 +51597,7 @@
         <v>3370</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>4921</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -51608,7 +51608,7 @@
         <v>2111</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>4922</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -51619,7 +51619,7 @@
         <v>1958</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>4923</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -51630,7 +51630,7 @@
         <v>3371</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>4924</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -51641,7 +51641,7 @@
         <v>3372</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>4925</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -51652,7 +51652,7 @@
         <v>3373</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>4926</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -51663,7 +51663,7 @@
         <v>1912</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>4927</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -51674,7 +51674,7 @@
         <v>1911</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>4800</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -51685,7 +51685,7 @@
         <v>2067</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>4928</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -51696,7 +51696,7 @@
         <v>2068</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>4929</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -51707,7 +51707,7 @@
         <v>1905</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>4930</v>
+        <v>4925</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -51718,7 +51718,7 @@
         <v>2067</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>4928</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -51729,7 +51729,7 @@
         <v>2068</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>4929</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -51740,7 +51740,7 @@
         <v>1905</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>4930</v>
+        <v>4925</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -51751,7 +51751,7 @@
         <v>1912</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>4927</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -51762,7 +51762,7 @@
         <v>1910</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>4931</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -51773,7 +51773,7 @@
         <v>2044</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>4932</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -51784,7 +51784,7 @@
         <v>1933</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>4933</v>
+        <v>4928</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -51795,7 +51795,7 @@
         <v>1896</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -51806,7 +51806,7 @@
         <v>1934</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>4935</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -51817,7 +51817,7 @@
         <v>1912</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>4890</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -51828,7 +51828,7 @@
         <v>1905</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>4936</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -51839,7 +51839,7 @@
         <v>1910</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>4931</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -51850,7 +51850,7 @@
         <v>1911</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>4797</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -51861,7 +51861,7 @@
         <v>3374</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>4937</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -51872,7 +51872,7 @@
         <v>3375</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>4938</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
@@ -51883,7 +51883,7 @@
         <v>2018</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>4939</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -51894,7 +51894,7 @@
         <v>2115</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>4757</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -51905,7 +51905,7 @@
         <v>2020</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>4758</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -51916,7 +51916,7 @@
         <v>1911</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>4800</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -51927,7 +51927,7 @@
         <v>1912</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>4940</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -51938,7 +51938,7 @@
         <v>3373</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>4941</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -51949,7 +51949,7 @@
         <v>1910</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>4931</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -51960,7 +51960,7 @@
         <v>3376</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>4942</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -51971,7 +51971,7 @@
         <v>3377</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>4943</v>
+        <v>4938</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -51982,7 +51982,7 @@
         <v>3378</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>4944</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -51993,7 +51993,7 @@
         <v>3379</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>4945</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
@@ -52004,7 +52004,7 @@
         <v>3380</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>4946</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -52015,7 +52015,7 @@
         <v>3381</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>4947</v>
+        <v>4942</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -52026,7 +52026,7 @@
         <v>3382</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>4948</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -52037,7 +52037,7 @@
         <v>1911</v>
       </c>
       <c r="C46" s="46" t="s">
-        <v>4949</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -52048,7 +52048,7 @@
         <v>1911</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>4602</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -52059,7 +52059,7 @@
         <v>2044</v>
       </c>
       <c r="C48" s="46" t="s">
-        <v>4950</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -52070,7 +52070,7 @@
         <v>1896</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -52081,7 +52081,7 @@
         <v>1933</v>
       </c>
       <c r="C50" s="46" t="s">
-        <v>4800</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -52092,7 +52092,7 @@
         <v>1925</v>
       </c>
       <c r="C51" s="46" t="s">
-        <v>4951</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -52103,7 +52103,7 @@
         <v>1934</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>4952</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -52114,7 +52114,7 @@
         <v>1941</v>
       </c>
       <c r="C53" s="46" t="s">
-        <v>4953</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -52125,7 +52125,7 @@
         <v>1895</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>4954</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
@@ -52136,7 +52136,7 @@
         <v>1896</v>
       </c>
       <c r="C55" s="46" t="s">
-        <v>4955</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
@@ -52147,7 +52147,7 @@
         <v>1912</v>
       </c>
       <c r="C56" s="46" t="s">
-        <v>4956</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -52158,7 +52158,7 @@
         <v>3383</v>
       </c>
       <c r="C57" s="46" t="s">
-        <v>4957</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
@@ -52169,7 +52169,7 @@
         <v>3384</v>
       </c>
       <c r="C58" s="46" t="s">
-        <v>4958</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -52180,7 +52180,7 @@
         <v>1911</v>
       </c>
       <c r="C59" s="46" t="s">
-        <v>4959</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -52191,7 +52191,7 @@
         <v>3385</v>
       </c>
       <c r="C60" s="46" t="s">
-        <v>4960</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
@@ -52202,7 +52202,7 @@
         <v>3386</v>
       </c>
       <c r="C61" s="46" t="s">
-        <v>4961</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -52213,7 +52213,7 @@
         <v>1911</v>
       </c>
       <c r="C62" s="46" t="s">
-        <v>4962</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
@@ -52224,7 +52224,7 @@
         <v>3348</v>
       </c>
       <c r="C63" s="46" t="s">
-        <v>4963</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
@@ -52235,7 +52235,7 @@
         <v>1896</v>
       </c>
       <c r="C64" s="46" t="s">
-        <v>4964</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
@@ -52246,7 +52246,7 @@
         <v>1910</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>4931</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
@@ -52257,7 +52257,7 @@
         <v>2044</v>
       </c>
       <c r="C66" s="46" t="s">
-        <v>4965</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
@@ -52268,7 +52268,7 @@
         <v>3387</v>
       </c>
       <c r="C67" s="46" t="s">
-        <v>4966</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
@@ -52279,7 +52279,7 @@
         <v>1911</v>
       </c>
       <c r="C68" s="46" t="s">
-        <v>4918</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
@@ -52290,7 +52290,7 @@
         <v>3388</v>
       </c>
       <c r="C69" s="46" t="s">
-        <v>4967</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
@@ -52301,7 +52301,7 @@
         <v>3389</v>
       </c>
       <c r="C70" s="46" t="s">
-        <v>4968</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
@@ -52312,7 +52312,7 @@
         <v>1896</v>
       </c>
       <c r="C71" s="46" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
@@ -52323,7 +52323,7 @@
         <v>3390</v>
       </c>
       <c r="C72" s="46" t="s">
-        <v>4969</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
@@ -52334,7 +52334,7 @@
         <v>3391</v>
       </c>
       <c r="C73" s="46" t="s">
-        <v>4970</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
@@ -52345,7 +52345,7 @@
         <v>3392</v>
       </c>
       <c r="C74" s="46" t="s">
-        <v>4971</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
@@ -52356,7 +52356,7 @@
         <v>3393</v>
       </c>
       <c r="C75" s="46" t="s">
-        <v>4972</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
@@ -52367,7 +52367,7 @@
         <v>3394</v>
       </c>
       <c r="C76" s="46" t="s">
-        <v>4973</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
@@ -52378,7 +52378,7 @@
         <v>1911</v>
       </c>
       <c r="C77" s="46" t="s">
-        <v>4974</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
@@ -52389,7 +52389,7 @@
         <v>1925</v>
       </c>
       <c r="C78" s="46" t="s">
-        <v>4975</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
@@ -52400,7 +52400,7 @@
         <v>3395</v>
       </c>
       <c r="C79" s="46" t="s">
-        <v>4976</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
@@ -52411,7 +52411,7 @@
         <v>1925</v>
       </c>
       <c r="C80" s="46" t="s">
-        <v>4951</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
@@ -52422,7 +52422,7 @@
         <v>3396</v>
       </c>
       <c r="C81" s="46" t="s">
-        <v>4977</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
@@ -52433,7 +52433,7 @@
         <v>1901</v>
       </c>
       <c r="C82" s="46" t="s">
-        <v>4978</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
@@ -52444,7 +52444,7 @@
         <v>1913</v>
       </c>
       <c r="C83" s="46" t="s">
-        <v>4979</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
@@ -52455,7 +52455,7 @@
         <v>1910</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>4931</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
@@ -52466,7 +52466,7 @@
         <v>1911</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>4918</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
@@ -52477,7 +52477,7 @@
         <v>1925</v>
       </c>
       <c r="C86" s="46" t="s">
-        <v>4980</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
@@ -52488,7 +52488,7 @@
         <v>3397</v>
       </c>
       <c r="C87" s="46" t="s">
-        <v>4981</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
@@ -52499,7 +52499,7 @@
         <v>1912</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>4956</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
@@ -52510,7 +52510,7 @@
         <v>1901</v>
       </c>
       <c r="C89" s="46" t="s">
-        <v>4978</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
@@ -52521,7 +52521,7 @@
         <v>1912</v>
       </c>
       <c r="C90" s="46" t="s">
-        <v>4982</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
@@ -52532,7 +52532,7 @@
         <v>3398</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>4983</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
@@ -52543,7 +52543,7 @@
         <v>1925</v>
       </c>
       <c r="C92" s="46" t="s">
-        <v>4984</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
@@ -52554,7 +52554,7 @@
         <v>1901</v>
       </c>
       <c r="C93" s="46" t="s">
-        <v>4978</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
@@ -52565,7 +52565,7 @@
         <v>3399</v>
       </c>
       <c r="C94" s="46" t="s">
-        <v>4985</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
@@ -52576,7 +52576,7 @@
         <v>3400</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>4986</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
@@ -52587,7 +52587,7 @@
         <v>1911</v>
       </c>
       <c r="C96" s="46" t="s">
-        <v>4752</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
@@ -52598,7 +52598,7 @@
         <v>3401</v>
       </c>
       <c r="C97" s="46" t="s">
-        <v>4987</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
@@ -52609,7 +52609,7 @@
         <v>3402</v>
       </c>
       <c r="C98" s="45" t="s">
-        <v>4988</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
@@ -52620,7 +52620,7 @@
         <v>3403</v>
       </c>
       <c r="C99" s="46" t="s">
-        <v>4989</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
@@ -52631,7 +52631,7 @@
         <v>3404</v>
       </c>
       <c r="C100" s="46" t="s">
-        <v>4990</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
@@ -52642,7 +52642,7 @@
         <v>3405</v>
       </c>
       <c r="C101" s="46" t="s">
-        <v>4991</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
@@ -52653,7 +52653,7 @@
         <v>3406</v>
       </c>
       <c r="C102" s="46" t="s">
-        <v>4992</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
@@ -52664,7 +52664,7 @@
         <v>3407</v>
       </c>
       <c r="C103" s="46" t="s">
-        <v>4993</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
@@ -52675,7 +52675,7 @@
         <v>3373</v>
       </c>
       <c r="C104" s="46" t="s">
-        <v>4941</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
@@ -52686,7 +52686,7 @@
         <v>2054</v>
       </c>
       <c r="C105" s="46" t="s">
-        <v>4994</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
@@ -52697,7 +52697,7 @@
         <v>1896</v>
       </c>
       <c r="C106" s="46" t="s">
-        <v>4995</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
@@ -52708,7 +52708,7 @@
         <v>1911</v>
       </c>
       <c r="C107" s="46" t="s">
-        <v>4996</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
@@ -52719,7 +52719,7 @@
         <v>2025</v>
       </c>
       <c r="C108" s="46" t="s">
-        <v>4927</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
@@ -52730,7 +52730,7 @@
         <v>2111</v>
       </c>
       <c r="C109" s="46" t="s">
-        <v>4997</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
@@ -52741,7 +52741,7 @@
         <v>3408</v>
       </c>
       <c r="C110" s="46" t="s">
-        <v>4998</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
@@ -52752,7 +52752,7 @@
         <v>1912</v>
       </c>
       <c r="C111" s="46" t="s">
-        <v>4999</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
@@ -52763,7 +52763,7 @@
         <v>3409</v>
       </c>
       <c r="C112" s="46" t="s">
-        <v>5000</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
@@ -52774,7 +52774,7 @@
         <v>1912</v>
       </c>
       <c r="C113" s="46" t="s">
-        <v>4940</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
@@ -52785,7 +52785,7 @@
         <v>1911</v>
       </c>
       <c r="C114" s="46" t="s">
-        <v>5001</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
@@ -52796,7 +52796,7 @@
         <v>2111</v>
       </c>
       <c r="C115" s="46" t="s">
-        <v>5002</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
@@ -52807,7 +52807,7 @@
         <v>1912</v>
       </c>
       <c r="C116" s="46" t="s">
-        <v>4927</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
@@ -52818,7 +52818,7 @@
         <v>1933</v>
       </c>
       <c r="C117" s="46" t="s">
-        <v>4730</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
@@ -52829,7 +52829,7 @@
         <v>1934</v>
       </c>
       <c r="C118" s="46" t="s">
-        <v>5003</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
@@ -52840,7 +52840,7 @@
         <v>3410</v>
       </c>
       <c r="C119" s="46" t="s">
-        <v>5004</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
@@ -52851,7 +52851,7 @@
         <v>3411</v>
       </c>
       <c r="C120" s="46" t="s">
-        <v>5005</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
@@ -52862,7 +52862,7 @@
         <v>3412</v>
       </c>
       <c r="C121" s="46" t="s">
-        <v>5006</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
@@ -52873,7 +52873,7 @@
         <v>1911</v>
       </c>
       <c r="C122" s="46" t="s">
-        <v>4918</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
@@ -52884,7 +52884,7 @@
         <v>1896</v>
       </c>
       <c r="C123" s="46" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
@@ -52895,7 +52895,7 @@
         <v>2111</v>
       </c>
       <c r="C124" s="46" t="s">
-        <v>5007</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
@@ -52906,7 +52906,7 @@
         <v>3413</v>
       </c>
       <c r="C125" s="46" t="s">
-        <v>5008</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
@@ -52917,7 +52917,7 @@
         <v>3414</v>
       </c>
       <c r="C126" s="46" t="s">
-        <v>5009</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
@@ -52928,7 +52928,7 @@
         <v>3415</v>
       </c>
       <c r="C127" s="46" t="s">
-        <v>5010</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
@@ -52939,7 +52939,7 @@
         <v>2538</v>
       </c>
       <c r="C128" s="46" t="s">
-        <v>5011</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
@@ -52950,7 +52950,7 @@
         <v>3416</v>
       </c>
       <c r="C129" s="46" t="s">
-        <v>5012</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
@@ -52961,7 +52961,7 @@
         <v>3417</v>
       </c>
       <c r="C130" s="46" t="s">
-        <v>5013</v>
+        <v>5008</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
@@ -52972,7 +52972,7 @@
         <v>2538</v>
       </c>
       <c r="C131" s="46" t="s">
-        <v>5014</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
@@ -52983,7 +52983,7 @@
         <v>3418</v>
       </c>
       <c r="C132" s="46" t="s">
-        <v>5015</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
@@ -52994,7 +52994,7 @@
         <v>3419</v>
       </c>
       <c r="C133" s="46" t="s">
-        <v>5016</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
@@ -53005,7 +53005,7 @@
         <v>2538</v>
       </c>
       <c r="C134" s="46" t="s">
-        <v>5017</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
@@ -53016,7 +53016,7 @@
         <v>3420</v>
       </c>
       <c r="C135" s="46" t="s">
-        <v>5018</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
@@ -53027,7 +53027,7 @@
         <v>3421</v>
       </c>
       <c r="C136" s="46" t="s">
-        <v>5019</v>
+        <v>5014</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
@@ -53038,7 +53038,7 @@
         <v>2538</v>
       </c>
       <c r="C137" s="46" t="s">
-        <v>5020</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
@@ -53049,7 +53049,7 @@
         <v>3422</v>
       </c>
       <c r="C138" s="46" t="s">
-        <v>5021</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
@@ -53060,7 +53060,7 @@
         <v>3423</v>
       </c>
       <c r="C139" s="46" t="s">
-        <v>5022</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
@@ -53071,7 +53071,7 @@
         <v>3424</v>
       </c>
       <c r="C140" s="46" t="s">
-        <v>5023</v>
+        <v>5018</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
@@ -53082,7 +53082,7 @@
         <v>3425</v>
       </c>
       <c r="C141" s="46" t="s">
-        <v>5024</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
@@ -53093,7 +53093,7 @@
         <v>1896</v>
       </c>
       <c r="C142" s="46" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
@@ -53104,7 +53104,7 @@
         <v>1911</v>
       </c>
       <c r="C143" s="46" t="s">
-        <v>4797</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
@@ -53115,7 +53115,7 @@
         <v>3374</v>
       </c>
       <c r="C144" s="46" t="s">
-        <v>5025</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
@@ -53126,7 +53126,7 @@
         <v>3375</v>
       </c>
       <c r="C145" s="46" t="s">
-        <v>5026</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
@@ -53137,7 +53137,7 @@
         <v>1911</v>
       </c>
       <c r="C146" s="46" t="s">
-        <v>4974</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
@@ -53148,7 +53148,7 @@
         <v>1896</v>
       </c>
       <c r="C147" s="46" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
@@ -53159,7 +53159,7 @@
         <v>2111</v>
       </c>
       <c r="C148" s="46" t="s">
-        <v>5027</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
@@ -53170,7 +53170,7 @@
         <v>3426</v>
       </c>
       <c r="C149" s="46" t="s">
-        <v>5028</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
@@ -53181,7 +53181,7 @@
         <v>1912</v>
       </c>
       <c r="C150" s="46" t="s">
-        <v>4927</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
@@ -53192,7 +53192,7 @@
         <v>1910</v>
       </c>
       <c r="C151" s="46" t="s">
-        <v>4931</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
@@ -53203,7 +53203,7 @@
         <v>3427</v>
       </c>
       <c r="C152" s="46" t="s">
-        <v>5029</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
@@ -53214,7 +53214,7 @@
         <v>3428</v>
       </c>
       <c r="C153" s="46" t="s">
-        <v>5030</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
@@ -53225,7 +53225,7 @@
         <v>1912</v>
       </c>
       <c r="C154" s="46" t="s">
-        <v>4956</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
@@ -53236,7 +53236,7 @@
         <v>1910</v>
       </c>
       <c r="C155" s="46" t="s">
-        <v>4931</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
@@ -53247,7 +53247,7 @@
         <v>1912</v>
       </c>
       <c r="C156" s="46" t="s">
-        <v>4927</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
@@ -53258,7 +53258,7 @@
         <v>3429</v>
       </c>
       <c r="C157" s="46" t="s">
-        <v>5031</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
@@ -53269,7 +53269,7 @@
         <v>1894</v>
       </c>
       <c r="C158" s="46" t="s">
-        <v>5032</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
@@ -53280,7 +53280,7 @@
         <v>1895</v>
       </c>
       <c r="C159" s="46" t="s">
-        <v>5033</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
@@ -53291,7 +53291,7 @@
         <v>1896</v>
       </c>
       <c r="C160" s="46" t="s">
-        <v>5034</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
@@ -53302,7 +53302,7 @@
         <v>3430</v>
       </c>
       <c r="C161" s="46" t="s">
-        <v>5035</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.45">
@@ -53313,7 +53313,7 @@
         <v>3431</v>
       </c>
       <c r="C162" s="46" t="s">
-        <v>5036</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.45">
@@ -53324,7 +53324,7 @@
         <v>3432</v>
       </c>
       <c r="C163" s="46" t="s">
-        <v>5037</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
@@ -53335,7 +53335,7 @@
         <v>2025</v>
       </c>
       <c r="C164" s="46" t="s">
-        <v>4927</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.45">
@@ -53346,7 +53346,7 @@
         <v>3373</v>
       </c>
       <c r="C165" s="46" t="s">
-        <v>4926</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.45">
@@ -53357,7 +53357,7 @@
         <v>3433</v>
       </c>
       <c r="C166" s="46" t="s">
-        <v>5038</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.45">
@@ -53368,7 +53368,7 @@
         <v>1901</v>
       </c>
       <c r="C167" s="46" t="s">
-        <v>4978</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.45">
@@ -53379,7 +53379,7 @@
         <v>3434</v>
       </c>
       <c r="C168" s="46" t="s">
-        <v>5039</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.45">
@@ -53390,7 +53390,7 @@
         <v>2044</v>
       </c>
       <c r="C169" s="46" t="s">
-        <v>5040</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.45">
@@ -53401,7 +53401,7 @@
         <v>1911</v>
       </c>
       <c r="C170" s="46" t="s">
-        <v>5041</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.45">
@@ -53412,7 +53412,7 @@
         <v>1896</v>
       </c>
       <c r="C171" s="46" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.45">
@@ -53423,7 +53423,7 @@
         <v>3376</v>
       </c>
       <c r="C172" s="46" t="s">
-        <v>5042</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.45">
@@ -53434,7 +53434,7 @@
         <v>1912</v>
       </c>
       <c r="C173" s="46" t="s">
-        <v>4927</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.45">
@@ -53445,7 +53445,7 @@
         <v>3435</v>
       </c>
       <c r="C174" s="46" t="s">
-        <v>5043</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.45">
@@ -53456,7 +53456,7 @@
         <v>1911</v>
       </c>
       <c r="C175" s="46" t="s">
-        <v>5044</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.45">
@@ -53467,7 +53467,7 @@
         <v>1912</v>
       </c>
       <c r="C176" s="46" t="s">
-        <v>4927</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.45">
@@ -53478,7 +53478,7 @@
         <v>1911</v>
       </c>
       <c r="C177" s="46" t="s">
-        <v>5044</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.45">
@@ -53489,7 +53489,7 @@
         <v>2111</v>
       </c>
       <c r="C178" s="46" t="s">
-        <v>5045</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.45">
@@ -53500,7 +53500,7 @@
         <v>1911</v>
       </c>
       <c r="C179" s="44" t="s">
-        <v>5041</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.45">
@@ -53511,7 +53511,7 @@
         <v>3436</v>
       </c>
       <c r="C180" s="46" t="s">
-        <v>5046</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.45">
@@ -53522,7 +53522,7 @@
         <v>3437</v>
       </c>
       <c r="C181" s="46" t="s">
-        <v>5047</v>
+        <v>5042</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.45">
@@ -53533,7 +53533,7 @@
         <v>3438</v>
       </c>
       <c r="C182" s="46" t="s">
-        <v>5048</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.45">
@@ -53544,7 +53544,7 @@
         <v>1906</v>
       </c>
       <c r="C183" s="46" t="s">
-        <v>5049</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.45">
@@ -53555,7 +53555,7 @@
         <v>3439</v>
       </c>
       <c r="C184" s="46" t="s">
-        <v>5050</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.45">
@@ -53566,7 +53566,7 @@
         <v>3440</v>
       </c>
       <c r="C185" s="46" t="s">
-        <v>5051</v>
+        <v>5046</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.45">
@@ -53577,7 +53577,7 @@
         <v>1906</v>
       </c>
       <c r="C186" s="46" t="s">
-        <v>5052</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.45">
@@ -53588,7 +53588,7 @@
         <v>1911</v>
       </c>
       <c r="C187" s="46" t="s">
-        <v>5053</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.45">
@@ -53599,7 +53599,7 @@
         <v>3441</v>
       </c>
       <c r="C188" s="46" t="s">
-        <v>5054</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.45">
@@ -53610,7 +53610,7 @@
         <v>1912</v>
       </c>
       <c r="C189" s="46" t="s">
-        <v>4940</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.45">
@@ -53621,7 +53621,7 @@
         <v>1906</v>
       </c>
       <c r="C190" s="46" t="s">
-        <v>5055</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.45">
@@ -53632,7 +53632,7 @@
         <v>1912</v>
       </c>
       <c r="C191" s="45" t="s">
-        <v>4927</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.45">
@@ -53643,7 +53643,7 @@
         <v>1911</v>
       </c>
       <c r="C192" s="46" t="s">
-        <v>5041</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.45">
@@ -53654,7 +53654,7 @@
         <v>1906</v>
       </c>
       <c r="C193" s="46" t="s">
-        <v>5056</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.45">
@@ -53665,7 +53665,7 @@
         <v>1901</v>
       </c>
       <c r="C194" s="46" t="s">
-        <v>4978</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.45">
@@ -53676,7 +53676,7 @@
         <v>3442</v>
       </c>
       <c r="C195" s="46" t="s">
-        <v>5057</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.45">
@@ -53687,7 +53687,7 @@
         <v>1912</v>
       </c>
       <c r="C196" s="46" t="s">
-        <v>4927</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.45">
@@ -53698,7 +53698,7 @@
         <v>3443</v>
       </c>
       <c r="C197" s="45" t="s">
-        <v>5058</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.45">
@@ -53709,7 +53709,7 @@
         <v>3444</v>
       </c>
       <c r="C198" s="46" t="s">
-        <v>5059</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.45">
@@ -53720,7 +53720,7 @@
         <v>3445</v>
       </c>
       <c r="C199" s="46" t="s">
-        <v>5060</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.45">
@@ -53731,7 +53731,7 @@
         <v>1914</v>
       </c>
       <c r="C200" s="45" t="s">
-        <v>5061</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.45">
@@ -53742,7 +53742,7 @@
         <v>1915</v>
       </c>
       <c r="C201" s="46" t="s">
-        <v>5062</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.45">
@@ -53753,7 +53753,7 @@
         <v>1905</v>
       </c>
       <c r="C202" s="46" t="s">
-        <v>4930</v>
+        <v>4925</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.45">
@@ -53764,7 +53764,7 @@
         <v>2044</v>
       </c>
       <c r="C203" s="46" t="s">
-        <v>5040</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.45">
@@ -53775,7 +53775,7 @@
         <v>3446</v>
       </c>
       <c r="C204" s="46" t="s">
-        <v>5063</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.45">
@@ -53786,7 +53786,7 @@
         <v>3447</v>
       </c>
       <c r="C205" s="46" t="s">
-        <v>5064</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.45">
@@ -53797,7 +53797,7 @@
         <v>3448</v>
       </c>
       <c r="C206" s="46" t="s">
-        <v>5065</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.45">
@@ -53808,7 +53808,7 @@
         <v>3449</v>
       </c>
       <c r="C207" s="46" t="s">
-        <v>5066</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.45">
@@ -53819,7 +53819,7 @@
         <v>3450</v>
       </c>
       <c r="C208" s="46" t="s">
-        <v>5067</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.45">
@@ -53830,7 +53830,7 @@
         <v>1912</v>
       </c>
       <c r="C209" s="46" t="s">
-        <v>4940</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.45">
@@ -53841,7 +53841,7 @@
         <v>1911</v>
       </c>
       <c r="C210" s="46" t="s">
-        <v>5068</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.45">
@@ -53852,7 +53852,7 @@
         <v>2111</v>
       </c>
       <c r="C211" s="46" t="s">
-        <v>5069</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.45">
@@ -53863,7 +53863,7 @@
         <v>3451</v>
       </c>
       <c r="C212" s="45" t="s">
-        <v>5070</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.45">
@@ -53874,7 +53874,7 @@
         <v>3373</v>
       </c>
       <c r="C213" s="46" t="s">
-        <v>4926</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.45">
@@ -53885,7 +53885,7 @@
         <v>3452</v>
       </c>
       <c r="C214" s="46" t="s">
-        <v>5071</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.45">
@@ -53896,7 +53896,7 @@
         <v>3453</v>
       </c>
       <c r="C215" s="46" t="s">
-        <v>5072</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.45">
@@ -53907,7 +53907,7 @@
         <v>3454</v>
       </c>
       <c r="C216" s="46" t="s">
-        <v>5073</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.45">
@@ -53918,7 +53918,7 @@
         <v>1925</v>
       </c>
       <c r="C217" s="46" t="s">
-        <v>5074</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.45">
@@ -53929,7 +53929,7 @@
         <v>1901</v>
       </c>
       <c r="C218" s="46" t="s">
-        <v>5075</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.45">
@@ -53940,7 +53940,7 @@
         <v>1896</v>
       </c>
       <c r="C219" s="46" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.45">
@@ -53951,7 +53951,7 @@
         <v>3455</v>
       </c>
       <c r="C220" s="46" t="s">
-        <v>5076</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.45">
@@ -53962,7 +53962,7 @@
         <v>1911</v>
       </c>
       <c r="C221" s="46" t="s">
-        <v>4959</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.45">
@@ -53973,7 +53973,7 @@
         <v>3456</v>
       </c>
       <c r="C222" s="46" t="s">
-        <v>5077</v>
+        <v>5072</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.45">
@@ -53984,7 +53984,7 @@
         <v>1896</v>
       </c>
       <c r="C223" s="46" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.45">
@@ -53995,7 +53995,7 @@
         <v>3457</v>
       </c>
       <c r="C224" s="46" t="s">
-        <v>5078</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.45">
@@ -54006,7 +54006,7 @@
         <v>3458</v>
       </c>
       <c r="C225" s="46" t="s">
-        <v>5079</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.45">
@@ -54017,7 +54017,7 @@
         <v>3459</v>
       </c>
       <c r="C226" s="46" t="s">
-        <v>5080</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.45">
@@ -54028,7 +54028,7 @@
         <v>1901</v>
       </c>
       <c r="C227" s="46" t="s">
-        <v>4978</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.45">
@@ -54039,7 +54039,7 @@
         <v>1925</v>
       </c>
       <c r="C228" s="46" t="s">
-        <v>5081</v>
+        <v>5076</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.45">
@@ -54050,7 +54050,7 @@
         <v>1912</v>
       </c>
       <c r="C229" s="46" t="s">
-        <v>5082</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.45">
@@ -54061,7 +54061,7 @@
         <v>1933</v>
       </c>
       <c r="C230" s="46" t="s">
-        <v>4733</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.45">
@@ -54072,7 +54072,7 @@
         <v>2104</v>
       </c>
       <c r="C231" s="46" t="s">
-        <v>4890</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.45">
@@ -54083,7 +54083,7 @@
         <v>1934</v>
       </c>
       <c r="C232" s="46" t="s">
-        <v>5083</v>
+        <v>5078</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.45">
@@ -54094,7 +54094,7 @@
         <v>2044</v>
       </c>
       <c r="C233" s="46" t="s">
-        <v>4932</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.45">
@@ -54105,7 +54105,7 @@
         <v>2111</v>
       </c>
       <c r="C234" s="46" t="s">
-        <v>5084</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.45">
@@ -54116,7 +54116,7 @@
         <v>3460</v>
       </c>
       <c r="C235" s="46" t="s">
-        <v>5085</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.45">
@@ -54127,7 +54127,7 @@
         <v>1911</v>
       </c>
       <c r="C236" s="46" t="s">
-        <v>5001</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.45">
@@ -54138,7 +54138,7 @@
         <v>3461</v>
       </c>
       <c r="C237" s="46" t="s">
-        <v>5086</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.45">
@@ -54149,7 +54149,7 @@
         <v>1896</v>
       </c>
       <c r="C238" s="46" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.45">
@@ -54160,7 +54160,7 @@
         <v>1896</v>
       </c>
       <c r="C239" s="46" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.45">
@@ -54171,7 +54171,7 @@
         <v>3462</v>
       </c>
       <c r="C240" s="46" t="s">
-        <v>5087</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.45">
@@ -54182,7 +54182,7 @@
         <v>1911</v>
       </c>
       <c r="C241" s="46" t="s">
-        <v>4797</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.45">
@@ -54193,7 +54193,7 @@
         <v>1901</v>
       </c>
       <c r="C242" s="46" t="s">
-        <v>4978</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.45">
@@ -54204,7 +54204,7 @@
         <v>1896</v>
       </c>
       <c r="C243" s="46" t="s">
-        <v>5088</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.45">
@@ -54215,7 +54215,7 @@
         <v>1906</v>
       </c>
       <c r="C244" s="46" t="s">
-        <v>5089</v>
+        <v>5084</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.45">
@@ -54226,7 +54226,7 @@
         <v>1912</v>
       </c>
       <c r="C245" s="46" t="s">
-        <v>4940</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.45">
@@ -54237,7 +54237,7 @@
         <v>1911</v>
       </c>
       <c r="C246" s="46" t="s">
-        <v>4996</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.45">
@@ -54248,7 +54248,7 @@
         <v>3463</v>
       </c>
       <c r="C247" s="46" t="s">
-        <v>5090</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.45">
@@ -54259,7 +54259,7 @@
         <v>1911</v>
       </c>
       <c r="C248" s="46" t="s">
-        <v>4959</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.45">
@@ -54270,7 +54270,7 @@
         <v>3464</v>
       </c>
       <c r="C249" s="46" t="s">
-        <v>5091</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.45">
@@ -54281,7 +54281,7 @@
         <v>1896</v>
       </c>
       <c r="C250" s="46" t="s">
-        <v>5088</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.45">
@@ -54292,7 +54292,7 @@
         <v>3427</v>
       </c>
       <c r="C251" s="46" t="s">
-        <v>5092</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.45">
@@ -54303,7 +54303,7 @@
         <v>3428</v>
       </c>
       <c r="C252" s="46" t="s">
-        <v>5093</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.45">
@@ -54314,7 +54314,7 @@
         <v>1912</v>
       </c>
       <c r="C253" s="46" t="s">
-        <v>4956</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.45">
@@ -54325,7 +54325,7 @@
         <v>1933</v>
       </c>
       <c r="C254" s="46" t="s">
-        <v>5094</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.45">
@@ -54336,7 +54336,7 @@
         <v>1934</v>
       </c>
       <c r="C255" s="46" t="s">
-        <v>5095</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.45">
@@ -54347,7 +54347,7 @@
         <v>1912</v>
       </c>
       <c r="C256" s="46" t="s">
-        <v>5096</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.45">
@@ -54358,7 +54358,7 @@
         <v>1911</v>
       </c>
       <c r="C257" s="46" t="s">
-        <v>4996</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.45">
@@ -54369,7 +54369,7 @@
         <v>2054</v>
       </c>
       <c r="C258" s="46" t="s">
-        <v>5097</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.45">
@@ -54380,7 +54380,7 @@
         <v>1896</v>
       </c>
       <c r="C259" s="46" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.45">
@@ -54391,7 +54391,7 @@
         <v>3465</v>
       </c>
       <c r="C260" s="46" t="s">
-        <v>5098</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.45">
@@ -54402,7 +54402,7 @@
         <v>3466</v>
       </c>
       <c r="C261" s="46" t="s">
-        <v>5099</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.45">
@@ -54413,7 +54413,7 @@
         <v>3467</v>
       </c>
       <c r="C262" s="46" t="s">
-        <v>5100</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.45">
@@ -54424,7 +54424,7 @@
         <v>1905</v>
       </c>
       <c r="C263" s="46" t="s">
-        <v>5101</v>
+        <v>5096</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.45">
@@ -54435,7 +54435,7 @@
         <v>1906</v>
       </c>
       <c r="C264" s="46" t="s">
-        <v>5102</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.45">
@@ -54446,7 +54446,7 @@
         <v>1907</v>
       </c>
       <c r="C265" s="46" t="s">
-        <v>5103</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.45">
@@ -54457,7 +54457,7 @@
         <v>1912</v>
       </c>
       <c r="C266" s="46" t="s">
-        <v>4927</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.45">
@@ -54468,7 +54468,7 @@
         <v>1905</v>
       </c>
       <c r="C267" s="46" t="s">
-        <v>5104</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.45">
@@ -54479,7 +54479,7 @@
         <v>2044</v>
       </c>
       <c r="C268" s="46" t="s">
-        <v>5105</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.45">
@@ -54490,7 +54490,7 @@
         <v>3468</v>
       </c>
       <c r="C269" s="46" t="s">
-        <v>5106</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.45">
@@ -54501,7 +54501,7 @@
         <v>1912</v>
       </c>
       <c r="C270" s="46" t="s">
-        <v>5107</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.45">
@@ -54512,7 +54512,7 @@
         <v>3469</v>
       </c>
       <c r="C271" s="46" t="s">
-        <v>5108</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.45">
@@ -54523,7 +54523,7 @@
         <v>3470</v>
       </c>
       <c r="C272" s="46" t="s">
-        <v>5109</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.45">
@@ -54534,7 +54534,7 @@
         <v>3471</v>
       </c>
       <c r="C273" s="46" t="s">
-        <v>5110</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.45">
@@ -54545,7 +54545,7 @@
         <v>3472</v>
       </c>
       <c r="C274" s="46" t="s">
-        <v>5111</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.45">
@@ -54556,7 +54556,7 @@
         <v>2018</v>
       </c>
       <c r="C275" s="46" t="s">
-        <v>4939</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.45">
@@ -54567,7 +54567,7 @@
         <v>2115</v>
       </c>
       <c r="C276" s="46" t="s">
-        <v>4757</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.45">
@@ -54578,7 +54578,7 @@
         <v>2020</v>
       </c>
       <c r="C277" s="46" t="s">
-        <v>4758</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.45">
@@ -54589,7 +54589,7 @@
         <v>2018</v>
       </c>
       <c r="C278" s="46" t="s">
-        <v>4939</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.45">
@@ -54600,7 +54600,7 @@
         <v>2115</v>
       </c>
       <c r="C279" s="46" t="s">
-        <v>4757</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.45">
@@ -54611,7 +54611,7 @@
         <v>2020</v>
       </c>
       <c r="C280" s="46" t="s">
-        <v>4758</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.45">
@@ -54622,7 +54622,7 @@
         <v>1911</v>
       </c>
       <c r="C281" s="45" t="s">
-        <v>5001</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.45">
@@ -54633,7 +54633,7 @@
         <v>3473</v>
       </c>
       <c r="C282" s="46" t="s">
-        <v>5112</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.45">
@@ -54644,7 +54644,7 @@
         <v>3474</v>
       </c>
       <c r="C283" s="46" t="s">
-        <v>5113</v>
+        <v>5108</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.45">
@@ -54655,7 +54655,7 @@
         <v>3475</v>
       </c>
       <c r="C284" s="46" t="s">
-        <v>5114</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.45">
@@ -54666,7 +54666,7 @@
         <v>3476</v>
       </c>
       <c r="C285" s="46" t="s">
-        <v>5115</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.45">
@@ -54677,7 +54677,7 @@
         <v>3477</v>
       </c>
       <c r="C286" s="46" t="s">
-        <v>5116</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.45">
@@ -54688,7 +54688,7 @@
         <v>3376</v>
       </c>
       <c r="C287" s="46" t="s">
-        <v>5117</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.45">
@@ -54699,7 +54699,7 @@
         <v>3478</v>
       </c>
       <c r="C288" s="46" t="s">
-        <v>5118</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.45">
@@ -54710,7 +54710,7 @@
         <v>3479</v>
       </c>
       <c r="C289" s="46" t="s">
-        <v>5119</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.45">
@@ -54721,7 +54721,7 @@
         <v>3376</v>
       </c>
       <c r="C290" s="45" t="s">
-        <v>5117</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.45">
@@ -54732,7 +54732,7 @@
         <v>3478</v>
       </c>
       <c r="C291" s="46" t="s">
-        <v>5120</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.45">
@@ -54743,7 +54743,7 @@
         <v>3479</v>
       </c>
       <c r="C292" s="46" t="s">
-        <v>5119</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.45">
@@ -54754,7 +54754,7 @@
         <v>3376</v>
       </c>
       <c r="C293" s="46" t="s">
-        <v>5117</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.45">
@@ -54765,7 +54765,7 @@
         <v>3478</v>
       </c>
       <c r="C294" s="46" t="s">
-        <v>5118</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.45">
@@ -54776,7 +54776,7 @@
         <v>3479</v>
       </c>
       <c r="C295" s="46" t="s">
-        <v>5119</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.45">
@@ -54787,7 +54787,7 @@
         <v>1896</v>
       </c>
       <c r="C296" s="46" t="s">
-        <v>5121</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.45">
@@ -54798,7 +54798,7 @@
         <v>3480</v>
       </c>
       <c r="C297" s="46" t="s">
-        <v>5122</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.45">
@@ -54809,7 +54809,7 @@
         <v>3481</v>
       </c>
       <c r="C298" s="46" t="s">
-        <v>5123</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.45">
@@ -54820,7 +54820,7 @@
         <v>1925</v>
       </c>
       <c r="C299" s="46" t="s">
-        <v>5081</v>
+        <v>5076</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.45">
@@ -54831,7 +54831,7 @@
         <v>3482</v>
       </c>
       <c r="C300" s="46" t="s">
-        <v>5124</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.45">
@@ -54842,7 +54842,7 @@
         <v>1911</v>
       </c>
       <c r="C301" s="46" t="s">
-        <v>5125</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.45">
@@ -54853,7 +54853,7 @@
         <v>1901</v>
       </c>
       <c r="C302" s="46" t="s">
-        <v>5126</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.45">
@@ -54864,7 +54864,7 @@
         <v>1896</v>
       </c>
       <c r="C303" s="46" t="s">
-        <v>5121</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.45">
@@ -54875,7 +54875,7 @@
         <v>1910</v>
       </c>
       <c r="C304" s="46" t="s">
-        <v>5127</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.45">
@@ -54886,7 +54886,7 @@
         <v>3483</v>
       </c>
       <c r="C305" s="46" t="s">
-        <v>5128</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.45">
@@ -54897,7 +54897,7 @@
         <v>3484</v>
       </c>
       <c r="C306" s="46" t="s">
-        <v>5129</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.45">
@@ -54908,7 +54908,7 @@
         <v>1911</v>
       </c>
       <c r="C307" s="46" t="s">
-        <v>4797</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.45">
@@ -54919,7 +54919,7 @@
         <v>3376</v>
       </c>
       <c r="C308" s="46" t="s">
-        <v>5117</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.45">
@@ -54930,7 +54930,7 @@
         <v>3478</v>
       </c>
       <c r="C309" s="46" t="s">
-        <v>5120</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.45">
@@ -54941,7 +54941,7 @@
         <v>3479</v>
       </c>
       <c r="C310" s="46" t="s">
-        <v>5119</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.45">
@@ -54952,7 +54952,7 @@
         <v>3376</v>
       </c>
       <c r="C311" s="46" t="s">
-        <v>5117</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.45">
@@ -54963,7 +54963,7 @@
         <v>3478</v>
       </c>
       <c r="C312" s="46" t="s">
-        <v>5118</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.45">
@@ -54974,7 +54974,7 @@
         <v>3479</v>
       </c>
       <c r="C313" s="46" t="s">
-        <v>5119</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.45">
@@ -54985,7 +54985,7 @@
         <v>1896</v>
       </c>
       <c r="C314" s="46" t="s">
-        <v>5121</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.45">
@@ -54996,7 +54996,7 @@
         <v>2042</v>
       </c>
       <c r="C315" s="46" t="s">
-        <v>5130</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.45">
@@ -55007,7 +55007,7 @@
         <v>2043</v>
       </c>
       <c r="C316" s="46" t="s">
-        <v>5131</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.45">
@@ -55018,7 +55018,7 @@
         <v>3485</v>
       </c>
       <c r="C317" s="46" t="s">
-        <v>5132</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.45">
@@ -55029,7 +55029,7 @@
         <v>1911</v>
       </c>
       <c r="C318" s="46" t="s">
-        <v>4800</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.45">
@@ -55040,7 +55040,7 @@
         <v>3486</v>
       </c>
       <c r="C319" s="46" t="s">
-        <v>5133</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.45">
@@ -55051,7 +55051,7 @@
         <v>3473</v>
       </c>
       <c r="C320" s="46" t="s">
-        <v>5112</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.45">
@@ -55062,7 +55062,7 @@
         <v>1911</v>
       </c>
       <c r="C321" s="46" t="s">
-        <v>4730</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.45">
@@ -55073,7 +55073,7 @@
         <v>3487</v>
       </c>
       <c r="C322" s="46" t="s">
-        <v>5134</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.45">
@@ -55084,7 +55084,7 @@
         <v>3488</v>
       </c>
       <c r="C323" s="46" t="s">
-        <v>5135</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.45">
@@ -55095,7 +55095,7 @@
         <v>3489</v>
       </c>
       <c r="C324" s="46" t="s">
-        <v>5136</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.45">
@@ -55106,7 +55106,7 @@
         <v>3490</v>
       </c>
       <c r="C325" s="46" t="s">
-        <v>5137</v>
+        <v>5132</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.45">
@@ -55117,7 +55117,7 @@
         <v>3491</v>
       </c>
       <c r="C326" s="46" t="s">
-        <v>5138</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.45">
@@ -55128,7 +55128,7 @@
         <v>3492</v>
       </c>
       <c r="C327" s="46" t="s">
-        <v>5139</v>
+        <v>5134</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.45">
@@ -55139,7 +55139,7 @@
         <v>3493</v>
       </c>
       <c r="C328" s="46" t="s">
-        <v>5140</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.45">
@@ -55150,7 +55150,7 @@
         <v>3494</v>
       </c>
       <c r="C329" s="46" t="s">
-        <v>5141</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.45">
@@ -55161,7 +55161,7 @@
         <v>3495</v>
       </c>
       <c r="C330" s="46" t="s">
-        <v>5142</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.45">
@@ -55172,7 +55172,7 @@
         <v>3496</v>
       </c>
       <c r="C331" s="46" t="s">
-        <v>5143</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.45">
@@ -55183,7 +55183,7 @@
         <v>3497</v>
       </c>
       <c r="C332" s="46" t="s">
-        <v>5144</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.45">
@@ -55194,7 +55194,7 @@
         <v>3498</v>
       </c>
       <c r="C333" s="46" t="s">
-        <v>5145</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.45">
@@ -55205,7 +55205,7 @@
         <v>2111</v>
       </c>
       <c r="C334" s="46" t="s">
-        <v>5146</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.45">
@@ -55216,7 +55216,7 @@
         <v>3499</v>
       </c>
       <c r="C335" s="46" t="s">
-        <v>5147</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.45">
@@ -55227,7 +55227,7 @@
         <v>1911</v>
       </c>
       <c r="C336" s="46" t="s">
-        <v>4730</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.45">
@@ -55238,7 +55238,7 @@
         <v>3500</v>
       </c>
       <c r="C337" s="46" t="s">
-        <v>5148</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.45">
@@ -55249,7 +55249,7 @@
         <v>1896</v>
       </c>
       <c r="C338" s="46" t="s">
-        <v>5121</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.45">
@@ -55260,7 +55260,7 @@
         <v>1933</v>
       </c>
       <c r="C339" s="46" t="s">
-        <v>5044</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.45">
@@ -55271,7 +55271,7 @@
         <v>1934</v>
       </c>
       <c r="C340" s="46" t="s">
-        <v>5149</v>
+        <v>5144</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.45">
@@ -55282,7 +55282,7 @@
         <v>3485</v>
       </c>
       <c r="C341" s="46" t="s">
-        <v>5150</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.45">
@@ -55293,7 +55293,7 @@
         <v>1896</v>
       </c>
       <c r="C342" s="46" t="s">
-        <v>5121</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.45">
@@ -55304,7 +55304,7 @@
         <v>3486</v>
       </c>
       <c r="C343" s="46" t="s">
-        <v>5151</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.45">
@@ -55315,7 +55315,7 @@
         <v>1896</v>
       </c>
       <c r="C344" s="46" t="s">
-        <v>5121</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.45">
@@ -55326,7 +55326,7 @@
         <v>1910</v>
       </c>
       <c r="C345" s="46" t="s">
-        <v>5127</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.45">
@@ -55337,7 +55337,7 @@
         <v>1911</v>
       </c>
       <c r="C346" s="46" t="s">
-        <v>5152</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.45">
@@ -55348,7 +55348,7 @@
         <v>1911</v>
       </c>
       <c r="C347" s="46" t="s">
-        <v>5153</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.45">
@@ -55359,7 +55359,7 @@
         <v>3501</v>
       </c>
       <c r="C348" s="46" t="s">
-        <v>5154</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.45">
@@ -55370,7 +55370,7 @@
         <v>3502</v>
       </c>
       <c r="C349" s="46" t="s">
-        <v>5155</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.45">
@@ -55381,7 +55381,7 @@
         <v>1925</v>
       </c>
       <c r="C350" s="46" t="s">
-        <v>4984</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.45">
@@ -55392,7 +55392,7 @@
         <v>3503</v>
       </c>
       <c r="C351" s="46" t="s">
-        <v>5156</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.45">
@@ -55403,7 +55403,7 @@
         <v>3504</v>
       </c>
       <c r="C352" s="46" t="s">
-        <v>5157</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.45">
@@ -55414,7 +55414,7 @@
         <v>1912</v>
       </c>
       <c r="C353" s="46" t="s">
-        <v>4956</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.45">
@@ -55425,7 +55425,7 @@
         <v>1911</v>
       </c>
       <c r="C354" s="44" t="s">
-        <v>5158</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.45">
@@ -55436,7 +55436,7 @@
         <v>3505</v>
       </c>
       <c r="C355" s="46" t="s">
-        <v>5159</v>
+        <v>5154</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.45">
@@ -55447,7 +55447,7 @@
         <v>2044</v>
       </c>
       <c r="C356" s="46" t="s">
-        <v>4932</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.45">
@@ -55458,7 +55458,7 @@
         <v>1933</v>
       </c>
       <c r="C357" s="46" t="s">
-        <v>5160</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.45">
@@ -55469,7 +55469,7 @@
         <v>1934</v>
       </c>
       <c r="C358" s="46" t="s">
-        <v>4797</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.45">
@@ -55480,7 +55480,7 @@
         <v>3400</v>
       </c>
       <c r="C359" s="46" t="s">
-        <v>5161</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.45">
@@ -55491,7 +55491,7 @@
         <v>1911</v>
       </c>
       <c r="C360" s="46" t="s">
-        <v>5162</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.45">
@@ -55502,7 +55502,7 @@
         <v>3401</v>
       </c>
       <c r="C361" s="46" t="s">
-        <v>5163</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.45">
@@ -55513,7 +55513,7 @@
         <v>1911</v>
       </c>
       <c r="C362" s="46" t="s">
-        <v>5164</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.45">
@@ -55524,7 +55524,7 @@
         <v>3506</v>
       </c>
       <c r="C363" s="46" t="s">
-        <v>5165</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.45">
@@ -55535,7 +55535,7 @@
         <v>3502</v>
       </c>
       <c r="C364" s="46" t="s">
-        <v>5166</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.45">
@@ -55546,7 +55546,7 @@
         <v>3400</v>
       </c>
       <c r="C365" s="46" t="s">
-        <v>5167</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.45">
@@ -55557,7 +55557,7 @@
         <v>3401</v>
       </c>
       <c r="C366" s="46" t="s">
-        <v>5168</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.45">
@@ -55568,7 +55568,7 @@
         <v>3507</v>
       </c>
       <c r="C367" s="46" t="s">
-        <v>5169</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.45">
@@ -55579,7 +55579,7 @@
         <v>1911</v>
       </c>
       <c r="C368" s="46" t="s">
-        <v>5162</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.45">
@@ -55590,7 +55590,7 @@
         <v>1912</v>
       </c>
       <c r="C369" s="46" t="s">
-        <v>5170</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.45">
@@ -55601,7 +55601,7 @@
         <v>3508</v>
       </c>
       <c r="C370" s="46" t="s">
-        <v>5171</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.45">
@@ -55612,7 +55612,7 @@
         <v>3509</v>
       </c>
       <c r="C371" s="46" t="s">
-        <v>5172</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.45">
@@ -55623,7 +55623,7 @@
         <v>3510</v>
       </c>
       <c r="C372" s="46" t="s">
-        <v>5173</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.45">
@@ -55634,7 +55634,7 @@
         <v>3511</v>
       </c>
       <c r="C373" s="46" t="s">
-        <v>5174</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.45">
@@ -55645,7 +55645,7 @@
         <v>3376</v>
       </c>
       <c r="C374" s="46" t="s">
-        <v>5117</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.45">
@@ -55656,7 +55656,7 @@
         <v>3478</v>
       </c>
       <c r="C375" s="46" t="s">
-        <v>5120</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.45">
@@ -55667,7 +55667,7 @@
         <v>3479</v>
       </c>
       <c r="C376" s="46" t="s">
-        <v>5119</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.45">
@@ -55678,7 +55678,7 @@
         <v>3376</v>
       </c>
       <c r="C377" s="45" t="s">
-        <v>5117</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.45">
@@ -55689,7 +55689,7 @@
         <v>3478</v>
       </c>
       <c r="C378" s="46" t="s">
-        <v>5118</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.45">
@@ -55700,7 +55700,7 @@
         <v>3479</v>
       </c>
       <c r="C379" s="46" t="s">
-        <v>5119</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.45">
@@ -55711,7 +55711,7 @@
         <v>3376</v>
       </c>
       <c r="C380" s="46" t="s">
-        <v>5117</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.45">
@@ -55722,7 +55722,7 @@
         <v>3478</v>
       </c>
       <c r="C381" s="46" t="s">
-        <v>5120</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.45">
@@ -55733,7 +55733,7 @@
         <v>3479</v>
       </c>
       <c r="C382" s="46" t="s">
-        <v>5119</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.45">
@@ -55744,7 +55744,7 @@
         <v>1912</v>
       </c>
       <c r="C383" s="46" t="s">
-        <v>4927</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.45">
@@ -55755,7 +55755,7 @@
         <v>1905</v>
       </c>
       <c r="C384" s="46" t="s">
-        <v>5175</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.45">
@@ -55766,7 +55766,7 @@
         <v>2044</v>
       </c>
       <c r="C385" s="46" t="s">
-        <v>5105</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.45">
@@ -55777,7 +55777,7 @@
         <v>3376</v>
       </c>
       <c r="C386" s="46" t="s">
-        <v>5117</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.45">
@@ -55788,7 +55788,7 @@
         <v>3478</v>
       </c>
       <c r="C387" s="46" t="s">
-        <v>5118</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.45">
@@ -55799,7 +55799,7 @@
         <v>3479</v>
       </c>
       <c r="C388" s="46" t="s">
-        <v>5119</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.45">
@@ -55810,7 +55810,7 @@
         <v>3485</v>
       </c>
       <c r="C389" s="46" t="s">
-        <v>5176</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.45">
@@ -55821,7 +55821,7 @@
         <v>1911</v>
       </c>
       <c r="C390" s="46" t="s">
-        <v>4797</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.45">
@@ -55832,7 +55832,7 @@
         <v>3486</v>
       </c>
       <c r="C391" s="46" t="s">
-        <v>5177</v>
+        <v>5172</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.45">
@@ -55843,7 +55843,7 @@
         <v>1911</v>
       </c>
       <c r="C392" s="46" t="s">
-        <v>5125</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.45">
@@ -55854,7 +55854,7 @@
         <v>3512</v>
       </c>
       <c r="C393" s="46" t="s">
-        <v>5178</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.45">
@@ -55865,7 +55865,7 @@
         <v>3513</v>
       </c>
       <c r="C394" s="46" t="s">
-        <v>5179</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.45">
@@ -55876,7 +55876,7 @@
         <v>3376</v>
       </c>
       <c r="C395" s="46" t="s">
-        <v>5117</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.45">
@@ -55887,7 +55887,7 @@
         <v>3478</v>
       </c>
       <c r="C396" s="46" t="s">
-        <v>5118</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.45">
@@ -55898,7 +55898,7 @@
         <v>3479</v>
       </c>
       <c r="C397" s="46" t="s">
-        <v>5119</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.45">
@@ -55909,7 +55909,7 @@
         <v>3376</v>
       </c>
       <c r="C398" s="46" t="s">
-        <v>5117</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.45">
@@ -55920,7 +55920,7 @@
         <v>3478</v>
       </c>
       <c r="C399" s="46" t="s">
-        <v>5120</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.45">
@@ -55931,7 +55931,7 @@
         <v>3479</v>
       </c>
       <c r="C400" s="46" t="s">
-        <v>5119</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.45">
@@ -55942,7 +55942,7 @@
         <v>2044</v>
       </c>
       <c r="C401" s="46" t="s">
-        <v>4932</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.45">
@@ -55953,7 +55953,7 @@
         <v>3514</v>
       </c>
       <c r="C402" s="46" t="s">
-        <v>5180</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.45">
@@ -55964,7 +55964,7 @@
         <v>3515</v>
       </c>
       <c r="C403" s="46" t="s">
-        <v>5181</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.45">
@@ -55975,7 +55975,7 @@
         <v>3516</v>
       </c>
       <c r="C404" s="45" t="s">
-        <v>5182</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.45">
@@ -55986,7 +55986,7 @@
         <v>3517</v>
       </c>
       <c r="C405" s="46" t="s">
-        <v>5183</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.45">
@@ -55997,7 +55997,7 @@
         <v>3518</v>
       </c>
       <c r="C406" s="44" t="s">
-        <v>5184</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.45">
@@ -56008,7 +56008,7 @@
         <v>1933</v>
       </c>
       <c r="C407" s="46" t="s">
-        <v>5153</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.45">
@@ -56019,7 +56019,7 @@
         <v>1934</v>
       </c>
       <c r="C408" s="46" t="s">
-        <v>5185</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.45">
@@ -56030,7 +56030,7 @@
         <v>1935</v>
       </c>
       <c r="C409" s="46" t="s">
-        <v>5186</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.45">
@@ -56041,7 +56041,7 @@
         <v>3519</v>
       </c>
       <c r="C410" s="46" t="s">
-        <v>5187</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.45">
@@ -56052,7 +56052,7 @@
         <v>1901</v>
       </c>
       <c r="C411" s="46" t="s">
-        <v>5126</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.45">
@@ -56063,7 +56063,7 @@
         <v>1896</v>
       </c>
       <c r="C412" s="46" t="s">
-        <v>5121</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.45">
@@ -56074,7 +56074,7 @@
         <v>1954</v>
       </c>
       <c r="C413" s="46" t="s">
-        <v>5188</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.45">
@@ -56085,7 +56085,7 @@
         <v>2044</v>
       </c>
       <c r="C414" s="46" t="s">
-        <v>4932</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.45">
@@ -56096,7 +56096,7 @@
         <v>1911</v>
       </c>
       <c r="C415" s="46" t="s">
-        <v>5189</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.45">
@@ -56107,7 +56107,7 @@
         <v>1912</v>
       </c>
       <c r="C416" s="46" t="s">
-        <v>4890</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.45">
@@ -56118,7 +56118,7 @@
         <v>3520</v>
       </c>
       <c r="C417" s="46" t="s">
-        <v>5190</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.45">
@@ -56129,7 +56129,7 @@
         <v>3521</v>
       </c>
       <c r="C418" s="46" t="s">
-        <v>5191</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.45">
@@ -56140,7 +56140,7 @@
         <v>3376</v>
       </c>
       <c r="C419" s="46" t="s">
-        <v>5117</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.45">
@@ -56151,7 +56151,7 @@
         <v>3478</v>
       </c>
       <c r="C420" s="46" t="s">
-        <v>5118</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.45">
@@ -56162,7 +56162,7 @@
         <v>3479</v>
       </c>
       <c r="C421" s="46" t="s">
-        <v>5119</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.45">
@@ -56173,7 +56173,7 @@
         <v>3522</v>
       </c>
       <c r="C422" s="46" t="s">
-        <v>5192</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.45">
@@ -56184,7 +56184,7 @@
         <v>3523</v>
       </c>
       <c r="C423" s="46" t="s">
-        <v>5193</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.45">
@@ -56195,7 +56195,7 @@
         <v>3524</v>
       </c>
       <c r="C424" s="46" t="s">
-        <v>5194</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.45">
@@ -56206,7 +56206,7 @@
         <v>3525</v>
       </c>
       <c r="C425" s="46" t="s">
-        <v>5195</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.45">
@@ -56217,7 +56217,7 @@
         <v>3526</v>
       </c>
       <c r="C426" s="46" t="s">
-        <v>5196</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.45">
@@ -56228,7 +56228,7 @@
         <v>3527</v>
       </c>
       <c r="C427" s="46" t="s">
-        <v>5197</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.45">
@@ -56239,7 +56239,7 @@
         <v>2044</v>
       </c>
       <c r="C428" s="44" t="s">
-        <v>4932</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.45">
@@ -56250,7 +56250,7 @@
         <v>2084</v>
       </c>
       <c r="C429" s="46" t="s">
-        <v>5198</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.45">
@@ -56261,7 +56261,7 @@
         <v>1896</v>
       </c>
       <c r="C430" s="46" t="s">
-        <v>5121</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.45">
@@ -56272,7 +56272,7 @@
         <v>1911</v>
       </c>
       <c r="C431" s="46" t="s">
-        <v>5199</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.45">
@@ -56283,7 +56283,7 @@
         <v>2044</v>
       </c>
       <c r="C432" s="46" t="s">
-        <v>4932</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.45">
@@ -56294,7 +56294,7 @@
         <v>3528</v>
       </c>
       <c r="C433" s="46" t="s">
-        <v>5200</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.45">
@@ -56305,7 +56305,7 @@
         <v>1933</v>
       </c>
       <c r="C434" s="46" t="s">
-        <v>5201</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.45">
@@ -56316,7 +56316,7 @@
         <v>1934</v>
       </c>
       <c r="C435" s="46" t="s">
-        <v>5202</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.45">
@@ -56327,7 +56327,7 @@
         <v>1935</v>
       </c>
       <c r="C436" s="46" t="s">
-        <v>5203</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.45">
@@ -56338,7 +56338,7 @@
         <v>3529</v>
       </c>
       <c r="C437" s="46" t="s">
-        <v>5204</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.45">
@@ -56349,7 +56349,7 @@
         <v>3530</v>
       </c>
       <c r="C438" s="46" t="s">
-        <v>5205</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.45">
@@ -56360,7 +56360,7 @@
         <v>1911</v>
       </c>
       <c r="C439" s="46" t="s">
-        <v>4797</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.45">
@@ -56371,7 +56371,7 @@
         <v>1925</v>
       </c>
       <c r="C440" s="46" t="s">
-        <v>5206</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.45">
@@ -56382,7 +56382,7 @@
         <v>3499</v>
       </c>
       <c r="C441" s="46" t="s">
-        <v>5207</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.45">
@@ -56393,7 +56393,7 @@
         <v>3500</v>
       </c>
       <c r="C442" s="46" t="s">
-        <v>5208</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.45">
@@ -56404,7 +56404,7 @@
         <v>3522</v>
       </c>
       <c r="C443" s="46" t="s">
-        <v>5209</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.45">
@@ -56415,7 +56415,7 @@
         <v>3523</v>
       </c>
       <c r="C444" s="46" t="s">
-        <v>5210</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.45">
@@ -56426,7 +56426,7 @@
         <v>3524</v>
       </c>
       <c r="C445" s="46" t="s">
-        <v>5211</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.45">
@@ -56437,7 +56437,7 @@
         <v>3531</v>
       </c>
       <c r="C446" s="46" t="s">
-        <v>5212</v>
+        <v>5207</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.45">
@@ -56448,7 +56448,7 @@
         <v>3532</v>
       </c>
       <c r="C447" s="46" t="s">
-        <v>5213</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.45">
@@ -56459,7 +56459,7 @@
         <v>3533</v>
       </c>
       <c r="C448" s="46" t="s">
-        <v>5214</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.45">
@@ -56470,7 +56470,7 @@
         <v>1910</v>
       </c>
       <c r="C449" s="46" t="s">
-        <v>5127</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.45">
@@ -56481,7 +56481,7 @@
         <v>1933</v>
       </c>
       <c r="C450" s="46" t="s">
-        <v>5215</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.45">
@@ -56492,7 +56492,7 @@
         <v>1934</v>
       </c>
       <c r="C451" s="46" t="s">
-        <v>5216</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.45">
@@ -56503,7 +56503,7 @@
         <v>3534</v>
       </c>
       <c r="C452" s="46" t="s">
-        <v>5217</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.45">
@@ -56514,7 +56514,7 @@
         <v>2044</v>
       </c>
       <c r="C453" s="46" t="s">
-        <v>4932</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.45">
@@ -56525,7 +56525,7 @@
         <v>1911</v>
       </c>
       <c r="C454" s="46" t="s">
-        <v>5125</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.45">
@@ -56536,7 +56536,7 @@
         <v>3376</v>
       </c>
       <c r="C455" s="46" t="s">
-        <v>5117</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.45">
@@ -56547,7 +56547,7 @@
         <v>3478</v>
       </c>
       <c r="C456" s="46" t="s">
-        <v>5120</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.45">
@@ -56558,7 +56558,7 @@
         <v>3479</v>
       </c>
       <c r="C457" s="46" t="s">
-        <v>5119</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.45">
@@ -56569,7 +56569,7 @@
         <v>2065</v>
       </c>
       <c r="C458" s="46" t="s">
-        <v>5218</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.45">
@@ -56580,7 +56580,7 @@
         <v>1901</v>
       </c>
       <c r="C459" s="46" t="s">
-        <v>4978</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.45">
@@ -56591,7 +56591,7 @@
         <v>3535</v>
       </c>
       <c r="C460" s="46" t="s">
-        <v>5219</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.45">
@@ -56602,7 +56602,7 @@
         <v>1910</v>
       </c>
       <c r="C461" s="46" t="s">
-        <v>4931</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.45">
@@ -56613,7 +56613,7 @@
         <v>1912</v>
       </c>
       <c r="C462" s="46" t="s">
-        <v>4927</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.45">
@@ -56624,7 +56624,7 @@
         <v>1906</v>
       </c>
       <c r="C463" s="46" t="s">
-        <v>5220</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.45">
@@ -56635,7 +56635,7 @@
         <v>3536</v>
       </c>
       <c r="C464" s="46" t="s">
-        <v>5221</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.45">
@@ -56646,7 +56646,7 @@
         <v>1925</v>
       </c>
       <c r="C465" s="46" t="s">
-        <v>4984</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.45">
@@ -56657,7 +56657,7 @@
         <v>1901</v>
       </c>
       <c r="C466" s="46" t="s">
-        <v>4978</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.45">
@@ -56668,7 +56668,7 @@
         <v>1911</v>
       </c>
       <c r="C467" s="44" t="s">
-        <v>5222</v>
+        <v>5217</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.45">
@@ -56679,7 +56679,7 @@
         <v>1912</v>
       </c>
       <c r="C468" s="44" t="s">
-        <v>4890</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.45">
@@ -56690,7 +56690,7 @@
         <v>1906</v>
       </c>
       <c r="C469" s="44" t="s">
-        <v>5223</v>
+        <v>5218</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.45">
@@ -56701,7 +56701,7 @@
         <v>1912</v>
       </c>
       <c r="C470" s="44" t="s">
-        <v>4890</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.45">
@@ -56712,7 +56712,7 @@
         <v>1911</v>
       </c>
       <c r="C471" s="44" t="s">
-        <v>4959</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.45">
@@ -56723,7 +56723,7 @@
         <v>1906</v>
       </c>
       <c r="C472" s="44" t="s">
-        <v>5224</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.45">
@@ -56734,7 +56734,7 @@
         <v>1896</v>
       </c>
       <c r="C473" s="44" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.45">
@@ -56745,7 +56745,7 @@
         <v>1911</v>
       </c>
       <c r="C474" s="44" t="s">
-        <v>5225</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.45">
@@ -56756,7 +56756,7 @@
         <v>1906</v>
       </c>
       <c r="C475" s="44" t="s">
-        <v>5226</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.45">
@@ -56767,7 +56767,7 @@
         <v>1912</v>
       </c>
       <c r="C476" s="44" t="s">
-        <v>4927</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.45">
@@ -56778,7 +56778,7 @@
         <v>1921</v>
       </c>
       <c r="C477" s="44" t="s">
-        <v>5227</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.45">
@@ -56789,7 +56789,7 @@
         <v>1906</v>
       </c>
       <c r="C478" s="44" t="s">
-        <v>5228</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.45">
@@ -56800,7 +56800,7 @@
         <v>1911</v>
       </c>
       <c r="C479" s="44" t="s">
-        <v>5229</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.45">
@@ -56811,7 +56811,7 @@
         <v>1896</v>
       </c>
       <c r="C480" s="44" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.45">
@@ -56822,7 +56822,7 @@
         <v>3537</v>
       </c>
       <c r="C481" s="44" t="s">
-        <v>5230</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.45">
@@ -56833,7 +56833,7 @@
         <v>1911</v>
       </c>
       <c r="C482" s="44" t="s">
-        <v>4996</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.45">
@@ -56844,7 +56844,7 @@
         <v>3376</v>
       </c>
       <c r="C483" s="44" t="s">
-        <v>5231</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.45">
@@ -56855,7 +56855,7 @@
         <v>1896</v>
       </c>
       <c r="C484" s="44" t="s">
-        <v>5232</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.45">
@@ -56866,7 +56866,7 @@
         <v>1912</v>
       </c>
       <c r="C485" s="44" t="s">
-        <v>4927</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.45">
@@ -56877,7 +56877,7 @@
         <v>1995</v>
       </c>
       <c r="C486" s="44" t="s">
-        <v>5233</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.45">
@@ -56888,7 +56888,7 @@
         <v>1906</v>
       </c>
       <c r="C487" s="44" t="s">
-        <v>5234</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.45">
@@ -56899,7 +56899,7 @@
         <v>3538</v>
       </c>
       <c r="C488" s="44" t="s">
-        <v>5235</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.45">
@@ -56910,7 +56910,7 @@
         <v>3539</v>
       </c>
       <c r="C489" s="44" t="s">
-        <v>5236</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.45">
@@ -56921,7 +56921,7 @@
         <v>3540</v>
       </c>
       <c r="C490" s="44" t="s">
-        <v>5237</v>
+        <v>5232</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.45">
@@ -56932,7 +56932,7 @@
         <v>1912</v>
       </c>
       <c r="C491" s="44" t="s">
-        <v>4890</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.45">
@@ -56943,7 +56943,7 @@
         <v>1925</v>
       </c>
       <c r="C492" s="44" t="s">
-        <v>5238</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.45">
@@ -56954,7 +56954,7 @@
         <v>3541</v>
       </c>
       <c r="C493" s="44" t="s">
-        <v>5239</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.45">
@@ -56965,7 +56965,7 @@
         <v>1910</v>
       </c>
       <c r="C494" s="44" t="s">
-        <v>4931</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.45">
@@ -56976,7 +56976,7 @@
         <v>1912</v>
       </c>
       <c r="C495" s="44" t="s">
-        <v>4940</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.45">
@@ -56987,7 +56987,7 @@
         <v>1906</v>
       </c>
       <c r="C496" s="44" t="s">
-        <v>5240</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.45">
@@ -56998,7 +56998,7 @@
         <v>2067</v>
       </c>
       <c r="C497" s="44" t="s">
-        <v>4928</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.45">
@@ -57009,7 +57009,7 @@
         <v>2068</v>
       </c>
       <c r="C498" s="44" t="s">
-        <v>5241</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.45">
@@ -57020,7 +57020,7 @@
         <v>1905</v>
       </c>
       <c r="C499" s="44" t="s">
-        <v>4930</v>
+        <v>4925</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.45">
@@ -57031,7 +57031,7 @@
         <v>2067</v>
       </c>
       <c r="C500" s="44" t="s">
-        <v>4928</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.45">
@@ -57042,7 +57042,7 @@
         <v>2068</v>
       </c>
       <c r="C501" s="44" t="s">
-        <v>5241</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.45">
@@ -57053,7 +57053,7 @@
         <v>1905</v>
       </c>
       <c r="C502" s="44" t="s">
-        <v>4930</v>
+        <v>4925</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.45">
@@ -57064,7 +57064,7 @@
         <v>1912</v>
       </c>
       <c r="C503" s="44" t="s">
-        <v>4927</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.45">
@@ -57075,7 +57075,7 @@
         <v>3542</v>
       </c>
       <c r="C504" s="44" t="s">
-        <v>5233</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.45">
@@ -57086,7 +57086,7 @@
         <v>1906</v>
       </c>
       <c r="C505" s="44" t="s">
-        <v>5242</v>
+        <v>5237</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.45">
@@ -57097,7 +57097,7 @@
         <v>3543</v>
       </c>
       <c r="C506" s="44" t="s">
-        <v>5243</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.45">
@@ -57108,7 +57108,7 @@
         <v>1901</v>
       </c>
       <c r="C507" s="44" t="s">
-        <v>4978</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.45">
@@ -57119,7 +57119,7 @@
         <v>1896</v>
       </c>
       <c r="C508" s="44" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.45">
@@ -57130,7 +57130,7 @@
         <v>1901</v>
       </c>
       <c r="C509" s="44" t="s">
-        <v>4978</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.45">
@@ -57141,7 +57141,7 @@
         <v>1896</v>
       </c>
       <c r="C510" s="44" t="s">
-        <v>5244</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.45">
@@ -57152,7 +57152,7 @@
         <v>3544</v>
       </c>
       <c r="C511" s="44" t="s">
-        <v>5245</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.45">
@@ -57163,7 +57163,7 @@
         <v>2051</v>
       </c>
       <c r="C512" s="44" t="s">
-        <v>5246</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.45">
@@ -57174,7 +57174,7 @@
         <v>2092</v>
       </c>
       <c r="C513" s="44" t="s">
-        <v>5247</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.45">
@@ -57185,7 +57185,7 @@
         <v>2093</v>
       </c>
       <c r="C514" s="44" t="s">
-        <v>5248</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.45">
@@ -57196,7 +57196,7 @@
         <v>3536</v>
       </c>
       <c r="C515" s="44" t="s">
-        <v>5249</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.45">
@@ -57207,7 +57207,7 @@
         <v>1901</v>
       </c>
       <c r="C516" s="44" t="s">
-        <v>4978</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.45">
@@ -57218,7 +57218,7 @@
         <v>1896</v>
       </c>
       <c r="C517" s="44" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.45">
@@ -57229,7 +57229,7 @@
         <v>1933</v>
       </c>
       <c r="C518" s="44" t="s">
-        <v>4733</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.45">
@@ -57240,7 +57240,7 @@
         <v>1934</v>
       </c>
       <c r="C519" s="44" t="s">
-        <v>5083</v>
+        <v>5078</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.45">
@@ -57251,7 +57251,7 @@
         <v>1896</v>
       </c>
       <c r="C520" s="44" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.45">
@@ -57262,7 +57262,7 @@
         <v>1933</v>
       </c>
       <c r="C521" s="44" t="s">
-        <v>5160</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.45">
@@ -57273,7 +57273,7 @@
         <v>3545</v>
       </c>
       <c r="C522" s="44" t="s">
-        <v>5250</v>
+        <v>5245</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.45">
@@ -57284,7 +57284,7 @@
         <v>1934</v>
       </c>
       <c r="C523" s="44" t="s">
-        <v>5251</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.45">
@@ -57295,7 +57295,7 @@
         <v>1911</v>
       </c>
       <c r="C524" s="44" t="s">
-        <v>5160</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.45">
@@ -57306,7 +57306,7 @@
         <v>3546</v>
       </c>
       <c r="C525" s="44" t="s">
-        <v>5252</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.45">
@@ -57317,7 +57317,7 @@
         <v>3547</v>
       </c>
       <c r="C526" s="44" t="s">
-        <v>5253</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.45">
@@ -57328,7 +57328,7 @@
         <v>3548</v>
       </c>
       <c r="C527" s="44" t="s">
-        <v>5254</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.45">
@@ -57339,7 +57339,7 @@
         <v>3549</v>
       </c>
       <c r="C528" s="44" t="s">
-        <v>5255</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.45">
@@ -57350,7 +57350,7 @@
         <v>3550</v>
       </c>
       <c r="C529" s="44" t="s">
-        <v>5256</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.45">
@@ -57361,7 +57361,7 @@
         <v>3551</v>
       </c>
       <c r="C530" s="44" t="s">
-        <v>5257</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.45">
@@ -57372,7 +57372,7 @@
         <v>1925</v>
       </c>
       <c r="C531" s="44" t="s">
-        <v>5258</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.45">
@@ -57383,7 +57383,7 @@
         <v>3552</v>
       </c>
       <c r="C532" s="44" t="s">
-        <v>5259</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.45">
@@ -57394,7 +57394,7 @@
         <v>3373</v>
       </c>
       <c r="C533" s="44" t="s">
-        <v>4926</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.45">
@@ -57405,7 +57405,7 @@
         <v>1911</v>
       </c>
       <c r="C534" s="44" t="s">
-        <v>4733</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.45">
@@ -57416,7 +57416,7 @@
         <v>1913</v>
       </c>
       <c r="C535" s="44" t="s">
-        <v>5260</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.45">
@@ -57427,7 +57427,7 @@
         <v>3553</v>
       </c>
       <c r="C536" s="44" t="s">
-        <v>5261</v>
+        <v>5256</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.45">
@@ -57438,7 +57438,7 @@
         <v>3554</v>
       </c>
       <c r="C537" s="44" t="s">
-        <v>5262</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.45">
@@ -57449,7 +57449,7 @@
         <v>3555</v>
       </c>
       <c r="C538" s="44" t="s">
-        <v>5263</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.45">
@@ -57460,7 +57460,7 @@
         <v>1911</v>
       </c>
       <c r="C539" s="44" t="s">
-        <v>4959</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.45">
@@ -57471,7 +57471,7 @@
         <v>3556</v>
       </c>
       <c r="C540" s="44" t="s">
-        <v>5264</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.45">
@@ -57482,7 +57482,7 @@
         <v>1896</v>
       </c>
       <c r="C541" s="44" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.45">
@@ -57493,7 +57493,7 @@
         <v>1896</v>
       </c>
       <c r="C542" s="44" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.45">
@@ -57504,7 +57504,7 @@
         <v>1911</v>
       </c>
       <c r="C543" s="44" t="s">
-        <v>4996</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.45">
@@ -57515,7 +57515,7 @@
         <v>3557</v>
       </c>
       <c r="C544" s="44" t="s">
-        <v>5265</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.45">
@@ -57526,7 +57526,7 @@
         <v>1906</v>
       </c>
       <c r="C545" s="44" t="s">
-        <v>5266</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.45">
@@ -57537,7 +57537,7 @@
         <v>1910</v>
       </c>
       <c r="C546" s="44" t="s">
-        <v>4931</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.45">
@@ -57548,7 +57548,7 @@
         <v>3434</v>
       </c>
       <c r="C547" s="44" t="s">
-        <v>5267</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.45">
@@ -57559,7 +57559,7 @@
         <v>1933</v>
       </c>
       <c r="C548" s="44" t="s">
-        <v>4730</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.45">
@@ -57570,7 +57570,7 @@
         <v>1934</v>
       </c>
       <c r="C549" s="44" t="s">
-        <v>4797</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.45">
@@ -57581,7 +57581,7 @@
         <v>3558</v>
       </c>
       <c r="C550" s="44" t="s">
-        <v>5268</v>
+        <v>5263</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.45">
@@ -57592,7 +57592,7 @@
         <v>1911</v>
       </c>
       <c r="C551" s="44" t="s">
-        <v>4733</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.45">
@@ -57603,7 +57603,7 @@
         <v>1912</v>
       </c>
       <c r="C552" s="44" t="s">
-        <v>4927</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.45">
@@ -57614,7 +57614,7 @@
         <v>3559</v>
       </c>
       <c r="C553" s="44" t="s">
-        <v>5269</v>
+        <v>5264</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.45">
@@ -57625,7 +57625,7 @@
         <v>1921</v>
       </c>
       <c r="C554" s="44" t="s">
-        <v>5270</v>
+        <v>5265</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.45">
@@ -57636,7 +57636,7 @@
         <v>1911</v>
       </c>
       <c r="C555" s="44" t="s">
-        <v>4733</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.45">
@@ -57647,7 +57647,7 @@
         <v>1896</v>
       </c>
       <c r="C556" s="44" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.45">
@@ -57658,7 +57658,7 @@
         <v>3560</v>
       </c>
       <c r="C557" s="44" t="s">
-        <v>5271</v>
+        <v>5266</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.45">
@@ -57669,7 +57669,7 @@
         <v>3561</v>
       </c>
       <c r="C558" s="44" t="s">
-        <v>5233</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.45">
@@ -57680,7 +57680,7 @@
         <v>1896</v>
       </c>
       <c r="C559" s="44" t="s">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.45">
@@ -57691,7 +57691,7 @@
         <v>3562</v>
       </c>
       <c r="C560" s="44" t="s">
-        <v>5272</v>
+        <v>5267</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.45">
@@ -57702,7 +57702,7 @@
         <v>3563</v>
       </c>
       <c r="C561" s="44" t="s">
-        <v>5273</v>
+        <v>5268</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.45">
@@ -57713,7 +57713,7 @@
         <v>3564</v>
       </c>
       <c r="C562" s="44" t="s">
-        <v>5274</v>
+        <v>5269</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.45">
@@ -57724,7 +57724,7 @@
         <v>3565</v>
       </c>
       <c r="C563" s="44" t="s">
-        <v>5275</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.45">
@@ -57735,7 +57735,7 @@
         <v>3566</v>
       </c>
       <c r="C564" s="44" t="s">
-        <v>5276</v>
+        <v>5271</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.45">
@@ -57746,7 +57746,7 @@
         <v>3567</v>
       </c>
       <c r="C565" s="44" t="s">
-        <v>5277</v>
+        <v>5272</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.45">
@@ -57757,7 +57757,7 @@
         <v>1911</v>
       </c>
       <c r="C566" s="44" t="s">
-        <v>4800</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.45">
@@ -57768,7 +57768,7 @@
         <v>3568</v>
       </c>
       <c r="C567" s="44" t="s">
-        <v>5278</v>
+        <v>5273</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.45">
@@ -57779,7 +57779,7 @@
         <v>1896</v>
       </c>
       <c r="C568" s="44" t="s">
-        <v>5121</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.45">
@@ -57790,7 +57790,7 @@
         <v>3376</v>
       </c>
       <c r="C569" s="44" t="s">
-        <v>5117</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.45">
@@ -57801,7 +57801,7 @@
         <v>3478</v>
       </c>
       <c r="C570" s="44" t="s">
-        <v>5118</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.45">
@@ -57812,7 +57812,7 @@
         <v>3479</v>
       </c>
       <c r="C571" s="44" t="s">
-        <v>5119</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.45">
@@ -57823,7 +57823,7 @@
         <v>1911</v>
       </c>
       <c r="C572" s="44" t="s">
-        <v>4800</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.45">
@@ -57834,7 +57834,7 @@
         <v>3569</v>
       </c>
       <c r="C573" s="44" t="s">
-        <v>5279</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.45">
@@ -57845,7 +57845,7 @@
         <v>3570</v>
       </c>
       <c r="C574" s="44" t="s">
-        <v>5280</v>
+        <v>5275</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.45">
@@ -57856,7 +57856,7 @@
         <v>3571</v>
       </c>
       <c r="C575" s="44" t="s">
-        <v>5281</v>
+        <v>5276</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.45">
@@ -57867,7 +57867,7 @@
         <v>2084</v>
       </c>
       <c r="C576" s="44" t="s">
-        <v>5282</v>
+        <v>5277</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.45">
@@ -57878,7 +57878,7 @@
         <v>2111</v>
       </c>
       <c r="C577" s="44" t="s">
-        <v>5283</v>
+        <v>5278</v>
       </c>
     </row>
   </sheetData>
@@ -62640,7 +62640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -67286,19 +67286,19 @@
         <v>214</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>4910</v>
+        <v>4906</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>2697</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>4911</v>
+        <v>4907</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>4912</v>
+        <v>4908</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>4913</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -68554,19 +68554,19 @@
         <v>214</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>4910</v>
+        <v>4906</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>2697</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>4911</v>
+        <v>4907</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>4912</v>
+        <v>4908</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>4913</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">

--- a/src/data/TDE5_de-DE.xlsx
+++ b/src/data/TDE5_de-DE.xlsx
@@ -9,31 +9,32 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7755" xr2:uid="{20ED8CD0-32B3-4B44-9637-7F04B1E30A79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7755" activeTab="3" xr2:uid="{20ED8CD0-32B3-4B44-9637-7F04B1E30A79}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="30" r:id="rId1"/>
     <sheet name="EXPERIENCE_LEVELS" sheetId="25" r:id="rId2"/>
     <sheet name="RACES" sheetId="2" r:id="rId3"/>
-    <sheet name="CULTURES" sheetId="5" r:id="rId4"/>
-    <sheet name="PROFESSIONS" sheetId="7" r:id="rId5"/>
-    <sheet name="PROFESSION_VARIANTS" sheetId="16" r:id="rId6"/>
-    <sheet name="ADVANTAGES" sheetId="8" r:id="rId7"/>
-    <sheet name="DISADVANTAGES" sheetId="11" r:id="rId8"/>
-    <sheet name="ATTRIBUTES" sheetId="18" r:id="rId9"/>
-    <sheet name="SKILLS" sheetId="9" r:id="rId10"/>
-    <sheet name="COMBAT_TECHNIQUES" sheetId="10" r:id="rId11"/>
-    <sheet name="SPELLS" sheetId="12" r:id="rId12"/>
-    <sheet name="CANTRIPS" sheetId="28" r:id="rId13"/>
-    <sheet name="CHANTS" sheetId="13" r:id="rId14"/>
-    <sheet name="BLESSINGS" sheetId="29" r:id="rId15"/>
-    <sheet name="SPECIAL_ABILITIES" sheetId="14" r:id="rId16"/>
-    <sheet name="TradeSecr" sheetId="22" r:id="rId17"/>
-    <sheet name="Languages" sheetId="24" r:id="rId18"/>
-    <sheet name="Scripts" sheetId="23" r:id="rId19"/>
-    <sheet name="SpellX" sheetId="27" r:id="rId20"/>
-    <sheet name="ChantX" sheetId="31" r:id="rId21"/>
-    <sheet name="EQUIPMENT" sheetId="15" r:id="rId22"/>
+    <sheet name="RACE_VARIANTS" sheetId="32" r:id="rId4"/>
+    <sheet name="CULTURES" sheetId="5" r:id="rId5"/>
+    <sheet name="PROFESSIONS" sheetId="7" r:id="rId6"/>
+    <sheet name="PROFESSION_VARIANTS" sheetId="16" r:id="rId7"/>
+    <sheet name="ADVANTAGES" sheetId="8" r:id="rId8"/>
+    <sheet name="DISADVANTAGES" sheetId="11" r:id="rId9"/>
+    <sheet name="ATTRIBUTES" sheetId="18" r:id="rId10"/>
+    <sheet name="SKILLS" sheetId="9" r:id="rId11"/>
+    <sheet name="COMBAT_TECHNIQUES" sheetId="10" r:id="rId12"/>
+    <sheet name="SPELLS" sheetId="12" r:id="rId13"/>
+    <sheet name="CANTRIPS" sheetId="28" r:id="rId14"/>
+    <sheet name="CHANTS" sheetId="13" r:id="rId15"/>
+    <sheet name="BLESSINGS" sheetId="29" r:id="rId16"/>
+    <sheet name="SPECIAL_ABILITIES" sheetId="14" r:id="rId17"/>
+    <sheet name="TradeSecr" sheetId="22" r:id="rId18"/>
+    <sheet name="Languages" sheetId="24" r:id="rId19"/>
+    <sheet name="Scripts" sheetId="23" r:id="rId20"/>
+    <sheet name="SpellX" sheetId="27" r:id="rId21"/>
+    <sheet name="ChantX" sheetId="31" r:id="rId22"/>
+    <sheet name="EQUIPMENT" sheetId="15" r:id="rId23"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10056" uniqueCount="5284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10042" uniqueCount="5286">
   <si>
     <t>id</t>
   </si>
@@ -15931,6 +15932,12 @@
   </si>
   <si>
     <t>AMAI</t>
+  </si>
+  <si>
+    <t>Menschen</t>
+  </si>
+  <si>
+    <t>Elfen</t>
   </si>
 </sst>
 </file>
@@ -16264,7 +16271,31 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
-  <dxfs count="165">
+  <dxfs count="173">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -17252,7 +17283,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Table Style 1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="164"/>
+      <tableStyleElement type="headerRow" dxfId="172"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -17616,7 +17647,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:C12" totalsRowShown="0" headerRowDxfId="163" dataDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:C12" totalsRowShown="0" headerRowDxfId="171" dataDxfId="170">
   <autoFilter ref="A1:C12" xr:uid="{00000000-0009-0000-0100-000011000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17626,16 +17657,49 @@
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="161"/>
-    <tableColumn id="3" xr3:uid="{85D136C5-D53F-4434-AD97-0FFCD29F6BC8}" name="short" dataDxfId="160"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="159"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="169"/>
+    <tableColumn id="3" xr3:uid="{85D136C5-D53F-4434-AD97-0FFCD29F6BC8}" name="short" dataDxfId="168"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="167"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:M1048576" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
+  <autoFilter ref="A1:J60" xr:uid="{00000000-0009-0000-0100-000007000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+  </autoFilter>
+  <sortState ref="A2:D60">
+    <sortCondition ref="A1:A60"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="id" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="name" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="spec" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="spec_input" dataDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="tools" dataDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="quality" dataDxfId="98"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="failed" dataDxfId="97"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="critical" dataDxfId="96"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="botch" dataDxfId="95"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="src" dataDxfId="94"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:M1048576" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <autoFilter ref="A1:M1048576" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17652,26 +17716,26 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="id" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="name" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="effect" dataDxfId="81"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="castingtime" dataDxfId="80"/>
-    <tableColumn id="10" xr3:uid="{D89CFCD8-0667-4532-ADCB-656E0F380FC9}" name="castingtimeShort" dataDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="aecost" dataDxfId="78"/>
-    <tableColumn id="11" xr3:uid="{AA76CB3A-D16A-4989-ACEE-9057F8B23848}" name="aecostShort" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="range" dataDxfId="76"/>
-    <tableColumn id="12" xr3:uid="{DD92ED00-D630-4075-AFBB-75382F298664}" name="rangeShort" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="duration" dataDxfId="74"/>
-    <tableColumn id="13" xr3:uid="{35897220-D86D-43E4-9246-750CE8AD5E3B}" name="durationShort" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="target" dataDxfId="72"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="src" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="id" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="name" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="effect" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="castingtime" dataDxfId="88"/>
+    <tableColumn id="10" xr3:uid="{D89CFCD8-0667-4532-ADCB-656E0F380FC9}" name="castingtimeShort" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="aecost" dataDxfId="86"/>
+    <tableColumn id="11" xr3:uid="{AA76CB3A-D16A-4989-ACEE-9057F8B23848}" name="aecostShort" dataDxfId="85"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="range" dataDxfId="84"/>
+    <tableColumn id="12" xr3:uid="{DD92ED00-D630-4075-AFBB-75382F298664}" name="rangeShort" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="duration" dataDxfId="82"/>
+    <tableColumn id="13" xr3:uid="{35897220-D86D-43E4-9246-750CE8AD5E3B}" name="durationShort" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="target" dataDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="src" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table14" displayName="Table14" ref="A1:H44" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table14" displayName="Table14" ref="A1:H44" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="A1:H44" xr:uid="{00000000-0009-0000-0100-00000E000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17686,21 +17750,21 @@
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="id" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="name" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{7C0356E8-3E12-4648-AED9-D4476F17A0CC}" name="effect" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{03F4DA49-0E9B-4841-B835-1233F9A33781}" name="range" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{1B189756-8D73-4A73-878A-C6D669265233}" name="duration" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{39D35FEE-F7F7-43E2-8D36-B288D27F4FED}" name="target" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{05155ABB-B917-4A7E-A43F-F1AF0533E4BC}" name="note" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{0202CF45-C4D3-4A21-820D-5E5F4A183383}" name="src" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="id" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="name" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{7C0356E8-3E12-4648-AED9-D4476F17A0CC}" name="effect" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{03F4DA49-0E9B-4841-B835-1233F9A33781}" name="range" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{1B189756-8D73-4A73-878A-C6D669265233}" name="duration" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{39D35FEE-F7F7-43E2-8D36-B288D27F4FED}" name="target" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{05155ABB-B917-4A7E-A43F-F1AF0533E4BC}" name="note" dataDxfId="70"/>
+    <tableColumn id="8" xr3:uid="{0202CF45-C4D3-4A21-820D-5E5F4A183383}" name="src" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabelle5" displayName="Tabelle5" ref="A1:M193" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabelle5" displayName="Tabelle5" ref="A1:M193" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:M193" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17720,26 +17784,26 @@
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="id" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="name" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{452BCF15-63D6-4F0D-8237-F453C9931794}" name="effect" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{3C4B8B30-E7ED-4AB5-BC66-F5C283820DD3}" name="castingtime" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{EDD4FA58-CDB8-416C-923B-13AE644AA21A}" name="castingtimeShort" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{E3A80605-B07C-400F-9DD6-DA1ECD45B17F}" name="kpcost" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{3735962A-FF4F-4E3D-9AFC-95B48BCF0758}" name="kpcostShort" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{4D0248C5-34EF-49A3-B1B4-33D1C05D9FBB}" name="range" dataDxfId="51"/>
-    <tableColumn id="9" xr3:uid="{D6111C84-C6C2-4C98-9BAC-040E9A31F2B9}" name="rangeShort" dataDxfId="50"/>
-    <tableColumn id="10" xr3:uid="{F33F5A8B-FEA1-4B00-AE2D-20CCBB24FF2A}" name="duration" dataDxfId="49"/>
-    <tableColumn id="11" xr3:uid="{66749CC6-D9C4-4BF4-BA63-F5A58FD8E6CB}" name="durationShort" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{BE17D95F-F42A-48F5-9E7F-A545D95D81C2}" name="target" dataDxfId="47"/>
-    <tableColumn id="13" xr3:uid="{1E0275F4-0996-4EC0-B571-4BB2870B8257}" name="src" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="id" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="name" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{452BCF15-63D6-4F0D-8237-F453C9931794}" name="effect" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{3C4B8B30-E7ED-4AB5-BC66-F5C283820DD3}" name="castingtime" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{EDD4FA58-CDB8-416C-923B-13AE644AA21A}" name="castingtimeShort" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{E3A80605-B07C-400F-9DD6-DA1ECD45B17F}" name="kpcost" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{3735962A-FF4F-4E3D-9AFC-95B48BCF0758}" name="kpcostShort" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{4D0248C5-34EF-49A3-B1B4-33D1C05D9FBB}" name="range" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{D6111C84-C6C2-4C98-9BAC-040E9A31F2B9}" name="rangeShort" dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{F33F5A8B-FEA1-4B00-AE2D-20CCBB24FF2A}" name="duration" dataDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{66749CC6-D9C4-4BF4-BA63-F5A58FD8E6CB}" name="durationShort" dataDxfId="56"/>
+    <tableColumn id="12" xr3:uid="{BE17D95F-F42A-48F5-9E7F-A545D95D81C2}" name="target" dataDxfId="55"/>
+    <tableColumn id="13" xr3:uid="{1E0275F4-0996-4EC0-B571-4BB2870B8257}" name="src" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table16" displayName="Table16" ref="A1:G13" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table16" displayName="Table16" ref="A1:G13" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:G13" xr:uid="{00000000-0009-0000-0100-000010000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17750,20 +17814,20 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="id" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="name" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{459C17AD-3409-41D7-8801-F6FE1515AFC9}" name="effect" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{6753AB3A-2424-4D10-84BF-032777BAF818}" name="range" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{4411F645-F9D2-4514-A703-39B5D9965BFB}" name="duration" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{F4CC0549-F8A2-48BA-8FC4-7D4AD9A2368C}" name="target" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{C43A0203-6258-4D01-A81A-CBAD9FBB7A23}" name="src" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="id" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="name" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{459C17AD-3409-41D7-8801-F6FE1515AFC9}" name="effect" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{6753AB3A-2424-4D10-84BF-032777BAF818}" name="range" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{4411F645-F9D2-4514-A703-39B5D9965BFB}" name="duration" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{F4CC0549-F8A2-48BA-8FC4-7D4AD9A2368C}" name="target" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{C43A0203-6258-4D01-A81A-CBAD9FBB7A23}" name="src" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Tabelle6" displayName="Tabelle6" ref="A1:J664" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Tabelle6" displayName="Tabelle6" ref="A1:J664" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A1:J664" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17777,37 +17841,37 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="id" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="name" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="sel" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="input" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Column1" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Column2" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Column3" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Column4" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="Column5" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="Column6" dataDxfId="25"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table10" displayName="Table10" ref="A1:B111" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:B111" xr:uid="{00000000-0009-0000-0100-00000A000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="id" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="name" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="id" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="name" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="sel" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="input" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Column1" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Column2" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Column3" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Column4" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="Column5" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="Column6" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table10" displayName="Table10" ref="A1:B111" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:B111" xr:uid="{00000000-0009-0000-0100-00000A000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="id" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="name" dataDxfId="29"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:D76" xr:uid="{00000000-0009-0000-0100-00000C000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17815,77 +17879,77 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="id" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="name" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="spec" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="specInput" dataDxfId="15"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table11" displayName="Table11" ref="A1:B36" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:B36" xr:uid="{00000000-0009-0000-0100-00000B000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="id" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="name" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="id" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="name" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="spec" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="specInput" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table15" displayName="Table15" ref="A1:C466" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table11" displayName="Table11" ref="A1:B36" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:B36" xr:uid="{00000000-0009-0000-0100-00000B000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="id" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="name" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table15" displayName="Table15" ref="A1:C466" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="A1:C466" xr:uid="{00000000-0009-0000-0100-00000F000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="id" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="name" dataDxfId="8" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="3" xr3:uid="{5F05CA31-8C2A-4303-BD9A-7E27EC13CA17}" name="effect" dataDxfId="7" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="id" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="name" dataDxfId="16" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="3" xr3:uid="{5F05CA31-8C2A-4303-BD9A-7E27EC13CA17}" name="effect" dataDxfId="15" dataCellStyle="Excel Built-in Normal"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{BB3927CB-5698-4DFF-B48D-425D7E21C02B}" name="Tabelle20" displayName="Tabelle20" ref="A1:C577" totalsRowShown="0" headerRowDxfId="6">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:B8" totalsRowShown="0" headerRowDxfId="166" dataDxfId="165">
+  <autoFilter ref="A1:B8" xr:uid="{00000000-0009-0000-0100-00000D000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="164"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="163"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{BB3927CB-5698-4DFF-B48D-425D7E21C02B}" name="Tabelle20" displayName="Tabelle20" ref="A1:C577" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A1:C577" xr:uid="{27BF4B55-7C3C-4E9B-A139-DBDDC3FBF905}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3B1007AC-E41F-48C9-90A0-CCE4A91720CD}" name="id" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{2C7E5741-9086-4357-A3F3-05CB168DE409}" name="name" dataDxfId="4" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="3" xr3:uid="{0656219C-B222-4E12-99AC-408E03225953}" name="effect" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{3B1007AC-E41F-48C9-90A0-CCE4A91720CD}" name="id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{2C7E5741-9086-4357-A3F3-05CB168DE409}" name="name" dataDxfId="12" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="3" xr3:uid="{0656219C-B222-4E12-99AC-408E03225953}" name="effect" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:B8" totalsRowShown="0" headerRowDxfId="158" dataDxfId="157">
-  <autoFilter ref="A1:B8" xr:uid="{00000000-0009-0000-0100-00000D000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="156"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="155"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabelle9" displayName="Tabelle9" ref="A1:B546" totalsRowShown="0" headerRowDxfId="2">
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabelle9" displayName="Tabelle9" ref="A1:B546" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:B546" xr:uid="{00000000-0009-0000-0100-000009000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17894,16 +17958,16 @@
     <sortCondition ref="A1:A474"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="id" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="id" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="name" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle18" displayName="Tabelle18" ref="A1:K13" totalsRowShown="0" headerRowDxfId="154" dataDxfId="153">
-  <autoFilter ref="A1:K13" xr:uid="{00000000-0009-0000-0100-000012000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle18" displayName="Tabelle18" ref="A1:K5" totalsRowShown="0" headerRowDxfId="162" dataDxfId="161">
+  <autoFilter ref="A1:K5" xr:uid="{00000000-0009-0000-0100-000012000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -17914,24 +17978,46 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="152"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="151"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="attributeAdjustments" dataDxfId="150"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="automaticAdvantages" dataDxfId="149"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="stronglyRecommendedAdvantages" dataDxfId="148"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="stronglyRecommendedDisadvantages" dataDxfId="147"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="commonAdvantages" dataDxfId="146"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="commonDisadvantages" dataDxfId="145"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="uncommonAdvantages" dataDxfId="144"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="uncommonDisadvantages" dataDxfId="143"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="src" dataDxfId="142"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="160"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="159"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="attributeAdjustments" dataDxfId="158"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="automaticAdvantages" dataDxfId="157"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="stronglyRecommendedAdvantages" dataDxfId="156"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="stronglyRecommendedDisadvantages" dataDxfId="155"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="commonAdvantages" dataDxfId="154"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="commonDisadvantages" dataDxfId="153"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="uncommonAdvantages" dataDxfId="152"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="uncommonDisadvantages" dataDxfId="151"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="src" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{B4F1794A-E7C4-468F-B8D8-970C354AABE6}" name="Tabelle19" displayName="Tabelle19" ref="A1:N28" totalsRowShown="0" headerRowDxfId="141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{DA00A1B8-C21A-4F43-95C8-F1DADB44E1BF}" name="Tabelle21" displayName="Tabelle21" ref="A1:F11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:F11" xr:uid="{2015DD2A-94FE-48A1-9A21-79210BEC8E55}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{68ECDEF1-44D6-4F79-827E-997DF7EB74ED}" name="id" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F4F7839D-68A9-4C0A-9D9C-DE3DB776A2ED}" name="name" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{E9F2498B-1886-4D09-B068-B47D26834095}" name="commonAdvantages" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{0E599C63-430E-4B36-B37B-050F33DE8F76}" name="commonDisadvantages" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{6EFF4D94-3393-4282-B04D-B089D19495C2}" name="uncommonAdvantages" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{D350FF7F-C799-4DB8-9475-76B49505ABD6}" name="uncommonDisadvantages" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{B4F1794A-E7C4-468F-B8D8-970C354AABE6}" name="Tabelle19" displayName="Tabelle19" ref="A1:N28" totalsRowShown="0" headerRowDxfId="149">
   <autoFilter ref="A1:N28" xr:uid="{CF034C78-9071-47EC-AB34-3D606EE1BBA0}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17948,9 +18034,9 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{323211C5-81FD-41D0-9F64-A33241693AC3}" name="id" dataDxfId="140"/>
-    <tableColumn id="2" xr3:uid="{FDC1B446-D119-4AB0-BFD5-ACF6E75BA8A5}" name="name" dataDxfId="139"/>
-    <tableColumn id="3" xr3:uid="{92A07580-4496-4839-BDFD-3E1CD0593E78}" name="areaKnowledgeShort" dataDxfId="138"/>
+    <tableColumn id="1" xr3:uid="{323211C5-81FD-41D0-9F64-A33241693AC3}" name="id" dataDxfId="148"/>
+    <tableColumn id="2" xr3:uid="{FDC1B446-D119-4AB0-BFD5-ACF6E75BA8A5}" name="name" dataDxfId="147"/>
+    <tableColumn id="3" xr3:uid="{92A07580-4496-4839-BDFD-3E1CD0593E78}" name="areaKnowledgeShort" dataDxfId="146"/>
     <tableColumn id="4" xr3:uid="{44EF4FF0-9A41-48CA-BC45-CC1B1304A096}" name="areaKnowledge"/>
     <tableColumn id="5" xr3:uid="{3A9496F5-2D90-4F09-9E2B-F936A6E5B397}" name="commonMundaneProfessions"/>
     <tableColumn id="6" xr3:uid="{7D2183EE-15A4-4FF4-9222-723CACFF8CAA}" name="commonMagicProfessions"/>
@@ -17960,15 +18046,15 @@
     <tableColumn id="10" xr3:uid="{745A9F74-C60C-4CBC-9102-98FE33FC8526}" name="uncommonAdvantages"/>
     <tableColumn id="11" xr3:uid="{C1FC4429-9AFB-46A3-A828-99A029A30219}" name="uncommonDisadvantages"/>
     <tableColumn id="12" xr3:uid="{839A4140-773B-4A98-9156-075E987FA39A}" name="commonNames"/>
-    <tableColumn id="13" xr3:uid="{8C51E69A-3B2D-4662-B403-D59D4610C76D}" name="src" dataDxfId="137"/>
-    <tableColumn id="14" xr3:uid="{97CC4A8C-51FE-4061-B8D7-F1FAF5164DF8}" name="Spalte1" dataDxfId="136"/>
+    <tableColumn id="13" xr3:uid="{8C51E69A-3B2D-4662-B403-D59D4610C76D}" name="src" dataDxfId="145"/>
+    <tableColumn id="14" xr3:uid="{97CC4A8C-51FE-4061-B8D7-F1FAF5164DF8}" name="Spalte1" dataDxfId="144"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:G95" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:G95" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142">
   <autoFilter ref="A1:G95" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17979,20 +18065,20 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="133"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="name" dataDxfId="132"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="name_f" dataDxfId="131"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="subname" dataDxfId="130"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="subname_f" dataDxfId="129"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="req" dataDxfId="128"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="src" dataDxfId="127"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="name" dataDxfId="140"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="name_f" dataDxfId="139"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="subname" dataDxfId="138"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="subname_f" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="req" dataDxfId="136"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="src" dataDxfId="135"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
   <autoFilter ref="A1:E1048576" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -18001,18 +18087,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="124"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="name" dataDxfId="123"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="name_f" dataDxfId="122"/>
-    <tableColumn id="3" xr3:uid="{091296A4-103F-48ED-8EF3-B2FEB3C87545}" name="precedingText" dataDxfId="121"/>
-    <tableColumn id="4" xr3:uid="{7DC6E788-BCD5-45BD-8F54-8F4B65BB3D80}" name="concludingText" dataDxfId="120"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="name" dataDxfId="131"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="name_f" dataDxfId="130"/>
+    <tableColumn id="3" xr3:uid="{091296A4-103F-48ED-8EF3-B2FEB3C87545}" name="precedingText" dataDxfId="129"/>
+    <tableColumn id="4" xr3:uid="{7DC6E788-BCD5-45BD-8F54-8F4B65BB3D80}" name="concludingText" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabelle8" displayName="Tabelle8" ref="A1:I97" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabelle8" displayName="Tabelle8" ref="A1:I97" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
   <autoFilter ref="A1:I97" xr:uid="{00000000-0009-0000-0100-000008000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -18025,22 +18111,22 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="sel" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="input" dataDxfId="114"/>
-    <tableColumn id="3" xr3:uid="{FC12F253-0C6F-41DB-A81E-5F24F57A658C}" name="rules" dataDxfId="113"/>
-    <tableColumn id="4" xr3:uid="{9F2EBD4E-ECC0-424F-95F5-50EAA6F5B5E7}" name="range" dataDxfId="112"/>
-    <tableColumn id="5" xr3:uid="{5AA75D55-59D7-4B4E-80C4-4F96782BBC49}" name="actions" dataDxfId="111"/>
-    <tableColumn id="8" xr3:uid="{2B63ADF8-714C-413C-BCF7-BB6C618249AA}" name="apValue" dataDxfId="110"/>
-    <tableColumn id="9" xr3:uid="{49DA2457-D486-45F3-AE88-F580827EB701}" name="apValueAppend" dataDxfId="109"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="124"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="sel" dataDxfId="123"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="input" dataDxfId="122"/>
+    <tableColumn id="3" xr3:uid="{FC12F253-0C6F-41DB-A81E-5F24F57A658C}" name="rules" dataDxfId="121"/>
+    <tableColumn id="4" xr3:uid="{9F2EBD4E-ECC0-424F-95F5-50EAA6F5B5E7}" name="range" dataDxfId="120"/>
+    <tableColumn id="5" xr3:uid="{5AA75D55-59D7-4B4E-80C4-4F96782BBC49}" name="actions" dataDxfId="119"/>
+    <tableColumn id="8" xr3:uid="{2B63ADF8-714C-413C-BCF7-BB6C618249AA}" name="apValue" dataDxfId="118"/>
+    <tableColumn id="9" xr3:uid="{49DA2457-D486-45F3-AE88-F580827EB701}" name="apValueAppend" dataDxfId="117"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:I74" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:I74" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
   <autoFilter ref="A1:I74" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -18053,48 +18139,15 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="id" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="name" dataDxfId="105"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="sel" dataDxfId="104"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="input" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{C5214789-D9D9-4771-9706-EDB477595F41}" name="rules" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{2F14A9EB-F0B9-45C3-A8BF-5508A2BF2F22}" name="range" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{B50DBC4E-D373-4601-A386-FC91C8F2ED6F}" name="actions" dataDxfId="100"/>
-    <tableColumn id="8" xr3:uid="{7E9F07AC-3AE6-4DDB-8E2F-AC26B390C5D6}" name="apValue" dataDxfId="99"/>
-    <tableColumn id="9" xr3:uid="{6401E586-21B4-4C09-8B51-F19F7E31BF4F}" name="apValueAppend" dataDxfId="98"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
-  <autoFilter ref="A1:J60" xr:uid="{00000000-0009-0000-0100-000007000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-  </autoFilter>
-  <sortState ref="A2:D60">
-    <sortCondition ref="A1:A60"/>
-  </sortState>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="id" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="name" dataDxfId="94"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="spec" dataDxfId="93"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="spec_input" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="tools" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="quality" dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="failed" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="critical" dataDxfId="88"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="botch" dataDxfId="87"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="src" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="id" dataDxfId="114"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="name" dataDxfId="113"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="sel" dataDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="input" dataDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{C5214789-D9D9-4771-9706-EDB477595F41}" name="rules" dataDxfId="110"/>
+    <tableColumn id="4" xr3:uid="{2F14A9EB-F0B9-45C3-A8BF-5508A2BF2F22}" name="range" dataDxfId="109"/>
+    <tableColumn id="5" xr3:uid="{B50DBC4E-D373-4601-A386-FC91C8F2ED6F}" name="actions" dataDxfId="108"/>
+    <tableColumn id="8" xr3:uid="{7E9F07AC-3AE6-4DDB-8E2F-AC26B390C5D6}" name="apValue" dataDxfId="107"/>
+    <tableColumn id="9" xr3:uid="{6401E586-21B4-4C09-8B51-F19F7E31BF4F}" name="apValueAppend" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -18399,8 +18452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18551,6 +18604,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
@@ -20220,7 +20391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -20399,7 +20570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M234"/>
   <sheetViews>
@@ -29496,7 +29667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
@@ -30637,7 +30808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
@@ -38577,7 +38748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -38899,7 +39070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J664"/>
   <sheetViews>
@@ -44312,7 +44483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B111"/>
   <sheetViews>
@@ -45221,7 +45392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D76"/>
   <sheetViews>
@@ -45965,314 +46136,6 @@
       </c>
       <c r="B76" s="1" t="s">
         <v>1303</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:B36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="4.1328125" customWidth="1"/>
-    <col min="2" max="2" width="24.53125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1326</v>
       </c>
     </row>
   </sheetData>
@@ -46370,6 +46233,314 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.1328125" customWidth="1"/>
+    <col min="2" max="2" width="24.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:C466"/>
   <sheetViews>
@@ -51519,7 +51690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDF849A-84B1-4731-B5ED-CC1BDC8FBE84}">
   <dimension ref="A1:C577"/>
   <sheetViews>
@@ -57889,7 +58060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:B546"/>
   <sheetViews>
@@ -62282,23 +62453,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:K1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.6640625" style="1"/>
+    <col min="3" max="10" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -62341,7 +62507,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5284</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2693</v>
@@ -62355,19 +62521,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>5285</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2693</v>
+        <v>2717</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2720</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>2713</v>
+        <v>2721</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>165</v>
+        <v>2722</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2724</v>
       </c>
       <c r="K3" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -62375,13 +62556,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2693</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2726</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>2728</v>
+      </c>
       <c r="K4" s="1">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
@@ -62389,241 +62582,30 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2693</v>
+        <v>2729</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2731</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>2714</v>
+        <v>2732</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>2715</v>
+        <v>160</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>2734</v>
       </c>
       <c r="K5" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2693</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K6" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2693</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>2716</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K7" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2693</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>2716</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K8" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2717</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>2718</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>2719</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>2720</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>2721</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>2722</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>2723</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>2724</v>
-      </c>
-      <c r="K9" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2717</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2718</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>2719</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>2720</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>2721</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>2722</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>2723</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>2724</v>
-      </c>
-      <c r="K10" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2717</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2718</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>2719</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>2720</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>2721</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>2722</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>2723</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>2724</v>
-      </c>
-      <c r="K11" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2693</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>2725</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>2726</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>2727</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>2728</v>
-      </c>
-      <c r="K12" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2729</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>2730</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>2731</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>2732</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>2733</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>2734</v>
-      </c>
-      <c r="K13" s="1">
         <v>94</v>
       </c>
     </row>
@@ -62637,6 +62619,162 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083BD96D-43BC-4CEF-8439-DF499D6DDADF}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.73046875" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.9296875" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.796875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="20.59765625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="22.796875" style="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>2690</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>2691</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="44">
+        <v>1</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="44">
+        <v>2</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>2713</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="44">
+        <v>3</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="44">
+        <v>4</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>2714</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="44">
+        <v>5</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="44">
+        <v>6</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="44">
+        <v>7</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="44">
+        <v>8</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="44">
+        <v>9</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="44">
+        <v>10</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
@@ -63741,7 +63879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G95"/>
   <sheetViews>
@@ -65406,7 +65544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E162"/>
   <sheetViews>
@@ -67252,7 +67390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I97"/>
   <sheetViews>
@@ -68521,7 +68659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I74"/>
   <sheetViews>
@@ -69576,122 +69714,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="2.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>